--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghada.ragab\Downloads\follow -up link\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3241FD33-9E5A-42B0-B204-F85CBB8859CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Audit_Teams_Follow_Up" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Plan!$A$1:$G$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Team_Management!$A$1:$G$19</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2855" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2884" uniqueCount="860">
   <si>
     <t>Team No.</t>
   </si>
@@ -2977,13 +2976,46 @@
     <t>MENES-57</t>
   </si>
   <si>
-    <t>No Job</t>
+    <t>MENES-63</t>
+  </si>
+  <si>
+    <t>Mense</t>
+  </si>
+  <si>
+    <t>Bridge –1X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarek </t>
+  </si>
+  <si>
+    <t>MENES-58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3rd </t>
+  </si>
+  <si>
+    <t>FaghourS-8</t>
+  </si>
+  <si>
+    <t>Faghour</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>PTAH-47</t>
+  </si>
+  <si>
+    <t>PTAH</t>
+  </si>
+  <si>
+    <t>EDC-80</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yyyy;@"/>
@@ -4245,15 +4277,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Currency 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Currency 2" xfId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 2 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 2 2 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 2 2 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 2 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal 2 3 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normal 2 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Normal 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 2 2 2 2" xfId="4"/>
+    <cellStyle name="Normal 2 2 3" xfId="2"/>
+    <cellStyle name="Normal 2 2 4" xfId="5"/>
+    <cellStyle name="Normal 2 3" xfId="1"/>
+    <cellStyle name="Normal 2 3 3" xfId="6"/>
+    <cellStyle name="Normal 2 4" xfId="3"/>
+    <cellStyle name="Normal 3" xfId="8"/>
   </cellStyles>
   <dxfs count="1328">
     <dxf>
@@ -14982,26 +15014,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="9.85546875" style="1"/>
-    <col min="3" max="3" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="1"/>
-    <col min="8" max="8" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.85546875" style="1"/>
+    <col min="1" max="2" width="9.81640625" style="1"/>
+    <col min="3" max="3" width="20.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="1"/>
+    <col min="8" max="8" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -15027,41 +15059,83 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="F2" s="5">
+        <v>45165</v>
+      </c>
+      <c r="G2" s="3">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="F3" s="5">
+        <v>45165</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="4"/>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="F4" s="5">
+        <v>45165</v>
+      </c>
+      <c r="G4" s="3">
+        <v>7</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -15074,26 +15148,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="9.85546875" style="1"/>
-    <col min="3" max="3" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.81640625" style="1"/>
+    <col min="3" max="3" width="14.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.85546875" style="1"/>
+    <col min="9" max="16384" width="9.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -15119,17 +15193,33 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="D2" s="5">
+        <v>45080</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="214" t="s">
+        <v>817</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -15155,15 +15245,31 @@
         <v>846</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="D4" s="8">
+        <v>45084</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>856</v>
+      </c>
+      <c r="F4" s="214" t="s">
+        <v>817</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>858</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -15176,29 +15282,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I266"/>
   <sheetViews>
-    <sheetView zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="70" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="70" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="70" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" style="70" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="70" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="70" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="70" customWidth="1"/>
-    <col min="8" max="9" width="8.140625" style="70" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" style="70" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="70"/>
+    <col min="2" max="2" width="12.1796875" style="70" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" style="70" customWidth="1"/>
+    <col min="4" max="4" width="30.26953125" style="70" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="70" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" style="70" customWidth="1"/>
+    <col min="7" max="7" width="17.7265625" style="70" customWidth="1"/>
+    <col min="8" max="9" width="8.1796875" style="70" customWidth="1"/>
+    <col min="10" max="10" width="24.7265625" style="70" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="70" t="s">
         <v>51</v>
       </c>
@@ -15227,7 +15333,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>53</v>
       </c>
@@ -15256,7 +15362,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="112" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>82</v>
       </c>
@@ -15285,7 +15391,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="42" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>82</v>
       </c>
@@ -15314,7 +15420,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="285" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>83</v>
       </c>
@@ -15343,7 +15449,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>83</v>
       </c>
@@ -15372,7 +15478,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="232" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>83</v>
       </c>
@@ -15399,7 +15505,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="405" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>93</v>
       </c>
@@ -15428,7 +15534,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>117</v>
       </c>
@@ -15457,7 +15563,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>117</v>
       </c>
@@ -15486,7 +15592,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="300" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>117</v>
       </c>
@@ -15515,7 +15621,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="145" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>117</v>
       </c>
@@ -15544,7 +15650,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="203" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>117</v>
       </c>
@@ -15573,7 +15679,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>117</v>
       </c>
@@ -15602,7 +15708,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>117</v>
       </c>
@@ -15631,7 +15737,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>282</v>
       </c>
@@ -15660,7 +15766,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
         <v>143</v>
       </c>
@@ -15689,7 +15795,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>143</v>
       </c>
@@ -15718,7 +15824,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
         <v>143</v>
       </c>
@@ -15747,7 +15853,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
         <v>143</v>
       </c>
@@ -15776,7 +15882,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
         <v>143</v>
       </c>
@@ -15805,7 +15911,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
         <v>162</v>
       </c>
@@ -15834,7 +15940,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="285" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A23" s="14" t="s">
         <v>162</v>
       </c>
@@ -15863,7 +15969,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A24" s="14" t="s">
         <v>162</v>
       </c>
@@ -15892,7 +15998,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
         <v>162</v>
       </c>
@@ -15921,7 +16027,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
         <v>162</v>
       </c>
@@ -15950,7 +16056,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A27" s="14" t="s">
         <v>162</v>
       </c>
@@ -15977,7 +16083,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="14" t="s">
         <v>11</v>
       </c>
@@ -16006,7 +16112,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
         <v>173</v>
       </c>
@@ -16035,7 +16141,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="154" x14ac:dyDescent="0.35">
       <c r="A30" s="14" t="s">
         <v>173</v>
       </c>
@@ -16064,7 +16170,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="168" x14ac:dyDescent="0.35">
       <c r="A31" s="14" t="s">
         <v>174</v>
       </c>
@@ -16093,7 +16199,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="70" x14ac:dyDescent="0.35">
       <c r="A32" s="14" t="s">
         <v>174</v>
       </c>
@@ -16122,7 +16228,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="203" x14ac:dyDescent="0.35">
       <c r="A33" s="14" t="s">
         <v>174</v>
       </c>
@@ -16149,7 +16255,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="112" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
         <v>174</v>
       </c>
@@ -16176,7 +16282,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="14" t="s">
         <v>189</v>
       </c>
@@ -16205,7 +16311,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A36" s="14" t="s">
         <v>221</v>
       </c>
@@ -16234,7 +16340,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="232" x14ac:dyDescent="0.35">
       <c r="A37" s="14" t="s">
         <v>221</v>
       </c>
@@ -16263,7 +16369,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A38" s="14" t="s">
         <v>221</v>
       </c>
@@ -16292,7 +16398,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A39" s="14" t="s">
         <v>221</v>
       </c>
@@ -16321,7 +16427,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A40" s="14" t="s">
         <v>221</v>
       </c>
@@ -16350,7 +16456,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A41" s="14" t="s">
         <v>221</v>
       </c>
@@ -16379,7 +16485,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A42" s="14" t="s">
         <v>221</v>
       </c>
@@ -16408,7 +16514,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A43" s="14" t="s">
         <v>221</v>
       </c>
@@ -16437,7 +16543,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A44" s="14" t="s">
         <v>221</v>
       </c>
@@ -16466,7 +16572,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A45" s="14" t="s">
         <v>221</v>
       </c>
@@ -16495,7 +16601,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="270.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="252" x14ac:dyDescent="0.35">
       <c r="A46" s="14" t="s">
         <v>222</v>
       </c>
@@ -16524,7 +16630,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="256.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="238" x14ac:dyDescent="0.35">
       <c r="A47" s="14" t="s">
         <v>222</v>
       </c>
@@ -16553,7 +16659,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="114" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="98" x14ac:dyDescent="0.35">
       <c r="A48" s="14" t="s">
         <v>222</v>
       </c>
@@ -16580,7 +16686,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="114" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="98" x14ac:dyDescent="0.35">
       <c r="A49" s="14" t="s">
         <v>231</v>
       </c>
@@ -16607,7 +16713,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="56" x14ac:dyDescent="0.35">
       <c r="A50" s="14" t="s">
         <v>231</v>
       </c>
@@ -16636,7 +16742,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="98" x14ac:dyDescent="0.35">
       <c r="A51" s="14" t="s">
         <v>231</v>
       </c>
@@ -16663,7 +16769,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A52" s="14" t="s">
         <v>231</v>
       </c>
@@ -16692,7 +16798,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A53" s="14" t="s">
         <v>245</v>
       </c>
@@ -16721,7 +16827,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="70" x14ac:dyDescent="0.35">
       <c r="A54" s="14" t="s">
         <v>245</v>
       </c>
@@ -16750,7 +16856,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A55" s="14" t="s">
         <v>245</v>
       </c>
@@ -16777,7 +16883,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="70" x14ac:dyDescent="0.35">
       <c r="A56" s="14" t="s">
         <v>245</v>
       </c>
@@ -16804,7 +16910,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="84" x14ac:dyDescent="0.35">
       <c r="A57" s="14" t="s">
         <v>9</v>
       </c>
@@ -16833,7 +16939,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="56" x14ac:dyDescent="0.35">
       <c r="A58" s="14" t="s">
         <v>9</v>
       </c>
@@ -16862,7 +16968,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="84" x14ac:dyDescent="0.35">
       <c r="A59" s="14" t="s">
         <v>71</v>
       </c>
@@ -16891,7 +16997,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="70" x14ac:dyDescent="0.35">
       <c r="A60" s="14" t="s">
         <v>71</v>
       </c>
@@ -16920,7 +17026,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="98" x14ac:dyDescent="0.35">
       <c r="A61" s="14" t="s">
         <v>71</v>
       </c>
@@ -16949,7 +17055,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="315" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="266" x14ac:dyDescent="0.35">
       <c r="A62" s="14" t="s">
         <v>71</v>
       </c>
@@ -16978,7 +17084,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="126" x14ac:dyDescent="0.35">
       <c r="A63" s="14" t="s">
         <v>71</v>
       </c>
@@ -17007,7 +17113,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="345" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="294" x14ac:dyDescent="0.35">
       <c r="A64" s="14" t="s">
         <v>71</v>
       </c>
@@ -17036,7 +17142,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="102.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="98" x14ac:dyDescent="0.35">
       <c r="A65" s="14" t="s">
         <v>262</v>
       </c>
@@ -17065,7 +17171,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="70" x14ac:dyDescent="0.35">
       <c r="A66" s="14" t="s">
         <v>262</v>
       </c>
@@ -17094,7 +17200,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="70" x14ac:dyDescent="0.35">
       <c r="A67" s="14" t="s">
         <v>262</v>
       </c>
@@ -17123,7 +17229,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="56" x14ac:dyDescent="0.35">
       <c r="A68" s="14" t="s">
         <v>262</v>
       </c>
@@ -17152,7 +17258,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A69" s="14" t="s">
         <v>262</v>
       </c>
@@ -17181,7 +17287,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="145" x14ac:dyDescent="0.35">
       <c r="A70" s="14" t="s">
         <v>262</v>
       </c>
@@ -17208,7 +17314,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A71" s="14" t="s">
         <v>287</v>
       </c>
@@ -17237,7 +17343,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A72" s="14" t="s">
         <v>289</v>
       </c>
@@ -17266,7 +17372,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="87" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="70" x14ac:dyDescent="0.35">
       <c r="A73" s="14" t="s">
         <v>292</v>
       </c>
@@ -17295,7 +17401,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="145" x14ac:dyDescent="0.35">
       <c r="A74" s="14" t="s">
         <v>292</v>
       </c>
@@ -17322,7 +17428,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="140" x14ac:dyDescent="0.35">
       <c r="A75" s="14" t="s">
         <v>299</v>
       </c>
@@ -17349,7 +17455,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" s="14" t="s">
         <v>300</v>
       </c>
@@ -17378,7 +17484,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="126" x14ac:dyDescent="0.35">
       <c r="A77" s="14" t="s">
         <v>303</v>
       </c>
@@ -17405,7 +17511,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="70" x14ac:dyDescent="0.35">
       <c r="A78" s="14" t="s">
         <v>303</v>
       </c>
@@ -17434,7 +17540,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="196" x14ac:dyDescent="0.35">
       <c r="A79" s="14" t="s">
         <v>303</v>
       </c>
@@ -17461,7 +17567,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="84" x14ac:dyDescent="0.35">
       <c r="A80" s="14" t="s">
         <v>303</v>
       </c>
@@ -17488,7 +17594,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="70" x14ac:dyDescent="0.35">
       <c r="A81" s="14" t="s">
         <v>312</v>
       </c>
@@ -17517,7 +17623,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="185" x14ac:dyDescent="0.35">
       <c r="A82" s="14" t="s">
         <v>312</v>
       </c>
@@ -17546,7 +17652,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="270.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="252" x14ac:dyDescent="0.35">
       <c r="A83" s="14" t="s">
         <v>312</v>
       </c>
@@ -17573,7 +17679,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="14" t="s">
         <v>323</v>
       </c>
@@ -17602,7 +17708,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="187.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="154" x14ac:dyDescent="0.35">
       <c r="A85" s="14" t="s">
         <v>324</v>
       </c>
@@ -17631,7 +17737,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="112" x14ac:dyDescent="0.35">
       <c r="A86" s="14" t="s">
         <v>324</v>
       </c>
@@ -17660,7 +17766,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="130.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="127" x14ac:dyDescent="0.35">
       <c r="A87" s="14" t="s">
         <v>324</v>
       </c>
@@ -17689,7 +17795,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="126" x14ac:dyDescent="0.35">
       <c r="A88" s="14" t="s">
         <v>324</v>
       </c>
@@ -17718,7 +17824,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="42" x14ac:dyDescent="0.35">
       <c r="A89" s="14" t="s">
         <v>324</v>
       </c>
@@ -17747,7 +17853,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="219.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="196" x14ac:dyDescent="0.35">
       <c r="A90" s="14" t="s">
         <v>324</v>
       </c>
@@ -17776,7 +17882,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="168" x14ac:dyDescent="0.35">
       <c r="A91" s="14" t="s">
         <v>324</v>
       </c>
@@ -17803,7 +17909,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="56" x14ac:dyDescent="0.35">
       <c r="A92" s="14" t="s">
         <v>324</v>
       </c>
@@ -17832,7 +17938,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="28" x14ac:dyDescent="0.35">
       <c r="A93" s="14" t="s">
         <v>345</v>
       </c>
@@ -17861,7 +17967,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="84" x14ac:dyDescent="0.35">
       <c r="A94" s="14" t="s">
         <v>345</v>
       </c>
@@ -17890,7 +17996,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="70" x14ac:dyDescent="0.35">
       <c r="A95" s="14" t="s">
         <v>345</v>
       </c>
@@ -17919,7 +18025,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="70" x14ac:dyDescent="0.35">
       <c r="A96" s="14" t="s">
         <v>345</v>
       </c>
@@ -17948,7 +18054,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="42" x14ac:dyDescent="0.35">
       <c r="A97" s="14" t="s">
         <v>345</v>
       </c>
@@ -17977,7 +18083,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="56" x14ac:dyDescent="0.35">
       <c r="A98" s="14" t="s">
         <v>345</v>
       </c>
@@ -18006,7 +18112,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="126" x14ac:dyDescent="0.35">
       <c r="A99" s="14" t="s">
         <v>345</v>
       </c>
@@ -18035,7 +18141,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="174" x14ac:dyDescent="0.35">
       <c r="A100" s="14" t="s">
         <v>345</v>
       </c>
@@ -18062,7 +18168,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="174" x14ac:dyDescent="0.35">
       <c r="A101" s="14" t="s">
         <v>345</v>
       </c>
@@ -18089,7 +18195,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="84" x14ac:dyDescent="0.35">
       <c r="A102" s="14" t="s">
         <v>345</v>
       </c>
@@ -18116,7 +18222,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="228" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="210" x14ac:dyDescent="0.35">
       <c r="A103" s="14" t="s">
         <v>345</v>
       </c>
@@ -18143,7 +18249,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="14" t="s">
         <v>8</v>
       </c>
@@ -18172,7 +18278,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="70" x14ac:dyDescent="0.35">
       <c r="A105" s="14" t="s">
         <v>373</v>
       </c>
@@ -18199,7 +18305,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="228" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="224" x14ac:dyDescent="0.35">
       <c r="A106" s="14" t="s">
         <v>373</v>
       </c>
@@ -18228,7 +18334,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A107" s="14" t="s">
         <v>373</v>
       </c>
@@ -18255,7 +18361,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A108" s="14" t="s">
         <v>373</v>
       </c>
@@ -18282,7 +18388,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="171" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="154" x14ac:dyDescent="0.35">
       <c r="A109" s="14" t="s">
         <v>373</v>
       </c>
@@ -18309,7 +18415,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="70" x14ac:dyDescent="0.35">
       <c r="A110" s="14" t="s">
         <v>373</v>
       </c>
@@ -18336,7 +18442,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="84" x14ac:dyDescent="0.35">
       <c r="A111" s="14" t="s">
         <v>389</v>
       </c>
@@ -18365,7 +18471,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="98" x14ac:dyDescent="0.35">
       <c r="A112" s="14" t="s">
         <v>389</v>
       </c>
@@ -18394,7 +18500,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="112" x14ac:dyDescent="0.35">
       <c r="A113" s="14" t="s">
         <v>393</v>
       </c>
@@ -18423,7 +18529,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A114" s="14" t="s">
         <v>393</v>
       </c>
@@ -18452,7 +18558,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="140" x14ac:dyDescent="0.35">
       <c r="A115" s="14" t="s">
         <v>393</v>
       </c>
@@ -18481,7 +18587,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="112" x14ac:dyDescent="0.35">
       <c r="A116" s="14" t="s">
         <v>393</v>
       </c>
@@ -18510,7 +18616,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="42" x14ac:dyDescent="0.35">
       <c r="A117" s="14" t="s">
         <v>393</v>
       </c>
@@ -18539,7 +18645,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A118" s="14" t="s">
         <v>393</v>
       </c>
@@ -18566,7 +18672,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="145" x14ac:dyDescent="0.35">
       <c r="A119" s="14" t="s">
         <v>393</v>
       </c>
@@ -18593,7 +18699,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A120" s="14" t="s">
         <v>393</v>
       </c>
@@ -18620,7 +18726,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="360" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="319" x14ac:dyDescent="0.35">
       <c r="A121" s="14" t="s">
         <v>393</v>
       </c>
@@ -18647,7 +18753,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="84" x14ac:dyDescent="0.35">
       <c r="A122" s="14" t="s">
         <v>393</v>
       </c>
@@ -18674,7 +18780,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="114" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="112" x14ac:dyDescent="0.35">
       <c r="A123" s="14" t="s">
         <v>393</v>
       </c>
@@ -18701,7 +18807,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A124" s="14" t="s">
         <v>430</v>
       </c>
@@ -18730,7 +18836,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="56" x14ac:dyDescent="0.35">
       <c r="A125" s="14" t="s">
         <v>549</v>
       </c>
@@ -18759,7 +18865,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="70" x14ac:dyDescent="0.35">
       <c r="A126" s="14" t="s">
         <v>549</v>
       </c>
@@ -18788,7 +18894,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="56" x14ac:dyDescent="0.35">
       <c r="A127" s="14" t="s">
         <v>549</v>
       </c>
@@ -18817,7 +18923,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="70" x14ac:dyDescent="0.35">
       <c r="A128" s="14" t="s">
         <v>549</v>
       </c>
@@ -18846,7 +18952,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="56" x14ac:dyDescent="0.35">
       <c r="A129" s="14" t="s">
         <v>549</v>
       </c>
@@ -18875,7 +18981,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="56" x14ac:dyDescent="0.35">
       <c r="A130" s="14" t="s">
         <v>549</v>
       </c>
@@ -18904,7 +19010,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="299.25" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="280" x14ac:dyDescent="0.35">
       <c r="A131" s="14" t="s">
         <v>549</v>
       </c>
@@ -18933,7 +19039,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="56" x14ac:dyDescent="0.35">
       <c r="A132" s="14" t="s">
         <v>549</v>
       </c>
@@ -18962,7 +19068,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="168" x14ac:dyDescent="0.35">
       <c r="A133" s="14" t="s">
         <v>549</v>
       </c>
@@ -18991,7 +19097,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="70" x14ac:dyDescent="0.35">
       <c r="A134" s="14" t="s">
         <v>549</v>
       </c>
@@ -19020,7 +19126,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="70" x14ac:dyDescent="0.35">
       <c r="A135" s="14" t="s">
         <v>549</v>
       </c>
@@ -19049,7 +19155,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="70" x14ac:dyDescent="0.35">
       <c r="A136" s="14" t="s">
         <v>549</v>
       </c>
@@ -19078,7 +19184,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="70" x14ac:dyDescent="0.35">
       <c r="A137" s="14" t="s">
         <v>549</v>
       </c>
@@ -19107,7 +19213,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="70" x14ac:dyDescent="0.35">
       <c r="A138" s="14" t="s">
         <v>549</v>
       </c>
@@ -19136,7 +19242,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="98" x14ac:dyDescent="0.35">
       <c r="A139" s="14" t="s">
         <v>549</v>
       </c>
@@ -19165,7 +19271,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="70" x14ac:dyDescent="0.35">
       <c r="A140" s="14" t="s">
         <v>549</v>
       </c>
@@ -19194,7 +19300,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="70" x14ac:dyDescent="0.35">
       <c r="A141" s="14" t="s">
         <v>549</v>
       </c>
@@ -19223,7 +19329,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="98" x14ac:dyDescent="0.35">
       <c r="A142" s="14" t="s">
         <v>549</v>
       </c>
@@ -19252,7 +19358,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="98" x14ac:dyDescent="0.35">
       <c r="A143" s="14" t="s">
         <v>549</v>
       </c>
@@ -19281,7 +19387,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="56" x14ac:dyDescent="0.35">
       <c r="A144" s="14" t="s">
         <v>549</v>
       </c>
@@ -19310,7 +19416,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" ht="56" x14ac:dyDescent="0.35">
       <c r="A145" s="14" t="s">
         <v>549</v>
       </c>
@@ -19339,7 +19445,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="56" x14ac:dyDescent="0.35">
       <c r="A146" s="14" t="s">
         <v>549</v>
       </c>
@@ -19368,7 +19474,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="42" x14ac:dyDescent="0.35">
       <c r="A147" s="14" t="s">
         <v>549</v>
       </c>
@@ -19397,7 +19503,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="56" x14ac:dyDescent="0.35">
       <c r="A148" s="14" t="s">
         <v>549</v>
       </c>
@@ -19426,7 +19532,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" ht="70" x14ac:dyDescent="0.35">
       <c r="A149" s="14" t="s">
         <v>549</v>
       </c>
@@ -19455,7 +19561,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" ht="56" x14ac:dyDescent="0.35">
       <c r="A150" s="14" t="s">
         <v>549</v>
       </c>
@@ -19484,7 +19590,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" ht="42" x14ac:dyDescent="0.35">
       <c r="A151" s="14" t="s">
         <v>549</v>
       </c>
@@ -19513,7 +19619,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" ht="42" x14ac:dyDescent="0.35">
       <c r="A152" s="14" t="s">
         <v>549</v>
       </c>
@@ -19542,7 +19648,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" ht="28" x14ac:dyDescent="0.35">
       <c r="A153" s="14" t="s">
         <v>549</v>
       </c>
@@ -19571,7 +19677,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="42" x14ac:dyDescent="0.35">
       <c r="A154" s="14" t="s">
         <v>549</v>
       </c>
@@ -19600,7 +19706,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="42" x14ac:dyDescent="0.35">
       <c r="A155" s="14" t="s">
         <v>549</v>
       </c>
@@ -19629,7 +19735,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="42" x14ac:dyDescent="0.35">
       <c r="A156" s="14" t="s">
         <v>549</v>
       </c>
@@ -19658,7 +19764,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="56" x14ac:dyDescent="0.35">
       <c r="A157" s="14" t="s">
         <v>549</v>
       </c>
@@ -19687,7 +19793,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" ht="56" x14ac:dyDescent="0.35">
       <c r="A158" s="14" t="s">
         <v>549</v>
       </c>
@@ -19716,7 +19822,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="56" x14ac:dyDescent="0.35">
       <c r="A159" s="14" t="s">
         <v>549</v>
       </c>
@@ -19745,7 +19851,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" ht="42" x14ac:dyDescent="0.35">
       <c r="A160" s="14" t="s">
         <v>549</v>
       </c>
@@ -19774,7 +19880,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" ht="56" x14ac:dyDescent="0.35">
       <c r="A161" s="14" t="s">
         <v>549</v>
       </c>
@@ -19803,7 +19909,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" ht="56" x14ac:dyDescent="0.35">
       <c r="A162" s="14" t="s">
         <v>549</v>
       </c>
@@ -19832,7 +19938,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" ht="56" x14ac:dyDescent="0.35">
       <c r="A163" s="14" t="s">
         <v>549</v>
       </c>
@@ -19861,7 +19967,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" ht="42" x14ac:dyDescent="0.35">
       <c r="A164" s="14" t="s">
         <v>549</v>
       </c>
@@ -19890,7 +19996,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" ht="140" x14ac:dyDescent="0.35">
       <c r="A165" s="14" t="s">
         <v>549</v>
       </c>
@@ -19919,7 +20025,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" ht="70" x14ac:dyDescent="0.35">
       <c r="A166" s="14" t="s">
         <v>549</v>
       </c>
@@ -19948,7 +20054,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" ht="140" x14ac:dyDescent="0.35">
       <c r="A167" s="14" t="s">
         <v>549</v>
       </c>
@@ -19977,7 +20083,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" ht="42" x14ac:dyDescent="0.35">
       <c r="A168" s="14" t="s">
         <v>549</v>
       </c>
@@ -20006,7 +20112,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" ht="42" x14ac:dyDescent="0.35">
       <c r="A169" s="14" t="s">
         <v>549</v>
       </c>
@@ -20035,7 +20141,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="114" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" ht="112" x14ac:dyDescent="0.35">
       <c r="A170" s="14" t="s">
         <v>557</v>
       </c>
@@ -20064,7 +20170,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="114" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" ht="112" x14ac:dyDescent="0.35">
       <c r="A171" s="14" t="s">
         <v>557</v>
       </c>
@@ -20093,7 +20199,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="171" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" ht="154" x14ac:dyDescent="0.35">
       <c r="A172" s="14" t="s">
         <v>557</v>
       </c>
@@ -20122,7 +20228,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" ht="56" x14ac:dyDescent="0.35">
       <c r="A173" s="14" t="s">
         <v>557</v>
       </c>
@@ -20151,7 +20257,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" ht="112" x14ac:dyDescent="0.35">
       <c r="A174" s="14" t="s">
         <v>557</v>
       </c>
@@ -20180,7 +20286,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" ht="98" x14ac:dyDescent="0.35">
       <c r="A175" s="14" t="s">
         <v>557</v>
       </c>
@@ -20209,7 +20315,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" ht="126" x14ac:dyDescent="0.35">
       <c r="A176" s="14" t="s">
         <v>557</v>
       </c>
@@ -20238,7 +20344,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="114" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" ht="112" x14ac:dyDescent="0.35">
       <c r="A177" s="14" t="s">
         <v>557</v>
       </c>
@@ -20265,7 +20371,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" ht="70" x14ac:dyDescent="0.35">
       <c r="A178" s="14" t="s">
         <v>557</v>
       </c>
@@ -20292,7 +20398,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" ht="42" x14ac:dyDescent="0.35">
       <c r="A179" s="14" t="s">
         <v>586</v>
       </c>
@@ -20321,7 +20427,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" ht="42" x14ac:dyDescent="0.35">
       <c r="A180" s="14" t="s">
         <v>586</v>
       </c>
@@ -20350,7 +20456,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" ht="56" x14ac:dyDescent="0.35">
       <c r="A181" s="14" t="s">
         <v>586</v>
       </c>
@@ -20379,7 +20485,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" ht="182" x14ac:dyDescent="0.35">
       <c r="A182" s="14" t="s">
         <v>586</v>
       </c>
@@ -20408,7 +20514,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" ht="84" x14ac:dyDescent="0.35">
       <c r="A183" s="14" t="s">
         <v>586</v>
       </c>
@@ -20437,7 +20543,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" ht="70" x14ac:dyDescent="0.35">
       <c r="A184" s="14" t="s">
         <v>586</v>
       </c>
@@ -20466,7 +20572,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" ht="112" x14ac:dyDescent="0.35">
       <c r="A185" s="14" t="s">
         <v>586</v>
       </c>
@@ -20495,7 +20601,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="114" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" ht="112" x14ac:dyDescent="0.35">
       <c r="A186" s="14" t="s">
         <v>586</v>
       </c>
@@ -20524,7 +20630,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" ht="42" x14ac:dyDescent="0.35">
       <c r="A187" s="14" t="s">
         <v>586</v>
       </c>
@@ -20553,7 +20659,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="194.25" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" ht="140" x14ac:dyDescent="0.35">
       <c r="A188" s="14" t="s">
         <v>586</v>
       </c>
@@ -20582,7 +20688,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" ht="84" x14ac:dyDescent="0.35">
       <c r="A189" s="14" t="s">
         <v>586</v>
       </c>
@@ -20611,7 +20717,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" ht="84" x14ac:dyDescent="0.35">
       <c r="A190" s="14" t="s">
         <v>586</v>
       </c>
@@ -20640,7 +20746,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" ht="56" x14ac:dyDescent="0.35">
       <c r="A191" s="14" t="s">
         <v>586</v>
       </c>
@@ -20669,7 +20775,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" ht="70" x14ac:dyDescent="0.35">
       <c r="A192" s="14" t="s">
         <v>586</v>
       </c>
@@ -20698,7 +20804,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" ht="70" x14ac:dyDescent="0.35">
       <c r="A193" s="14" t="s">
         <v>586</v>
       </c>
@@ -20727,7 +20833,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A194" s="14" t="s">
         <v>586</v>
       </c>
@@ -20754,7 +20860,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A195" s="14" t="s">
         <v>586</v>
       </c>
@@ -20781,7 +20887,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A196" s="14" t="s">
         <v>586</v>
       </c>
@@ -20808,7 +20914,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A197" s="14" t="s">
         <v>586</v>
       </c>
@@ -20835,7 +20941,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A198" s="14" t="s">
         <v>586</v>
       </c>
@@ -20862,7 +20968,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" ht="56" x14ac:dyDescent="0.35">
       <c r="A199" s="14" t="s">
         <v>703</v>
       </c>
@@ -20891,7 +20997,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" ht="98" x14ac:dyDescent="0.35">
       <c r="A200" s="14" t="s">
         <v>703</v>
       </c>
@@ -20920,7 +21026,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" ht="42" x14ac:dyDescent="0.35">
       <c r="A201" s="14" t="s">
         <v>703</v>
       </c>
@@ -20949,7 +21055,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" ht="70" x14ac:dyDescent="0.35">
       <c r="A202" s="14" t="s">
         <v>703</v>
       </c>
@@ -20978,7 +21084,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" ht="42" x14ac:dyDescent="0.35">
       <c r="A203" s="14" t="s">
         <v>703</v>
       </c>
@@ -21007,7 +21113,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" ht="42" x14ac:dyDescent="0.35">
       <c r="A204" s="14" t="s">
         <v>703</v>
       </c>
@@ -21036,7 +21142,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" ht="56" x14ac:dyDescent="0.35">
       <c r="A205" s="14" t="s">
         <v>703</v>
       </c>
@@ -21065,7 +21171,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" ht="42" x14ac:dyDescent="0.35">
       <c r="A206" s="14" t="s">
         <v>703</v>
       </c>
@@ -21094,7 +21200,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" ht="126" x14ac:dyDescent="0.35">
       <c r="A207" s="14" t="s">
         <v>703</v>
       </c>
@@ -21123,7 +21229,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" ht="70" x14ac:dyDescent="0.35">
       <c r="A208" s="14" t="s">
         <v>703</v>
       </c>
@@ -21152,7 +21258,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" ht="98" x14ac:dyDescent="0.35">
       <c r="A209" s="14" t="s">
         <v>703</v>
       </c>
@@ -21181,7 +21287,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" ht="70" x14ac:dyDescent="0.35">
       <c r="A210" s="14" t="s">
         <v>703</v>
       </c>
@@ -21210,7 +21316,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" ht="168" x14ac:dyDescent="0.35">
       <c r="A211" s="14" t="s">
         <v>703</v>
       </c>
@@ -21239,7 +21345,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" ht="168" x14ac:dyDescent="0.35">
       <c r="A212" s="14" t="s">
         <v>703</v>
       </c>
@@ -21268,7 +21374,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" ht="98" x14ac:dyDescent="0.35">
       <c r="A213" s="14" t="s">
         <v>703</v>
       </c>
@@ -21297,7 +21403,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" ht="70" x14ac:dyDescent="0.35">
       <c r="A214" s="14" t="s">
         <v>703</v>
       </c>
@@ -21326,7 +21432,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" ht="98" x14ac:dyDescent="0.35">
       <c r="A215" s="14" t="s">
         <v>703</v>
       </c>
@@ -21355,7 +21461,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" ht="168" x14ac:dyDescent="0.35">
       <c r="A216" s="14" t="s">
         <v>703</v>
       </c>
@@ -21384,7 +21490,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" ht="112" x14ac:dyDescent="0.35">
       <c r="A217" s="14" t="s">
         <v>703</v>
       </c>
@@ -21413,7 +21519,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" ht="42" x14ac:dyDescent="0.35">
       <c r="A218" s="14" t="s">
         <v>703</v>
       </c>
@@ -21442,7 +21548,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" ht="56" x14ac:dyDescent="0.35">
       <c r="A219" s="14" t="s">
         <v>703</v>
       </c>
@@ -21471,7 +21577,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" ht="224" x14ac:dyDescent="0.35">
       <c r="A220" s="14" t="s">
         <v>703</v>
       </c>
@@ -21500,7 +21606,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" ht="70" x14ac:dyDescent="0.35">
       <c r="A221" s="14" t="s">
         <v>703</v>
       </c>
@@ -21529,7 +21635,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" ht="56" x14ac:dyDescent="0.35">
       <c r="A222" s="14" t="s">
         <v>763</v>
       </c>
@@ -21558,7 +21664,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" ht="56" x14ac:dyDescent="0.35">
       <c r="A223" s="14" t="s">
         <v>763</v>
       </c>
@@ -21587,7 +21693,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="114" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" ht="98" x14ac:dyDescent="0.35">
       <c r="A224" s="14" t="s">
         <v>763</v>
       </c>
@@ -21616,7 +21722,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" ht="84" x14ac:dyDescent="0.35">
       <c r="A225" s="14" t="s">
         <v>763</v>
       </c>
@@ -21645,7 +21751,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" ht="70" x14ac:dyDescent="0.35">
       <c r="A226" s="14" t="s">
         <v>763</v>
       </c>
@@ -21674,7 +21780,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" ht="84" x14ac:dyDescent="0.35">
       <c r="A227" s="14" t="s">
         <v>763</v>
       </c>
@@ -21703,7 +21809,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" ht="28" x14ac:dyDescent="0.35">
       <c r="A228" s="14" t="s">
         <v>763</v>
       </c>
@@ -21732,7 +21838,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A229" s="14" t="s">
         <v>763</v>
       </c>
@@ -21761,7 +21867,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="114" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" ht="98" x14ac:dyDescent="0.35">
       <c r="A230" s="14" t="s">
         <v>763</v>
       </c>
@@ -21790,7 +21896,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" ht="98" x14ac:dyDescent="0.35">
       <c r="A231" s="14" t="s">
         <v>763</v>
       </c>
@@ -21819,7 +21925,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" ht="126" x14ac:dyDescent="0.35">
       <c r="A232" s="14" t="s">
         <v>763</v>
       </c>
@@ -21848,7 +21954,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="313.5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" ht="280" x14ac:dyDescent="0.35">
       <c r="A233" s="14" t="s">
         <v>763</v>
       </c>
@@ -21877,7 +21983,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" ht="70" x14ac:dyDescent="0.35">
       <c r="A234" s="14" t="s">
         <v>763</v>
       </c>
@@ -21906,7 +22012,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" ht="84" x14ac:dyDescent="0.35">
       <c r="A235" s="14" t="s">
         <v>763</v>
       </c>
@@ -21935,7 +22041,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" ht="56" x14ac:dyDescent="0.35">
       <c r="A236" s="14" t="s">
         <v>763</v>
       </c>
@@ -21964,7 +22070,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" ht="70" x14ac:dyDescent="0.35">
       <c r="A237" s="14" t="s">
         <v>763</v>
       </c>
@@ -21993,7 +22099,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="171" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" ht="168" x14ac:dyDescent="0.35">
       <c r="A238" s="14" t="s">
         <v>763</v>
       </c>
@@ -22022,7 +22128,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" ht="112" x14ac:dyDescent="0.35">
       <c r="A239" s="14" t="s">
         <v>763</v>
       </c>
@@ -22051,7 +22157,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" ht="126" x14ac:dyDescent="0.35">
       <c r="A240" s="14" t="s">
         <v>763</v>
       </c>
@@ -22080,7 +22186,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A241" s="14" t="s">
         <v>763</v>
       </c>
@@ -22109,7 +22215,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="114" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" ht="98" x14ac:dyDescent="0.35">
       <c r="A242" s="14" t="s">
         <v>763</v>
       </c>
@@ -22138,7 +22244,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" ht="42" x14ac:dyDescent="0.35">
       <c r="A243" s="14" t="s">
         <v>763</v>
       </c>
@@ -22167,7 +22273,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" ht="84" x14ac:dyDescent="0.35">
       <c r="A244" s="14" t="s">
         <v>768</v>
       </c>
@@ -22196,7 +22302,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" ht="98" x14ac:dyDescent="0.35">
       <c r="A245" s="14" t="s">
         <v>768</v>
       </c>
@@ -22225,7 +22331,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" ht="42" x14ac:dyDescent="0.35">
       <c r="A246" s="14" t="s">
         <v>768</v>
       </c>
@@ -22252,7 +22358,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A247" s="14" t="s">
         <v>768</v>
       </c>
@@ -22279,7 +22385,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" ht="154" x14ac:dyDescent="0.35">
       <c r="A248" s="14" t="s">
         <v>768</v>
       </c>
@@ -22306,7 +22412,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="14" t="s">
         <v>768</v>
       </c>
@@ -22333,7 +22439,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" ht="84" x14ac:dyDescent="0.35">
       <c r="A250" s="70" t="s">
         <v>19</v>
       </c>
@@ -22362,7 +22468,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" ht="154" x14ac:dyDescent="0.35">
       <c r="A251" s="70" t="s">
         <v>19</v>
       </c>
@@ -22391,7 +22497,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" ht="70" x14ac:dyDescent="0.35">
       <c r="A252" s="70" t="s">
         <v>19</v>
       </c>
@@ -22420,7 +22526,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" ht="84" x14ac:dyDescent="0.35">
       <c r="A253" s="70" t="s">
         <v>19</v>
       </c>
@@ -22449,7 +22555,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" ht="56" x14ac:dyDescent="0.35">
       <c r="A254" s="70" t="s">
         <v>19</v>
       </c>
@@ -22478,7 +22584,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" ht="70" x14ac:dyDescent="0.35">
       <c r="A255" s="70" t="s">
         <v>19</v>
       </c>
@@ -22507,7 +22613,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="256" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" ht="182" x14ac:dyDescent="0.35">
       <c r="A256" s="70" t="s">
         <v>19</v>
       </c>
@@ -22536,7 +22642,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="257" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" ht="56" x14ac:dyDescent="0.35">
       <c r="A257" s="70" t="s">
         <v>19</v>
       </c>
@@ -22565,7 +22671,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" ht="84" x14ac:dyDescent="0.35">
       <c r="A258" s="70" t="s">
         <v>19</v>
       </c>
@@ -22594,7 +22700,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" ht="84" x14ac:dyDescent="0.35">
       <c r="A259" s="70" t="s">
         <v>19</v>
       </c>
@@ -22623,7 +22729,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="260" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" ht="84" x14ac:dyDescent="0.35">
       <c r="A260" s="70" t="s">
         <v>19</v>
       </c>
@@ -22652,7 +22758,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="261" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A261" s="70" t="s">
         <v>93</v>
       </c>
@@ -22681,7 +22787,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" ht="70" x14ac:dyDescent="0.35">
       <c r="A262" s="70" t="s">
         <v>93</v>
       </c>
@@ -22710,7 +22816,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="263" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" ht="84" x14ac:dyDescent="0.35">
       <c r="A263" s="70" t="s">
         <v>174</v>
       </c>
@@ -22739,7 +22845,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="264" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" ht="42" x14ac:dyDescent="0.35">
       <c r="A264" s="70" t="s">
         <v>174</v>
       </c>
@@ -22768,7 +22874,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="265" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" ht="70" x14ac:dyDescent="0.35">
       <c r="A265" s="70" t="s">
         <v>174</v>
       </c>
@@ -22797,7 +22903,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B266" s="29"/>
       <c r="C266" s="29"/>
       <c r="D266" s="223"/>
@@ -22806,7 +22912,7 @@
       <c r="G266" s="224"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I265" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:I265"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G59">
     <cfRule type="containsText" dxfId="1327" priority="1453" operator="containsText" text="0">
@@ -28264,51 +28370,51 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -28322,24 +28428,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C162"/>
   <sheetViews>
     <sheetView topLeftCell="A143" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C161" sqref="C161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="174" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="70"/>
-    <col min="5" max="5" width="24.7109375" style="70" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="70"/>
+    <col min="2" max="2" width="8.1796875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" style="174" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="70"/>
+    <col min="5" max="5" width="24.7265625" style="70" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="70" t="s">
         <v>51</v>
       </c>
@@ -28350,7 +28456,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="170" t="s">
         <v>345</v>
       </c>
@@ -28361,7 +28467,7 @@
         <v>44236</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="170" t="s">
         <v>324</v>
       </c>
@@ -28372,7 +28478,7 @@
         <v>44272</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="170" t="s">
         <v>231</v>
       </c>
@@ -28383,7 +28489,7 @@
         <v>44274</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="170" t="s">
         <v>9</v>
       </c>
@@ -28394,7 +28500,7 @@
         <v>44307</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="170" t="s">
         <v>93</v>
       </c>
@@ -28405,7 +28511,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="170" t="s">
         <v>222</v>
       </c>
@@ -28416,7 +28522,7 @@
         <v>44315</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="170" t="s">
         <v>393</v>
       </c>
@@ -28427,7 +28533,7 @@
         <v>44331</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="170" t="s">
         <v>221</v>
       </c>
@@ -28438,7 +28544,7 @@
         <v>44336</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="170" t="s">
         <v>373</v>
       </c>
@@ -28449,7 +28555,7 @@
         <v>44338</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="170" t="s">
         <v>303</v>
       </c>
@@ -28460,7 +28566,7 @@
         <v>44345</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="170" t="s">
         <v>117</v>
       </c>
@@ -28471,7 +28577,7 @@
         <v>44347</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="170" t="s">
         <v>389</v>
       </c>
@@ -28482,7 +28588,7 @@
         <v>44347</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="170" t="s">
         <v>312</v>
       </c>
@@ -28493,7 +28599,7 @@
         <v>44348</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="170" t="s">
         <v>245</v>
       </c>
@@ -28504,7 +28610,7 @@
         <v>44370</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="170" t="s">
         <v>189</v>
       </c>
@@ -28515,7 +28621,7 @@
         <v>44378</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="170" t="s">
         <v>143</v>
       </c>
@@ -28526,7 +28632,7 @@
         <v>44379</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="170" t="s">
         <v>323</v>
       </c>
@@ -28537,7 +28643,7 @@
         <v>44389</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="170" t="s">
         <v>300</v>
       </c>
@@ -28548,7 +28654,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="170" t="s">
         <v>557</v>
       </c>
@@ -28559,7 +28665,7 @@
         <v>44426</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="170" t="s">
         <v>292</v>
       </c>
@@ -28570,7 +28676,7 @@
         <v>44455</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
         <v>289</v>
       </c>
@@ -28581,7 +28687,7 @@
         <v>44461</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="170" t="s">
         <v>162</v>
       </c>
@@ -28592,7 +28698,7 @@
         <v>44483</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="180" t="s">
         <v>174</v>
       </c>
@@ -28603,7 +28709,7 @@
         <v>44483</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="170" t="s">
         <v>8</v>
       </c>
@@ -28614,7 +28720,7 @@
         <v>44504</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="186" t="s">
         <v>11</v>
       </c>
@@ -28625,7 +28731,7 @@
         <v>44509</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="170" t="s">
         <v>393</v>
       </c>
@@ -28636,7 +28742,7 @@
         <v>44544</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="170" t="s">
         <v>221</v>
       </c>
@@ -28647,7 +28753,7 @@
         <v>44546</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="170" t="s">
         <v>117</v>
       </c>
@@ -28658,7 +28764,7 @@
         <v>44547</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="170" t="s">
         <v>245</v>
       </c>
@@ -28669,7 +28775,7 @@
         <v>44548</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="170" t="s">
         <v>222</v>
       </c>
@@ -28680,7 +28786,7 @@
         <v>44550</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="170" t="s">
         <v>231</v>
       </c>
@@ -28691,7 +28797,7 @@
         <v>44552</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="170" t="s">
         <v>389</v>
       </c>
@@ -28702,7 +28808,7 @@
         <v>44554</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="170" t="s">
         <v>345</v>
       </c>
@@ -28713,7 +28819,7 @@
         <v>44556</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="170" t="s">
         <v>312</v>
       </c>
@@ -28724,7 +28830,7 @@
         <v>44558</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="170" t="s">
         <v>323</v>
       </c>
@@ -28735,7 +28841,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="170" t="s">
         <v>189</v>
       </c>
@@ -28746,7 +28852,7 @@
         <v>44581</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="170" t="s">
         <v>300</v>
       </c>
@@ -28757,7 +28863,7 @@
         <v>44583</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="170" t="s">
         <v>303</v>
       </c>
@@ -28768,7 +28874,7 @@
         <v>44586</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="170" t="s">
         <v>324</v>
       </c>
@@ -28779,7 +28885,7 @@
         <v>44589</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="170" t="s">
         <v>9</v>
       </c>
@@ -28790,7 +28896,7 @@
         <v>44589</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="170" t="s">
         <v>143</v>
       </c>
@@ -28801,7 +28907,7 @@
         <v>44591</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="170" t="s">
         <v>373</v>
       </c>
@@ -28812,7 +28918,7 @@
         <v>44592</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="172" t="s">
         <v>345</v>
       </c>
@@ -28823,7 +28929,7 @@
         <v>44612</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="172" t="s">
         <v>324</v>
       </c>
@@ -28834,7 +28940,7 @@
         <v>44613</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="185" t="s">
         <v>53</v>
       </c>
@@ -28845,7 +28951,7 @@
         <v>44615</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="170" t="s">
         <v>11</v>
       </c>
@@ -28856,7 +28962,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="172" t="s">
         <v>300</v>
       </c>
@@ -28867,7 +28973,7 @@
         <v>44639</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="14" t="s">
         <v>289</v>
       </c>
@@ -28878,7 +28984,7 @@
         <v>44640</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="172" t="s">
         <v>231</v>
       </c>
@@ -28889,7 +28995,7 @@
         <v>44652</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="170" t="s">
         <v>162</v>
       </c>
@@ -28900,7 +29006,7 @@
         <v>44666</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="186" t="s">
         <v>93</v>
       </c>
@@ -28911,7 +29017,7 @@
         <v>44669</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="14" t="s">
         <v>222</v>
       </c>
@@ -28922,7 +29028,7 @@
         <v>44672</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="172" t="s">
         <v>245</v>
       </c>
@@ -28933,7 +29039,7 @@
         <v>44673</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="172" t="s">
         <v>222</v>
       </c>
@@ -28944,7 +29050,7 @@
         <v>44678</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="172" t="s">
         <v>221</v>
       </c>
@@ -28955,7 +29061,7 @@
         <v>44680</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="172" t="s">
         <v>389</v>
       </c>
@@ -28966,7 +29072,7 @@
         <v>44697</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="14" t="s">
         <v>287</v>
       </c>
@@ -28977,7 +29083,7 @@
         <v>44699</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="180" t="s">
         <v>174</v>
       </c>
@@ -28988,7 +29094,7 @@
         <v>44706</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="170" t="s">
         <v>586</v>
       </c>
@@ -28999,7 +29105,7 @@
         <v>44708</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="170" t="s">
         <v>83</v>
       </c>
@@ -29010,7 +29116,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="180" t="s">
         <v>763</v>
       </c>
@@ -29021,7 +29127,7 @@
         <v>44726</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="170" t="s">
         <v>117</v>
       </c>
@@ -29032,7 +29138,7 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="171" t="s">
         <v>557</v>
       </c>
@@ -29043,7 +29149,7 @@
         <v>44736</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="170" t="s">
         <v>303</v>
       </c>
@@ -29054,7 +29160,7 @@
         <v>44737</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="169" t="s">
         <v>262</v>
       </c>
@@ -29065,7 +29171,7 @@
         <v>44752</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="170" t="s">
         <v>189</v>
       </c>
@@ -29076,7 +29182,7 @@
         <v>44786</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="170" t="s">
         <v>11</v>
       </c>
@@ -29087,7 +29193,7 @@
         <v>44786</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="199" t="s">
         <v>53</v>
       </c>
@@ -29098,7 +29204,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="170" t="s">
         <v>393</v>
       </c>
@@ -29109,7 +29215,7 @@
         <v>44811</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="170" t="s">
         <v>162</v>
       </c>
@@ -29120,7 +29226,7 @@
         <v>44816</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="170" t="s">
         <v>557</v>
       </c>
@@ -29131,7 +29237,7 @@
         <v>44817</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="171" t="s">
         <v>292</v>
       </c>
@@ -29142,7 +29248,7 @@
         <v>44818</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="171" t="s">
         <v>8</v>
       </c>
@@ -29153,7 +29259,7 @@
         <v>44821</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="170" t="s">
         <v>373</v>
       </c>
@@ -29164,7 +29270,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="170" t="s">
         <v>143</v>
       </c>
@@ -29175,7 +29281,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="170" t="s">
         <v>312</v>
       </c>
@@ -29186,7 +29292,7 @@
         <v>44828</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="198" t="s">
         <v>345</v>
       </c>
@@ -29197,7 +29303,7 @@
         <v>44845</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="170" t="s">
         <v>323</v>
       </c>
@@ -29208,7 +29314,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="70" t="s">
         <v>323</v>
       </c>
@@ -29219,7 +29325,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="184" t="s">
         <v>93</v>
       </c>
@@ -29230,7 +29336,7 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="184" t="s">
         <v>245</v>
       </c>
@@ -29241,7 +29347,7 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="188" t="s">
         <v>83</v>
       </c>
@@ -29252,7 +29358,7 @@
         <v>44852</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="70" t="s">
         <v>9</v>
       </c>
@@ -29263,7 +29369,7 @@
         <v>44856</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="70" t="s">
         <v>221</v>
       </c>
@@ -29274,7 +29380,7 @@
         <v>44856</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="184" t="s">
         <v>9</v>
       </c>
@@ -29285,7 +29391,7 @@
         <v>44856</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="184" t="s">
         <v>8</v>
       </c>
@@ -29296,7 +29402,7 @@
         <v>44877</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="189" t="s">
         <v>393</v>
       </c>
@@ -29307,7 +29413,7 @@
         <v>44878</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="70" t="s">
         <v>117</v>
       </c>
@@ -29318,7 +29424,7 @@
         <v>44878</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="184" t="s">
         <v>324</v>
       </c>
@@ -29329,7 +29435,7 @@
         <v>44880</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="70" t="s">
         <v>287</v>
       </c>
@@ -29340,7 +29446,7 @@
         <v>44881</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="189" t="s">
         <v>174</v>
       </c>
@@ -29351,7 +29457,7 @@
         <v>44882</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="189" t="s">
         <v>189</v>
       </c>
@@ -29362,7 +29468,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="184" t="s">
         <v>82</v>
       </c>
@@ -29373,7 +29479,7 @@
         <v>44894</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="70" t="s">
         <v>557</v>
       </c>
@@ -29384,7 +29490,7 @@
         <v>44913</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="70" t="s">
         <v>11</v>
       </c>
@@ -29395,7 +29501,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="188" t="s">
         <v>586</v>
       </c>
@@ -29406,7 +29512,7 @@
         <v>44918</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="70" t="s">
         <v>189</v>
       </c>
@@ -29417,7 +29523,7 @@
         <v>44919</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="187" t="s">
         <v>53</v>
       </c>
@@ -29428,7 +29534,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="70" t="s">
         <v>300</v>
       </c>
@@ -29439,7 +29545,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="184" t="s">
         <v>231</v>
       </c>
@@ -29450,7 +29556,7 @@
         <v>44940</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="70" t="s">
         <v>162</v>
       </c>
@@ -29461,7 +29567,7 @@
         <v>44943</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="70" t="s">
         <v>389</v>
       </c>
@@ -29472,7 +29578,7 @@
         <v>44943</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="184" t="s">
         <v>222</v>
       </c>
@@ -29483,7 +29589,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="184" t="s">
         <v>82</v>
       </c>
@@ -29494,7 +29600,7 @@
         <v>44949</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="189" t="s">
         <v>768</v>
       </c>
@@ -29505,7 +29611,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="189" t="s">
         <v>262</v>
       </c>
@@ -29516,7 +29622,7 @@
         <v>44953</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="70" t="s">
         <v>173</v>
       </c>
@@ -29527,7 +29633,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="184" t="s">
         <v>117</v>
       </c>
@@ -29538,7 +29644,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="184" t="s">
         <v>323</v>
       </c>
@@ -29549,7 +29655,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" s="184" t="s">
         <v>221</v>
       </c>
@@ -29560,7 +29666,7 @@
         <v>44969</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" s="184" t="s">
         <v>245</v>
       </c>
@@ -29571,7 +29677,7 @@
         <v>44971</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="184" t="s">
         <v>9</v>
       </c>
@@ -29582,7 +29688,7 @@
         <v>44976</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="184" t="s">
         <v>292</v>
       </c>
@@ -29593,7 +29699,7 @@
         <v>44977</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="184" t="s">
         <v>586</v>
       </c>
@@ -29604,7 +29710,7 @@
         <v>44978</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="184" t="s">
         <v>324</v>
       </c>
@@ -29615,7 +29721,7 @@
         <v>44978</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="189" t="s">
         <v>430</v>
       </c>
@@ -29626,7 +29732,7 @@
         <v>44992</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="189" t="s">
         <v>557</v>
       </c>
@@ -29637,7 +29743,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="189" t="s">
         <v>174</v>
       </c>
@@ -29648,7 +29754,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="184" t="s">
         <v>282</v>
       </c>
@@ -29659,7 +29765,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" s="189" t="s">
         <v>8</v>
       </c>
@@ -29670,7 +29776,7 @@
         <v>44997</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="184" t="s">
         <v>11</v>
       </c>
@@ -29681,7 +29787,7 @@
         <v>44999</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="70" t="s">
         <v>303</v>
       </c>
@@ -29692,7 +29798,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="189" t="s">
         <v>93</v>
       </c>
@@ -29703,7 +29809,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="189" t="s">
         <v>763</v>
       </c>
@@ -29714,7 +29820,7 @@
         <v>45002</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" s="189" t="s">
         <v>287</v>
       </c>
@@ -29725,7 +29831,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" s="170" t="s">
         <v>345</v>
       </c>
@@ -29736,7 +29842,7 @@
         <v>45005</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" s="180" t="s">
         <v>262</v>
       </c>
@@ -29747,7 +29853,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="170" t="s">
         <v>373</v>
       </c>
@@ -29758,7 +29864,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="170" t="s">
         <v>82</v>
       </c>
@@ -29769,7 +29875,7 @@
         <v>45024</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="180" t="s">
         <v>289</v>
       </c>
@@ -29780,7 +29886,7 @@
         <v>45029</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" s="184" t="s">
         <v>389</v>
       </c>
@@ -29791,7 +29897,7 @@
         <v>45040</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" s="184" t="s">
         <v>173</v>
       </c>
@@ -29802,7 +29908,7 @@
         <v>45043</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" s="180" t="s">
         <v>300</v>
       </c>
@@ -29813,7 +29919,7 @@
         <v>45046</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" s="170" t="s">
         <v>83</v>
       </c>
@@ -29824,7 +29930,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" s="170" t="s">
         <v>189</v>
       </c>
@@ -29835,7 +29941,7 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" s="180" t="s">
         <v>303</v>
       </c>
@@ -29846,7 +29952,7 @@
         <v>45067</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" s="170" t="s">
         <v>292</v>
       </c>
@@ -29857,7 +29963,7 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="189" t="s">
         <v>312</v>
       </c>
@@ -29868,7 +29974,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="180" t="s">
         <v>174</v>
       </c>
@@ -29879,7 +29985,7 @@
         <v>45080</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" s="184" t="s">
         <v>231</v>
       </c>
@@ -29890,7 +29996,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" s="189" t="s">
         <v>763</v>
       </c>
@@ -29901,7 +30007,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" s="170" t="s">
         <v>792</v>
       </c>
@@ -29912,7 +30018,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="189" t="s">
         <v>393</v>
       </c>
@@ -29923,7 +30029,7 @@
         <v>45091</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" s="184" t="s">
         <v>373</v>
       </c>
@@ -29934,7 +30040,7 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" s="170" t="s">
         <v>703</v>
       </c>
@@ -29945,7 +30051,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" s="170" t="s">
         <v>53</v>
       </c>
@@ -29956,7 +30062,7 @@
         <v>45112</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" s="184" t="s">
         <v>71</v>
       </c>
@@ -29967,7 +30073,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" s="184" t="s">
         <v>221</v>
       </c>
@@ -29978,7 +30084,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" s="184" t="s">
         <v>586</v>
       </c>
@@ -29989,7 +30095,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="184" t="s">
         <v>245</v>
       </c>
@@ -30000,7 +30106,7 @@
         <v>45118</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" s="170" t="s">
         <v>323</v>
       </c>
@@ -30011,7 +30117,7 @@
         <v>45122</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" s="184" t="s">
         <v>324</v>
       </c>
@@ -30022,7 +30128,7 @@
         <v>45123</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" s="189" t="s">
         <v>768</v>
       </c>
@@ -30033,7 +30139,7 @@
         <v>45126</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" s="170" t="s">
         <v>117</v>
       </c>
@@ -30044,7 +30150,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" s="14" t="s">
         <v>173</v>
       </c>
@@ -30055,7 +30161,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" s="180" t="s">
         <v>162</v>
       </c>
@@ -30066,7 +30172,7 @@
         <v>45144</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" s="184" t="s">
         <v>222</v>
       </c>
@@ -30077,7 +30183,7 @@
         <v>45144</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" s="170" t="s">
         <v>9</v>
       </c>
@@ -30088,7 +30194,7 @@
         <v>45150</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" s="70" t="s">
         <v>19</v>
       </c>
@@ -30099,7 +30205,7 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" s="70" t="s">
         <v>8</v>
       </c>
@@ -30110,7 +30216,7 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" s="169" t="s">
         <v>93</v>
       </c>
@@ -30122,8 +30228,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C162" xr:uid="{00000000-0009-0000-0000-000004000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C162">
+  <autoFilter ref="A1:C162">
+    <sortState ref="A2:C162">
       <sortCondition ref="C1:C160"/>
     </sortState>
   </autoFilter>
@@ -30136,28 +30242,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="169" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="169" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="169" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="169" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="179" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="179" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" style="169" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" style="169" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" style="169" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" style="169" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" style="179" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" style="179" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" style="169" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7265625" style="1" customWidth="1"/>
     <col min="9" max="11" width="17" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>795</v>
       </c>
@@ -30180,7 +30286,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="181" t="s">
         <v>20</v>
       </c>
@@ -30203,7 +30309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="169" t="s">
         <v>20</v>
       </c>
@@ -30226,7 +30332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="169" t="s">
         <v>20</v>
       </c>
@@ -30249,7 +30355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="169" t="s">
         <v>21</v>
       </c>
@@ -30272,7 +30378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="169" t="s">
         <v>21</v>
       </c>
@@ -30295,7 +30401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="169" t="s">
         <v>21</v>
       </c>
@@ -30318,7 +30424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="169" t="s">
         <v>21</v>
       </c>
@@ -30341,7 +30447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="169" t="s">
         <v>22</v>
       </c>
@@ -30364,7 +30470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="169" t="s">
         <v>22</v>
       </c>
@@ -30387,7 +30493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="169" t="s">
         <v>20</v>
       </c>
@@ -30410,7 +30516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="169" t="s">
         <v>20</v>
       </c>
@@ -30433,7 +30539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="169" t="s">
         <v>20</v>
       </c>
@@ -30456,7 +30562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="169" t="s">
         <v>20</v>
       </c>
@@ -30479,7 +30585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="169" t="s">
         <v>20</v>
       </c>
@@ -30502,7 +30608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="169" t="s">
         <v>20</v>
       </c>
@@ -30525,7 +30631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="169" t="s">
         <v>20</v>
       </c>
@@ -30548,7 +30654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="169" t="s">
         <v>21</v>
       </c>
@@ -30571,7 +30677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="169" t="s">
         <v>21</v>
       </c>
@@ -30594,7 +30700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="169" t="s">
         <v>21</v>
       </c>
@@ -30617,7 +30723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="169" t="s">
         <v>21</v>
       </c>
@@ -30640,7 +30746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="169" t="s">
         <v>21</v>
       </c>
@@ -30663,7 +30769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="169" t="s">
         <v>21</v>
       </c>
@@ -30686,7 +30792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="169" t="s">
         <v>21</v>
       </c>
@@ -30709,7 +30815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="169" t="s">
         <v>22</v>
       </c>
@@ -30732,7 +30838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="169" t="s">
         <v>22</v>
       </c>
@@ -30755,7 +30861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="169" t="s">
         <v>22</v>
       </c>
@@ -30778,7 +30884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="169" t="s">
         <v>22</v>
       </c>
@@ -30801,7 +30907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="169" t="s">
         <v>22</v>
       </c>
@@ -30824,7 +30930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="169" t="s">
         <v>22</v>
       </c>
@@ -30848,7 +30954,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G18" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
+  <autoFilter ref="A1:G18"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
@@ -30858,26 +30964,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23FD9BCA-82C4-47DD-9AA7-FAFE4BE0BB70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>795</v>
       </c>
@@ -30900,7 +31006,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="181" t="s">
         <v>20</v>
       </c>
@@ -30923,7 +31029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="169" t="s">
         <v>20</v>
       </c>
@@ -30934,20 +31040,19 @@
         <v>0</v>
       </c>
       <c r="D3" s="169" t="s">
-        <v>18</v>
+        <v>287</v>
       </c>
       <c r="E3" s="179" t="s">
-        <v>848</v>
+        <v>179</v>
       </c>
       <c r="F3" s="179">
-        <v>45161</v>
+        <v>45165</v>
       </c>
       <c r="G3" s="169">
-        <f>F4-F3</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="169" t="s">
         <v>20</v>
       </c>
@@ -30970,7 +31075,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="169" t="s">
         <v>21</v>
       </c>
@@ -30993,7 +31098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="169" t="s">
         <v>21</v>
       </c>
@@ -31004,20 +31109,19 @@
         <v>0</v>
       </c>
       <c r="D6" s="169" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E6" s="179" t="s">
-        <v>848</v>
+        <v>10</v>
       </c>
       <c r="F6" s="182">
-        <v>45154</v>
+        <v>45165</v>
       </c>
       <c r="G6" s="181">
-        <f>F7-F6</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="169" t="s">
         <v>21</v>
       </c>
@@ -31040,7 +31144,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="169" t="s">
         <v>22</v>
       </c>
@@ -31063,7 +31167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="169" t="s">
         <v>22</v>
       </c>
@@ -31074,20 +31178,19 @@
         <v>0</v>
       </c>
       <c r="D9" s="169" t="s">
-        <v>18</v>
+        <v>859</v>
       </c>
       <c r="E9" s="179" t="s">
-        <v>848</v>
+        <v>15</v>
       </c>
       <c r="F9" s="182">
-        <v>45158</v>
+        <v>45165</v>
       </c>
       <c r="G9" s="181">
-        <f>F10-F9</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="169" t="s">
         <v>22</v>
       </c>
@@ -31110,7 +31213,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="181" t="s">
         <v>20</v>
       </c>
@@ -31133,7 +31236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="169" t="s">
         <v>20</v>
       </c>
@@ -31144,20 +31247,19 @@
         <v>0</v>
       </c>
       <c r="D12" s="169" t="s">
-        <v>18</v>
+        <v>221</v>
       </c>
       <c r="E12" s="169" t="s">
-        <v>848</v>
+        <v>826</v>
       </c>
       <c r="F12" s="182">
-        <v>45160</v>
+        <v>45165</v>
       </c>
       <c r="G12" s="169">
-        <f>F13-F12</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="169" t="s">
         <v>20</v>
       </c>
@@ -31180,7 +31282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="169" t="s">
         <v>21</v>
       </c>
@@ -31203,7 +31305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="169" t="s">
         <v>21</v>
       </c>
@@ -31220,13 +31322,13 @@
         <v>825</v>
       </c>
       <c r="F15" s="182">
-        <v>45164</v>
+        <v>45165</v>
       </c>
       <c r="G15" s="181">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="169" t="s">
         <v>21</v>
       </c>
@@ -31249,7 +31351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="169" t="s">
         <v>22</v>
       </c>
@@ -31272,7 +31374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="169" t="s">
         <v>22</v>
       </c>
@@ -31283,20 +31385,19 @@
         <v>0</v>
       </c>
       <c r="D18" s="181" t="s">
-        <v>18</v>
+        <v>389</v>
       </c>
       <c r="E18" s="182" t="s">
-        <v>848</v>
+        <v>825</v>
       </c>
       <c r="F18" s="182">
-        <v>45160</v>
+        <v>45165</v>
       </c>
       <c r="G18" s="181">
-        <f>F19-F18</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="169" t="s">
         <v>22</v>
       </c>
@@ -31320,10 +31421,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G19" xr:uid="{23FD9BCA-82C4-47DD-9AA7-FAFE4BE0BB70}">
-    <filterColumn colId="1">
+  <autoFilter ref="A1:G19">
+    <filterColumn colId="2">
       <filters>
-        <filter val="Drops"/>
+        <filter val="0"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghada.ragab\Downloads\follow -up link\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menna.mostafa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Audit_Teams_Follow_Up" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">All_Critical_Points!$A$1:$I$265</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Phase_Dates!$A$1:$C$162</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Plan!$A$1:$G$18</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Team_Management!$A$1:$G$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Plan!$A$1:$G$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Team_Management!$A$1:$F$19</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2884" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2851" uniqueCount="851">
   <si>
     <t>Team No.</t>
   </si>
@@ -2895,19 +2895,10 @@
     <t>Expected Stay On</t>
   </si>
   <si>
-    <t>CA</t>
-  </si>
-  <si>
     <t>EDC-76</t>
   </si>
   <si>
     <t>4th</t>
-  </si>
-  <si>
-    <t>3rd</t>
-  </si>
-  <si>
-    <t>New Entry</t>
   </si>
   <si>
     <t>5.9.82</t>
@@ -2922,9 +2913,6 @@
   </si>
   <si>
     <t>Kitchen Ventilation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spent Days </t>
   </si>
   <si>
     <t>Actual Date</t>
@@ -2973,43 +2961,28 @@
     <t>Menes</t>
   </si>
   <si>
-    <t>MENES-57</t>
-  </si>
-  <si>
-    <t>MENES-63</t>
-  </si>
-  <si>
-    <t>Mense</t>
-  </si>
-  <si>
-    <t>Bridge –1X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarek </t>
-  </si>
-  <si>
-    <t>MENES-58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3rd </t>
-  </si>
-  <si>
-    <t>FaghourS-8</t>
-  </si>
-  <si>
-    <t>Faghour</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>PTAH-47</t>
-  </si>
-  <si>
-    <t>PTAH</t>
-  </si>
-  <si>
     <t>EDC-80</t>
+  </si>
+  <si>
+    <t>UMB-262</t>
+  </si>
+  <si>
+    <t>Umbarka</t>
+  </si>
+  <si>
+    <t>NU-38</t>
+  </si>
+  <si>
+    <t>No Job</t>
+  </si>
+  <si>
+    <t>3rd</t>
+  </si>
+  <si>
+    <t>4th Campaign</t>
+  </si>
+  <si>
+    <t>3rd Campaign</t>
   </si>
 </sst>
 </file>
@@ -4272,8 +4245,8 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -15018,22 +14991,22 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.81640625" style="1"/>
-    <col min="3" max="3" width="20.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="1"/>
-    <col min="8" max="8" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.81640625" style="1"/>
+    <col min="1" max="2" width="9.85546875" style="1"/>
+    <col min="3" max="3" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="1"/>
+    <col min="8" max="8" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -15059,83 +15032,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>848</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>849</v>
-      </c>
-      <c r="F2" s="5">
-        <v>45165</v>
-      </c>
-      <c r="G2" s="3">
-        <v>3</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>852</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>849</v>
-      </c>
-      <c r="F3" s="5">
-        <v>45165</v>
-      </c>
-      <c r="G3" s="3">
-        <v>3</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>850</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>851</v>
-      </c>
-      <c r="F4" s="5">
-        <v>45165</v>
-      </c>
-      <c r="G4" s="3">
-        <v>7</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>18</v>
-      </c>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -15152,22 +15077,22 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.81640625" style="1"/>
-    <col min="3" max="3" width="14.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.85546875" style="1"/>
+    <col min="3" max="3" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.81640625" style="1"/>
+    <col min="9" max="16384" width="9.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -15193,44 +15118,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>853</v>
-      </c>
-      <c r="D2" s="5">
-        <v>45080</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="214" t="s">
-        <v>817</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>854</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D3" s="5">
-        <v>45082</v>
+        <v>45083</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>27</v>
@@ -15239,36 +15148,36 @@
         <v>817</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>824</v>
+      </c>
+      <c r="D4" s="8">
+        <v>45088</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="225" t="s">
+        <v>817</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>825</v>
-      </c>
-      <c r="D4" s="8">
-        <v>45084</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>856</v>
-      </c>
-      <c r="F4" s="214" t="s">
-        <v>817</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>857</v>
-      </c>
       <c r="H4" s="7" t="s">
-        <v>858</v>
+        <v>842</v>
       </c>
     </row>
   </sheetData>
@@ -15285,26 +15194,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I266"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
+    <sheetView zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M33" sqref="M33"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="70" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1796875" style="70" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" style="70" customWidth="1"/>
-    <col min="4" max="4" width="30.26953125" style="70" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="70" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1796875" style="70" customWidth="1"/>
-    <col min="7" max="7" width="17.7265625" style="70" customWidth="1"/>
-    <col min="8" max="9" width="8.1796875" style="70" customWidth="1"/>
-    <col min="10" max="10" width="24.7265625" style="70" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="70"/>
+    <col min="2" max="2" width="12.140625" style="70" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="70" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" style="70" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="70" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="70" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="70" customWidth="1"/>
+    <col min="8" max="9" width="8.140625" style="70" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" style="70" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="70" t="s">
         <v>51</v>
       </c>
@@ -15333,7 +15242,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>53</v>
       </c>
@@ -15362,7 +15271,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="112" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>82</v>
       </c>
@@ -15391,7 +15300,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="42" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>82</v>
       </c>
@@ -15420,7 +15329,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="275.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="285" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>83</v>
       </c>
@@ -15449,7 +15358,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>83</v>
       </c>
@@ -15478,7 +15387,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="232" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>83</v>
       </c>
@@ -15505,7 +15414,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="405" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>93</v>
       </c>
@@ -15534,7 +15443,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>117</v>
       </c>
@@ -15563,7 +15472,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>117</v>
       </c>
@@ -15592,7 +15501,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="275.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="300" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>117</v>
       </c>
@@ -15621,7 +15530,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="145" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>117</v>
       </c>
@@ -15650,7 +15559,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="203" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>117</v>
       </c>
@@ -15679,7 +15588,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>117</v>
       </c>
@@ -15708,7 +15617,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>117</v>
       </c>
@@ -15737,7 +15646,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>282</v>
       </c>
@@ -15766,7 +15675,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>143</v>
       </c>
@@ -15795,7 +15704,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>143</v>
       </c>
@@ -15824,7 +15733,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>143</v>
       </c>
@@ -15853,7 +15762,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>143</v>
       </c>
@@ -15882,7 +15791,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>143</v>
       </c>
@@ -15911,7 +15820,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>162</v>
       </c>
@@ -15940,7 +15849,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="275.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="285" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>162</v>
       </c>
@@ -15969,7 +15878,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>162</v>
       </c>
@@ -15998,7 +15907,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>162</v>
       </c>
@@ -16027,7 +15936,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>162</v>
       </c>
@@ -16056,7 +15965,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>162</v>
       </c>
@@ -16083,7 +15992,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>11</v>
       </c>
@@ -16112,7 +16021,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>173</v>
       </c>
@@ -16141,7 +16050,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="154" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>173</v>
       </c>
@@ -16170,7 +16079,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="168" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>174</v>
       </c>
@@ -16199,7 +16108,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="70" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>174</v>
       </c>
@@ -16228,7 +16137,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="203" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>174</v>
       </c>
@@ -16255,7 +16164,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="112" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>174</v>
       </c>
@@ -16282,7 +16191,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>189</v>
       </c>
@@ -16311,7 +16220,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>221</v>
       </c>
@@ -16340,7 +16249,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="232" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>221</v>
       </c>
@@ -16369,7 +16278,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>221</v>
       </c>
@@ -16398,7 +16307,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>221</v>
       </c>
@@ -16427,7 +16336,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>221</v>
       </c>
@@ -16456,7 +16365,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>221</v>
       </c>
@@ -16485,7 +16394,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>221</v>
       </c>
@@ -16514,7 +16423,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>221</v>
       </c>
@@ -16543,7 +16452,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>221</v>
       </c>
@@ -16572,7 +16481,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>221</v>
       </c>
@@ -16601,7 +16510,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="252" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" ht="270.75" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>222</v>
       </c>
@@ -16630,7 +16539,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="238" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" ht="256.5" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>222</v>
       </c>
@@ -16659,7 +16568,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="98" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" ht="114" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>222</v>
       </c>
@@ -16686,7 +16595,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="98" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" ht="114" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>231</v>
       </c>
@@ -16713,7 +16622,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="56" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>231</v>
       </c>
@@ -16742,7 +16651,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="98" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>231</v>
       </c>
@@ -16769,7 +16678,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>231</v>
       </c>
@@ -16798,7 +16707,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>245</v>
       </c>
@@ -16827,7 +16736,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="70" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>245</v>
       </c>
@@ -16856,7 +16765,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
         <v>245</v>
       </c>
@@ -16883,7 +16792,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="70" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>245</v>
       </c>
@@ -16910,7 +16819,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="84" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>9</v>
       </c>
@@ -16939,7 +16848,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="56" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>9</v>
       </c>
@@ -16968,7 +16877,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="84" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
         <v>71</v>
       </c>
@@ -16997,7 +16906,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="70" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
         <v>71</v>
       </c>
@@ -17026,7 +16935,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="98" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
         <v>71</v>
       </c>
@@ -17055,7 +16964,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="266" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" ht="315" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
         <v>71</v>
       </c>
@@ -17084,7 +16993,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="126" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
         <v>71</v>
       </c>
@@ -17113,7 +17022,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="294" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" ht="345" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
         <v>71</v>
       </c>
@@ -17142,7 +17051,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="98" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
         <v>262</v>
       </c>
@@ -17171,7 +17080,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="70" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
         <v>262</v>
       </c>
@@ -17200,7 +17109,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="70" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
         <v>262</v>
       </c>
@@ -17229,7 +17138,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="56" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
         <v>262</v>
       </c>
@@ -17258,7 +17167,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
         <v>262</v>
       </c>
@@ -17287,7 +17196,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="145" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
         <v>262</v>
       </c>
@@ -17314,7 +17223,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
         <v>287</v>
       </c>
@@ -17343,7 +17252,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
         <v>289</v>
       </c>
@@ -17372,7 +17281,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="70" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" ht="87" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
         <v>292</v>
       </c>
@@ -17401,7 +17310,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="145" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
         <v>292</v>
       </c>
@@ -17428,7 +17337,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="140" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
         <v>299</v>
       </c>
@@ -17455,7 +17364,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
         <v>300</v>
       </c>
@@ -17484,7 +17393,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="126" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
         <v>303</v>
       </c>
@@ -17511,7 +17420,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="70" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
         <v>303</v>
       </c>
@@ -17540,7 +17449,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="196" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" ht="213.75" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
         <v>303</v>
       </c>
@@ -17567,7 +17476,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="84" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
         <v>303</v>
       </c>
@@ -17594,7 +17503,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="70" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
         <v>312</v>
       </c>
@@ -17623,7 +17532,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="185" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
         <v>312</v>
       </c>
@@ -17652,7 +17561,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="252" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" ht="270.75" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
         <v>312</v>
       </c>
@@ -17679,7 +17588,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
         <v>323</v>
       </c>
@@ -17708,7 +17617,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="154" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" ht="187.5" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
         <v>324</v>
       </c>
@@ -17737,7 +17646,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="112" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
         <v>324</v>
       </c>
@@ -17766,7 +17675,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="127" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" ht="130.5" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
         <v>324</v>
       </c>
@@ -17795,7 +17704,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="126" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
         <v>324</v>
       </c>
@@ -17824,7 +17733,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="42" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
         <v>324</v>
       </c>
@@ -17853,7 +17762,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="196" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" ht="219.75" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
         <v>324</v>
       </c>
@@ -17882,7 +17791,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="168" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
         <v>324</v>
       </c>
@@ -17909,7 +17818,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="56" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
         <v>324</v>
       </c>
@@ -17938,7 +17847,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="28" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
         <v>345</v>
       </c>
@@ -17967,7 +17876,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="84" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
         <v>345</v>
       </c>
@@ -17996,7 +17905,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="70" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
         <v>345</v>
       </c>
@@ -18025,7 +17934,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="70" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
         <v>345</v>
       </c>
@@ -18054,7 +17963,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="42" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
         <v>345</v>
       </c>
@@ -18083,7 +17992,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="56" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
         <v>345</v>
       </c>
@@ -18112,7 +18021,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="126" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
         <v>345</v>
       </c>
@@ -18141,7 +18050,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="174" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
         <v>345</v>
       </c>
@@ -18168,7 +18077,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="174" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
         <v>345</v>
       </c>
@@ -18195,7 +18104,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="84" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
         <v>345</v>
       </c>
@@ -18222,7 +18131,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="210" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" ht="228" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
         <v>345</v>
       </c>
@@ -18249,7 +18158,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
         <v>8</v>
       </c>
@@ -18278,7 +18187,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="70" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>373</v>
       </c>
@@ -18305,7 +18214,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="224" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" ht="228" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>373</v>
       </c>
@@ -18334,7 +18243,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
         <v>373</v>
       </c>
@@ -18361,7 +18270,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
         <v>373</v>
       </c>
@@ -18388,7 +18297,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="154" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" ht="171" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="s">
         <v>373</v>
       </c>
@@ -18415,7 +18324,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="70" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A110" s="14" t="s">
         <v>373</v>
       </c>
@@ -18442,7 +18351,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="84" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A111" s="14" t="s">
         <v>389</v>
       </c>
@@ -18471,7 +18380,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="98" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
         <v>389</v>
       </c>
@@ -18500,7 +18409,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="112" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
         <v>393</v>
       </c>
@@ -18529,7 +18438,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
         <v>393</v>
       </c>
@@ -18558,7 +18467,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="140" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A115" s="14" t="s">
         <v>393</v>
       </c>
@@ -18587,7 +18496,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="112" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
         <v>393</v>
       </c>
@@ -18616,7 +18525,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="42" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A117" s="14" t="s">
         <v>393</v>
       </c>
@@ -18645,7 +18554,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
         <v>393</v>
       </c>
@@ -18672,7 +18581,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="145" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
         <v>393</v>
       </c>
@@ -18699,7 +18608,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
         <v>393</v>
       </c>
@@ -18726,7 +18635,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="319" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" ht="360" x14ac:dyDescent="0.25">
       <c r="A121" s="14" t="s">
         <v>393</v>
       </c>
@@ -18753,7 +18662,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="84" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
         <v>393</v>
       </c>
@@ -18780,7 +18689,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="112" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" ht="114" x14ac:dyDescent="0.25">
       <c r="A123" s="14" t="s">
         <v>393</v>
       </c>
@@ -18807,7 +18716,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
         <v>430</v>
       </c>
@@ -18836,7 +18745,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="56" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A125" s="14" t="s">
         <v>549</v>
       </c>
@@ -18865,7 +18774,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="70" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A126" s="14" t="s">
         <v>549</v>
       </c>
@@ -18894,7 +18803,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="56" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="s">
         <v>549</v>
       </c>
@@ -18923,7 +18832,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="70" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A128" s="14" t="s">
         <v>549</v>
       </c>
@@ -18952,7 +18861,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="56" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A129" s="14" t="s">
         <v>549</v>
       </c>
@@ -18981,7 +18890,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="56" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="s">
         <v>549</v>
       </c>
@@ -19010,7 +18919,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="280" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" ht="299.25" x14ac:dyDescent="0.25">
       <c r="A131" s="14" t="s">
         <v>549</v>
       </c>
@@ -19039,7 +18948,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="56" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A132" s="14" t="s">
         <v>549</v>
       </c>
@@ -19068,7 +18977,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="168" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A133" s="14" t="s">
         <v>549</v>
       </c>
@@ -19097,7 +19006,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="70" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A134" s="14" t="s">
         <v>549</v>
       </c>
@@ -19126,7 +19035,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="70" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A135" s="14" t="s">
         <v>549</v>
       </c>
@@ -19155,7 +19064,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="70" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A136" s="14" t="s">
         <v>549</v>
       </c>
@@ -19184,7 +19093,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="70" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A137" s="14" t="s">
         <v>549</v>
       </c>
@@ -19213,7 +19122,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="70" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A138" s="14" t="s">
         <v>549</v>
       </c>
@@ -19242,7 +19151,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="98" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A139" s="14" t="s">
         <v>549</v>
       </c>
@@ -19271,7 +19180,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="70" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A140" s="14" t="s">
         <v>549</v>
       </c>
@@ -19300,7 +19209,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="70" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
         <v>549</v>
       </c>
@@ -19329,7 +19238,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="98" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A142" s="14" t="s">
         <v>549</v>
       </c>
@@ -19358,7 +19267,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="98" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A143" s="14" t="s">
         <v>549</v>
       </c>
@@ -19387,7 +19296,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="56" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A144" s="14" t="s">
         <v>549</v>
       </c>
@@ -19416,7 +19325,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="56" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A145" s="14" t="s">
         <v>549</v>
       </c>
@@ -19445,7 +19354,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="56" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
         <v>549</v>
       </c>
@@ -19474,7 +19383,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="42" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
         <v>549</v>
       </c>
@@ -19503,7 +19412,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="56" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
         <v>549</v>
       </c>
@@ -19532,7 +19441,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="70" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A149" s="14" t="s">
         <v>549</v>
       </c>
@@ -19561,7 +19470,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="56" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A150" s="14" t="s">
         <v>549</v>
       </c>
@@ -19590,7 +19499,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="42" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="s">
         <v>549</v>
       </c>
@@ -19619,7 +19528,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="42" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A152" s="14" t="s">
         <v>549</v>
       </c>
@@ -19648,7 +19557,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="28" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A153" s="14" t="s">
         <v>549</v>
       </c>
@@ -19677,7 +19586,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="42" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A154" s="14" t="s">
         <v>549</v>
       </c>
@@ -19706,7 +19615,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="42" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A155" s="14" t="s">
         <v>549</v>
       </c>
@@ -19735,7 +19644,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="42" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A156" s="14" t="s">
         <v>549</v>
       </c>
@@ -19764,7 +19673,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="56" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A157" s="14" t="s">
         <v>549</v>
       </c>
@@ -19793,7 +19702,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="56" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A158" s="14" t="s">
         <v>549</v>
       </c>
@@ -19822,7 +19731,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="56" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A159" s="14" t="s">
         <v>549</v>
       </c>
@@ -19851,7 +19760,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="42" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A160" s="14" t="s">
         <v>549</v>
       </c>
@@ -19880,7 +19789,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="56" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A161" s="14" t="s">
         <v>549</v>
       </c>
@@ -19909,7 +19818,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="56" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A162" s="14" t="s">
         <v>549</v>
       </c>
@@ -19938,7 +19847,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="56" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A163" s="14" t="s">
         <v>549</v>
       </c>
@@ -19967,7 +19876,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="42" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A164" s="14" t="s">
         <v>549</v>
       </c>
@@ -19996,7 +19905,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="140" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A165" s="14" t="s">
         <v>549</v>
       </c>
@@ -20025,7 +19934,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="70" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A166" s="14" t="s">
         <v>549</v>
       </c>
@@ -20054,7 +19963,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="140" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A167" s="14" t="s">
         <v>549</v>
       </c>
@@ -20083,7 +19992,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="42" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A168" s="14" t="s">
         <v>549</v>
       </c>
@@ -20112,7 +20021,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="42" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A169" s="14" t="s">
         <v>549</v>
       </c>
@@ -20141,7 +20050,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="112" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" ht="114" x14ac:dyDescent="0.25">
       <c r="A170" s="14" t="s">
         <v>557</v>
       </c>
@@ -20170,7 +20079,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="112" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" ht="114" x14ac:dyDescent="0.25">
       <c r="A171" s="14" t="s">
         <v>557</v>
       </c>
@@ -20199,7 +20108,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="154" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" ht="171" x14ac:dyDescent="0.25">
       <c r="A172" s="14" t="s">
         <v>557</v>
       </c>
@@ -20228,7 +20137,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="56" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A173" s="14" t="s">
         <v>557</v>
       </c>
@@ -20257,7 +20166,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="112" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A174" s="14" t="s">
         <v>557</v>
       </c>
@@ -20286,7 +20195,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="98" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A175" s="14" t="s">
         <v>557</v>
       </c>
@@ -20315,7 +20224,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="126" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A176" s="14" t="s">
         <v>557</v>
       </c>
@@ -20344,7 +20253,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="112" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" ht="114" x14ac:dyDescent="0.25">
       <c r="A177" s="14" t="s">
         <v>557</v>
       </c>
@@ -20371,7 +20280,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="70" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A178" s="14" t="s">
         <v>557</v>
       </c>
@@ -20398,7 +20307,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="42" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A179" s="14" t="s">
         <v>586</v>
       </c>
@@ -20427,7 +20336,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="42" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A180" s="14" t="s">
         <v>586</v>
       </c>
@@ -20456,7 +20365,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="56" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A181" s="14" t="s">
         <v>586</v>
       </c>
@@ -20485,7 +20394,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="182" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A182" s="14" t="s">
         <v>586</v>
       </c>
@@ -20514,7 +20423,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="84" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A183" s="14" t="s">
         <v>586</v>
       </c>
@@ -20543,7 +20452,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="70" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A184" s="14" t="s">
         <v>586</v>
       </c>
@@ -20572,7 +20481,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="112" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A185" s="14" t="s">
         <v>586</v>
       </c>
@@ -20601,7 +20510,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="112" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" ht="114" x14ac:dyDescent="0.25">
       <c r="A186" s="14" t="s">
         <v>586</v>
       </c>
@@ -20630,7 +20539,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="42" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A187" s="14" t="s">
         <v>586</v>
       </c>
@@ -20659,7 +20568,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="140" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9" ht="194.25" x14ac:dyDescent="0.25">
       <c r="A188" s="14" t="s">
         <v>586</v>
       </c>
@@ -20688,7 +20597,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="84" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A189" s="14" t="s">
         <v>586</v>
       </c>
@@ -20717,7 +20626,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="84" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A190" s="14" t="s">
         <v>586</v>
       </c>
@@ -20746,7 +20655,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="56" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A191" s="14" t="s">
         <v>586</v>
       </c>
@@ -20775,7 +20684,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="70" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A192" s="14" t="s">
         <v>586</v>
       </c>
@@ -20804,7 +20713,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="70" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A193" s="14" t="s">
         <v>586</v>
       </c>
@@ -20833,7 +20742,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A194" s="14" t="s">
         <v>586</v>
       </c>
@@ -20860,7 +20769,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A195" s="14" t="s">
         <v>586</v>
       </c>
@@ -20887,7 +20796,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A196" s="14" t="s">
         <v>586</v>
       </c>
@@ -20914,7 +20823,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A197" s="14" t="s">
         <v>586</v>
       </c>
@@ -20941,7 +20850,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A198" s="14" t="s">
         <v>586</v>
       </c>
@@ -20968,7 +20877,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="56" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A199" s="14" t="s">
         <v>703</v>
       </c>
@@ -20997,7 +20906,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="98" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A200" s="14" t="s">
         <v>703</v>
       </c>
@@ -21026,7 +20935,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="42" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A201" s="14" t="s">
         <v>703</v>
       </c>
@@ -21055,7 +20964,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="70" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A202" s="14" t="s">
         <v>703</v>
       </c>
@@ -21084,7 +20993,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="42" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A203" s="14" t="s">
         <v>703</v>
       </c>
@@ -21113,7 +21022,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="42" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A204" s="14" t="s">
         <v>703</v>
       </c>
@@ -21142,7 +21051,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="56" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A205" s="14" t="s">
         <v>703</v>
       </c>
@@ -21171,7 +21080,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="42" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A206" s="14" t="s">
         <v>703</v>
       </c>
@@ -21200,7 +21109,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="126" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A207" s="14" t="s">
         <v>703</v>
       </c>
@@ -21229,7 +21138,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="70" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A208" s="14" t="s">
         <v>703</v>
       </c>
@@ -21258,7 +21167,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="98" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A209" s="14" t="s">
         <v>703</v>
       </c>
@@ -21287,7 +21196,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="70" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A210" s="14" t="s">
         <v>703</v>
       </c>
@@ -21316,7 +21225,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="168" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A211" s="14" t="s">
         <v>703</v>
       </c>
@@ -21345,7 +21254,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="168" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A212" s="14" t="s">
         <v>703</v>
       </c>
@@ -21374,7 +21283,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="98" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A213" s="14" t="s">
         <v>703</v>
       </c>
@@ -21403,7 +21312,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="70" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A214" s="14" t="s">
         <v>703</v>
       </c>
@@ -21432,7 +21341,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="98" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A215" s="14" t="s">
         <v>703</v>
       </c>
@@ -21461,7 +21370,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="168" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A216" s="14" t="s">
         <v>703</v>
       </c>
@@ -21490,7 +21399,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="112" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A217" s="14" t="s">
         <v>703</v>
       </c>
@@ -21519,7 +21428,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="42" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A218" s="14" t="s">
         <v>703</v>
       </c>
@@ -21548,7 +21457,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="56" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A219" s="14" t="s">
         <v>703</v>
       </c>
@@ -21577,7 +21486,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="224" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A220" s="14" t="s">
         <v>703</v>
       </c>
@@ -21606,7 +21515,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="70" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A221" s="14" t="s">
         <v>703</v>
       </c>
@@ -21635,7 +21544,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="56" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A222" s="14" t="s">
         <v>763</v>
       </c>
@@ -21664,7 +21573,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="56" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A223" s="14" t="s">
         <v>763</v>
       </c>
@@ -21693,7 +21602,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="98" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:9" ht="114" x14ac:dyDescent="0.25">
       <c r="A224" s="14" t="s">
         <v>763</v>
       </c>
@@ -21722,7 +21631,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="84" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A225" s="14" t="s">
         <v>763</v>
       </c>
@@ -21751,7 +21660,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="70" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A226" s="14" t="s">
         <v>763</v>
       </c>
@@ -21780,7 +21689,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="84" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A227" s="14" t="s">
         <v>763</v>
       </c>
@@ -21809,7 +21718,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="28" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A228" s="14" t="s">
         <v>763</v>
       </c>
@@ -21838,7 +21747,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A229" s="14" t="s">
         <v>763</v>
       </c>
@@ -21867,7 +21776,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="98" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:9" ht="114" x14ac:dyDescent="0.25">
       <c r="A230" s="14" t="s">
         <v>763</v>
       </c>
@@ -21896,7 +21805,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="98" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A231" s="14" t="s">
         <v>763</v>
       </c>
@@ -21925,7 +21834,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="126" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A232" s="14" t="s">
         <v>763</v>
       </c>
@@ -21954,7 +21863,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="280" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:9" ht="313.5" x14ac:dyDescent="0.25">
       <c r="A233" s="14" t="s">
         <v>763</v>
       </c>
@@ -21983,7 +21892,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="70" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A234" s="14" t="s">
         <v>763</v>
       </c>
@@ -22012,7 +21921,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="84" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A235" s="14" t="s">
         <v>763</v>
       </c>
@@ -22041,7 +21950,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="56" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A236" s="14" t="s">
         <v>763</v>
       </c>
@@ -22070,7 +21979,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="70" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A237" s="14" t="s">
         <v>763</v>
       </c>
@@ -22099,7 +22008,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="168" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:9" ht="171" x14ac:dyDescent="0.25">
       <c r="A238" s="14" t="s">
         <v>763</v>
       </c>
@@ -22128,7 +22037,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="112" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A239" s="14" t="s">
         <v>763</v>
       </c>
@@ -22157,7 +22066,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="126" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:9" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A240" s="14" t="s">
         <v>763</v>
       </c>
@@ -22186,7 +22095,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A241" s="14" t="s">
         <v>763</v>
       </c>
@@ -22215,7 +22124,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="98" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:9" ht="114" x14ac:dyDescent="0.25">
       <c r="A242" s="14" t="s">
         <v>763</v>
       </c>
@@ -22244,7 +22153,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="42" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A243" s="14" t="s">
         <v>763</v>
       </c>
@@ -22273,7 +22182,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="84" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A244" s="14" t="s">
         <v>768</v>
       </c>
@@ -22302,7 +22211,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="98" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A245" s="14" t="s">
         <v>768</v>
       </c>
@@ -22331,7 +22240,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="42" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A246" s="14" t="s">
         <v>768</v>
       </c>
@@ -22358,7 +22267,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A247" s="14" t="s">
         <v>768</v>
       </c>
@@ -22385,7 +22294,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="154" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:9" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A248" s="14" t="s">
         <v>768</v>
       </c>
@@ -22412,7 +22321,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="14" t="s">
         <v>768</v>
       </c>
@@ -22439,7 +22348,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="84" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A250" s="70" t="s">
         <v>19</v>
       </c>
@@ -22468,7 +22377,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="154" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A251" s="70" t="s">
         <v>19</v>
       </c>
@@ -22497,7 +22406,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="70" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A252" s="70" t="s">
         <v>19</v>
       </c>
@@ -22526,7 +22435,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="84" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A253" s="70" t="s">
         <v>19</v>
       </c>
@@ -22555,7 +22464,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="56" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A254" s="70" t="s">
         <v>19</v>
       </c>
@@ -22584,7 +22493,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="70" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A255" s="70" t="s">
         <v>19</v>
       </c>
@@ -22613,7 +22522,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="256" spans="1:9" ht="182" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A256" s="70" t="s">
         <v>19</v>
       </c>
@@ -22642,7 +22551,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="257" spans="1:9" ht="56" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A257" s="70" t="s">
         <v>19</v>
       </c>
@@ -22671,7 +22580,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="84" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A258" s="70" t="s">
         <v>19</v>
       </c>
@@ -22700,7 +22609,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="84" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A259" s="70" t="s">
         <v>19</v>
       </c>
@@ -22729,7 +22638,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="260" spans="1:9" ht="84" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A260" s="70" t="s">
         <v>19</v>
       </c>
@@ -22758,7 +22667,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="261" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A261" s="70" t="s">
         <v>93</v>
       </c>
@@ -22787,24 +22696,24 @@
         <v>94</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="70" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A262" s="70" t="s">
         <v>93</v>
       </c>
       <c r="B262" s="210" t="s">
+        <v>825</v>
+      </c>
+      <c r="C262" s="210" t="s">
         <v>828</v>
       </c>
-      <c r="C262" s="210" t="s">
-        <v>831</v>
-      </c>
       <c r="D262" s="211" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="E262" s="212" t="s">
         <v>31</v>
       </c>
       <c r="F262" s="213" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="G262" s="209" t="s">
         <v>50</v>
@@ -22816,18 +22725,18 @@
         <v>94</v>
       </c>
     </row>
-    <row r="263" spans="1:9" ht="84" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A263" s="70" t="s">
         <v>174</v>
       </c>
       <c r="B263" s="215" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="C263" s="20" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="D263" s="216" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="E263" s="217" t="s">
         <v>31</v>
@@ -22845,24 +22754,24 @@
         <v>73</v>
       </c>
     </row>
-    <row r="264" spans="1:9" ht="42" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A264" s="70" t="s">
         <v>174</v>
       </c>
       <c r="B264" s="218" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="C264" s="15" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="D264" s="219" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="E264" s="217" t="s">
         <v>31</v>
       </c>
       <c r="F264" s="12" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="G264" s="220" t="s">
         <v>12</v>
@@ -22874,24 +22783,24 @@
         <v>73</v>
       </c>
     </row>
-    <row r="265" spans="1:9" ht="70" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A265" s="70" t="s">
         <v>174</v>
       </c>
       <c r="B265" s="218" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C265" s="15" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="D265" s="221" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="E265" s="222" t="s">
         <v>31</v>
       </c>
       <c r="F265" s="10" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="G265" s="220" t="s">
         <v>12</v>
@@ -22903,7 +22812,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B266" s="29"/>
       <c r="C266" s="29"/>
       <c r="D266" s="223"/>
@@ -28377,44 +28286,44 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -28431,21 +28340,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C162"/>
   <sheetViews>
-    <sheetView topLeftCell="A143" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C161" sqref="C161"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1796875" style="14" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" style="174" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" style="70"/>
-    <col min="5" max="5" width="24.7265625" style="70" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="70"/>
+    <col min="2" max="2" width="8.140625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="174" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="70"/>
+    <col min="5" max="5" width="24.7109375" style="70" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="70" t="s">
         <v>51</v>
       </c>
@@ -28456,7 +28365,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="170" t="s">
         <v>345</v>
       </c>
@@ -28467,7 +28376,7 @@
         <v>44236</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="170" t="s">
         <v>324</v>
       </c>
@@ -28478,7 +28387,7 @@
         <v>44272</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="170" t="s">
         <v>231</v>
       </c>
@@ -28489,7 +28398,7 @@
         <v>44274</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="170" t="s">
         <v>9</v>
       </c>
@@ -28500,7 +28409,7 @@
         <v>44307</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="170" t="s">
         <v>93</v>
       </c>
@@ -28511,7 +28420,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="170" t="s">
         <v>222</v>
       </c>
@@ -28522,7 +28431,7 @@
         <v>44315</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="170" t="s">
         <v>393</v>
       </c>
@@ -28533,7 +28442,7 @@
         <v>44331</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="170" t="s">
         <v>221</v>
       </c>
@@ -28544,7 +28453,7 @@
         <v>44336</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="170" t="s">
         <v>373</v>
       </c>
@@ -28555,7 +28464,7 @@
         <v>44338</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="170" t="s">
         <v>303</v>
       </c>
@@ -28566,7 +28475,7 @@
         <v>44345</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="170" t="s">
         <v>117</v>
       </c>
@@ -28577,7 +28486,7 @@
         <v>44347</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="170" t="s">
         <v>389</v>
       </c>
@@ -28588,7 +28497,7 @@
         <v>44347</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="170" t="s">
         <v>312</v>
       </c>
@@ -28599,7 +28508,7 @@
         <v>44348</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="170" t="s">
         <v>245</v>
       </c>
@@ -28610,7 +28519,7 @@
         <v>44370</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="170" t="s">
         <v>189</v>
       </c>
@@ -28621,7 +28530,7 @@
         <v>44378</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="170" t="s">
         <v>143</v>
       </c>
@@ -28632,7 +28541,7 @@
         <v>44379</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="170" t="s">
         <v>323</v>
       </c>
@@ -28643,7 +28552,7 @@
         <v>44389</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="170" t="s">
         <v>300</v>
       </c>
@@ -28654,7 +28563,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="170" t="s">
         <v>557</v>
       </c>
@@ -28665,7 +28574,7 @@
         <v>44426</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="170" t="s">
         <v>292</v>
       </c>
@@ -28676,7 +28585,7 @@
         <v>44455</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>289</v>
       </c>
@@ -28687,7 +28596,7 @@
         <v>44461</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="170" t="s">
         <v>162</v>
       </c>
@@ -28698,7 +28607,7 @@
         <v>44483</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="180" t="s">
         <v>174</v>
       </c>
@@ -28709,7 +28618,7 @@
         <v>44483</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="170" t="s">
         <v>8</v>
       </c>
@@ -28720,7 +28629,7 @@
         <v>44504</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="186" t="s">
         <v>11</v>
       </c>
@@ -28731,7 +28640,7 @@
         <v>44509</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="170" t="s">
         <v>393</v>
       </c>
@@ -28742,7 +28651,7 @@
         <v>44544</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="170" t="s">
         <v>221</v>
       </c>
@@ -28753,7 +28662,7 @@
         <v>44546</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="170" t="s">
         <v>117</v>
       </c>
@@ -28764,7 +28673,7 @@
         <v>44547</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="170" t="s">
         <v>245</v>
       </c>
@@ -28775,7 +28684,7 @@
         <v>44548</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="170" t="s">
         <v>222</v>
       </c>
@@ -28786,7 +28695,7 @@
         <v>44550</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="170" t="s">
         <v>231</v>
       </c>
@@ -28797,7 +28706,7 @@
         <v>44552</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="170" t="s">
         <v>389</v>
       </c>
@@ -28808,7 +28717,7 @@
         <v>44554</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="170" t="s">
         <v>345</v>
       </c>
@@ -28819,7 +28728,7 @@
         <v>44556</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="170" t="s">
         <v>312</v>
       </c>
@@ -28830,7 +28739,7 @@
         <v>44558</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="170" t="s">
         <v>323</v>
       </c>
@@ -28841,7 +28750,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="170" t="s">
         <v>189</v>
       </c>
@@ -28852,7 +28761,7 @@
         <v>44581</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="170" t="s">
         <v>300</v>
       </c>
@@ -28863,7 +28772,7 @@
         <v>44583</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="170" t="s">
         <v>303</v>
       </c>
@@ -28874,7 +28783,7 @@
         <v>44586</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="170" t="s">
         <v>324</v>
       </c>
@@ -28885,7 +28794,7 @@
         <v>44589</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="170" t="s">
         <v>9</v>
       </c>
@@ -28896,7 +28805,7 @@
         <v>44589</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="170" t="s">
         <v>143</v>
       </c>
@@ -28907,7 +28816,7 @@
         <v>44591</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="170" t="s">
         <v>373</v>
       </c>
@@ -28918,7 +28827,7 @@
         <v>44592</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="172" t="s">
         <v>345</v>
       </c>
@@ -28929,7 +28838,7 @@
         <v>44612</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="172" t="s">
         <v>324</v>
       </c>
@@ -28940,7 +28849,7 @@
         <v>44613</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="185" t="s">
         <v>53</v>
       </c>
@@ -28951,7 +28860,7 @@
         <v>44615</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="170" t="s">
         <v>11</v>
       </c>
@@ -28962,7 +28871,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="172" t="s">
         <v>300</v>
       </c>
@@ -28973,7 +28882,7 @@
         <v>44639</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>289</v>
       </c>
@@ -28984,7 +28893,7 @@
         <v>44640</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="172" t="s">
         <v>231</v>
       </c>
@@ -28995,7 +28904,7 @@
         <v>44652</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="170" t="s">
         <v>162</v>
       </c>
@@ -29006,7 +28915,7 @@
         <v>44666</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="186" t="s">
         <v>93</v>
       </c>
@@ -29017,7 +28926,7 @@
         <v>44669</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>222</v>
       </c>
@@ -29028,7 +28937,7 @@
         <v>44672</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="172" t="s">
         <v>245</v>
       </c>
@@ -29039,7 +28948,7 @@
         <v>44673</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="172" t="s">
         <v>222</v>
       </c>
@@ -29050,7 +28959,7 @@
         <v>44678</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="172" t="s">
         <v>221</v>
       </c>
@@ -29061,7 +28970,7 @@
         <v>44680</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="172" t="s">
         <v>389</v>
       </c>
@@ -29072,7 +28981,7 @@
         <v>44697</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>287</v>
       </c>
@@ -29083,7 +28992,7 @@
         <v>44699</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="180" t="s">
         <v>174</v>
       </c>
@@ -29094,7 +29003,7 @@
         <v>44706</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="170" t="s">
         <v>586</v>
       </c>
@@ -29105,7 +29014,7 @@
         <v>44708</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="170" t="s">
         <v>83</v>
       </c>
@@ -29116,7 +29025,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="180" t="s">
         <v>763</v>
       </c>
@@ -29127,7 +29036,7 @@
         <v>44726</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="170" t="s">
         <v>117</v>
       </c>
@@ -29138,7 +29047,7 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="171" t="s">
         <v>557</v>
       </c>
@@ -29149,7 +29058,7 @@
         <v>44736</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="170" t="s">
         <v>303</v>
       </c>
@@ -29160,7 +29069,7 @@
         <v>44737</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="169" t="s">
         <v>262</v>
       </c>
@@ -29171,7 +29080,7 @@
         <v>44752</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="170" t="s">
         <v>189</v>
       </c>
@@ -29182,7 +29091,7 @@
         <v>44786</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="170" t="s">
         <v>11</v>
       </c>
@@ -29193,7 +29102,7 @@
         <v>44786</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="199" t="s">
         <v>53</v>
       </c>
@@ -29204,7 +29113,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="170" t="s">
         <v>393</v>
       </c>
@@ -29215,7 +29124,7 @@
         <v>44811</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="170" t="s">
         <v>162</v>
       </c>
@@ -29226,7 +29135,7 @@
         <v>44816</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="170" t="s">
         <v>557</v>
       </c>
@@ -29237,7 +29146,7 @@
         <v>44817</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="171" t="s">
         <v>292</v>
       </c>
@@ -29248,7 +29157,7 @@
         <v>44818</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="171" t="s">
         <v>8</v>
       </c>
@@ -29259,7 +29168,7 @@
         <v>44821</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="170" t="s">
         <v>373</v>
       </c>
@@ -29270,7 +29179,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="170" t="s">
         <v>143</v>
       </c>
@@ -29281,7 +29190,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="170" t="s">
         <v>312</v>
       </c>
@@ -29292,7 +29201,7 @@
         <v>44828</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="198" t="s">
         <v>345</v>
       </c>
@@ -29303,7 +29212,7 @@
         <v>44845</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="170" t="s">
         <v>323</v>
       </c>
@@ -29314,7 +29223,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="70" t="s">
         <v>323</v>
       </c>
@@ -29325,7 +29234,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="184" t="s">
         <v>93</v>
       </c>
@@ -29336,7 +29245,7 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="184" t="s">
         <v>245</v>
       </c>
@@ -29347,7 +29256,7 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="188" t="s">
         <v>83</v>
       </c>
@@ -29358,7 +29267,7 @@
         <v>44852</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="70" t="s">
         <v>9</v>
       </c>
@@ -29369,7 +29278,7 @@
         <v>44856</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="70" t="s">
         <v>221</v>
       </c>
@@ -29380,7 +29289,7 @@
         <v>44856</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="184" t="s">
         <v>9</v>
       </c>
@@ -29391,7 +29300,7 @@
         <v>44856</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="184" t="s">
         <v>8</v>
       </c>
@@ -29402,7 +29311,7 @@
         <v>44877</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="189" t="s">
         <v>393</v>
       </c>
@@ -29413,7 +29322,7 @@
         <v>44878</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="70" t="s">
         <v>117</v>
       </c>
@@ -29424,7 +29333,7 @@
         <v>44878</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="184" t="s">
         <v>324</v>
       </c>
@@ -29435,7 +29344,7 @@
         <v>44880</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="70" t="s">
         <v>287</v>
       </c>
@@ -29446,7 +29355,7 @@
         <v>44881</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="189" t="s">
         <v>174</v>
       </c>
@@ -29457,7 +29366,7 @@
         <v>44882</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="189" t="s">
         <v>189</v>
       </c>
@@ -29468,7 +29377,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="184" t="s">
         <v>82</v>
       </c>
@@ -29479,7 +29388,7 @@
         <v>44894</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="70" t="s">
         <v>557</v>
       </c>
@@ -29490,7 +29399,7 @@
         <v>44913</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="70" t="s">
         <v>11</v>
       </c>
@@ -29501,7 +29410,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="188" t="s">
         <v>586</v>
       </c>
@@ -29512,7 +29421,7 @@
         <v>44918</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="70" t="s">
         <v>189</v>
       </c>
@@ -29523,7 +29432,7 @@
         <v>44919</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="187" t="s">
         <v>53</v>
       </c>
@@ -29534,7 +29443,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="70" t="s">
         <v>300</v>
       </c>
@@ -29545,7 +29454,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="184" t="s">
         <v>231</v>
       </c>
@@ -29556,7 +29465,7 @@
         <v>44940</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="70" t="s">
         <v>162</v>
       </c>
@@ -29567,7 +29476,7 @@
         <v>44943</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="70" t="s">
         <v>389</v>
       </c>
@@ -29578,7 +29487,7 @@
         <v>44943</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="184" t="s">
         <v>222</v>
       </c>
@@ -29589,7 +29498,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="184" t="s">
         <v>82</v>
       </c>
@@ -29600,7 +29509,7 @@
         <v>44949</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="189" t="s">
         <v>768</v>
       </c>
@@ -29611,7 +29520,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="189" t="s">
         <v>262</v>
       </c>
@@ -29622,7 +29531,7 @@
         <v>44953</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="70" t="s">
         <v>173</v>
       </c>
@@ -29633,7 +29542,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="184" t="s">
         <v>117</v>
       </c>
@@ -29644,7 +29553,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="184" t="s">
         <v>323</v>
       </c>
@@ -29655,7 +29564,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="184" t="s">
         <v>221</v>
       </c>
@@ -29666,7 +29575,7 @@
         <v>44969</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="184" t="s">
         <v>245</v>
       </c>
@@ -29677,7 +29586,7 @@
         <v>44971</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="184" t="s">
         <v>9</v>
       </c>
@@ -29688,7 +29597,7 @@
         <v>44976</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="184" t="s">
         <v>292</v>
       </c>
@@ -29699,7 +29608,7 @@
         <v>44977</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="184" t="s">
         <v>586</v>
       </c>
@@ -29710,7 +29619,7 @@
         <v>44978</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="184" t="s">
         <v>324</v>
       </c>
@@ -29721,7 +29630,7 @@
         <v>44978</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="189" t="s">
         <v>430</v>
       </c>
@@ -29732,7 +29641,7 @@
         <v>44992</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="189" t="s">
         <v>557</v>
       </c>
@@ -29743,7 +29652,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="189" t="s">
         <v>174</v>
       </c>
@@ -29754,7 +29663,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="184" t="s">
         <v>282</v>
       </c>
@@ -29765,7 +29674,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="189" t="s">
         <v>8</v>
       </c>
@@ -29776,7 +29685,7 @@
         <v>44997</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="184" t="s">
         <v>11</v>
       </c>
@@ -29787,7 +29696,7 @@
         <v>44999</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="70" t="s">
         <v>303</v>
       </c>
@@ -29798,7 +29707,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="189" t="s">
         <v>93</v>
       </c>
@@ -29809,7 +29718,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="189" t="s">
         <v>763</v>
       </c>
@@ -29820,7 +29729,7 @@
         <v>45002</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="189" t="s">
         <v>287</v>
       </c>
@@ -29831,7 +29740,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="170" t="s">
         <v>345</v>
       </c>
@@ -29842,7 +29751,7 @@
         <v>45005</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="180" t="s">
         <v>262</v>
       </c>
@@ -29853,7 +29762,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="170" t="s">
         <v>373</v>
       </c>
@@ -29864,7 +29773,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="170" t="s">
         <v>82</v>
       </c>
@@ -29875,7 +29784,7 @@
         <v>45024</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="180" t="s">
         <v>289</v>
       </c>
@@ -29886,7 +29795,7 @@
         <v>45029</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="184" t="s">
         <v>389</v>
       </c>
@@ -29897,7 +29806,7 @@
         <v>45040</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="184" t="s">
         <v>173</v>
       </c>
@@ -29908,7 +29817,7 @@
         <v>45043</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="180" t="s">
         <v>300</v>
       </c>
@@ -29919,7 +29828,7 @@
         <v>45046</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="170" t="s">
         <v>83</v>
       </c>
@@ -29930,7 +29839,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="170" t="s">
         <v>189</v>
       </c>
@@ -29941,7 +29850,7 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="180" t="s">
         <v>303</v>
       </c>
@@ -29952,7 +29861,7 @@
         <v>45067</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="170" t="s">
         <v>292</v>
       </c>
@@ -29963,7 +29872,7 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="189" t="s">
         <v>312</v>
       </c>
@@ -29974,7 +29883,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="180" t="s">
         <v>174</v>
       </c>
@@ -29985,7 +29894,7 @@
         <v>45080</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="184" t="s">
         <v>231</v>
       </c>
@@ -29996,7 +29905,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="189" t="s">
         <v>763</v>
       </c>
@@ -30007,7 +29916,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="170" t="s">
         <v>792</v>
       </c>
@@ -30018,7 +29927,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="189" t="s">
         <v>393</v>
       </c>
@@ -30029,7 +29938,7 @@
         <v>45091</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="184" t="s">
         <v>373</v>
       </c>
@@ -30040,7 +29949,7 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="170" t="s">
         <v>703</v>
       </c>
@@ -30051,7 +29960,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="170" t="s">
         <v>53</v>
       </c>
@@ -30062,7 +29971,7 @@
         <v>45112</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="184" t="s">
         <v>71</v>
       </c>
@@ -30073,7 +29982,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="184" t="s">
         <v>221</v>
       </c>
@@ -30084,7 +29993,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="184" t="s">
         <v>586</v>
       </c>
@@ -30095,7 +30004,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="184" t="s">
         <v>245</v>
       </c>
@@ -30106,7 +30015,7 @@
         <v>45118</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="170" t="s">
         <v>323</v>
       </c>
@@ -30117,7 +30026,7 @@
         <v>45122</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="184" t="s">
         <v>324</v>
       </c>
@@ -30128,7 +30037,7 @@
         <v>45123</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="189" t="s">
         <v>768</v>
       </c>
@@ -30139,7 +30048,7 @@
         <v>45126</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="170" t="s">
         <v>117</v>
       </c>
@@ -30150,7 +30059,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="14" t="s">
         <v>173</v>
       </c>
@@ -30161,7 +30070,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="180" t="s">
         <v>162</v>
       </c>
@@ -30172,7 +30081,7 @@
         <v>45144</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="184" t="s">
         <v>222</v>
       </c>
@@ -30183,7 +30092,7 @@
         <v>45144</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="170" t="s">
         <v>9</v>
       </c>
@@ -30194,7 +30103,7 @@
         <v>45150</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="70" t="s">
         <v>19</v>
       </c>
@@ -30205,7 +30114,7 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="70" t="s">
         <v>8</v>
       </c>
@@ -30216,7 +30125,7 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="169" t="s">
         <v>93</v>
       </c>
@@ -30243,27 +30152,28 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" style="169" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" style="169" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" style="169" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" style="169" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" style="179" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" style="179" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" style="169" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="169" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="169" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="169" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="179" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="179" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" style="169" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="1" customWidth="1"/>
     <col min="9" max="11" width="17" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1796875" style="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>795</v>
       </c>
@@ -30286,7 +30196,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="181" t="s">
         <v>20</v>
       </c>
@@ -30297,249 +30207,249 @@
         <v>1</v>
       </c>
       <c r="D2" s="181" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="E2" s="182" t="s">
-        <v>10</v>
+        <v>179</v>
       </c>
       <c r="F2" s="182">
-        <v>45150</v>
+        <v>45176</v>
       </c>
       <c r="G2" s="181">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="169" t="s">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="169" t="s">
+      <c r="B3" s="181" t="s">
         <v>794</v>
       </c>
       <c r="C3" s="169">
         <v>2</v>
       </c>
       <c r="D3" s="169" t="s">
-        <v>287</v>
+        <v>11</v>
       </c>
       <c r="E3" s="179" t="s">
-        <v>179</v>
+        <v>10</v>
       </c>
       <c r="F3" s="179">
-        <v>45155</v>
+        <v>45181</v>
       </c>
       <c r="G3" s="169">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="169" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="169" t="s">
+      <c r="B4" s="181" t="s">
         <v>794</v>
       </c>
       <c r="C4" s="169">
         <v>3</v>
       </c>
       <c r="D4" s="169" t="s">
-        <v>93</v>
+        <v>345</v>
       </c>
       <c r="E4" s="179" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="179">
-        <v>45158</v>
+        <v>45186</v>
       </c>
       <c r="G4" s="169">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="169" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="169" t="s">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="181" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="181" t="s">
         <v>794</v>
       </c>
       <c r="C5" s="169">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5" s="169" t="s">
-        <v>117</v>
+        <v>282</v>
       </c>
       <c r="E5" s="179" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="179">
-        <v>45139</v>
+        <v>45189</v>
       </c>
       <c r="G5" s="169">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="169" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="169" t="s">
+      <c r="B6" s="181" t="s">
         <v>794</v>
       </c>
       <c r="C6" s="169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="169" t="s">
-        <v>222</v>
+        <v>823</v>
       </c>
       <c r="E6" s="179" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F6" s="179">
-        <v>45144</v>
+        <v>45170</v>
       </c>
       <c r="G6" s="169">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="169" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="169" t="s">
+      <c r="B7" s="181" t="s">
         <v>794</v>
       </c>
       <c r="C7" s="169">
+        <v>2</v>
+      </c>
+      <c r="D7" s="169" t="s">
+        <v>289</v>
+      </c>
+      <c r="E7" s="179" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="179">
+        <v>45177</v>
+      </c>
+      <c r="G7" s="169">
         <v>3</v>
       </c>
-      <c r="D7" s="169" t="s">
-        <v>768</v>
-      </c>
-      <c r="E7" s="179" t="s">
-        <v>823</v>
-      </c>
-      <c r="F7" s="179">
-        <v>45149</v>
-      </c>
-      <c r="G7" s="169">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="169" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="169" t="s">
+      <c r="B8" s="181" t="s">
         <v>794</v>
       </c>
       <c r="C8" s="169">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="169" t="s">
-        <v>8</v>
+        <v>300</v>
       </c>
       <c r="E8" s="179" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="179">
-        <v>45151</v>
+        <v>45180</v>
       </c>
       <c r="G8" s="169">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="169" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="169" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="181" t="s">
         <v>794</v>
       </c>
       <c r="C9" s="169">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D9" s="169" t="s">
-        <v>162</v>
+        <v>430</v>
       </c>
       <c r="E9" s="179" t="s">
-        <v>33</v>
+        <v>764</v>
       </c>
       <c r="F9" s="179">
-        <v>45144</v>
+        <v>45183</v>
       </c>
       <c r="G9" s="169">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="169" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="169" t="s">
+      <c r="B10" s="181" t="s">
         <v>794</v>
       </c>
       <c r="C10" s="169">
+        <v>1</v>
+      </c>
+      <c r="D10" s="169" t="s">
+        <v>262</v>
+      </c>
+      <c r="E10" s="179" t="s">
+        <v>179</v>
+      </c>
+      <c r="F10" s="179">
+        <v>45174</v>
+      </c>
+      <c r="G10" s="169">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="169" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="181" t="s">
+        <v>794</v>
+      </c>
+      <c r="C11" s="169">
         <v>2</v>
       </c>
-      <c r="D10" s="169" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="179" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="179">
-        <v>45151</v>
-      </c>
-      <c r="G10" s="169">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="169" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="169" t="s">
-        <v>796</v>
-      </c>
-      <c r="C11" s="169">
-        <v>1</v>
-      </c>
       <c r="D11" s="169" t="s">
-        <v>430</v>
+        <v>299</v>
       </c>
       <c r="E11" s="179" t="s">
-        <v>825</v>
+        <v>33</v>
       </c>
       <c r="F11" s="179">
-        <v>45139</v>
+        <v>45183</v>
       </c>
       <c r="G11" s="169">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="169" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="169" t="s">
-        <v>796</v>
+        <v>22</v>
+      </c>
+      <c r="B12" s="181" t="s">
+        <v>794</v>
       </c>
       <c r="C12" s="169">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" s="169" t="s">
-        <v>824</v>
+        <v>173</v>
       </c>
       <c r="E12" s="179" t="s">
-        <v>825</v>
+        <v>179</v>
       </c>
       <c r="F12" s="179">
-        <v>45141</v>
+        <v>45184</v>
       </c>
       <c r="G12" s="169">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="169" t="s">
         <v>20</v>
       </c>
@@ -30547,22 +30457,22 @@
         <v>796</v>
       </c>
       <c r="C13" s="169">
+        <v>1</v>
+      </c>
+      <c r="D13" s="169" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="179" t="s">
+        <v>824</v>
+      </c>
+      <c r="F13" s="179">
+        <v>45170</v>
+      </c>
+      <c r="G13" s="169">
         <v>3</v>
       </c>
-      <c r="D13" s="169" t="s">
-        <v>287</v>
-      </c>
-      <c r="E13" s="179" t="s">
-        <v>826</v>
-      </c>
-      <c r="F13" s="179">
-        <v>45154</v>
-      </c>
-      <c r="G13" s="169">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="169" t="s">
         <v>20</v>
       </c>
@@ -30570,22 +30480,22 @@
         <v>796</v>
       </c>
       <c r="C14" s="169">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" s="169" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="E14" s="179" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="F14" s="179">
-        <v>45156</v>
+        <v>45173</v>
       </c>
       <c r="G14" s="169">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="169" t="s">
         <v>20</v>
       </c>
@@ -30593,22 +30503,22 @@
         <v>796</v>
       </c>
       <c r="C15" s="169">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" s="169" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E15" s="179" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="F15" s="179">
-        <v>45158</v>
+        <v>45175</v>
       </c>
       <c r="G15" s="169">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="169" t="s">
         <v>20</v>
       </c>
@@ -30616,22 +30526,22 @@
         <v>796</v>
       </c>
       <c r="C16" s="169">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D16" s="169" t="s">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="E16" s="179" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F16" s="179">
-        <v>45160</v>
+        <v>45178</v>
       </c>
       <c r="G16" s="169">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="169" t="s">
         <v>20</v>
       </c>
@@ -30639,22 +30549,22 @@
         <v>796</v>
       </c>
       <c r="C17" s="169">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D17" s="169" t="s">
-        <v>389</v>
+        <v>83</v>
       </c>
       <c r="E17" s="179" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F17" s="179">
-        <v>45163</v>
+        <v>45181</v>
       </c>
       <c r="G17" s="169">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="169" t="s">
         <v>21</v>
       </c>
@@ -30665,19 +30575,19 @@
         <v>1</v>
       </c>
       <c r="D18" s="169" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="E18" s="179" t="s">
-        <v>826</v>
+        <v>848</v>
       </c>
       <c r="F18" s="179">
-        <v>45148</v>
+        <v>45170</v>
       </c>
       <c r="G18" s="169">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="169" t="s">
         <v>21</v>
       </c>
@@ -30688,19 +30598,19 @@
         <v>2</v>
       </c>
       <c r="D19" s="169" t="s">
-        <v>221</v>
+        <v>303</v>
       </c>
       <c r="E19" s="179" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="F19" s="179">
-        <v>45152</v>
+        <v>45173</v>
       </c>
       <c r="G19" s="169">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="169" t="s">
         <v>21</v>
       </c>
@@ -30711,19 +30621,19 @@
         <v>3</v>
       </c>
       <c r="D20" s="169" t="s">
-        <v>222</v>
+        <v>312</v>
       </c>
       <c r="E20" s="179" t="s">
-        <v>826</v>
+        <v>848</v>
       </c>
       <c r="F20" s="179">
-        <v>45155</v>
+        <v>45175</v>
       </c>
       <c r="G20" s="169">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="169" t="s">
         <v>21</v>
       </c>
@@ -30734,19 +30644,19 @@
         <v>4</v>
       </c>
       <c r="D21" s="169" t="s">
-        <v>231</v>
+        <v>373</v>
       </c>
       <c r="E21" s="179" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="F21" s="179">
-        <v>45158</v>
+        <v>45177</v>
       </c>
       <c r="G21" s="169">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="169" t="s">
         <v>21</v>
       </c>
@@ -30757,19 +30667,19 @@
         <v>5</v>
       </c>
       <c r="D22" s="169" t="s">
-        <v>289</v>
+        <v>345</v>
       </c>
       <c r="E22" s="179" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F22" s="179">
-        <v>45161</v>
+        <v>45148</v>
       </c>
       <c r="G22" s="169">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="169" t="s">
         <v>21</v>
       </c>
@@ -30783,39 +30693,39 @@
         <v>143</v>
       </c>
       <c r="E23" s="179" t="s">
-        <v>825</v>
+        <v>848</v>
       </c>
       <c r="F23" s="179">
-        <v>45163</v>
+        <v>45180</v>
       </c>
       <c r="G23" s="169">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="169" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="169" t="s">
         <v>796</v>
       </c>
       <c r="C24" s="169">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D24" s="169" t="s">
-        <v>9</v>
+        <v>262</v>
       </c>
       <c r="E24" s="179" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F24" s="179">
-        <v>45164</v>
+        <v>45170</v>
       </c>
       <c r="G24" s="169">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="169" t="s">
         <v>22</v>
       </c>
@@ -30823,22 +30733,22 @@
         <v>796</v>
       </c>
       <c r="C25" s="169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="169" t="s">
-        <v>19</v>
+        <v>323</v>
       </c>
       <c r="E25" s="179" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="F25" s="179">
-        <v>45142</v>
+        <v>45173</v>
       </c>
       <c r="G25" s="169">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="169" t="s">
         <v>22</v>
       </c>
@@ -30846,22 +30756,22 @@
         <v>796</v>
       </c>
       <c r="C26" s="169">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" s="169" t="s">
-        <v>19</v>
+        <v>300</v>
       </c>
       <c r="E26" s="179" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="F26" s="179">
-        <v>45152</v>
+        <v>45175</v>
       </c>
       <c r="G26" s="169">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="169" t="s">
         <v>22</v>
       </c>
@@ -30869,22 +30779,22 @@
         <v>796</v>
       </c>
       <c r="C27" s="169">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" s="169" t="s">
-        <v>173</v>
+        <v>289</v>
       </c>
       <c r="E27" s="179" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F27" s="179">
-        <v>45154</v>
+        <v>45177</v>
       </c>
       <c r="G27" s="169">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="169" t="s">
         <v>22</v>
       </c>
@@ -30892,22 +30802,22 @@
         <v>796</v>
       </c>
       <c r="C28" s="169">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" s="169" t="s">
-        <v>245</v>
+        <v>71</v>
       </c>
       <c r="E28" s="179" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F28" s="179">
-        <v>45157</v>
+        <v>45179</v>
       </c>
       <c r="G28" s="169">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="169" t="s">
         <v>22</v>
       </c>
@@ -30915,46 +30825,29 @@
         <v>796</v>
       </c>
       <c r="C29" s="169">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D29" s="169" t="s">
-        <v>11</v>
+        <v>231</v>
       </c>
       <c r="E29" s="179" t="s">
-        <v>825</v>
+        <v>848</v>
       </c>
       <c r="F29" s="179">
-        <v>45160</v>
+        <v>45182</v>
       </c>
       <c r="G29" s="169">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="169" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="169" t="s">
-        <v>796</v>
-      </c>
-      <c r="C30" s="169">
-        <v>6</v>
-      </c>
-      <c r="D30" s="169" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="179" t="s">
-        <v>825</v>
-      </c>
-      <c r="F30" s="179">
-        <v>45163</v>
-      </c>
-      <c r="G30" s="169">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G18"/>
+  <autoFilter ref="A1:G29">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Drops"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
@@ -30966,24 +30859,23 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>795</v>
       </c>
@@ -31000,13 +30892,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="183" t="s">
-        <v>833</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="181" t="s">
         <v>20</v>
       </c>
@@ -31025,11 +30914,8 @@
       <c r="F2" s="174">
         <v>45158</v>
       </c>
-      <c r="G2" s="181">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="169" t="s">
         <v>20</v>
       </c>
@@ -31048,11 +30934,8 @@
       <c r="F3" s="179">
         <v>45165</v>
       </c>
-      <c r="G3" s="169">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="169" t="s">
         <v>20</v>
       </c>
@@ -31063,19 +30946,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="169" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="E4" s="169" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="F4" s="179">
         <v>45176</v>
       </c>
-      <c r="G4" s="169" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="169" t="s">
         <v>21</v>
       </c>
@@ -31094,11 +30974,8 @@
       <c r="F5" s="174">
         <v>45151</v>
       </c>
-      <c r="G5" s="181">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="169" t="s">
         <v>21</v>
       </c>
@@ -31117,11 +30994,8 @@
       <c r="F6" s="182">
         <v>45165</v>
       </c>
-      <c r="G6" s="181">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="169" t="s">
         <v>21</v>
       </c>
@@ -31132,19 +31006,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="169" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="E7" s="169" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="F7" s="182">
         <v>45170</v>
       </c>
-      <c r="G7" s="169" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="169" t="s">
         <v>22</v>
       </c>
@@ -31163,11 +31034,8 @@
       <c r="F8" s="174">
         <v>45151</v>
       </c>
-      <c r="G8" s="181">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="169" t="s">
         <v>22</v>
       </c>
@@ -31178,7 +31046,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="169" t="s">
-        <v>859</v>
+        <v>843</v>
       </c>
       <c r="E9" s="179" t="s">
         <v>15</v>
@@ -31186,11 +31054,8 @@
       <c r="F9" s="182">
         <v>45165</v>
       </c>
-      <c r="G9" s="181">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="169" t="s">
         <v>22</v>
       </c>
@@ -31201,19 +31066,16 @@
         <v>1</v>
       </c>
       <c r="D10" s="169" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="E10" s="169" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="F10" s="182">
         <v>45174</v>
       </c>
-      <c r="G10" s="169" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="181" t="s">
         <v>20</v>
       </c>
@@ -31227,16 +31089,13 @@
         <v>221</v>
       </c>
       <c r="E11" s="179" t="s">
-        <v>826</v>
+        <v>850</v>
       </c>
       <c r="F11" s="182">
         <v>45157</v>
       </c>
-      <c r="G11" s="181">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="169" t="s">
         <v>20</v>
       </c>
@@ -31247,19 +31106,16 @@
         <v>0</v>
       </c>
       <c r="D12" s="169" t="s">
-        <v>221</v>
+        <v>173</v>
       </c>
       <c r="E12" s="169" t="s">
-        <v>826</v>
+        <v>850</v>
       </c>
       <c r="F12" s="182">
-        <v>45165</v>
-      </c>
-      <c r="G12" s="169">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+        <v>45167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="169" t="s">
         <v>20</v>
       </c>
@@ -31270,19 +31126,16 @@
         <v>1</v>
       </c>
       <c r="D13" s="181" t="s">
-        <v>231</v>
-      </c>
-      <c r="E13" s="182" t="s">
-        <v>825</v>
+        <v>830</v>
+      </c>
+      <c r="E13" s="181" t="s">
+        <v>830</v>
       </c>
       <c r="F13" s="182">
-        <v>45165</v>
-      </c>
-      <c r="G13" s="181">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="169" t="s">
         <v>21</v>
       </c>
@@ -31293,19 +31146,16 @@
         <v>-1</v>
       </c>
       <c r="D14" s="169" t="s">
-        <v>287</v>
-      </c>
-      <c r="E14" s="179" t="s">
-        <v>826</v>
+        <v>9</v>
+      </c>
+      <c r="E14" s="182" t="s">
+        <v>849</v>
       </c>
       <c r="F14" s="182">
-        <v>45162</v>
-      </c>
-      <c r="G14" s="181">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+        <v>45195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="169" t="s">
         <v>21</v>
       </c>
@@ -31316,19 +31166,16 @@
         <v>0</v>
       </c>
       <c r="D15" s="181" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E15" s="182" t="s">
-        <v>825</v>
+        <v>849</v>
       </c>
       <c r="F15" s="182">
-        <v>45165</v>
-      </c>
-      <c r="G15" s="181">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+        <v>45167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="169" t="s">
         <v>21</v>
       </c>
@@ -31339,19 +31186,16 @@
         <v>1</v>
       </c>
       <c r="D16" s="181" t="s">
-        <v>312</v>
-      </c>
-      <c r="E16" s="182" t="s">
-        <v>826</v>
+        <v>18</v>
+      </c>
+      <c r="E16" s="181" t="s">
+        <v>847</v>
       </c>
       <c r="F16" s="182">
-        <v>45167</v>
-      </c>
-      <c r="G16" s="181">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="169" t="s">
         <v>22</v>
       </c>
@@ -31364,17 +31208,14 @@
       <c r="D17" s="169" t="s">
         <v>763</v>
       </c>
-      <c r="E17" s="169" t="s">
-        <v>826</v>
+      <c r="E17" s="182" t="s">
+        <v>850</v>
       </c>
       <c r="F17" s="182">
         <v>45159</v>
       </c>
-      <c r="G17" s="169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="169" t="s">
         <v>22</v>
       </c>
@@ -31385,19 +31226,16 @@
         <v>0</v>
       </c>
       <c r="D18" s="181" t="s">
-        <v>389</v>
+        <v>245</v>
       </c>
       <c r="E18" s="182" t="s">
-        <v>825</v>
+        <v>849</v>
       </c>
       <c r="F18" s="182">
-        <v>45165</v>
-      </c>
-      <c r="G18" s="181">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+        <v>45166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="169" t="s">
         <v>22</v>
       </c>
@@ -31408,23 +31246,20 @@
         <v>1</v>
       </c>
       <c r="D19" s="181" t="s">
-        <v>8</v>
+        <v>222</v>
       </c>
       <c r="E19" s="181" t="s">
-        <v>826</v>
-      </c>
-      <c r="F19" s="225">
-        <v>45165</v>
-      </c>
-      <c r="G19" s="181">
-        <v>2</v>
+        <v>850</v>
+      </c>
+      <c r="F19" s="182">
+        <v>45169</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G19">
-    <filterColumn colId="2">
+  <autoFilter ref="A1:F19">
+    <filterColumn colId="1">
       <filters>
-        <filter val="0"/>
+        <filter val="Drops"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menna.mostafa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menna.mostafa\Desktop\1. EPIS Co\1. EPIS\1. Rigs\1. KPC\9. Streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20280" windowHeight="7020" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Audit_Teams_Follow_Up" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2851" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2858" uniqueCount="854">
   <si>
     <t>Team No.</t>
   </si>
@@ -2983,6 +2983,15 @@
   </si>
   <si>
     <t>3rd Campaign</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>QASR-59</t>
+  </si>
+  <si>
+    <t>Salam</t>
   </si>
 </sst>
 </file>
@@ -14990,9 +14999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15077,7 +15084,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15119,14 +15126,30 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="D2" s="5">
+        <v>45064</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="F2" s="214" t="s">
+        <v>817</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>853</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -15136,7 +15159,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>824</v>
+        <v>849</v>
       </c>
       <c r="D3" s="5">
         <v>45083</v>
@@ -15161,8 +15184,8 @@
       <c r="B4" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>824</v>
+      <c r="C4" s="3" t="s">
+        <v>849</v>
       </c>
       <c r="D4" s="8">
         <v>45088</v>
@@ -30862,7 +30885,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menna.mostafa\Desktop\1. EPIS Co\1. EPIS\1. Rigs\1. KPC\9. Streamlit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9D6AF4-D72A-4B6E-AFD9-97CD50A231AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20280" windowHeight="7020" activeTab="6"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Audit_Teams_Follow_Up" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">All_Critical_Points!$A$1:$I$265</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Phase_Dates!$A$1:$C$162</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Plan!$A$1:$G$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Plan!$A$1:$G$30</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Team_Management!$A$1:$F$19</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -31,23 +32,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2858" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2862" uniqueCount="853">
   <si>
     <t>Team No.</t>
   </si>
@@ -2976,9 +2966,6 @@
     <t>No Job</t>
   </si>
   <si>
-    <t>3rd</t>
-  </si>
-  <si>
     <t>4th Campaign</t>
   </si>
   <si>
@@ -2997,7 +2984,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yyyy;@"/>
@@ -4259,15 +4246,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Currency 2" xfId="7"/>
+    <cellStyle name="Currency 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 2 2 2" xfId="4"/>
-    <cellStyle name="Normal 2 2 3" xfId="2"/>
-    <cellStyle name="Normal 2 2 4" xfId="5"/>
-    <cellStyle name="Normal 2 3" xfId="1"/>
-    <cellStyle name="Normal 2 3 3" xfId="6"/>
-    <cellStyle name="Normal 2 4" xfId="3"/>
-    <cellStyle name="Normal 3" xfId="8"/>
+    <cellStyle name="Normal 2 2 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 2 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2 2 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 2 3 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 2 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="1328">
     <dxf>
@@ -14996,7 +14983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15080,7 +15067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15133,22 +15120,22 @@
         <v>173</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D2" s="5">
         <v>45064</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F2" s="214" t="s">
         <v>817</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>852</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -15159,7 +15146,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D3" s="5">
         <v>45083</v>
@@ -15185,7 +15172,7 @@
         <v>245</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D4" s="8">
         <v>45088</v>
@@ -15214,7 +15201,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I266"/>
   <sheetViews>
     <sheetView zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
@@ -22844,7 +22831,7 @@
       <c r="G266" s="224"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I265"/>
+  <autoFilter ref="A1:I265" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G59">
     <cfRule type="containsText" dxfId="1327" priority="1453" operator="containsText" text="0">
@@ -28302,7 +28289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28360,7 +28347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C162"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -30160,8 +30147,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C162">
-    <sortState ref="A2:C162">
+  <autoFilter ref="A1:C162" xr:uid="{00000000-0009-0000-0000-000004000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C162">
       <sortCondition ref="C1:C160"/>
     </sortState>
   </autoFilter>
@@ -30174,12 +30161,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30483,7 +30470,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="169" t="s">
-        <v>53</v>
+        <v>222</v>
       </c>
       <c r="E13" s="179" t="s">
         <v>824</v>
@@ -30506,13 +30493,13 @@
         <v>2</v>
       </c>
       <c r="D14" s="169" t="s">
-        <v>299</v>
+        <v>823</v>
       </c>
       <c r="E14" s="179" t="s">
         <v>824</v>
       </c>
       <c r="F14" s="179">
-        <v>45173</v>
+        <v>45176</v>
       </c>
       <c r="G14" s="169">
         <v>2</v>
@@ -30529,16 +30516,16 @@
         <v>3</v>
       </c>
       <c r="D15" s="169" t="s">
-        <v>82</v>
+        <v>300</v>
       </c>
       <c r="E15" s="179" t="s">
         <v>824</v>
       </c>
       <c r="F15" s="179">
-        <v>45175</v>
+        <v>45182</v>
       </c>
       <c r="G15" s="169">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -30552,16 +30539,16 @@
         <v>4</v>
       </c>
       <c r="D16" s="169" t="s">
-        <v>162</v>
+        <v>323</v>
       </c>
       <c r="E16" s="179" t="s">
         <v>824</v>
       </c>
       <c r="F16" s="179">
-        <v>45178</v>
+        <v>45182</v>
       </c>
       <c r="G16" s="169">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -30575,13 +30562,13 @@
         <v>5</v>
       </c>
       <c r="D17" s="169" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E17" s="179" t="s">
         <v>824</v>
       </c>
       <c r="F17" s="179">
-        <v>45181</v>
+        <v>45184</v>
       </c>
       <c r="G17" s="169">
         <v>3</v>
@@ -30589,22 +30576,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="169" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="169" t="s">
         <v>796</v>
       </c>
       <c r="C18" s="169">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D18" s="169" t="s">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="E18" s="179" t="s">
-        <v>848</v>
+        <v>824</v>
       </c>
       <c r="F18" s="179">
-        <v>45170</v>
+        <v>45189</v>
       </c>
       <c r="G18" s="169">
         <v>3</v>
@@ -30618,7 +30605,7 @@
         <v>796</v>
       </c>
       <c r="C19" s="169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="169" t="s">
         <v>303</v>
@@ -30627,7 +30614,7 @@
         <v>824</v>
       </c>
       <c r="F19" s="179">
-        <v>45173</v>
+        <v>45175</v>
       </c>
       <c r="G19" s="169">
         <v>2</v>
@@ -30641,16 +30628,16 @@
         <v>796</v>
       </c>
       <c r="C20" s="169">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" s="169" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="E20" s="179" t="s">
-        <v>848</v>
+        <v>824</v>
       </c>
       <c r="F20" s="179">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="G20" s="169">
         <v>2</v>
@@ -30664,7 +30651,7 @@
         <v>796</v>
       </c>
       <c r="C21" s="169">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" s="169" t="s">
         <v>373</v>
@@ -30673,7 +30660,7 @@
         <v>824</v>
       </c>
       <c r="F21" s="179">
-        <v>45177</v>
+        <v>45179</v>
       </c>
       <c r="G21" s="169">
         <v>2</v>
@@ -30687,19 +30674,19 @@
         <v>796</v>
       </c>
       <c r="C22" s="169">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" s="169" t="s">
-        <v>345</v>
+        <v>82</v>
       </c>
       <c r="E22" s="179" t="s">
         <v>824</v>
       </c>
       <c r="F22" s="179">
-        <v>45148</v>
+        <v>45181</v>
       </c>
       <c r="G22" s="169">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -30710,39 +30697,39 @@
         <v>796</v>
       </c>
       <c r="C23" s="169">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" s="169" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="E23" s="179" t="s">
-        <v>848</v>
+        <v>824</v>
       </c>
       <c r="F23" s="179">
-        <v>45180</v>
+        <v>45192</v>
       </c>
       <c r="G23" s="169">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="169" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="169" t="s">
         <v>796</v>
       </c>
       <c r="C24" s="169">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D24" s="169" t="s">
-        <v>262</v>
+        <v>83</v>
       </c>
       <c r="E24" s="179" t="s">
         <v>824</v>
       </c>
       <c r="F24" s="179">
-        <v>45170</v>
+        <v>45195</v>
       </c>
       <c r="G24" s="169">
         <v>3</v>
@@ -30756,16 +30743,16 @@
         <v>796</v>
       </c>
       <c r="C25" s="169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" s="169" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="E25" s="179" t="s">
         <v>824</v>
       </c>
       <c r="F25" s="179">
-        <v>45173</v>
+        <v>45170</v>
       </c>
       <c r="G25" s="169">
         <v>2</v>
@@ -30779,16 +30766,16 @@
         <v>796</v>
       </c>
       <c r="C26" s="169">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" s="169" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="E26" s="179" t="s">
         <v>824</v>
       </c>
       <c r="F26" s="179">
-        <v>45175</v>
+        <v>45180</v>
       </c>
       <c r="G26" s="169">
         <v>2</v>
@@ -30802,19 +30789,19 @@
         <v>796</v>
       </c>
       <c r="C27" s="169">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" s="169" t="s">
-        <v>289</v>
+        <v>71</v>
       </c>
       <c r="E27" s="179" t="s">
         <v>824</v>
       </c>
       <c r="F27" s="179">
-        <v>45177</v>
+        <v>45182</v>
       </c>
       <c r="G27" s="169">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -30825,16 +30812,16 @@
         <v>796</v>
       </c>
       <c r="C28" s="169">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" s="169" t="s">
-        <v>71</v>
+        <v>231</v>
       </c>
       <c r="E28" s="179" t="s">
         <v>824</v>
       </c>
       <c r="F28" s="179">
-        <v>45179</v>
+        <v>45185</v>
       </c>
       <c r="G28" s="169">
         <v>3</v>
@@ -30848,23 +30835,46 @@
         <v>796</v>
       </c>
       <c r="C29" s="169">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29" s="169" t="s">
-        <v>231</v>
+        <v>299</v>
       </c>
       <c r="E29" s="179" t="s">
-        <v>848</v>
+        <v>824</v>
       </c>
       <c r="F29" s="179">
-        <v>45182</v>
+        <v>45188</v>
       </c>
       <c r="G29" s="169">
         <v>2</v>
       </c>
     </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="169" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="169" t="s">
+        <v>796</v>
+      </c>
+      <c r="C30" s="169">
+        <v>6</v>
+      </c>
+      <c r="D30" s="169" t="s">
+        <v>143</v>
+      </c>
+      <c r="E30" s="179" t="s">
+        <v>824</v>
+      </c>
+      <c r="F30" s="179">
+        <v>45194</v>
+      </c>
+      <c r="G30" s="169">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G29">
+  <autoFilter ref="A1:G30" xr:uid="{00000000-0009-0000-0000-000005000000}">
     <filterColumn colId="1">
       <filters>
         <filter val="Drops"/>
@@ -30880,12 +30890,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31112,7 +31122,7 @@
         <v>221</v>
       </c>
       <c r="E11" s="179" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F11" s="182">
         <v>45157</v>
@@ -31132,7 +31142,7 @@
         <v>173</v>
       </c>
       <c r="E12" s="169" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F12" s="182">
         <v>45167</v>
@@ -31172,7 +31182,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="182" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F14" s="182">
         <v>45195</v>
@@ -31192,7 +31202,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="182" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F15" s="182">
         <v>45167</v>
@@ -31232,7 +31242,7 @@
         <v>763</v>
       </c>
       <c r="E17" s="182" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F17" s="182">
         <v>45159</v>
@@ -31252,7 +31262,7 @@
         <v>245</v>
       </c>
       <c r="E18" s="182" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F18" s="182">
         <v>45166</v>
@@ -31272,14 +31282,14 @@
         <v>222</v>
       </c>
       <c r="E19" s="181" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F19" s="182">
         <v>45169</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F19">
+  <autoFilter ref="A1:F19" xr:uid="{00000000-0009-0000-0000-000006000000}">
     <filterColumn colId="1">
       <filters>
         <filter val="Drops"/>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9D6AF4-D72A-4B6E-AFD9-97CD50A231AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE0310F-FA53-485B-9B63-C5948CE4D952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Audit_Teams_Follow_Up" sheetId="1" r:id="rId1"/>
@@ -2908,9 +2908,6 @@
     <t>Actual Date</t>
   </si>
   <si>
-    <t>Not Determined</t>
-  </si>
-  <si>
     <t>3.3.17</t>
   </si>
   <si>
@@ -2951,9 +2948,6 @@
     <t>Menes</t>
   </si>
   <si>
-    <t>EDC-80</t>
-  </si>
-  <si>
     <t>UMB-262</t>
   </si>
   <si>
@@ -2979,6 +2973,12 @@
   </si>
   <si>
     <t>Salam</t>
+  </si>
+  <si>
+    <t>3rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4th </t>
   </si>
 </sst>
 </file>
@@ -14986,7 +14986,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15071,7 +15073,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15120,22 +15122,22 @@
         <v>173</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D2" s="5">
         <v>45064</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="F2" s="214" t="s">
         <v>817</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -15146,7 +15148,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D3" s="5">
         <v>45083</v>
@@ -15158,10 +15160,10 @@
         <v>817</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15172,7 +15174,7 @@
         <v>245</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D4" s="8">
         <v>45088</v>
@@ -15184,10 +15186,10 @@
         <v>817</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
   </sheetData>
@@ -22740,13 +22742,13 @@
         <v>174</v>
       </c>
       <c r="B263" s="215" t="s">
+        <v>830</v>
+      </c>
+      <c r="C263" s="20" t="s">
         <v>831</v>
       </c>
-      <c r="C263" s="20" t="s">
+      <c r="D263" s="216" t="s">
         <v>832</v>
-      </c>
-      <c r="D263" s="216" t="s">
-        <v>833</v>
       </c>
       <c r="E263" s="217" t="s">
         <v>31</v>
@@ -22769,19 +22771,19 @@
         <v>174</v>
       </c>
       <c r="B264" s="218" t="s">
+        <v>833</v>
+      </c>
+      <c r="C264" s="15" t="s">
         <v>834</v>
       </c>
-      <c r="C264" s="15" t="s">
+      <c r="D264" s="219" t="s">
         <v>835</v>
-      </c>
-      <c r="D264" s="219" t="s">
-        <v>836</v>
       </c>
       <c r="E264" s="217" t="s">
         <v>31</v>
       </c>
       <c r="F264" s="12" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G264" s="220" t="s">
         <v>12</v>
@@ -22798,19 +22800,19 @@
         <v>174</v>
       </c>
       <c r="B265" s="218" t="s">
+        <v>837</v>
+      </c>
+      <c r="C265" s="15" t="s">
         <v>838</v>
       </c>
-      <c r="C265" s="15" t="s">
+      <c r="D265" s="221" t="s">
         <v>839</v>
-      </c>
-      <c r="D265" s="221" t="s">
-        <v>840</v>
       </c>
       <c r="E265" s="222" t="s">
         <v>31</v>
       </c>
       <c r="F265" s="10" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G265" s="220" t="s">
         <v>12</v>
@@ -30165,8 +30167,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="D19:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30473,7 +30475,7 @@
         <v>222</v>
       </c>
       <c r="E13" s="179" t="s">
-        <v>824</v>
+        <v>851</v>
       </c>
       <c r="F13" s="179">
         <v>45170</v>
@@ -30749,7 +30751,7 @@
         <v>312</v>
       </c>
       <c r="E25" s="179" t="s">
-        <v>824</v>
+        <v>851</v>
       </c>
       <c r="F25" s="179">
         <v>45170</v>
@@ -30818,7 +30820,7 @@
         <v>231</v>
       </c>
       <c r="E28" s="179" t="s">
-        <v>824</v>
+        <v>851</v>
       </c>
       <c r="F28" s="179">
         <v>45185</v>
@@ -30864,7 +30866,7 @@
         <v>143</v>
       </c>
       <c r="E30" s="179" t="s">
-        <v>824</v>
+        <v>851</v>
       </c>
       <c r="F30" s="179">
         <v>45194</v>
@@ -30895,7 +30897,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30959,10 +30961,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="169" t="s">
-        <v>287</v>
+        <v>18</v>
       </c>
       <c r="E3" s="179" t="s">
-        <v>179</v>
+        <v>845</v>
       </c>
       <c r="F3" s="179">
         <v>45165</v>
@@ -30978,11 +30980,11 @@
       <c r="C4" s="169">
         <v>1</v>
       </c>
-      <c r="D4" s="169" t="s">
-        <v>830</v>
-      </c>
-      <c r="E4" s="169" t="s">
-        <v>830</v>
+      <c r="D4" s="181" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="182" t="s">
+        <v>179</v>
       </c>
       <c r="F4" s="179">
         <v>45176</v>
@@ -31019,10 +31021,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="169" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E6" s="179" t="s">
-        <v>10</v>
+        <v>845</v>
       </c>
       <c r="F6" s="182">
         <v>45165</v>
@@ -31039,10 +31041,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="169" t="s">
-        <v>830</v>
-      </c>
-      <c r="E7" s="169" t="s">
-        <v>830</v>
+        <v>823</v>
+      </c>
+      <c r="E7" s="179" t="s">
+        <v>15</v>
       </c>
       <c r="F7" s="182">
         <v>45170</v>
@@ -31079,10 +31081,10 @@
         <v>0</v>
       </c>
       <c r="D9" s="169" t="s">
-        <v>843</v>
+        <v>18</v>
       </c>
       <c r="E9" s="179" t="s">
-        <v>15</v>
+        <v>845</v>
       </c>
       <c r="F9" s="182">
         <v>45165</v>
@@ -31099,10 +31101,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="169" t="s">
-        <v>830</v>
-      </c>
-      <c r="E10" s="169" t="s">
-        <v>830</v>
+        <v>262</v>
+      </c>
+      <c r="E10" s="179" t="s">
+        <v>179</v>
       </c>
       <c r="F10" s="182">
         <v>45174</v>
@@ -31122,7 +31124,7 @@
         <v>221</v>
       </c>
       <c r="E11" s="179" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="F11" s="182">
         <v>45157</v>
@@ -31139,13 +31141,13 @@
         <v>0</v>
       </c>
       <c r="D12" s="169" t="s">
-        <v>173</v>
+        <v>18</v>
       </c>
       <c r="E12" s="169" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="F12" s="182">
-        <v>45167</v>
+        <v>45158</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -31158,11 +31160,11 @@
       <c r="C13" s="181">
         <v>1</v>
       </c>
-      <c r="D13" s="181" t="s">
-        <v>830</v>
-      </c>
-      <c r="E13" s="181" t="s">
-        <v>830</v>
+      <c r="D13" s="169" t="s">
+        <v>222</v>
+      </c>
+      <c r="E13" s="179" t="s">
+        <v>851</v>
       </c>
       <c r="F13" s="182">
         <v>45170</v>
@@ -31182,7 +31184,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="182" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="F14" s="182">
         <v>45195</v>
@@ -31202,7 +31204,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="182" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="F15" s="182">
         <v>45167</v>
@@ -31218,14 +31220,14 @@
       <c r="C16" s="181">
         <v>1</v>
       </c>
-      <c r="D16" s="181" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="181" t="s">
-        <v>847</v>
+      <c r="D16" s="169" t="s">
+        <v>303</v>
+      </c>
+      <c r="E16" s="179" t="s">
+        <v>824</v>
       </c>
       <c r="F16" s="182">
-        <v>45170</v>
+        <v>45175</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -31242,7 +31244,7 @@
         <v>763</v>
       </c>
       <c r="E17" s="182" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="F17" s="182">
         <v>45159</v>
@@ -31262,7 +31264,7 @@
         <v>245</v>
       </c>
       <c r="E18" s="182" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="F18" s="182">
         <v>45166</v>
@@ -31278,11 +31280,11 @@
       <c r="C19" s="181">
         <v>1</v>
       </c>
-      <c r="D19" s="181" t="s">
-        <v>222</v>
-      </c>
-      <c r="E19" s="181" t="s">
-        <v>849</v>
+      <c r="D19" s="169" t="s">
+        <v>312</v>
+      </c>
+      <c r="E19" s="179" t="s">
+        <v>851</v>
       </c>
       <c r="F19" s="182">
         <v>45169</v>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE0310F-FA53-485B-9B63-C5948CE4D952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6D9976-AF0D-413D-8745-387445E1A6B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Audit_Teams_Follow_Up" sheetId="1" r:id="rId1"/>
@@ -14986,7 +14986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -15073,7 +15073,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30896,8 +30896,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31141,13 +31141,13 @@
         <v>0</v>
       </c>
       <c r="D12" s="169" t="s">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="E12" s="169" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="F12" s="182">
-        <v>45158</v>
+        <v>45167</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menna.mostafa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6D9976-AF0D-413D-8745-387445E1A6B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Audit_Teams_Follow_Up" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">All_Critical_Points!$A$1:$I$265</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Phase_Dates!$A$1:$C$162</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Plan!$A$1:$G$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Plan!$A$1:$G$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Team_Management!$A$1:$F$19</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2862" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2864" uniqueCount="854">
   <si>
     <t>Team No.</t>
   </si>
@@ -2945,18 +2944,6 @@
 </t>
   </si>
   <si>
-    <t>Menes</t>
-  </si>
-  <si>
-    <t>UMB-262</t>
-  </si>
-  <si>
-    <t>Umbarka</t>
-  </si>
-  <si>
-    <t>NU-38</t>
-  </si>
-  <si>
     <t>No Job</t>
   </si>
   <si>
@@ -2979,12 +2966,27 @@
   </si>
   <si>
     <t xml:space="preserve">4th </t>
+  </si>
+  <si>
+    <t>TAYIM-W8</t>
+  </si>
+  <si>
+    <t>Kalabsha</t>
+  </si>
+  <si>
+    <t>Drops Survey</t>
+  </si>
+  <si>
+    <t>UMB-250</t>
+  </si>
+  <si>
+    <t>UMBARKA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yyyy;@"/>
@@ -4246,15 +4248,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Currency 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Currency 2" xfId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 2 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 2 2 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 2 2 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 2 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal 2 3 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normal 2 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Normal 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 2 2 2 2" xfId="4"/>
+    <cellStyle name="Normal 2 2 3" xfId="2"/>
+    <cellStyle name="Normal 2 2 4" xfId="5"/>
+    <cellStyle name="Normal 2 3" xfId="1"/>
+    <cellStyle name="Normal 2 3 3" xfId="6"/>
+    <cellStyle name="Normal 2 4" xfId="3"/>
+    <cellStyle name="Normal 3" xfId="8"/>
   </cellStyles>
   <dxfs count="1328">
     <dxf>
@@ -14983,7 +14985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15069,11 +15071,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15122,22 +15124,22 @@
         <v>173</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="D2" s="5">
         <v>45064</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="F2" s="214" t="s">
         <v>817</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -15148,22 +15150,22 @@
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="D3" s="5">
         <v>45083</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>27</v>
+        <v>844</v>
       </c>
       <c r="F3" s="214" t="s">
         <v>817</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>842</v>
+        <v>852</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>843</v>
+        <v>853</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15171,13 +15173,13 @@
         <v>22</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="D4" s="8">
-        <v>45088</v>
+        <v>45044</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>27</v>
@@ -15186,10 +15188,10 @@
         <v>817</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>841</v>
+        <v>850</v>
       </c>
     </row>
   </sheetData>
@@ -15203,7 +15205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I266"/>
   <sheetViews>
     <sheetView zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
@@ -22833,7 +22835,7 @@
       <c r="G266" s="224"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I265" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:I265"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G59">
     <cfRule type="containsText" dxfId="1327" priority="1453" operator="containsText" text="0">
@@ -28291,7 +28293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28349,11 +28351,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C162"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C163"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C164" sqref="C164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30148,9 +30150,20 @@
         <v>45158</v>
       </c>
     </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="14" t="s">
+        <v>823</v>
+      </c>
+      <c r="B163" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C163" s="174">
+        <v>45170</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C162" xr:uid="{00000000-0009-0000-0000-000004000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C162">
+  <autoFilter ref="A1:C162">
+    <sortState ref="A2:C162">
       <sortCondition ref="C1:C160"/>
     </sortState>
   </autoFilter>
@@ -30163,12 +30176,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="D19:E19"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30208,7 +30221,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="181" t="s">
         <v>20</v>
       </c>
@@ -30231,7 +30244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="181" t="s">
         <v>20</v>
       </c>
@@ -30254,7 +30267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="181" t="s">
         <v>20</v>
       </c>
@@ -30277,7 +30290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="181" t="s">
         <v>20</v>
       </c>
@@ -30300,7 +30313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="169" t="s">
         <v>21</v>
       </c>
@@ -30311,19 +30324,19 @@
         <v>1</v>
       </c>
       <c r="D6" s="169" t="s">
-        <v>823</v>
+        <v>262</v>
       </c>
       <c r="E6" s="179" t="s">
-        <v>15</v>
+        <v>179</v>
       </c>
       <c r="F6" s="179">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="G6" s="169">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="169" t="s">
         <v>21</v>
       </c>
@@ -30334,19 +30347,19 @@
         <v>2</v>
       </c>
       <c r="D7" s="169" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="E7" s="179" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="F7" s="179">
-        <v>45177</v>
+        <v>45183</v>
       </c>
       <c r="G7" s="169">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="169" t="s">
         <v>21</v>
       </c>
@@ -30357,42 +30370,42 @@
         <v>3</v>
       </c>
       <c r="D8" s="169" t="s">
-        <v>300</v>
+        <v>173</v>
       </c>
       <c r="E8" s="179" t="s">
-        <v>10</v>
+        <v>179</v>
       </c>
       <c r="F8" s="179">
-        <v>45180</v>
+        <v>45184</v>
       </c>
       <c r="G8" s="169">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="169" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="181" t="s">
         <v>794</v>
       </c>
       <c r="C9" s="169">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D9" s="169" t="s">
-        <v>430</v>
+        <v>823</v>
       </c>
       <c r="E9" s="179" t="s">
-        <v>764</v>
+        <v>15</v>
       </c>
       <c r="F9" s="179">
-        <v>45183</v>
+        <v>45170</v>
       </c>
       <c r="G9" s="169">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="169" t="s">
         <v>22</v>
       </c>
@@ -30400,22 +30413,22 @@
         <v>794</v>
       </c>
       <c r="C10" s="169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="169" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="E10" s="179" t="s">
-        <v>179</v>
+        <v>10</v>
       </c>
       <c r="F10" s="179">
-        <v>45174</v>
+        <v>45177</v>
       </c>
       <c r="G10" s="169">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="169" t="s">
         <v>22</v>
       </c>
@@ -30423,45 +30436,45 @@
         <v>794</v>
       </c>
       <c r="C11" s="169">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="169" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E11" s="179" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F11" s="179">
-        <v>45183</v>
+        <v>45180</v>
       </c>
       <c r="G11" s="169">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="169" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="181" t="s">
         <v>794</v>
       </c>
       <c r="C12" s="169">
+        <v>4</v>
+      </c>
+      <c r="D12" s="169" t="s">
+        <v>430</v>
+      </c>
+      <c r="E12" s="179" t="s">
+        <v>764</v>
+      </c>
+      <c r="F12" s="179">
+        <v>45183</v>
+      </c>
+      <c r="G12" s="169">
         <v>3</v>
       </c>
-      <c r="D12" s="169" t="s">
-        <v>173</v>
-      </c>
-      <c r="E12" s="179" t="s">
-        <v>179</v>
-      </c>
-      <c r="F12" s="179">
-        <v>45184</v>
-      </c>
-      <c r="G12" s="169">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="169" t="s">
         <v>20</v>
       </c>
@@ -30469,22 +30482,22 @@
         <v>796</v>
       </c>
       <c r="C13" s="169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="169" t="s">
-        <v>222</v>
+        <v>823</v>
       </c>
       <c r="E13" s="179" t="s">
-        <v>851</v>
+        <v>824</v>
       </c>
       <c r="F13" s="179">
-        <v>45170</v>
+        <v>45176</v>
       </c>
       <c r="G13" s="169">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="169" t="s">
         <v>20</v>
       </c>
@@ -30492,22 +30505,22 @@
         <v>796</v>
       </c>
       <c r="C14" s="169">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" s="169" t="s">
-        <v>823</v>
+        <v>300</v>
       </c>
       <c r="E14" s="179" t="s">
         <v>824</v>
       </c>
       <c r="F14" s="179">
-        <v>45176</v>
+        <v>45182</v>
       </c>
       <c r="G14" s="169">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="169" t="s">
         <v>20</v>
       </c>
@@ -30515,10 +30528,10 @@
         <v>796</v>
       </c>
       <c r="C15" s="169">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" s="169" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="E15" s="179" t="s">
         <v>824</v>
@@ -30530,7 +30543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="169" t="s">
         <v>20</v>
       </c>
@@ -30538,22 +30551,22 @@
         <v>796</v>
       </c>
       <c r="C16" s="169">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" s="169" t="s">
-        <v>323</v>
+        <v>53</v>
       </c>
       <c r="E16" s="179" t="s">
         <v>824</v>
       </c>
       <c r="F16" s="179">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="G16" s="169">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="169" t="s">
         <v>20</v>
       </c>
@@ -30561,45 +30574,45 @@
         <v>796</v>
       </c>
       <c r="C17" s="169">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17" s="169" t="s">
-        <v>53</v>
+        <v>262</v>
       </c>
       <c r="E17" s="179" t="s">
         <v>824</v>
       </c>
       <c r="F17" s="179">
-        <v>45184</v>
+        <v>45189</v>
       </c>
       <c r="G17" s="169">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="169" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" s="169" t="s">
         <v>796</v>
       </c>
       <c r="C18" s="169">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D18" s="169" t="s">
-        <v>262</v>
+        <v>303</v>
       </c>
       <c r="E18" s="179" t="s">
         <v>824</v>
       </c>
       <c r="F18" s="179">
-        <v>45189</v>
+        <v>45175</v>
       </c>
       <c r="G18" s="169">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="169" t="s">
         <v>21</v>
       </c>
@@ -30607,22 +30620,22 @@
         <v>796</v>
       </c>
       <c r="C19" s="169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="169" t="s">
-        <v>303</v>
+        <v>345</v>
       </c>
       <c r="E19" s="179" t="s">
         <v>824</v>
       </c>
       <c r="F19" s="179">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="G19" s="169">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="169" t="s">
         <v>21</v>
       </c>
@@ -30630,22 +30643,22 @@
         <v>796</v>
       </c>
       <c r="C20" s="169">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" s="169" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="E20" s="179" t="s">
         <v>824</v>
       </c>
       <c r="F20" s="179">
-        <v>45177</v>
+        <v>45179</v>
       </c>
       <c r="G20" s="169">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="169" t="s">
         <v>21</v>
       </c>
@@ -30653,22 +30666,22 @@
         <v>796</v>
       </c>
       <c r="C21" s="169">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" s="169" t="s">
-        <v>373</v>
+        <v>82</v>
       </c>
       <c r="E21" s="179" t="s">
         <v>824</v>
       </c>
       <c r="F21" s="179">
-        <v>45179</v>
+        <v>45181</v>
       </c>
       <c r="G21" s="169">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="169" t="s">
         <v>21</v>
       </c>
@@ -30676,22 +30689,22 @@
         <v>796</v>
       </c>
       <c r="C22" s="169">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" s="169" t="s">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="E22" s="179" t="s">
         <v>824</v>
       </c>
       <c r="F22" s="179">
-        <v>45181</v>
+        <v>45192</v>
       </c>
       <c r="G22" s="169">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="169" t="s">
         <v>21</v>
       </c>
@@ -30699,45 +30712,45 @@
         <v>796</v>
       </c>
       <c r="C23" s="169">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D23" s="169" t="s">
-        <v>162</v>
+        <v>83</v>
       </c>
       <c r="E23" s="179" t="s">
         <v>824</v>
       </c>
       <c r="F23" s="179">
-        <v>45192</v>
+        <v>45195</v>
       </c>
       <c r="G23" s="169">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="169" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="169" t="s">
         <v>796</v>
       </c>
       <c r="C24" s="169">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D24" s="169" t="s">
-        <v>83</v>
+        <v>312</v>
       </c>
       <c r="E24" s="179" t="s">
-        <v>824</v>
+        <v>847</v>
       </c>
       <c r="F24" s="179">
-        <v>45195</v>
+        <v>45170</v>
       </c>
       <c r="G24" s="169">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="169" t="s">
         <v>22</v>
       </c>
@@ -30745,22 +30758,22 @@
         <v>796</v>
       </c>
       <c r="C25" s="169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="169" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="E25" s="179" t="s">
-        <v>851</v>
+        <v>824</v>
       </c>
       <c r="F25" s="179">
-        <v>45170</v>
+        <v>45180</v>
       </c>
       <c r="G25" s="169">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="169" t="s">
         <v>22</v>
       </c>
@@ -30768,22 +30781,22 @@
         <v>796</v>
       </c>
       <c r="C26" s="169">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" s="169" t="s">
-        <v>289</v>
+        <v>71</v>
       </c>
       <c r="E26" s="179" t="s">
         <v>824</v>
       </c>
       <c r="F26" s="179">
-        <v>45180</v>
+        <v>45182</v>
       </c>
       <c r="G26" s="169">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="169" t="s">
         <v>22</v>
       </c>
@@ -30791,22 +30804,22 @@
         <v>796</v>
       </c>
       <c r="C27" s="169">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" s="169" t="s">
-        <v>71</v>
+        <v>231</v>
       </c>
       <c r="E27" s="179" t="s">
-        <v>824</v>
+        <v>847</v>
       </c>
       <c r="F27" s="179">
-        <v>45182</v>
+        <v>45185</v>
       </c>
       <c r="G27" s="169">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="169" t="s">
         <v>22</v>
       </c>
@@ -30814,22 +30827,22 @@
         <v>796</v>
       </c>
       <c r="C28" s="169">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" s="169" t="s">
-        <v>231</v>
+        <v>299</v>
       </c>
       <c r="E28" s="179" t="s">
-        <v>851</v>
+        <v>824</v>
       </c>
       <c r="F28" s="179">
-        <v>45185</v>
+        <v>45188</v>
       </c>
       <c r="G28" s="169">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="169" t="s">
         <v>22</v>
       </c>
@@ -30837,49 +30850,58 @@
         <v>796</v>
       </c>
       <c r="C29" s="169">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D29" s="169" t="s">
-        <v>299</v>
+        <v>143</v>
       </c>
       <c r="E29" s="179" t="s">
-        <v>824</v>
+        <v>847</v>
       </c>
       <c r="F29" s="179">
-        <v>45188</v>
+        <v>45194</v>
       </c>
       <c r="G29" s="169">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="169" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="169" t="s">
-        <v>796</v>
+      <c r="B30" s="181" t="s">
+        <v>794</v>
       </c>
       <c r="C30" s="169">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D30" s="169" t="s">
-        <v>143</v>
+        <v>430</v>
       </c>
       <c r="E30" s="179" t="s">
-        <v>851</v>
+        <v>764</v>
       </c>
       <c r="F30" s="179">
-        <v>45194</v>
+        <v>45183</v>
       </c>
       <c r="G30" s="169">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="181"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="181"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="181"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G30" xr:uid="{00000000-0009-0000-0000-000005000000}">
+  <autoFilter ref="A1:G29">
     <filterColumn colId="1">
       <filters>
-        <filter val="Drops"/>
+        <filter val="Audit"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -30892,12 +30914,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30930,7 +30952,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="181" t="s">
         <v>20</v>
       </c>
@@ -30950,7 +30972,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="169" t="s">
         <v>20</v>
       </c>
@@ -30964,13 +30986,13 @@
         <v>18</v>
       </c>
       <c r="E3" s="179" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F3" s="179">
         <v>45165</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="169" t="s">
         <v>20</v>
       </c>
@@ -30990,7 +31012,7 @@
         <v>45176</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="169" t="s">
         <v>21</v>
       </c>
@@ -31010,7 +31032,7 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="169" t="s">
         <v>21</v>
       </c>
@@ -31024,13 +31046,13 @@
         <v>18</v>
       </c>
       <c r="E6" s="179" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F6" s="182">
         <v>45165</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="169" t="s">
         <v>21</v>
       </c>
@@ -31041,16 +31063,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="169" t="s">
-        <v>823</v>
+        <v>262</v>
       </c>
       <c r="E7" s="179" t="s">
-        <v>15</v>
+        <v>179</v>
       </c>
       <c r="F7" s="182">
-        <v>45170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>45174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="169" t="s">
         <v>22</v>
       </c>
@@ -31070,7 +31092,7 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="169" t="s">
         <v>22</v>
       </c>
@@ -31084,13 +31106,13 @@
         <v>18</v>
       </c>
       <c r="E9" s="179" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F9" s="182">
         <v>45165</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="169" t="s">
         <v>22</v>
       </c>
@@ -31101,16 +31123,16 @@
         <v>1</v>
       </c>
       <c r="D10" s="169" t="s">
-        <v>262</v>
+        <v>823</v>
       </c>
       <c r="E10" s="179" t="s">
-        <v>179</v>
+        <v>15</v>
       </c>
       <c r="F10" s="182">
-        <v>45174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="181" t="s">
         <v>20</v>
       </c>
@@ -31124,13 +31146,13 @@
         <v>221</v>
       </c>
       <c r="E11" s="179" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="F11" s="182">
         <v>45157</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="169" t="s">
         <v>20</v>
       </c>
@@ -31144,13 +31166,13 @@
         <v>173</v>
       </c>
       <c r="E12" s="169" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="F12" s="182">
         <v>45167</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="169" t="s">
         <v>20</v>
       </c>
@@ -31161,7 +31183,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="169" t="s">
-        <v>222</v>
+        <v>823</v>
       </c>
       <c r="E13" s="179" t="s">
         <v>851</v>
@@ -31170,7 +31192,7 @@
         <v>45170</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="169" t="s">
         <v>21</v>
       </c>
@@ -31184,13 +31206,13 @@
         <v>9</v>
       </c>
       <c r="E14" s="182" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="F14" s="182">
         <v>45195</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="169" t="s">
         <v>21</v>
       </c>
@@ -31204,13 +31226,13 @@
         <v>11</v>
       </c>
       <c r="E15" s="182" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="F15" s="182">
         <v>45167</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="169" t="s">
         <v>21</v>
       </c>
@@ -31230,7 +31252,7 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="169" t="s">
         <v>22</v>
       </c>
@@ -31244,13 +31266,13 @@
         <v>763</v>
       </c>
       <c r="E17" s="182" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="F17" s="182">
         <v>45159</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="169" t="s">
         <v>22</v>
       </c>
@@ -31261,16 +31283,16 @@
         <v>0</v>
       </c>
       <c r="D18" s="181" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="E18" s="182" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="F18" s="182">
-        <v>45166</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="169" t="s">
         <v>22</v>
       </c>
@@ -31284,17 +31306,17 @@
         <v>312</v>
       </c>
       <c r="E19" s="179" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="F19" s="182">
         <v>45169</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F19" xr:uid="{00000000-0009-0000-0000-000006000000}">
+  <autoFilter ref="A1:F19">
     <filterColumn colId="1">
       <filters>
-        <filter val="Drops"/>
+        <filter val="Audit"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menna.mostafa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A371423-772E-449D-898D-EF84AB4393B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Audit_Teams_Follow_Up" sheetId="1" r:id="rId1"/>
@@ -2764,9 +2765,6 @@
     </r>
   </si>
   <si>
-    <t>Last Visit</t>
-  </si>
-  <si>
     <t>No Critical</t>
   </si>
   <si>
@@ -2982,11 +2980,14 @@
   <si>
     <t>UMBARKA</t>
   </si>
+  <si>
+    <t>Rig_Last Visit</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yyyy;@"/>
@@ -4248,15 +4249,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Currency 2" xfId="7"/>
+    <cellStyle name="Currency 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 2 2 2" xfId="4"/>
-    <cellStyle name="Normal 2 2 3" xfId="2"/>
-    <cellStyle name="Normal 2 2 4" xfId="5"/>
-    <cellStyle name="Normal 2 3" xfId="1"/>
-    <cellStyle name="Normal 2 3 3" xfId="6"/>
-    <cellStyle name="Normal 2 4" xfId="3"/>
-    <cellStyle name="Normal 3" xfId="8"/>
+    <cellStyle name="Normal 2 2 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 2 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2 2 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 2 3 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 2 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="1328">
     <dxf>
@@ -14985,7 +14986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15071,11 +15072,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15101,7 +15102,7 @@
         <v>23</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>786</v>
+        <v>853</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>25</v>
@@ -15124,22 +15125,22 @@
         <v>173</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D2" s="5">
         <v>45064</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="F2" s="214" t="s">
+        <v>816</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>844</v>
       </c>
-      <c r="F2" s="214" t="s">
-        <v>817</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>845</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -15150,22 +15151,22 @@
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D3" s="5">
         <v>45083</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F3" s="214" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>852</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15176,7 +15177,7 @@
         <v>222</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D4" s="8">
         <v>45044</v>
@@ -15185,13 +15186,13 @@
         <v>27</v>
       </c>
       <c r="F4" s="225" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>848</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>849</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>850</v>
       </c>
     </row>
   </sheetData>
@@ -15205,12 +15206,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I266"/>
   <sheetViews>
     <sheetView zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15261,25 +15262,25 @@
         <v>53</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>73</v>
@@ -15665,25 +15666,25 @@
         <v>282</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="I16" s="14" t="s">
         <v>144</v>
@@ -16011,25 +16012,25 @@
         <v>11</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="I28" s="14" t="s">
         <v>73</v>
@@ -16210,25 +16211,25 @@
         <v>189</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="I35" s="14" t="s">
         <v>73</v>
@@ -17271,25 +17272,25 @@
         <v>289</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G72" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H72" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="I72" s="14" t="s">
         <v>94</v>
@@ -17383,25 +17384,25 @@
         <v>300</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G76" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H76" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="I76" s="14" t="s">
         <v>94</v>
@@ -17607,25 +17608,25 @@
         <v>323</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G84" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H84" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="I84" s="14" t="s">
         <v>94</v>
@@ -17648,7 +17649,7 @@
         <v>31</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G85" s="14" t="s">
         <v>16</v>
@@ -17677,7 +17678,7 @@
         <v>31</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G86" s="142" t="s">
         <v>12</v>
@@ -17706,7 +17707,7 @@
         <v>31</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G87" s="142" t="s">
         <v>12</v>
@@ -17735,7 +17736,7 @@
         <v>31</v>
       </c>
       <c r="F88" s="14" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G88" s="146" t="s">
         <v>12</v>
@@ -17764,7 +17765,7 @@
         <v>31</v>
       </c>
       <c r="F89" s="14" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G89" s="146" t="s">
         <v>16</v>
@@ -17793,7 +17794,7 @@
         <v>31</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G90" s="14" t="s">
         <v>50</v>
@@ -17820,7 +17821,7 @@
         <v>31</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G91" s="14" t="s">
         <v>50</v>
@@ -17849,7 +17850,7 @@
         <v>31</v>
       </c>
       <c r="F92" s="14" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G92" s="14" t="s">
         <v>50</v>
@@ -17878,7 +17879,7 @@
         <v>31</v>
       </c>
       <c r="F93" s="14" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G93" s="14" t="s">
         <v>12</v>
@@ -17907,7 +17908,7 @@
         <v>31</v>
       </c>
       <c r="F94" s="14" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G94" s="14" t="s">
         <v>12</v>
@@ -17936,7 +17937,7 @@
         <v>48</v>
       </c>
       <c r="F95" s="14" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G95" s="14" t="s">
         <v>12</v>
@@ -17965,7 +17966,7 @@
         <v>31</v>
       </c>
       <c r="F96" s="14" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G96" s="149" t="s">
         <v>12</v>
@@ -17994,7 +17995,7 @@
         <v>31</v>
       </c>
       <c r="F97" s="14" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G97" s="149" t="s">
         <v>12</v>
@@ -18023,7 +18024,7 @@
         <v>31</v>
       </c>
       <c r="F98" s="14" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G98" s="149" t="s">
         <v>12</v>
@@ -18052,7 +18053,7 @@
         <v>31</v>
       </c>
       <c r="F99" s="14" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G99" s="150" t="s">
         <v>12</v>
@@ -18079,7 +18080,7 @@
         <v>48</v>
       </c>
       <c r="F100" s="14" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G100" s="14" t="s">
         <v>12</v>
@@ -18106,7 +18107,7 @@
         <v>48</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G101" s="14" t="s">
         <v>12</v>
@@ -18133,7 +18134,7 @@
         <v>31</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G102" s="14" t="s">
         <v>12</v>
@@ -18160,7 +18161,7 @@
         <v>31</v>
       </c>
       <c r="F103" s="14" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G103" s="14" t="s">
         <v>12</v>
@@ -18177,25 +18178,25 @@
         <v>8</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D104" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E104" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F104" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G104" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H104" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="I104" s="14" t="s">
         <v>94</v>
@@ -22396,13 +22397,13 @@
         <v>19</v>
       </c>
       <c r="B251" s="69" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C251" s="69" t="s">
         <v>318</v>
       </c>
       <c r="D251" s="69" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E251" s="69" t="s">
         <v>31</v>
@@ -22425,19 +22426,19 @@
         <v>19</v>
       </c>
       <c r="B252" s="69" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C252" s="69">
         <v>0</v>
       </c>
       <c r="D252" s="69" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E252" s="69" t="s">
         <v>48</v>
       </c>
       <c r="F252" s="69" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G252" s="69" t="s">
         <v>50</v>
@@ -22460,13 +22461,13 @@
         <v>0</v>
       </c>
       <c r="D253" s="69" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E253" s="69" t="s">
         <v>31</v>
       </c>
       <c r="F253" s="69" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G253" s="69" t="s">
         <v>50</v>
@@ -22489,13 +22490,13 @@
         <v>0</v>
       </c>
       <c r="D254" s="69" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E254" s="69" t="s">
         <v>31</v>
       </c>
       <c r="F254" s="69" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G254" s="69" t="s">
         <v>50</v>
@@ -22512,19 +22513,19 @@
         <v>19</v>
       </c>
       <c r="B255" s="69" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C255" s="69">
         <v>0</v>
       </c>
       <c r="D255" s="69" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E255" s="69" t="s">
         <v>31</v>
       </c>
       <c r="F255" s="69" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G255" s="69" t="s">
         <v>50</v>
@@ -22547,13 +22548,13 @@
         <v>0</v>
       </c>
       <c r="D256" s="69" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E256" s="69" t="s">
         <v>31</v>
       </c>
       <c r="F256" s="69" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G256" s="69" t="s">
         <v>50</v>
@@ -22576,13 +22577,13 @@
         <v>0</v>
       </c>
       <c r="D257" s="69" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E257" s="69" t="s">
         <v>31</v>
       </c>
       <c r="F257" s="69" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G257" s="69" t="s">
         <v>50</v>
@@ -22628,19 +22629,19 @@
         <v>19</v>
       </c>
       <c r="B259" s="69" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C259" s="69">
         <v>0</v>
       </c>
       <c r="D259" s="69" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E259" s="69" t="s">
         <v>48</v>
       </c>
       <c r="F259" s="69" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G259" s="69" t="s">
         <v>50</v>
@@ -22657,19 +22658,19 @@
         <v>19</v>
       </c>
       <c r="B260" s="69" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C260" s="69">
         <v>0</v>
       </c>
       <c r="D260" s="69" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E260" s="69" t="s">
         <v>48</v>
       </c>
       <c r="F260" s="69" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G260" s="69" t="s">
         <v>50</v>
@@ -22686,13 +22687,13 @@
         <v>93</v>
       </c>
       <c r="B261" s="205" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C261" s="206" t="s">
         <v>124</v>
       </c>
       <c r="D261" s="207" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E261" s="208" t="s">
         <v>31</v>
@@ -22715,19 +22716,19 @@
         <v>93</v>
       </c>
       <c r="B262" s="210" t="s">
+        <v>824</v>
+      </c>
+      <c r="C262" s="210" t="s">
+        <v>827</v>
+      </c>
+      <c r="D262" s="211" t="s">
         <v>825</v>
-      </c>
-      <c r="C262" s="210" t="s">
-        <v>828</v>
-      </c>
-      <c r="D262" s="211" t="s">
-        <v>826</v>
       </c>
       <c r="E262" s="212" t="s">
         <v>31</v>
       </c>
       <c r="F262" s="213" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="G262" s="209" t="s">
         <v>50</v>
@@ -22744,13 +22745,13 @@
         <v>174</v>
       </c>
       <c r="B263" s="215" t="s">
+        <v>829</v>
+      </c>
+      <c r="C263" s="20" t="s">
         <v>830</v>
       </c>
-      <c r="C263" s="20" t="s">
+      <c r="D263" s="216" t="s">
         <v>831</v>
-      </c>
-      <c r="D263" s="216" t="s">
-        <v>832</v>
       </c>
       <c r="E263" s="217" t="s">
         <v>31</v>
@@ -22773,19 +22774,19 @@
         <v>174</v>
       </c>
       <c r="B264" s="218" t="s">
+        <v>832</v>
+      </c>
+      <c r="C264" s="15" t="s">
         <v>833</v>
       </c>
-      <c r="C264" s="15" t="s">
+      <c r="D264" s="219" t="s">
         <v>834</v>
-      </c>
-      <c r="D264" s="219" t="s">
-        <v>835</v>
       </c>
       <c r="E264" s="217" t="s">
         <v>31</v>
       </c>
       <c r="F264" s="12" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G264" s="220" t="s">
         <v>12</v>
@@ -22802,19 +22803,19 @@
         <v>174</v>
       </c>
       <c r="B265" s="218" t="s">
+        <v>836</v>
+      </c>
+      <c r="C265" s="15" t="s">
         <v>837</v>
       </c>
-      <c r="C265" s="15" t="s">
+      <c r="D265" s="221" t="s">
         <v>838</v>
-      </c>
-      <c r="D265" s="221" t="s">
-        <v>839</v>
       </c>
       <c r="E265" s="222" t="s">
         <v>31</v>
       </c>
       <c r="F265" s="10" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G265" s="220" t="s">
         <v>12</v>
@@ -22835,7 +22836,7 @@
       <c r="G266" s="224"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I265"/>
+  <autoFilter ref="A1:I265" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G59">
     <cfRule type="containsText" dxfId="1327" priority="1453" operator="containsText" text="0">
@@ -28293,7 +28294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28304,12 +28305,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -28351,7 +28352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C163"/>
   <sheetViews>
     <sheetView topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
@@ -28376,7 +28377,7 @@
         <v>17</v>
       </c>
       <c r="C1" s="173" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -29932,7 +29933,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="170" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B143" s="192" t="s">
         <v>15</v>
@@ -30152,7 +30153,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="14" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B163" s="14" t="s">
         <v>15</v>
@@ -30162,8 +30163,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C162">
-    <sortState ref="A2:C162">
+  <autoFilter ref="A1:C162" xr:uid="{00000000-0009-0000-0000-000004000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C162">
       <sortCondition ref="C1:C160"/>
     </sortState>
   </autoFilter>
@@ -30176,7 +30177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G33"/>
   <sheetViews>
@@ -30200,13 +30201,13 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>51</v>
@@ -30215,10 +30216,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="183" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -30226,7 +30227,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="181" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C2" s="181">
         <v>1</v>
@@ -30249,7 +30250,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="181" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C3" s="169">
         <v>2</v>
@@ -30272,7 +30273,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="181" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C4" s="169">
         <v>3</v>
@@ -30295,7 +30296,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="181" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C5" s="169">
         <v>4</v>
@@ -30318,7 +30319,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="181" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C6" s="169">
         <v>1</v>
@@ -30341,7 +30342,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="181" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C7" s="169">
         <v>2</v>
@@ -30364,7 +30365,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="181" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C8" s="169">
         <v>3</v>
@@ -30387,13 +30388,13 @@
         <v>22</v>
       </c>
       <c r="B9" s="181" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C9" s="169">
         <v>1</v>
       </c>
       <c r="D9" s="169" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E9" s="179" t="s">
         <v>15</v>
@@ -30410,7 +30411,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="181" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C10" s="169">
         <v>2</v>
@@ -30433,7 +30434,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="181" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C11" s="169">
         <v>3</v>
@@ -30456,7 +30457,7 @@
         <v>20</v>
       </c>
       <c r="B12" s="181" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C12" s="169">
         <v>4</v>
@@ -30479,16 +30480,16 @@
         <v>20</v>
       </c>
       <c r="B13" s="169" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C13" s="169">
         <v>2</v>
       </c>
       <c r="D13" s="169" t="s">
+        <v>822</v>
+      </c>
+      <c r="E13" s="179" t="s">
         <v>823</v>
-      </c>
-      <c r="E13" s="179" t="s">
-        <v>824</v>
       </c>
       <c r="F13" s="179">
         <v>45176</v>
@@ -30502,7 +30503,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="169" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C14" s="169">
         <v>3</v>
@@ -30511,7 +30512,7 @@
         <v>300</v>
       </c>
       <c r="E14" s="179" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F14" s="179">
         <v>45182</v>
@@ -30525,7 +30526,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="169" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C15" s="169">
         <v>4</v>
@@ -30534,7 +30535,7 @@
         <v>323</v>
       </c>
       <c r="E15" s="179" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F15" s="179">
         <v>45182</v>
@@ -30548,7 +30549,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="169" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C16" s="169">
         <v>5</v>
@@ -30557,7 +30558,7 @@
         <v>53</v>
       </c>
       <c r="E16" s="179" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F16" s="179">
         <v>45184</v>
@@ -30571,7 +30572,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="169" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C17" s="169">
         <v>6</v>
@@ -30580,7 +30581,7 @@
         <v>262</v>
       </c>
       <c r="E17" s="179" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F17" s="179">
         <v>45189</v>
@@ -30594,7 +30595,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="169" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C18" s="169">
         <v>1</v>
@@ -30603,7 +30604,7 @@
         <v>303</v>
       </c>
       <c r="E18" s="179" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F18" s="179">
         <v>45175</v>
@@ -30617,7 +30618,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="169" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C19" s="169">
         <v>2</v>
@@ -30626,7 +30627,7 @@
         <v>345</v>
       </c>
       <c r="E19" s="179" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F19" s="179">
         <v>45177</v>
@@ -30640,7 +30641,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="169" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C20" s="169">
         <v>3</v>
@@ -30649,7 +30650,7 @@
         <v>373</v>
       </c>
       <c r="E20" s="179" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F20" s="179">
         <v>45179</v>
@@ -30663,7 +30664,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="169" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C21" s="169">
         <v>4</v>
@@ -30672,7 +30673,7 @@
         <v>82</v>
       </c>
       <c r="E21" s="179" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F21" s="179">
         <v>45181</v>
@@ -30686,7 +30687,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="169" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C22" s="169">
         <v>5</v>
@@ -30695,7 +30696,7 @@
         <v>162</v>
       </c>
       <c r="E22" s="179" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F22" s="179">
         <v>45192</v>
@@ -30709,7 +30710,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="169" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C23" s="169">
         <v>6</v>
@@ -30718,7 +30719,7 @@
         <v>83</v>
       </c>
       <c r="E23" s="179" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F23" s="179">
         <v>45195</v>
@@ -30732,7 +30733,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="169" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C24" s="169">
         <v>1</v>
@@ -30741,7 +30742,7 @@
         <v>312</v>
       </c>
       <c r="E24" s="179" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F24" s="179">
         <v>45170</v>
@@ -30755,7 +30756,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="169" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C25" s="169">
         <v>2</v>
@@ -30764,7 +30765,7 @@
         <v>289</v>
       </c>
       <c r="E25" s="179" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F25" s="179">
         <v>45180</v>
@@ -30778,7 +30779,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="169" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C26" s="169">
         <v>3</v>
@@ -30787,7 +30788,7 @@
         <v>71</v>
       </c>
       <c r="E26" s="179" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F26" s="179">
         <v>45182</v>
@@ -30801,7 +30802,7 @@
         <v>22</v>
       </c>
       <c r="B27" s="169" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C27" s="169">
         <v>4</v>
@@ -30810,7 +30811,7 @@
         <v>231</v>
       </c>
       <c r="E27" s="179" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F27" s="179">
         <v>45185</v>
@@ -30824,7 +30825,7 @@
         <v>22</v>
       </c>
       <c r="B28" s="169" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C28" s="169">
         <v>5</v>
@@ -30833,7 +30834,7 @@
         <v>299</v>
       </c>
       <c r="E28" s="179" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F28" s="179">
         <v>45188</v>
@@ -30847,7 +30848,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="169" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C29" s="169">
         <v>6</v>
@@ -30856,7 +30857,7 @@
         <v>143</v>
       </c>
       <c r="E29" s="179" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F29" s="179">
         <v>45194</v>
@@ -30870,7 +30871,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="181" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C30" s="169">
         <v>4</v>
@@ -30898,7 +30899,7 @@
       <c r="B33" s="181"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G29">
+  <autoFilter ref="A1:G29" xr:uid="{00000000-0009-0000-0000-000005000000}">
     <filterColumn colId="1">
       <filters>
         <filter val="Audit"/>
@@ -30914,12 +30915,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30934,13 +30935,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>51</v>
@@ -30949,7 +30950,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="183" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -30957,7 +30958,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="181" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C2" s="181">
         <v>-1</v>
@@ -30977,7 +30978,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="169" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C3" s="169">
         <v>0</v>
@@ -30986,7 +30987,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="179" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F3" s="179">
         <v>45165</v>
@@ -30997,7 +30998,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="169" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C4" s="169">
         <v>1</v>
@@ -31017,7 +31018,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="169" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C5" s="181">
         <v>-1</v>
@@ -31037,7 +31038,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="169" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C6" s="169">
         <v>0</v>
@@ -31046,7 +31047,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="179" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F6" s="182">
         <v>45165</v>
@@ -31057,7 +31058,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="169" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C7" s="169">
         <v>1</v>
@@ -31077,7 +31078,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="169" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C8" s="181">
         <v>-1</v>
@@ -31097,7 +31098,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="169" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C9" s="169">
         <v>0</v>
@@ -31106,7 +31107,7 @@
         <v>18</v>
       </c>
       <c r="E9" s="179" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F9" s="182">
         <v>45165</v>
@@ -31117,13 +31118,13 @@
         <v>22</v>
       </c>
       <c r="B10" s="169" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C10" s="169">
         <v>1</v>
       </c>
       <c r="D10" s="169" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E10" s="179" t="s">
         <v>15</v>
@@ -31137,7 +31138,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="169" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C11" s="169">
         <v>-1</v>
@@ -31146,7 +31147,7 @@
         <v>221</v>
       </c>
       <c r="E11" s="179" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F11" s="182">
         <v>45157</v>
@@ -31157,7 +31158,7 @@
         <v>20</v>
       </c>
       <c r="B12" s="169" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C12" s="169">
         <v>0</v>
@@ -31166,7 +31167,7 @@
         <v>173</v>
       </c>
       <c r="E12" s="169" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F12" s="182">
         <v>45167</v>
@@ -31177,16 +31178,16 @@
         <v>20</v>
       </c>
       <c r="B13" s="169" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C13" s="181">
         <v>1</v>
       </c>
       <c r="D13" s="169" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E13" s="179" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F13" s="182">
         <v>45170</v>
@@ -31197,7 +31198,7 @@
         <v>21</v>
       </c>
       <c r="B14" s="169" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C14" s="169">
         <v>-1</v>
@@ -31206,7 +31207,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="182" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F14" s="182">
         <v>45195</v>
@@ -31217,7 +31218,7 @@
         <v>21</v>
       </c>
       <c r="B15" s="169" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C15" s="169">
         <v>0</v>
@@ -31226,7 +31227,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="182" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F15" s="182">
         <v>45167</v>
@@ -31237,7 +31238,7 @@
         <v>21</v>
       </c>
       <c r="B16" s="169" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C16" s="181">
         <v>1</v>
@@ -31246,7 +31247,7 @@
         <v>303</v>
       </c>
       <c r="E16" s="179" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F16" s="182">
         <v>45175</v>
@@ -31257,7 +31258,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="169" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C17" s="169">
         <v>-1</v>
@@ -31266,7 +31267,7 @@
         <v>763</v>
       </c>
       <c r="E17" s="182" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F17" s="182">
         <v>45159</v>
@@ -31277,7 +31278,7 @@
         <v>22</v>
       </c>
       <c r="B18" s="169" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C18" s="181">
         <v>0</v>
@@ -31286,7 +31287,7 @@
         <v>222</v>
       </c>
       <c r="E18" s="182" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F18" s="182">
         <v>45169</v>
@@ -31297,7 +31298,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="169" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C19" s="181">
         <v>1</v>
@@ -31306,14 +31307,14 @@
         <v>312</v>
       </c>
       <c r="E19" s="179" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F19" s="182">
         <v>45169</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F19">
+  <autoFilter ref="A1:F19" xr:uid="{00000000-0009-0000-0000-000006000000}">
     <filterColumn colId="1">
       <filters>
         <filter val="Audit"/>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A371423-772E-449D-898D-EF84AB4393B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12755E1A-D5C8-403E-B80E-0460E032D366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Audit_Teams_Follow_Up" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2864" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2865" uniqueCount="855">
   <si>
     <t>Team No.</t>
   </si>
@@ -2982,6 +2982,9 @@
   </si>
   <si>
     <t>Rig_Last Visit</t>
+  </si>
+  <si>
+    <t>Starting_Date</t>
   </si>
 </sst>
 </file>
@@ -14990,7 +14993,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15073,10 +15076,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15088,10 +15091,11 @@
     <col min="6" max="6" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.85546875" style="1"/>
+    <col min="9" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -15116,8 +15120,11 @@
       <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="2" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
@@ -15142,8 +15149,11 @@
       <c r="H2" s="3" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="5">
+        <v>45167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -15168,8 +15178,11 @@
       <c r="H3" s="3" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I3" s="5">
+        <v>45167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -15193,6 +15206,9 @@
       </c>
       <c r="H4" s="7" t="s">
         <v>849</v>
+      </c>
+      <c r="I4" s="8">
+        <v>45169</v>
       </c>
     </row>
   </sheetData>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12755E1A-D5C8-403E-B80E-0460E032D366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3C9B4C-67BC-414E-885C-3EF9944A519B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2865" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2866" uniqueCount="856">
   <si>
     <t>Team No.</t>
   </si>
@@ -2985,6 +2985,9 @@
   </si>
   <si>
     <t>Starting_Date</t>
+  </si>
+  <si>
+    <t>Job_Days</t>
   </si>
 </sst>
 </file>
@@ -3464,7 +3467,7 @@
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="226">
+  <cellXfs count="228">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4250,6 +4253,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Currency 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -15076,10 +15085,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15091,11 +15100,11 @@
     <col min="6" max="6" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.85546875" style="1"/>
+    <col min="9" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -15123,8 +15132,11 @@
       <c r="I1" s="2" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
@@ -15152,8 +15164,11 @@
       <c r="I2" s="5">
         <v>45167</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="226">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -15181,8 +15196,11 @@
       <c r="I3" s="5">
         <v>45167</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="226">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -15209,6 +15227,9 @@
       </c>
       <c r="I4" s="8">
         <v>45169</v>
+      </c>
+      <c r="J4" s="227">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3C9B4C-67BC-414E-885C-3EF9944A519B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6EE7F41-B4F7-48E6-9638-87BE08181B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Audit_Teams_Follow_Up" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,15 @@
     <sheet name="Phase_Dates" sheetId="8" r:id="rId5"/>
     <sheet name="Plan" sheetId="9" r:id="rId6"/>
     <sheet name="Team_Management" sheetId="10" r:id="rId7"/>
+    <sheet name="Rig_Mast_Problems_Drops" sheetId="11" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">All_Critical_Points!$A$1:$I$265</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Phase_Dates!$A$1:$C$162</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Plan!$A$1:$G$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Rig_Mast_Problems_Drops!$A$1:$C$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Team_Management!$A$1:$F$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">Rig_Mast_Problems_Drops!$A$1:$C$12</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2866" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2902" uniqueCount="868">
   <si>
     <t>Team No.</t>
   </si>
@@ -2989,6 +2992,52 @@
   <si>
     <t>Job_Days</t>
   </si>
+  <si>
+    <t>The Mast fall prevention system was in poor condition, as the climb assist was stuck and the secondary retention of the fall arrestor secured at the same anchor point.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the fall arrestor that was mentioned as a critical item,  fall arrestor installed on the handrail and No  load testthere is no SR pad-eye.
+</t>
+  </si>
+  <si>
+    <t>A complete cut was observed in one of the mast ladder steps above 10 steps from the monkey board, it is recommended to avoid any claiming at the mast till fixing this
+problem</t>
+  </si>
+  <si>
+    <t>The Mast fall arrestor is secured with a not standard pad-eye, as it is welded to the crown block handrail. Besides it has no load test, and the secondary
+retention wire of the fall arrestor secured to the handrail is without a pad-ey</t>
+  </si>
+  <si>
+    <t>fall arrestor is stuck</t>
+  </si>
+  <si>
+    <t>1. Climb assist doesn't have prevention system or even there is no separate fall arrestor. 2. Carabiner has a lot of kinks and completely loose "Not Tensioned at all".
+3. The bottom anchor point at ladder base is locally made "Not Standard"</t>
+  </si>
+  <si>
+    <t>fall arrestor pad eyes has no load test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fall Protection System: The fall protection system used does not match the standard personnel securing requirements, where: fall arrestor device is anchored on the derrick ladder used for climbing the first section of the derrick ladder then the derrick man takes off this system and uses the carbineer system from the 2nd section while standing on the derrick ladder which may lead to personnel falling hazard. The fall protection system should reach the
+Fall Arrestor : There is no fall arrestor at the crown block.  , Fall Protection Wire : Observed the fall protection wire had a lot of kinks so it will make a barrier for anyone who will use it as a securing method.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># The vertical lifeline on the mast ladder has some kinks, so cannot use it due to the stuck of the carabiner.
+# The climb assistant device wire is not smoothly UP/Down while using it due to the wire size not being compatible with its counterweight and the sheave above the crown.
+# ( The wire should be 3/8 inch, To achieve the balance between the weight of the wire and the weight of the counterweight Currently the wire is 5/8’’ inch )
+# There is no fall arrestor at the crown block.
+</t>
+  </si>
+  <si>
+    <t>The Mast could not be inspected because the fall prevention system (Vertical lifeline) is in a very bad condition, it is observed that the wire is very rusted, loosen, and has no hard eye. Also, the anchor point is not standardized, as it is secured with a not coded color shackle to a damaged ladder step.</t>
+  </si>
+  <si>
+    <t>Mast Problem Description</t>
+  </si>
+  <si>
+    <t>Rig_Type</t>
+  </si>
 </sst>
 </file>
 
@@ -3000,7 +3049,7 @@
     <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yyyy"/>
     <numFmt numFmtId="167" formatCode="_-&quot;ج.م.‏&quot;\ * #,##0.00_-;_-&quot;ج.م.‏&quot;\ * #,##0.00\-;_-&quot;ج.م.‏&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3244,8 +3293,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3309,6 +3372,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3467,7 +3536,7 @@
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="228">
+  <cellXfs count="230">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4253,11 +4322,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -15087,8 +15162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15164,7 +15239,7 @@
       <c r="I2" s="5">
         <v>45167</v>
       </c>
-      <c r="J2" s="226">
+      <c r="J2" s="3">
         <v>3</v>
       </c>
     </row>
@@ -15196,7 +15271,7 @@
       <c r="I3" s="5">
         <v>45167</v>
       </c>
-      <c r="J3" s="226">
+      <c r="J3" s="3">
         <v>3</v>
       </c>
     </row>
@@ -15228,7 +15303,7 @@
       <c r="I4" s="8">
         <v>45169</v>
       </c>
-      <c r="J4" s="227">
+      <c r="J4" s="7">
         <v>3</v>
       </c>
     </row>
@@ -28393,7 +28468,7 @@
   <dimension ref="A1:C163"/>
   <sheetViews>
     <sheetView topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C164" sqref="C164"/>
+      <selection activeCell="E161" sqref="E161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30219,7 +30294,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30953,11 +31028,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31170,7 +31244,7 @@
         <v>45170</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="181" t="s">
         <v>20</v>
       </c>
@@ -31190,7 +31264,7 @@
         <v>45157</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="169" t="s">
         <v>20</v>
       </c>
@@ -31210,7 +31284,7 @@
         <v>45167</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="169" t="s">
         <v>20</v>
       </c>
@@ -31230,7 +31304,7 @@
         <v>45170</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="169" t="s">
         <v>21</v>
       </c>
@@ -31250,7 +31324,7 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="169" t="s">
         <v>21</v>
       </c>
@@ -31270,7 +31344,7 @@
         <v>45167</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="169" t="s">
         <v>21</v>
       </c>
@@ -31290,7 +31364,7 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="169" t="s">
         <v>22</v>
       </c>
@@ -31310,7 +31384,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="169" t="s">
         <v>22</v>
       </c>
@@ -31330,7 +31404,7 @@
         <v>45169</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="169" t="s">
         <v>22</v>
       </c>
@@ -31351,16 +31425,169 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F19" xr:uid="{00000000-0009-0000-0000-000006000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Audit"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F19" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
     <customPr name="LastActive" r:id="rId1"/>
   </customProperties>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7945326D-7715-4318-B8B9-23419EDC83BA}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" style="228" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.28515625" style="228" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" style="228" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="228"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="227" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="226" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="226" t="s">
+        <v>866</v>
+      </c>
+      <c r="C1" s="226" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="228" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="228" t="s">
+        <v>856</v>
+      </c>
+      <c r="C2" s="228" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="228" t="s">
+        <v>324</v>
+      </c>
+      <c r="B3" s="228" t="s">
+        <v>857</v>
+      </c>
+      <c r="C3" s="228" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A4" s="228" t="s">
+        <v>393</v>
+      </c>
+      <c r="B4" s="228" t="s">
+        <v>858</v>
+      </c>
+      <c r="C4" s="228" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="228" t="s">
+        <v>282</v>
+      </c>
+      <c r="B5" s="228" t="s">
+        <v>859</v>
+      </c>
+      <c r="C5" s="228" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="228" t="s">
+        <v>292</v>
+      </c>
+      <c r="B6" s="228" t="s">
+        <v>857</v>
+      </c>
+      <c r="C6" s="228" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="228" t="s">
+        <v>763</v>
+      </c>
+      <c r="B7" s="228" t="s">
+        <v>860</v>
+      </c>
+      <c r="C7" s="228" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="228" t="s">
+        <v>768</v>
+      </c>
+      <c r="B8" s="229" t="s">
+        <v>861</v>
+      </c>
+      <c r="C8" s="228" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="228" t="s">
+        <v>430</v>
+      </c>
+      <c r="B9" s="228" t="s">
+        <v>862</v>
+      </c>
+      <c r="C9" s="228" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="228" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="228" t="s">
+        <v>863</v>
+      </c>
+      <c r="C10" s="228" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="228" t="s">
+        <v>557</v>
+      </c>
+      <c r="B11" s="229" t="s">
+        <v>864</v>
+      </c>
+      <c r="C11" s="228" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="228" t="s">
+        <v>586</v>
+      </c>
+      <c r="B12" s="229" t="s">
+        <v>865</v>
+      </c>
+      <c r="C12" s="228" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C12" xr:uid="{7945326D-7715-4318-B8B9-23419EDC83BA}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="54" orientation="portrait" r:id="rId1"/>
+  <customProperties>
+    <customPr name="LastActive" r:id="rId2"/>
+  </customProperties>
+</worksheet>
 </file>
--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6EE7F41-B4F7-48E6-9638-87BE08181B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8766A0EF-E7BE-4EE5-8FC6-FBCC58B147C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Audit_Teams_Follow_Up" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2902" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2888" uniqueCount="862">
   <si>
     <t>Team No.</t>
   </si>
@@ -2948,21 +2948,9 @@
     <t>No Job</t>
   </si>
   <si>
-    <t>4th Campaign</t>
-  </si>
-  <si>
     <t>3rd Campaign</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>QASR-59</t>
-  </si>
-  <si>
-    <t>Salam</t>
-  </si>
-  <si>
     <t>3rd</t>
   </si>
   <si>
@@ -2976,12 +2964,6 @@
   </si>
   <si>
     <t>Drops Survey</t>
-  </si>
-  <si>
-    <t>UMB-250</t>
-  </si>
-  <si>
-    <t>UMBARKA</t>
   </si>
   <si>
     <t>Rig_Last Visit</t>
@@ -15162,8 +15144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15190,7 +15172,7 @@
         <v>23</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>25</v>
@@ -15205,75 +15187,35 @@
         <v>3</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>842</v>
-      </c>
-      <c r="D2" s="5">
-        <v>45064</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>843</v>
-      </c>
-      <c r="F2" s="214" t="s">
-        <v>816</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>845</v>
-      </c>
-      <c r="I2" s="5">
-        <v>45167</v>
-      </c>
-      <c r="J2" s="3">
-        <v>3</v>
-      </c>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>841</v>
-      </c>
-      <c r="D3" s="5">
-        <v>45083</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>843</v>
-      </c>
-      <c r="F3" s="214" t="s">
-        <v>816</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>851</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>852</v>
-      </c>
-      <c r="I3" s="5">
-        <v>45167</v>
-      </c>
-      <c r="J3" s="3">
-        <v>3</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="214"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -15283,7 +15225,7 @@
         <v>222</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D4" s="8">
         <v>45044</v>
@@ -15295,10 +15237,10 @@
         <v>816</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="I4" s="8">
         <v>45169</v>
@@ -30854,7 +30796,7 @@
         <v>312</v>
       </c>
       <c r="E24" s="179" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="F24" s="179">
         <v>45170</v>
@@ -30923,7 +30865,7 @@
         <v>231</v>
       </c>
       <c r="E27" s="179" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="F27" s="179">
         <v>45185</v>
@@ -30969,7 +30911,7 @@
         <v>143</v>
       </c>
       <c r="E29" s="179" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="F29" s="179">
         <v>45194</v>
@@ -31258,7 +31200,7 @@
         <v>221</v>
       </c>
       <c r="E11" s="179" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="F11" s="182">
         <v>45157</v>
@@ -31278,7 +31220,7 @@
         <v>173</v>
       </c>
       <c r="E12" s="169" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="F12" s="182">
         <v>45167</v>
@@ -31298,7 +31240,7 @@
         <v>822</v>
       </c>
       <c r="E13" s="179" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F13" s="182">
         <v>45170</v>
@@ -31318,7 +31260,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="182" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="F14" s="182">
         <v>45195</v>
@@ -31338,7 +31280,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="182" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="F15" s="182">
         <v>45167</v>
@@ -31378,7 +31320,7 @@
         <v>763</v>
       </c>
       <c r="E17" s="182" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="F17" s="182">
         <v>45159</v>
@@ -31398,7 +31340,7 @@
         <v>222</v>
       </c>
       <c r="E18" s="182" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="F18" s="182">
         <v>45169</v>
@@ -31418,7 +31360,7 @@
         <v>312</v>
       </c>
       <c r="E19" s="179" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="F19" s="182">
         <v>45169</v>
@@ -31437,9 +31379,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7945326D-7715-4318-B8B9-23419EDC83BA}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -31455,10 +31397,10 @@
         <v>51</v>
       </c>
       <c r="B1" s="226" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="C1" s="226" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
@@ -31466,7 +31408,7 @@
         <v>117</v>
       </c>
       <c r="B2" s="228" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="C2" s="228" t="s">
         <v>73</v>
@@ -31477,7 +31419,7 @@
         <v>324</v>
       </c>
       <c r="B3" s="228" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="C3" s="228" t="s">
         <v>94</v>
@@ -31488,7 +31430,7 @@
         <v>393</v>
       </c>
       <c r="B4" s="228" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C4" s="228" t="s">
         <v>94</v>
@@ -31499,10 +31441,10 @@
         <v>282</v>
       </c>
       <c r="B5" s="228" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C5" s="228" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
@@ -31510,7 +31452,7 @@
         <v>292</v>
       </c>
       <c r="B6" s="228" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="C6" s="228" t="s">
         <v>94</v>
@@ -31521,7 +31463,7 @@
         <v>763</v>
       </c>
       <c r="B7" s="228" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C7" s="228" t="s">
         <v>94</v>
@@ -31532,7 +31474,7 @@
         <v>768</v>
       </c>
       <c r="B8" s="229" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="C8" s="228" t="s">
         <v>94</v>
@@ -31543,7 +31485,7 @@
         <v>430</v>
       </c>
       <c r="B9" s="228" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="C9" s="228" t="s">
         <v>94</v>
@@ -31554,7 +31496,7 @@
         <v>174</v>
       </c>
       <c r="B10" s="228" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="C10" s="228" t="s">
         <v>73</v>
@@ -31565,7 +31507,7 @@
         <v>557</v>
       </c>
       <c r="B11" s="229" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="C11" s="228" t="s">
         <v>73</v>
@@ -31576,7 +31518,7 @@
         <v>586</v>
       </c>
       <c r="B12" s="229" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="C12" s="228" t="s">
         <v>73</v>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8766A0EF-E7BE-4EE5-8FC6-FBCC58B147C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115CCFAC-A699-4E60-8C57-0244953A1063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Audit_Teams_Follow_Up" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">All_Critical_Points!$A$1:$I$265</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Phase_Dates!$A$1:$C$162</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Plan!$A$1:$G$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Plan!$A$1:$G$30</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Rig_Mast_Problems_Drops!$A$1:$C$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Team_Management!$A$1:$F$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">Rig_Mast_Problems_Drops!$A$1:$C$12</definedName>
@@ -15144,8 +15144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30232,11 +30232,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30506,7 +30505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="169" t="s">
         <v>20</v>
       </c>
@@ -30529,7 +30528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="169" t="s">
         <v>20</v>
       </c>
@@ -30552,7 +30551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="169" t="s">
         <v>20</v>
       </c>
@@ -30575,7 +30574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="169" t="s">
         <v>20</v>
       </c>
@@ -30598,7 +30597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="169" t="s">
         <v>20</v>
       </c>
@@ -30621,7 +30620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="169" t="s">
         <v>20</v>
       </c>
@@ -30644,7 +30643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="169" t="s">
         <v>21</v>
       </c>
@@ -30667,7 +30666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="169" t="s">
         <v>21</v>
       </c>
@@ -30690,7 +30689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="169" t="s">
         <v>21</v>
       </c>
@@ -30713,7 +30712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="169" t="s">
         <v>21</v>
       </c>
@@ -30736,7 +30735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="169" t="s">
         <v>21</v>
       </c>
@@ -30759,7 +30758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="169" t="s">
         <v>21</v>
       </c>
@@ -30782,7 +30781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="169" t="s">
         <v>22</v>
       </c>
@@ -30805,7 +30804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="169" t="s">
         <v>22</v>
       </c>
@@ -30828,7 +30827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="169" t="s">
         <v>22</v>
       </c>
@@ -30851,7 +30850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="169" t="s">
         <v>22</v>
       </c>
@@ -30874,7 +30873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="169" t="s">
         <v>22</v>
       </c>
@@ -30897,7 +30896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="169" t="s">
         <v>22</v>
       </c>
@@ -30953,13 +30952,7 @@
       <c r="B33" s="181"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G29" xr:uid="{00000000-0009-0000-0000-000005000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Audit"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G30" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
@@ -30970,10 +30963,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31006,7 +31000,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="181" t="s">
         <v>20</v>
       </c>
@@ -31026,7 +31020,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="169" t="s">
         <v>20</v>
       </c>
@@ -31046,7 +31040,7 @@
         <v>45165</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="169" t="s">
         <v>20</v>
       </c>
@@ -31066,7 +31060,7 @@
         <v>45176</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="169" t="s">
         <v>21</v>
       </c>
@@ -31086,7 +31080,7 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="169" t="s">
         <v>21</v>
       </c>
@@ -31106,7 +31100,7 @@
         <v>45165</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="169" t="s">
         <v>21</v>
       </c>
@@ -31126,7 +31120,7 @@
         <v>45174</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="169" t="s">
         <v>22</v>
       </c>
@@ -31146,7 +31140,7 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="169" t="s">
         <v>22</v>
       </c>
@@ -31166,7 +31160,7 @@
         <v>45165</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="169" t="s">
         <v>22</v>
       </c>
@@ -31186,7 +31180,7 @@
         <v>45170</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="181" t="s">
         <v>20</v>
       </c>
@@ -31217,16 +31211,16 @@
         <v>0</v>
       </c>
       <c r="D12" s="169" t="s">
-        <v>173</v>
+        <v>18</v>
       </c>
       <c r="E12" s="169" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="F12" s="182">
-        <v>45167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="169" t="s">
         <v>20</v>
       </c>
@@ -31246,7 +31240,7 @@
         <v>45170</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="169" t="s">
         <v>21</v>
       </c>
@@ -31276,17 +31270,17 @@
       <c r="C15" s="169">
         <v>0</v>
       </c>
-      <c r="D15" s="181" t="s">
-        <v>11</v>
+      <c r="D15" s="169" t="s">
+        <v>18</v>
       </c>
       <c r="E15" s="182" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="F15" s="182">
-        <v>45167</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="169" t="s">
         <v>21</v>
       </c>
@@ -31306,7 +31300,7 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="169" t="s">
         <v>22</v>
       </c>
@@ -31346,7 +31340,7 @@
         <v>45169</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="169" t="s">
         <v>22</v>
       </c>
@@ -31367,7 +31361,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F19" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
+  <autoFilter ref="A1:F19" xr:uid="{00000000-0009-0000-0000-000006000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Drops"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
     <customPr name="LastActive" r:id="rId1"/>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7095"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7095" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Audit_Teams_Follow_Up" sheetId="1" r:id="rId1"/>
@@ -4393,7 +4393,7 @@
     <cellStyle name="Normal 2 4" xfId="3"/>
     <cellStyle name="Normal 3" xfId="8"/>
   </cellStyles>
-  <dxfs count="1336">
+  <dxfs count="1322">
     <dxf>
       <font>
         <b/>
@@ -4455,121 +4455,6 @@
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.39991454817346722"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -15185,7 +15070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -15287,8 +15172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15346,7 +15231,9 @@
       <c r="C2" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="5">
+        <v>45146</v>
+      </c>
       <c r="E2" s="3" t="s">
         <v>864</v>
       </c>
@@ -23075,5388 +22962,5388 @@
   <autoFilter ref="A1:I265"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G59">
-    <cfRule type="containsText" dxfId="1335" priority="1461" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1321" priority="1461" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1334" priority="1462" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1320" priority="1462" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1333" priority="1463" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1319" priority="1463" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="containsText" dxfId="1332" priority="1457" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1318" priority="1457" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="containsText" dxfId="1331" priority="1456" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1317" priority="1456" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="1330" priority="1458" operator="equal">
+    <cfRule type="cellIs" dxfId="1316" priority="1458" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1329" priority="1459" operator="equal">
+    <cfRule type="cellIs" dxfId="1315" priority="1459" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1328" priority="1460" operator="equal">
+    <cfRule type="cellIs" dxfId="1314" priority="1460" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="1327" priority="1451" operator="equal">
+    <cfRule type="cellIs" dxfId="1313" priority="1451" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1326" priority="1452" operator="equal">
+    <cfRule type="cellIs" dxfId="1312" priority="1452" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1325" priority="1453" operator="equal">
+    <cfRule type="cellIs" dxfId="1311" priority="1453" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60:G60">
-    <cfRule type="containsText" dxfId="1324" priority="1454" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1310" priority="1454" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",#REF!)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60:G60">
-    <cfRule type="containsText" dxfId="1323" priority="1455" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1309" priority="1455" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",#REF!)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="1322" priority="1448" operator="equal">
+    <cfRule type="cellIs" dxfId="1308" priority="1448" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1321" priority="1449" operator="equal">
+    <cfRule type="cellIs" dxfId="1307" priority="1449" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1320" priority="1450" operator="equal">
+    <cfRule type="cellIs" dxfId="1306" priority="1450" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="containsText" dxfId="1319" priority="1443" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1305" priority="1443" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="containsText" dxfId="1318" priority="1444" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1304" priority="1444" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G61">
-    <cfRule type="containsText" dxfId="1317" priority="1445" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1303" priority="1445" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1316" priority="1446" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1302" priority="1446" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1315" priority="1447" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1301" priority="1447" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="1314" priority="1440" operator="equal">
+    <cfRule type="cellIs" dxfId="1300" priority="1440" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1313" priority="1441" operator="equal">
+    <cfRule type="cellIs" dxfId="1299" priority="1441" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1312" priority="1442" operator="equal">
+    <cfRule type="cellIs" dxfId="1298" priority="1442" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62">
-    <cfRule type="containsText" dxfId="1311" priority="1439" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1297" priority="1439" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62">
-    <cfRule type="containsText" dxfId="1310" priority="1435" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1296" priority="1435" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62">
-    <cfRule type="containsText" dxfId="1309" priority="1436" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1295" priority="1436" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1308" priority="1437" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1294" priority="1437" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1307" priority="1438" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1293" priority="1438" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="1306" priority="1432" operator="equal">
+    <cfRule type="cellIs" dxfId="1292" priority="1432" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1305" priority="1433" operator="equal">
+    <cfRule type="cellIs" dxfId="1291" priority="1433" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1304" priority="1434" operator="equal">
+    <cfRule type="cellIs" dxfId="1290" priority="1434" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F63">
-    <cfRule type="containsText" dxfId="1303" priority="1431" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1289" priority="1431" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G63">
-    <cfRule type="containsText" dxfId="1302" priority="1428" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1288" priority="1428" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1301" priority="1429" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1287" priority="1429" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1300" priority="1430" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1286" priority="1430" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="1299" priority="1425" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1285" priority="1425" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1298" priority="1426" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1284" priority="1426" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1297" priority="1427" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1283" priority="1427" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="1296" priority="1422" operator="equal">
+    <cfRule type="cellIs" dxfId="1282" priority="1422" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1295" priority="1423" operator="equal">
+    <cfRule type="cellIs" dxfId="1281" priority="1423" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1294" priority="1424" operator="equal">
+    <cfRule type="cellIs" dxfId="1280" priority="1424" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="1293" priority="1419" operator="equal">
+    <cfRule type="cellIs" dxfId="1279" priority="1419" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1292" priority="1420" operator="equal">
+    <cfRule type="cellIs" dxfId="1278" priority="1420" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1291" priority="1421" operator="equal">
+    <cfRule type="cellIs" dxfId="1277" priority="1421" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="1290" priority="1418" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1276" priority="1418" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="1289" priority="1417" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1275" priority="1417" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="1288" priority="1415" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1274" priority="1415" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="1287" priority="1416" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1273" priority="1416" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="1286" priority="1412" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1272" priority="1412" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1285" priority="1413" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1271" priority="1413" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1284" priority="1414" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1270" priority="1414" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="1283" priority="1409" operator="equal">
+    <cfRule type="cellIs" dxfId="1269" priority="1409" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1282" priority="1410" operator="equal">
+    <cfRule type="cellIs" dxfId="1268" priority="1410" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1281" priority="1411" operator="equal">
+    <cfRule type="cellIs" dxfId="1267" priority="1411" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="1280" priority="1406" operator="equal">
+    <cfRule type="cellIs" dxfId="1266" priority="1406" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1279" priority="1407" operator="equal">
+    <cfRule type="cellIs" dxfId="1265" priority="1407" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1278" priority="1408" operator="equal">
+    <cfRule type="cellIs" dxfId="1264" priority="1408" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="containsText" dxfId="1277" priority="1403" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1263" priority="1403" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1276" priority="1404" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1262" priority="1404" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1275" priority="1405" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1261" priority="1405" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="1274" priority="1402" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1260" priority="1402" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="1273" priority="1399" operator="equal">
+    <cfRule type="cellIs" dxfId="1259" priority="1399" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1272" priority="1400" operator="equal">
+    <cfRule type="cellIs" dxfId="1258" priority="1400" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1271" priority="1401" operator="equal">
+    <cfRule type="cellIs" dxfId="1257" priority="1401" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="1270" priority="1396" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1256" priority="1396" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1269" priority="1397" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1255" priority="1397" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1268" priority="1398" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1254" priority="1398" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="1267" priority="1393" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1253" priority="1393" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1266" priority="1394" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1252" priority="1394" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1265" priority="1395" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1251" priority="1395" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="1264" priority="1390" operator="equal">
+    <cfRule type="cellIs" dxfId="1250" priority="1390" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1263" priority="1391" operator="equal">
+    <cfRule type="cellIs" dxfId="1249" priority="1391" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1262" priority="1392" operator="equal">
+    <cfRule type="cellIs" dxfId="1248" priority="1392" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="1261" priority="1389" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1247" priority="1389" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="1260" priority="1388" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1246" priority="1388" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="1259" priority="1385" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1245" priority="1385" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1258" priority="1386" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1244" priority="1386" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1257" priority="1387" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1243" priority="1387" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="1256" priority="1382" operator="equal">
+    <cfRule type="cellIs" dxfId="1242" priority="1382" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1255" priority="1383" operator="equal">
+    <cfRule type="cellIs" dxfId="1241" priority="1383" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1254" priority="1384" operator="equal">
+    <cfRule type="cellIs" dxfId="1240" priority="1384" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="1253" priority="1381" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1239" priority="1381" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="1252" priority="1380" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1238" priority="1380" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="1251" priority="1377" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1237" priority="1377" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1250" priority="1378" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1236" priority="1378" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1249" priority="1379" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1235" priority="1379" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="1248" priority="1374" operator="equal">
+    <cfRule type="cellIs" dxfId="1234" priority="1374" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1247" priority="1375" operator="equal">
+    <cfRule type="cellIs" dxfId="1233" priority="1375" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1246" priority="1376" operator="equal">
+    <cfRule type="cellIs" dxfId="1232" priority="1376" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="1245" priority="1373" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1231" priority="1373" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="1244" priority="1372" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1230" priority="1372" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="1243" priority="1369" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1229" priority="1369" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1242" priority="1370" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1228" priority="1370" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1241" priority="1371" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1227" priority="1371" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="1240" priority="1366" operator="equal">
+    <cfRule type="cellIs" dxfId="1226" priority="1366" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1239" priority="1367" operator="equal">
+    <cfRule type="cellIs" dxfId="1225" priority="1367" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1238" priority="1368" operator="equal">
+    <cfRule type="cellIs" dxfId="1224" priority="1368" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="1237" priority="1365" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1223" priority="1365" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="1236" priority="1364" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1222" priority="1364" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="1235" priority="1362" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1221" priority="1362" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="1234" priority="1359" operator="equal">
+    <cfRule type="cellIs" dxfId="1220" priority="1359" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1233" priority="1360" operator="equal">
+    <cfRule type="cellIs" dxfId="1219" priority="1360" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1232" priority="1361" operator="equal">
+    <cfRule type="cellIs" dxfId="1218" priority="1361" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="1231" priority="1363" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1217" priority="1363" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="containsText" dxfId="1230" priority="1356" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1216" priority="1356" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1229" priority="1357" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1215" priority="1357" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1228" priority="1358" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1214" priority="1358" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="1227" priority="1353" operator="equal">
+    <cfRule type="cellIs" dxfId="1213" priority="1353" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1226" priority="1354" operator="equal">
+    <cfRule type="cellIs" dxfId="1212" priority="1354" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1225" priority="1355" operator="equal">
+    <cfRule type="cellIs" dxfId="1211" priority="1355" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="1224" priority="1352" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1210" priority="1352" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="1223" priority="1351" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1209" priority="1351" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="containsText" dxfId="1222" priority="1348" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1208" priority="1348" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1221" priority="1349" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1207" priority="1349" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1220" priority="1350" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1206" priority="1350" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="containsText" dxfId="1219" priority="1345" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1205" priority="1345" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1218" priority="1346" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1204" priority="1346" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1217" priority="1347" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1203" priority="1347" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="1216" priority="1342" operator="equal">
+    <cfRule type="cellIs" dxfId="1202" priority="1342" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1215" priority="1343" operator="equal">
+    <cfRule type="cellIs" dxfId="1201" priority="1343" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1214" priority="1344" operator="equal">
+    <cfRule type="cellIs" dxfId="1200" priority="1344" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="1213" priority="1341" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1199" priority="1341" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="1212" priority="1340" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1198" priority="1340" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="containsText" dxfId="1211" priority="1337" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1197" priority="1337" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1210" priority="1338" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1196" priority="1338" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1209" priority="1339" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1195" priority="1339" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="1208" priority="1334" operator="equal">
+    <cfRule type="cellIs" dxfId="1194" priority="1334" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1207" priority="1335" operator="equal">
+    <cfRule type="cellIs" dxfId="1193" priority="1335" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1206" priority="1336" operator="equal">
+    <cfRule type="cellIs" dxfId="1192" priority="1336" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="1205" priority="1333" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1191" priority="1333" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="1204" priority="1332" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1190" priority="1332" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="containsText" dxfId="1203" priority="1329" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1189" priority="1329" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1202" priority="1330" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1188" priority="1330" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1201" priority="1331" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1187" priority="1331" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="1200" priority="1328" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1186" priority="1328" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="1199" priority="1327" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1185" priority="1327" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="1198" priority="1324" operator="equal">
+    <cfRule type="cellIs" dxfId="1184" priority="1324" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1197" priority="1325" operator="equal">
+    <cfRule type="cellIs" dxfId="1183" priority="1325" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1196" priority="1326" operator="equal">
+    <cfRule type="cellIs" dxfId="1182" priority="1326" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="1195" priority="1321" operator="equal">
+    <cfRule type="cellIs" dxfId="1181" priority="1321" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1194" priority="1322" operator="equal">
+    <cfRule type="cellIs" dxfId="1180" priority="1322" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1193" priority="1323" operator="equal">
+    <cfRule type="cellIs" dxfId="1179" priority="1323" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="containsText" dxfId="1192" priority="1318" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1178" priority="1318" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1191" priority="1319" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1177" priority="1319" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1190" priority="1320" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1176" priority="1320" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="containsText" dxfId="1189" priority="1317" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1175" priority="1317" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="containsText" dxfId="1188" priority="1316" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1174" priority="1316" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="1187" priority="1315" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1173" priority="1315" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:F33">
-    <cfRule type="cellIs" dxfId="1186" priority="1312" operator="equal">
+    <cfRule type="cellIs" dxfId="1172" priority="1312" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1185" priority="1313" operator="equal">
+    <cfRule type="cellIs" dxfId="1171" priority="1313" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1184" priority="1314" operator="equal">
+    <cfRule type="cellIs" dxfId="1170" priority="1314" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="1183" priority="1311" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1169" priority="1311" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="1182" priority="1310" operator="equal">
+    <cfRule type="cellIs" dxfId="1168" priority="1310" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="1181" priority="1309" operator="equal">
+    <cfRule type="cellIs" dxfId="1167" priority="1309" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="1180" priority="1308" operator="equal">
+    <cfRule type="cellIs" dxfId="1166" priority="1308" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="containsText" dxfId="1179" priority="1305" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1165" priority="1305" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1178" priority="1306" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1164" priority="1306" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1177" priority="1307" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1163" priority="1307" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="containsText" dxfId="1176" priority="1304" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1162" priority="1304" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH(("0"),(G33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="containsText" dxfId="1175" priority="1303" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1161" priority="1303" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH(("Closed"),(G33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="containsText" dxfId="1174" priority="1302" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1160" priority="1302" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH(("Open"),(G33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="1173" priority="1299" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1159" priority="1299" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1172" priority="1300" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1158" priority="1300" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1171" priority="1301" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1157" priority="1301" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="1170" priority="1296" operator="equal">
+    <cfRule type="cellIs" dxfId="1156" priority="1296" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1169" priority="1297" operator="equal">
+    <cfRule type="cellIs" dxfId="1155" priority="1297" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1168" priority="1298" operator="equal">
+    <cfRule type="cellIs" dxfId="1154" priority="1298" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="1167" priority="1295" operator="equal">
+    <cfRule type="cellIs" dxfId="1153" priority="1295" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="1166" priority="1294" operator="equal">
+    <cfRule type="cellIs" dxfId="1152" priority="1294" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="1165" priority="1293" operator="equal">
+    <cfRule type="cellIs" dxfId="1151" priority="1293" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="containsText" dxfId="1164" priority="1292" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1150" priority="1292" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="1163" priority="1289" operator="equal">
+    <cfRule type="cellIs" dxfId="1149" priority="1289" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1162" priority="1290" operator="equal">
+    <cfRule type="cellIs" dxfId="1148" priority="1290" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1161" priority="1291" operator="equal">
+    <cfRule type="cellIs" dxfId="1147" priority="1291" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="containsText" dxfId="1160" priority="1288" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1146" priority="1288" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="1159" priority="1287" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1145" priority="1287" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH(("0"),(G34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="1158" priority="1286" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1144" priority="1286" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH(("Closed"),(G34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="1157" priority="1285" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1143" priority="1285" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH(("Open"),(G34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="1156" priority="1277" operator="equal">
+    <cfRule type="cellIs" dxfId="1142" priority="1277" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1155" priority="1278" operator="equal">
+    <cfRule type="cellIs" dxfId="1141" priority="1278" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1154" priority="1279" operator="equal">
+    <cfRule type="cellIs" dxfId="1140" priority="1279" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="containsText" dxfId="1153" priority="1284" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1139" priority="1284" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="containsText" dxfId="1152" priority="1283" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1138" priority="1283" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="containsText" dxfId="1151" priority="1281" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1137" priority="1281" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1150" priority="1282" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1136" priority="1282" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="containsText" dxfId="1149" priority="1280" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1135" priority="1280" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="containsText" dxfId="1148" priority="1274" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1134" priority="1274" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1147" priority="1275" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1133" priority="1275" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1146" priority="1276" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1132" priority="1276" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="1145" priority="1271" operator="equal">
+    <cfRule type="cellIs" dxfId="1131" priority="1271" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1144" priority="1272" operator="equal">
+    <cfRule type="cellIs" dxfId="1130" priority="1272" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1143" priority="1273" operator="equal">
+    <cfRule type="cellIs" dxfId="1129" priority="1273" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47">
-    <cfRule type="containsText" dxfId="1142" priority="1268" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1128" priority="1268" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1141" priority="1269" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1127" priority="1269" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1140" priority="1270" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1126" priority="1270" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48">
-    <cfRule type="containsText" dxfId="1139" priority="1267" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1125" priority="1267" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="1138" priority="1264" operator="equal">
+    <cfRule type="cellIs" dxfId="1124" priority="1264" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1137" priority="1265" operator="equal">
+    <cfRule type="cellIs" dxfId="1123" priority="1265" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1136" priority="1266" operator="equal">
+    <cfRule type="cellIs" dxfId="1122" priority="1266" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48">
-    <cfRule type="containsText" dxfId="1135" priority="1261" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1121" priority="1261" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1134" priority="1262" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1120" priority="1262" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1133" priority="1263" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1119" priority="1263" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49">
-    <cfRule type="containsText" dxfId="1132" priority="1253" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1118" priority="1253" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1131" priority="1254" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1117" priority="1254" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1130" priority="1255" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1116" priority="1255" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="1129" priority="1258" operator="equal">
+    <cfRule type="cellIs" dxfId="1115" priority="1258" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1128" priority="1259" operator="equal">
+    <cfRule type="cellIs" dxfId="1114" priority="1259" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1127" priority="1260" operator="equal">
+    <cfRule type="cellIs" dxfId="1113" priority="1260" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49">
-    <cfRule type="containsText" dxfId="1126" priority="1257" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1112" priority="1257" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49">
-    <cfRule type="containsText" dxfId="1125" priority="1256" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1111" priority="1256" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50">
-    <cfRule type="containsText" dxfId="1124" priority="1250" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1110" priority="1250" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1123" priority="1251" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1109" priority="1251" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1122" priority="1252" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1108" priority="1252" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="containsText" dxfId="1121" priority="1249" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1107" priority="1249" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="containsText" dxfId="1120" priority="1248" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1106" priority="1248" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="1119" priority="1245" operator="equal">
+    <cfRule type="cellIs" dxfId="1105" priority="1245" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1118" priority="1246" operator="equal">
+    <cfRule type="cellIs" dxfId="1104" priority="1246" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1117" priority="1247" operator="equal">
+    <cfRule type="cellIs" dxfId="1103" priority="1247" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51">
-    <cfRule type="containsText" dxfId="1116" priority="1227" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1102" priority="1227" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1115" priority="1228" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1101" priority="1228" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1114" priority="1229" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1100" priority="1229" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51">
-    <cfRule type="containsText" dxfId="1113" priority="1226" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1099" priority="1226" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51">
-    <cfRule type="containsText" dxfId="1112" priority="1239" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1098" priority="1239" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51">
-    <cfRule type="containsText" dxfId="1111" priority="1230" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="1097" priority="1230" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1110" priority="1231" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1096" priority="1231" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1109" priority="1232" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1095" priority="1232" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51">
-    <cfRule type="containsText" dxfId="1108" priority="1236" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1094" priority="1236" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",#REF!)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1107" priority="1237" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1093" priority="1237" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",#REF!)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1106" priority="1238" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1092" priority="1238" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",#REF!)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51">
-    <cfRule type="containsText" dxfId="1105" priority="1243" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1091" priority="1243" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1104" priority="1244" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1090" priority="1244" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="1103" priority="1233" operator="equal">
+    <cfRule type="cellIs" dxfId="1089" priority="1233" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1102" priority="1234" operator="equal">
+    <cfRule type="cellIs" dxfId="1088" priority="1234" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1101" priority="1235" operator="equal">
+    <cfRule type="cellIs" dxfId="1087" priority="1235" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51:E52">
-    <cfRule type="cellIs" dxfId="1100" priority="1223" operator="equal">
+    <cfRule type="cellIs" dxfId="1086" priority="1223" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1099" priority="1224" operator="equal">
+    <cfRule type="cellIs" dxfId="1085" priority="1224" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1098" priority="1225" operator="equal">
+    <cfRule type="cellIs" dxfId="1084" priority="1225" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51">
-    <cfRule type="containsText" dxfId="1097" priority="1240" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1083" priority="1240" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1096" priority="1241" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1082" priority="1241" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1095" priority="1242" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1081" priority="1242" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51">
-    <cfRule type="containsText" dxfId="1094" priority="1217" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1080" priority="1217" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1093" priority="1218" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1079" priority="1218" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1092" priority="1219" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1078" priority="1219" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1091" priority="1220" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1077" priority="1220" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1090" priority="1221" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1076" priority="1221" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1089" priority="1222" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1075" priority="1222" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52">
-    <cfRule type="containsText" dxfId="1088" priority="1214" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1074" priority="1214" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52">
-    <cfRule type="containsText" dxfId="1087" priority="1207" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="1073" priority="1207" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1086" priority="1208" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1072" priority="1208" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1085" priority="1209" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1071" priority="1209" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52">
-    <cfRule type="containsText" dxfId="1084" priority="1215" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1070" priority="1215" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52">
-    <cfRule type="containsText" dxfId="1083" priority="1210" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1069" priority="1210" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1082" priority="1211" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1068" priority="1211" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1081" priority="1212" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1067" priority="1212" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52">
-    <cfRule type="containsText" dxfId="1080" priority="1213" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1066" priority="1213" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52">
-    <cfRule type="containsText" dxfId="1079" priority="1216" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1065" priority="1216" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53">
-    <cfRule type="containsText" dxfId="1078" priority="1206" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1064" priority="1206" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="1077" priority="1203" operator="equal">
+    <cfRule type="cellIs" dxfId="1063" priority="1203" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1076" priority="1204" operator="equal">
+    <cfRule type="cellIs" dxfId="1062" priority="1204" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1075" priority="1205" operator="equal">
+    <cfRule type="cellIs" dxfId="1061" priority="1205" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53">
-    <cfRule type="containsText" dxfId="1074" priority="1202" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1060" priority="1202" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G53">
-    <cfRule type="cellIs" dxfId="1073" priority="1199" operator="equal">
+    <cfRule type="cellIs" dxfId="1059" priority="1199" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1072" priority="1200" operator="equal">
+    <cfRule type="cellIs" dxfId="1058" priority="1200" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1071" priority="1201" operator="equal">
+    <cfRule type="cellIs" dxfId="1057" priority="1201" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="containsText" dxfId="1070" priority="1198" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1056" priority="1198" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="containsText" dxfId="1069" priority="1197" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1055" priority="1197" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="1068" priority="1194" operator="equal">
+    <cfRule type="cellIs" dxfId="1054" priority="1194" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1067" priority="1195" operator="equal">
+    <cfRule type="cellIs" dxfId="1053" priority="1195" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1066" priority="1196" operator="equal">
+    <cfRule type="cellIs" dxfId="1052" priority="1196" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G54">
-    <cfRule type="cellIs" dxfId="1065" priority="1191" operator="equal">
+    <cfRule type="cellIs" dxfId="1051" priority="1191" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1064" priority="1192" operator="equal">
+    <cfRule type="cellIs" dxfId="1050" priority="1192" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1063" priority="1193" operator="equal">
+    <cfRule type="cellIs" dxfId="1049" priority="1193" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="1062" priority="1190" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1048" priority="1190" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="1061" priority="1187" operator="equal">
+    <cfRule type="cellIs" dxfId="1047" priority="1187" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1060" priority="1188" operator="equal">
+    <cfRule type="cellIs" dxfId="1046" priority="1188" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1059" priority="1189" operator="equal">
+    <cfRule type="cellIs" dxfId="1045" priority="1189" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="1058" priority="1186" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1044" priority="1186" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="1057" priority="1185" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1043" priority="1185" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="1056" priority="1184" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1042" priority="1184" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="1055" priority="1183" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1041" priority="1183" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="1054" priority="1182" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1040" priority="1182" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="1053" priority="1181" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1039" priority="1181" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="1052" priority="1180" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1038" priority="1180" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55:G56">
-    <cfRule type="cellIs" dxfId="1051" priority="1177" operator="equal">
+    <cfRule type="cellIs" dxfId="1037" priority="1177" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1050" priority="1178" operator="equal">
+    <cfRule type="cellIs" dxfId="1036" priority="1178" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1049" priority="1179" operator="equal">
+    <cfRule type="cellIs" dxfId="1035" priority="1179" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="1048" priority="1174" operator="equal">
+    <cfRule type="cellIs" dxfId="1034" priority="1174" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1047" priority="1175" operator="equal">
+    <cfRule type="cellIs" dxfId="1033" priority="1175" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1046" priority="1176" operator="equal">
+    <cfRule type="cellIs" dxfId="1032" priority="1176" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="1045" priority="1170" operator="equal">
+    <cfRule type="cellIs" dxfId="1031" priority="1170" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="1044" priority="1171" operator="equal">
+    <cfRule type="cellIs" dxfId="1030" priority="1171" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="1043" priority="1172" operator="equal">
+    <cfRule type="cellIs" dxfId="1029" priority="1172" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57">
-    <cfRule type="containsText" dxfId="1042" priority="1120" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1028" priority="1120" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1041" priority="1121" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1027" priority="1121" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1040" priority="1122" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1026" priority="1122" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="containsText" dxfId="1039" priority="1116" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1025" priority="1116" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="containsText" dxfId="1038" priority="1115" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1024" priority="1115" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="1037" priority="1117" operator="equal">
+    <cfRule type="cellIs" dxfId="1023" priority="1117" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1036" priority="1118" operator="equal">
+    <cfRule type="cellIs" dxfId="1022" priority="1118" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1035" priority="1119" operator="equal">
+    <cfRule type="cellIs" dxfId="1021" priority="1119" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58">
-    <cfRule type="containsText" dxfId="1034" priority="1104" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1020" priority="1104" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1033" priority="1105" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1019" priority="1105" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1032" priority="1106" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1018" priority="1106" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="1031" priority="1096" operator="equal">
+    <cfRule type="cellIs" dxfId="1017" priority="1096" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1030" priority="1097" operator="equal">
+    <cfRule type="cellIs" dxfId="1016" priority="1097" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1029" priority="1098" operator="equal">
+    <cfRule type="cellIs" dxfId="1015" priority="1098" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="containsText" dxfId="1028" priority="1094" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1014" priority="1094" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="containsText" dxfId="1027" priority="1095" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1013" priority="1095" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="containsText" dxfId="1026" priority="1464" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1012" priority="1464" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66:E67">
-    <cfRule type="cellIs" dxfId="1025" priority="1075" operator="equal">
+    <cfRule type="cellIs" dxfId="1011" priority="1075" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1024" priority="1076" operator="equal">
+    <cfRule type="cellIs" dxfId="1010" priority="1076" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1023" priority="1077" operator="equal">
+    <cfRule type="cellIs" dxfId="1009" priority="1077" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66:E67">
-    <cfRule type="cellIs" dxfId="1022" priority="1072" operator="equal">
+    <cfRule type="cellIs" dxfId="1008" priority="1072" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1021" priority="1073" operator="equal">
+    <cfRule type="cellIs" dxfId="1007" priority="1073" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1020" priority="1074" operator="equal">
+    <cfRule type="cellIs" dxfId="1006" priority="1074" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="1019" priority="1091" operator="equal">
+    <cfRule type="cellIs" dxfId="1005" priority="1091" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1018" priority="1092" operator="equal">
+    <cfRule type="cellIs" dxfId="1004" priority="1092" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1017" priority="1093" operator="equal">
+    <cfRule type="cellIs" dxfId="1003" priority="1093" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66:E67">
-    <cfRule type="cellIs" dxfId="1016" priority="1078" operator="equal">
+    <cfRule type="cellIs" dxfId="1002" priority="1078" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1015" priority="1079" operator="equal">
+    <cfRule type="cellIs" dxfId="1001" priority="1079" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1014" priority="1080" operator="equal">
+    <cfRule type="cellIs" dxfId="1000" priority="1080" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="containsText" dxfId="1013" priority="1081" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="999" priority="1081" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1012" priority="1082" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="998" priority="1082" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1011" priority="1083" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="997" priority="1083" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="containsText" dxfId="1010" priority="1087" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="996" priority="1087" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1009" priority="1088" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="995" priority="1088" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1008" priority="1089" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="994" priority="1089" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="containsText" dxfId="1007" priority="1090" operator="containsText" text="CLOSED">
+    <cfRule type="containsText" dxfId="993" priority="1090" operator="containsText" text="CLOSED">
       <formula>NOT(ISERROR(SEARCH("CLOSED",G66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="containsText" dxfId="1006" priority="1084" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="992" priority="1084" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1005" priority="1085" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="991" priority="1085" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1004" priority="1086" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="990" priority="1086" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66">
-    <cfRule type="containsText" dxfId="1003" priority="1071" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="989" priority="1071" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66">
-    <cfRule type="containsText" dxfId="1002" priority="1070" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="988" priority="1070" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G67:G68">
-    <cfRule type="containsText" dxfId="1001" priority="1067" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="987" priority="1067" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1000" priority="1068" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="986" priority="1068" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="999" priority="1069" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="985" priority="1069" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67:F68">
-    <cfRule type="containsText" dxfId="998" priority="1066" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="984" priority="1066" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67:F68">
-    <cfRule type="containsText" dxfId="997" priority="1065" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="983" priority="1065" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G69">
-    <cfRule type="containsText" dxfId="996" priority="1062" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="982" priority="1062" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="995" priority="1063" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="981" priority="1063" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="994" priority="1064" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="980" priority="1064" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="993" priority="1059" operator="equal">
+    <cfRule type="cellIs" dxfId="979" priority="1059" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="992" priority="1060" operator="equal">
+    <cfRule type="cellIs" dxfId="978" priority="1060" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="991" priority="1061" operator="equal">
+    <cfRule type="cellIs" dxfId="977" priority="1061" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69">
-    <cfRule type="containsText" dxfId="990" priority="1057" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="976" priority="1057" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69">
-    <cfRule type="containsText" dxfId="989" priority="1058" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="975" priority="1058" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G65">
-    <cfRule type="containsText" dxfId="988" priority="1054" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="974" priority="1054" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="987" priority="1055" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="973" priority="1055" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="986" priority="1056" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="972" priority="1056" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F65">
-    <cfRule type="containsText" dxfId="985" priority="1053" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="971" priority="1053" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="984" priority="1050" operator="equal">
+    <cfRule type="cellIs" dxfId="970" priority="1050" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="983" priority="1051" operator="equal">
+    <cfRule type="cellIs" dxfId="969" priority="1051" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="982" priority="1052" operator="equal">
+    <cfRule type="cellIs" dxfId="968" priority="1052" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="981" priority="1047" operator="equal">
+    <cfRule type="cellIs" dxfId="967" priority="1047" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="980" priority="1048" operator="equal">
+    <cfRule type="cellIs" dxfId="966" priority="1048" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="979" priority="1049" operator="equal">
+    <cfRule type="cellIs" dxfId="965" priority="1049" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70">
-    <cfRule type="containsText" dxfId="978" priority="1046" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="964" priority="1046" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F70)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70:F70">
-    <cfRule type="cellIs" dxfId="977" priority="1043" operator="equal">
+    <cfRule type="cellIs" dxfId="963" priority="1043" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="976" priority="1044" operator="equal">
+    <cfRule type="cellIs" dxfId="962" priority="1044" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="975" priority="1045" operator="equal">
+    <cfRule type="cellIs" dxfId="961" priority="1045" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="containsText" dxfId="974" priority="1040" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="960" priority="1040" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G70)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="973" priority="1041" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="959" priority="1041" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G70)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="972" priority="1042" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="958" priority="1042" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G70)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="971" priority="1039" operator="equal">
+    <cfRule type="cellIs" dxfId="957" priority="1039" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="970" priority="1038" operator="equal">
+    <cfRule type="cellIs" dxfId="956" priority="1038" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="969" priority="1037" operator="equal">
+    <cfRule type="cellIs" dxfId="955" priority="1037" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="containsText" dxfId="968" priority="1034" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="954" priority="1034" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G70)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="967" priority="1035" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="953" priority="1035" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G70)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="966" priority="1036" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="952" priority="1036" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G70)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="containsText" dxfId="965" priority="1031" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="951" priority="1031" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH(("0"),(G70))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="containsText" dxfId="964" priority="1030" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="950" priority="1030" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH(("Closed"),(G70))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="containsText" dxfId="963" priority="1029" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="949" priority="1029" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH(("Open"),(G70))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70">
-    <cfRule type="containsText" dxfId="962" priority="1028" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="948" priority="1028" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F70)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71">
-    <cfRule type="containsText" dxfId="961" priority="1024" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="947" priority="1024" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="960" priority="1021" operator="equal">
+    <cfRule type="cellIs" dxfId="946" priority="1021" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="959" priority="1022" operator="equal">
+    <cfRule type="cellIs" dxfId="945" priority="1022" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="958" priority="1023" operator="equal">
+    <cfRule type="cellIs" dxfId="944" priority="1023" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G71">
-    <cfRule type="containsText" dxfId="957" priority="1018" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="943" priority="1018" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="956" priority="1019" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="942" priority="1019" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="955" priority="1020" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="941" priority="1020" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G73">
-    <cfRule type="containsText" dxfId="954" priority="1015" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="940" priority="1015" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="953" priority="1016" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="939" priority="1016" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="952" priority="1017" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="938" priority="1017" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="951" priority="1012" operator="equal">
+    <cfRule type="cellIs" dxfId="937" priority="1012" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="950" priority="1013" operator="equal">
+    <cfRule type="cellIs" dxfId="936" priority="1013" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="949" priority="1014" operator="equal">
+    <cfRule type="cellIs" dxfId="935" priority="1014" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74">
-    <cfRule type="containsText" dxfId="948" priority="1011" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="934" priority="1011" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="947" priority="1008" operator="equal">
+    <cfRule type="cellIs" dxfId="933" priority="1008" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="946" priority="1009" operator="equal">
+    <cfRule type="cellIs" dxfId="932" priority="1009" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="945" priority="1010" operator="equal">
+    <cfRule type="cellIs" dxfId="931" priority="1010" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G74">
-    <cfRule type="containsText" dxfId="944" priority="1005" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="930" priority="1005" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="943" priority="1006" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="929" priority="1006" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="942" priority="1007" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="928" priority="1007" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G74">
-    <cfRule type="containsText" dxfId="941" priority="1004" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="927" priority="1004" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH(("0"),(G74))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G74">
-    <cfRule type="containsText" dxfId="940" priority="1003" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="926" priority="1003" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH(("Closed"),(G74))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G74">
-    <cfRule type="containsText" dxfId="939" priority="1002" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="925" priority="1002" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH(("Open"),(G74))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G75">
-    <cfRule type="containsText" dxfId="938" priority="999" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="924" priority="999" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="937" priority="1000" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="923" priority="1000" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="936" priority="1001" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="922" priority="1001" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="935" priority="996" operator="equal">
+    <cfRule type="cellIs" dxfId="921" priority="996" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="934" priority="997" operator="equal">
+    <cfRule type="cellIs" dxfId="920" priority="997" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="933" priority="998" operator="equal">
+    <cfRule type="cellIs" dxfId="919" priority="998" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F75">
-    <cfRule type="containsText" dxfId="932" priority="994" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="918" priority="994" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F75">
-    <cfRule type="containsText" dxfId="931" priority="995" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="917" priority="995" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="930" priority="991" operator="equal">
+    <cfRule type="cellIs" dxfId="916" priority="991" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="929" priority="992" operator="equal">
+    <cfRule type="cellIs" dxfId="915" priority="992" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="928" priority="993" operator="equal">
+    <cfRule type="cellIs" dxfId="914" priority="993" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G77">
-    <cfRule type="containsText" dxfId="927" priority="988" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="913" priority="988" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="926" priority="989" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="912" priority="989" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="925" priority="990" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="911" priority="990" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="924" priority="980" operator="equal">
+    <cfRule type="cellIs" dxfId="910" priority="980" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="923" priority="981" operator="equal">
+    <cfRule type="cellIs" dxfId="909" priority="981" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="922" priority="982" operator="equal">
+    <cfRule type="cellIs" dxfId="908" priority="982" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78">
-    <cfRule type="containsText" dxfId="921" priority="986" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="907" priority="986" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F78)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="920" priority="987" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="906" priority="987" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F78)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G78">
-    <cfRule type="containsText" dxfId="919" priority="983" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="905" priority="983" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G78)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="918" priority="984" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="904" priority="984" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G78)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="917" priority="985" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="903" priority="985" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G78)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79:E80">
-    <cfRule type="cellIs" dxfId="916" priority="969" operator="equal">
+    <cfRule type="cellIs" dxfId="902" priority="969" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="915" priority="970" operator="equal">
+    <cfRule type="cellIs" dxfId="901" priority="970" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="914" priority="971" operator="equal">
+    <cfRule type="cellIs" dxfId="900" priority="971" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79:F80">
-    <cfRule type="containsText" dxfId="913" priority="979" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="899" priority="979" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79:F80">
-    <cfRule type="cellIs" dxfId="912" priority="976" operator="equal">
+    <cfRule type="cellIs" dxfId="898" priority="976" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="911" priority="977" operator="equal">
+    <cfRule type="cellIs" dxfId="897" priority="977" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="910" priority="978" operator="equal">
+    <cfRule type="cellIs" dxfId="896" priority="978" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79:F80">
-    <cfRule type="containsText" dxfId="909" priority="975" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="895" priority="975" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79:F80">
-    <cfRule type="containsText" dxfId="908" priority="965" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="894" priority="965" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G79:G80">
-    <cfRule type="containsText" dxfId="907" priority="973" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="893" priority="973" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G79)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="906" priority="974" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="892" priority="974" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G79:G80">
-    <cfRule type="containsText" dxfId="905" priority="972" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="891" priority="972" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G79:G80">
-    <cfRule type="containsText" dxfId="904" priority="967" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="890" priority="967" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH(("Closed"),(G79))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="903" priority="968" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="889" priority="968" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH(("0"),(G79))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G79:G80">
-    <cfRule type="containsText" dxfId="902" priority="966" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="888" priority="966" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH(("Open"),(G79))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G79:G80">
-    <cfRule type="containsText" dxfId="901" priority="962" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="887" priority="962" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G79)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="900" priority="963" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="886" priority="963" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G79)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="899" priority="964" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="885" priority="964" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G80">
-    <cfRule type="containsText" dxfId="898" priority="959" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="884" priority="959" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G80)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="897" priority="960" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="883" priority="960" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G80)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="896" priority="961" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="882" priority="961" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G80">
-    <cfRule type="containsText" dxfId="895" priority="958" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="881" priority="958" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH(("0"),(G80))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G80">
-    <cfRule type="containsText" dxfId="894" priority="957" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="880" priority="957" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH(("Closed"),(G80))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G80">
-    <cfRule type="containsText" dxfId="893" priority="956" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="879" priority="956" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH(("Open"),(G80))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80">
-    <cfRule type="containsText" dxfId="892" priority="955" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="878" priority="955" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80:F80">
-    <cfRule type="cellIs" dxfId="891" priority="952" operator="equal">
+    <cfRule type="cellIs" dxfId="877" priority="952" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="890" priority="953" operator="equal">
+    <cfRule type="cellIs" dxfId="876" priority="953" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="889" priority="954" operator="equal">
+    <cfRule type="cellIs" dxfId="875" priority="954" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="888" priority="951" operator="equal">
+    <cfRule type="cellIs" dxfId="874" priority="951" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="887" priority="950" operator="equal">
+    <cfRule type="cellIs" dxfId="873" priority="950" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="886" priority="949" operator="equal">
+    <cfRule type="cellIs" dxfId="872" priority="949" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80">
-    <cfRule type="containsText" dxfId="885" priority="946" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="871" priority="946" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="884" priority="940" operator="equal">
+    <cfRule type="cellIs" dxfId="870" priority="940" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="883" priority="941" operator="equal">
+    <cfRule type="cellIs" dxfId="869" priority="941" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="882" priority="942" operator="equal">
+    <cfRule type="cellIs" dxfId="868" priority="942" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81">
-    <cfRule type="containsText" dxfId="881" priority="939" operator="containsText" text="OPEN">
+    <cfRule type="containsText" dxfId="867" priority="939" operator="containsText" text="OPEN">
       <formula>NOT(ISERROR(SEARCH("OPEN",G81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81">
-    <cfRule type="containsText" dxfId="880" priority="938" operator="containsText" text="CLOSED">
+    <cfRule type="containsText" dxfId="866" priority="938" operator="containsText" text="CLOSED">
       <formula>NOT(ISERROR(SEARCH("CLOSED",G81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="879" priority="932" operator="equal">
+    <cfRule type="cellIs" dxfId="865" priority="932" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="878" priority="933" operator="equal">
+    <cfRule type="cellIs" dxfId="864" priority="933" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="877" priority="934" operator="equal">
+    <cfRule type="cellIs" dxfId="863" priority="934" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F82">
-    <cfRule type="containsText" dxfId="876" priority="930" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="862" priority="930" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",#REF!)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="875" priority="931" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="861" priority="931" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",#REF!)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G82">
-    <cfRule type="containsText" dxfId="874" priority="935" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="860" priority="935" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G82)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="873" priority="936" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="859" priority="936" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G82)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="872" priority="937" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="858" priority="937" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="871" priority="927" operator="equal">
+    <cfRule type="cellIs" dxfId="857" priority="927" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="870" priority="928" operator="equal">
+    <cfRule type="cellIs" dxfId="856" priority="928" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="869" priority="929" operator="equal">
+    <cfRule type="cellIs" dxfId="855" priority="929" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F83">
-    <cfRule type="containsText" dxfId="868" priority="926" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="854" priority="926" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83:F83">
-    <cfRule type="cellIs" dxfId="867" priority="923" operator="equal">
+    <cfRule type="cellIs" dxfId="853" priority="923" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="866" priority="924" operator="equal">
+    <cfRule type="cellIs" dxfId="852" priority="924" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="865" priority="925" operator="equal">
+    <cfRule type="cellIs" dxfId="851" priority="925" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F83">
-    <cfRule type="containsText" dxfId="864" priority="922" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="850" priority="922" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F83">
-    <cfRule type="containsText" dxfId="863" priority="921" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="849" priority="921" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G83">
-    <cfRule type="containsText" dxfId="862" priority="919" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="848" priority="919" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="861" priority="920" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="847" priority="920" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G83">
-    <cfRule type="containsText" dxfId="860" priority="918" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="846" priority="918" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G83">
-    <cfRule type="containsText" dxfId="859" priority="916" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="845" priority="916" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH(("Closed"),(G83))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="858" priority="917" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="844" priority="917" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH(("0"),(G83))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G83">
-    <cfRule type="containsText" dxfId="857" priority="915" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="843" priority="915" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH(("Open"),(G83))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G83">
-    <cfRule type="containsText" dxfId="856" priority="912" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="842" priority="912" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="855" priority="913" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="841" priority="913" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="854" priority="914" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="840" priority="914" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="853" priority="909" operator="equal">
+    <cfRule type="cellIs" dxfId="839" priority="909" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="852" priority="910" operator="equal">
+    <cfRule type="cellIs" dxfId="838" priority="910" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="851" priority="911" operator="equal">
+    <cfRule type="cellIs" dxfId="837" priority="911" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86:E87">
-    <cfRule type="cellIs" dxfId="850" priority="903" operator="equal">
+    <cfRule type="cellIs" dxfId="836" priority="903" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="849" priority="904" operator="equal">
+    <cfRule type="cellIs" dxfId="835" priority="904" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="848" priority="905" operator="equal">
+    <cfRule type="cellIs" dxfId="834" priority="905" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="847" priority="900" operator="equal">
+    <cfRule type="cellIs" dxfId="833" priority="900" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="846" priority="901" operator="equal">
+    <cfRule type="cellIs" dxfId="832" priority="901" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="845" priority="902" operator="equal">
+    <cfRule type="cellIs" dxfId="831" priority="902" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G86:G87">
-    <cfRule type="containsText" dxfId="844" priority="897" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="830" priority="897" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="843" priority="898" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="829" priority="898" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="842" priority="899" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="828" priority="899" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G86)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G88:G89">
-    <cfRule type="containsText" dxfId="841" priority="894" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="827" priority="894" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="840" priority="895" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="826" priority="895" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="839" priority="896" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="825" priority="896" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="838" priority="889" operator="equal">
+    <cfRule type="cellIs" dxfId="824" priority="889" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="837" priority="890" operator="equal">
+    <cfRule type="cellIs" dxfId="823" priority="890" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="836" priority="891" operator="equal">
+    <cfRule type="cellIs" dxfId="822" priority="891" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="835" priority="886" operator="equal">
+    <cfRule type="cellIs" dxfId="821" priority="886" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="834" priority="887" operator="equal">
+    <cfRule type="cellIs" dxfId="820" priority="887" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="833" priority="888" operator="equal">
+    <cfRule type="cellIs" dxfId="819" priority="888" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="832" priority="883" operator="equal">
+    <cfRule type="cellIs" dxfId="818" priority="883" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="831" priority="884" operator="equal">
+    <cfRule type="cellIs" dxfId="817" priority="884" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="830" priority="885" operator="equal">
+    <cfRule type="cellIs" dxfId="816" priority="885" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="829" priority="880" operator="equal">
+    <cfRule type="cellIs" dxfId="815" priority="880" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="828" priority="881" operator="equal">
+    <cfRule type="cellIs" dxfId="814" priority="881" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="827" priority="882" operator="equal">
+    <cfRule type="cellIs" dxfId="813" priority="882" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="826" priority="877" operator="equal">
+    <cfRule type="cellIs" dxfId="812" priority="877" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="825" priority="878" operator="equal">
+    <cfRule type="cellIs" dxfId="811" priority="878" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="824" priority="879" operator="equal">
+    <cfRule type="cellIs" dxfId="810" priority="879" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="823" priority="874" operator="equal">
+    <cfRule type="cellIs" dxfId="809" priority="874" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="822" priority="875" operator="equal">
+    <cfRule type="cellIs" dxfId="808" priority="875" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="821" priority="876" operator="equal">
+    <cfRule type="cellIs" dxfId="807" priority="876" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96:E99">
-    <cfRule type="cellIs" dxfId="820" priority="871" operator="equal">
+    <cfRule type="cellIs" dxfId="806" priority="871" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="819" priority="872" operator="equal">
+    <cfRule type="cellIs" dxfId="805" priority="872" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="818" priority="873" operator="equal">
+    <cfRule type="cellIs" dxfId="804" priority="873" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G96:G99">
-    <cfRule type="containsText" dxfId="817" priority="868" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="803" priority="868" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G96)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="816" priority="869" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="802" priority="869" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G96)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="815" priority="870" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="801" priority="870" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100:E103">
-    <cfRule type="cellIs" dxfId="814" priority="865" operator="equal">
+    <cfRule type="cellIs" dxfId="800" priority="865" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="813" priority="866" operator="equal">
+    <cfRule type="cellIs" dxfId="799" priority="866" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="812" priority="867" operator="equal">
+    <cfRule type="cellIs" dxfId="798" priority="867" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102:E103">
-    <cfRule type="cellIs" dxfId="811" priority="862" operator="equal">
+    <cfRule type="cellIs" dxfId="797" priority="862" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="810" priority="863" operator="equal">
+    <cfRule type="cellIs" dxfId="796" priority="863" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="809" priority="864" operator="equal">
+    <cfRule type="cellIs" dxfId="795" priority="864" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G105">
-    <cfRule type="containsText" dxfId="808" priority="859" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="794" priority="859" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G105)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="807" priority="860" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="793" priority="860" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G105)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="806" priority="861" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="792" priority="861" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G105)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="805" priority="856" operator="equal">
+    <cfRule type="cellIs" dxfId="791" priority="856" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="804" priority="857" operator="equal">
+    <cfRule type="cellIs" dxfId="790" priority="857" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="803" priority="858" operator="equal">
+    <cfRule type="cellIs" dxfId="789" priority="858" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="802" priority="853" operator="equal">
+    <cfRule type="cellIs" dxfId="788" priority="853" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="801" priority="854" operator="equal">
+    <cfRule type="cellIs" dxfId="787" priority="854" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="800" priority="855" operator="equal">
+    <cfRule type="cellIs" dxfId="786" priority="855" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G106">
-    <cfRule type="containsText" dxfId="799" priority="850" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="785" priority="850" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G106)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="798" priority="851" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="784" priority="851" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G106)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="797" priority="852" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="783" priority="852" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G106)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F106">
-    <cfRule type="containsText" dxfId="796" priority="849" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="782" priority="849" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F106)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F106">
-    <cfRule type="containsText" dxfId="795" priority="848" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="781" priority="848" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F106)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F109 F107">
-    <cfRule type="containsText" dxfId="794" priority="846" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="780" priority="846" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F107)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109 E107">
-    <cfRule type="cellIs" dxfId="793" priority="843" operator="equal">
+    <cfRule type="cellIs" dxfId="779" priority="843" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="792" priority="844" operator="equal">
+    <cfRule type="cellIs" dxfId="778" priority="844" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="791" priority="845" operator="equal">
+    <cfRule type="cellIs" dxfId="777" priority="845" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107:F109">
-    <cfRule type="containsText" dxfId="790" priority="835" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="776" priority="835" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(F107))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107:E109">
-    <cfRule type="cellIs" dxfId="789" priority="834" operator="equal">
+    <cfRule type="cellIs" dxfId="775" priority="834" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107:E109">
-    <cfRule type="cellIs" dxfId="788" priority="833" operator="equal">
+    <cfRule type="cellIs" dxfId="774" priority="833" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107:E109">
-    <cfRule type="cellIs" dxfId="787" priority="832" operator="equal">
+    <cfRule type="cellIs" dxfId="773" priority="832" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G107:G108">
-    <cfRule type="containsText" dxfId="786" priority="829" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="772" priority="829" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH(("0"),(G107))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G107:G108">
-    <cfRule type="containsText" dxfId="785" priority="830" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="771" priority="830" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH(("Closed"),(G107))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G107:G108">
-    <cfRule type="containsText" dxfId="784" priority="831" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="770" priority="831" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH(("Open"),(G107))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G107">
-    <cfRule type="containsText" dxfId="783" priority="826" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="769" priority="826" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G107)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="782" priority="827" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="768" priority="827" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G107)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="781" priority="828" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="767" priority="828" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G107)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107">
-    <cfRule type="containsText" dxfId="780" priority="825" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="766" priority="825" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F107)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107">
-    <cfRule type="containsText" dxfId="779" priority="824" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="765" priority="824" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(F107))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G108">
-    <cfRule type="containsText" dxfId="778" priority="819" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="764" priority="819" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH(("0"),(G108))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="777" priority="814" operator="equal">
+    <cfRule type="cellIs" dxfId="763" priority="814" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="776" priority="815" operator="equal">
+    <cfRule type="cellIs" dxfId="762" priority="815" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="775" priority="816" operator="equal">
+    <cfRule type="cellIs" dxfId="761" priority="816" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="774" priority="811" operator="equal">
+    <cfRule type="cellIs" dxfId="760" priority="811" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="773" priority="812" operator="equal">
+    <cfRule type="cellIs" dxfId="759" priority="812" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="772" priority="813" operator="equal">
+    <cfRule type="cellIs" dxfId="758" priority="813" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G111">
-    <cfRule type="containsText" dxfId="771" priority="808" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="757" priority="808" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G111)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="770" priority="809" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="756" priority="809" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G111)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="769" priority="810" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="755" priority="810" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G111)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F111">
-    <cfRule type="containsText" dxfId="768" priority="807" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="754" priority="807" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F111)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F111">
-    <cfRule type="containsText" dxfId="767" priority="806" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="753" priority="806" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F111)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="766" priority="803" operator="equal">
+    <cfRule type="cellIs" dxfId="752" priority="803" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="765" priority="804" operator="equal">
+    <cfRule type="cellIs" dxfId="751" priority="804" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="764" priority="805" operator="equal">
+    <cfRule type="cellIs" dxfId="750" priority="805" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F112">
-    <cfRule type="containsText" dxfId="763" priority="802" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="749" priority="802" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F112)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G112">
-    <cfRule type="containsText" dxfId="762" priority="799" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="748" priority="799" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G112)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="761" priority="800" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="747" priority="800" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G112)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="760" priority="801" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="746" priority="801" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G112)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="759" priority="796" operator="equal">
+    <cfRule type="cellIs" dxfId="745" priority="796" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="758" priority="797" operator="equal">
+    <cfRule type="cellIs" dxfId="744" priority="797" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="757" priority="798" operator="equal">
+    <cfRule type="cellIs" dxfId="743" priority="798" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="756" priority="793" operator="equal">
+    <cfRule type="cellIs" dxfId="742" priority="793" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="755" priority="794" operator="equal">
+    <cfRule type="cellIs" dxfId="741" priority="794" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="754" priority="795" operator="equal">
+    <cfRule type="cellIs" dxfId="740" priority="795" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F115">
-    <cfRule type="containsText" dxfId="753" priority="792" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="739" priority="792" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F115)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="752" priority="789" operator="equal">
+    <cfRule type="cellIs" dxfId="738" priority="789" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="751" priority="790" operator="equal">
+    <cfRule type="cellIs" dxfId="737" priority="790" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="750" priority="791" operator="equal">
+    <cfRule type="cellIs" dxfId="736" priority="791" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F115">
-    <cfRule type="containsText" dxfId="749" priority="788" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="735" priority="788" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F115)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G115">
-    <cfRule type="containsText" dxfId="748" priority="785" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="734" priority="785" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G115)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="747" priority="786" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="733" priority="786" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G115)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="746" priority="787" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="732" priority="787" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G115)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="745" priority="782" operator="equal">
+    <cfRule type="cellIs" dxfId="731" priority="782" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="744" priority="783" operator="equal">
+    <cfRule type="cellIs" dxfId="730" priority="783" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="743" priority="784" operator="equal">
+    <cfRule type="cellIs" dxfId="729" priority="784" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="742" priority="779" operator="equal">
+    <cfRule type="cellIs" dxfId="728" priority="779" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="741" priority="780" operator="equal">
+    <cfRule type="cellIs" dxfId="727" priority="780" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="740" priority="781" operator="equal">
+    <cfRule type="cellIs" dxfId="726" priority="781" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G117">
-    <cfRule type="containsText" dxfId="739" priority="776" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="725" priority="776" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G117)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="738" priority="777" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="724" priority="777" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G117)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="737" priority="778" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="723" priority="778" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F122:F123 F118:F119">
-    <cfRule type="containsText" dxfId="736" priority="775" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="722" priority="775" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F118)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F123:G123 F122 E120:E123 E119:F119 E118">
-    <cfRule type="cellIs" dxfId="735" priority="772" operator="equal">
+    <cfRule type="cellIs" dxfId="721" priority="772" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="734" priority="773" operator="equal">
+    <cfRule type="cellIs" dxfId="720" priority="773" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="733" priority="774" operator="equal">
+    <cfRule type="cellIs" dxfId="719" priority="774" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G118:G123">
-    <cfRule type="containsText" dxfId="732" priority="769" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="718" priority="769" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G118)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="731" priority="770" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="717" priority="770" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G118)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="730" priority="771" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="716" priority="771" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G118)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G123 E122:E123 E119">
-    <cfRule type="cellIs" dxfId="729" priority="768" operator="equal">
+    <cfRule type="cellIs" dxfId="715" priority="768" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G123 E122:E123 E119">
-    <cfRule type="cellIs" dxfId="728" priority="767" operator="equal">
+    <cfRule type="cellIs" dxfId="714" priority="767" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G123 E122:E123 E119">
-    <cfRule type="cellIs" dxfId="727" priority="766" operator="equal">
+    <cfRule type="cellIs" dxfId="713" priority="766" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F122:F123 F119">
-    <cfRule type="containsText" dxfId="726" priority="765" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="712" priority="765" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E122:E123 E119">
-    <cfRule type="cellIs" dxfId="725" priority="762" operator="equal">
+    <cfRule type="cellIs" dxfId="711" priority="762" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="724" priority="763" operator="equal">
+    <cfRule type="cellIs" dxfId="710" priority="763" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="723" priority="764" operator="equal">
+    <cfRule type="cellIs" dxfId="709" priority="764" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G122:G123 G119">
-    <cfRule type="containsText" dxfId="722" priority="757" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="708" priority="757" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G119)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="721" priority="758" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="707" priority="758" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G122:G123 G119">
-    <cfRule type="containsText" dxfId="720" priority="756" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="706" priority="756" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G122:G123 G119">
-    <cfRule type="containsText" dxfId="719" priority="754" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="705" priority="754" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH(("Closed"),(G119))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="718" priority="755" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="704" priority="755" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH(("0"),(G119))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G122:G123 G119">
-    <cfRule type="containsText" dxfId="717" priority="753" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="703" priority="753" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH(("Open"),(G119))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G122:G123">
-    <cfRule type="containsText" dxfId="716" priority="752" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="702" priority="752" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH(("0"),(G122))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G122:G123">
-    <cfRule type="containsText" dxfId="715" priority="751" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="701" priority="751" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH(("Closed"),(G122))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F124">
-    <cfRule type="containsText" dxfId="714" priority="729" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="700" priority="729" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G124">
-    <cfRule type="containsText" dxfId="713" priority="733" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="699" priority="733" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G124)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="712" priority="734" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="698" priority="734" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G124)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="711" priority="735" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="697" priority="735" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="710" priority="730" operator="equal">
+    <cfRule type="cellIs" dxfId="696" priority="730" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="709" priority="731" operator="equal">
+    <cfRule type="cellIs" dxfId="695" priority="731" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="708" priority="732" operator="equal">
+    <cfRule type="cellIs" dxfId="694" priority="732" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D124">
-    <cfRule type="containsText" dxfId="707" priority="728" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="693" priority="728" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",#REF!)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E170">
-    <cfRule type="cellIs" dxfId="706" priority="725" operator="equal">
+    <cfRule type="cellIs" dxfId="692" priority="725" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="705" priority="726" operator="equal">
+    <cfRule type="cellIs" dxfId="691" priority="726" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="704" priority="727" operator="equal">
+    <cfRule type="cellIs" dxfId="690" priority="727" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F170">
-    <cfRule type="containsText" dxfId="703" priority="724" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="689" priority="724" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F170)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F170">
-    <cfRule type="containsText" dxfId="702" priority="723" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="688" priority="723" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F170)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G170">
-    <cfRule type="containsText" dxfId="701" priority="720" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="687" priority="720" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G170)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="700" priority="721" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="686" priority="721" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G170)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="699" priority="722" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="685" priority="722" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G170)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G171">
-    <cfRule type="containsText" dxfId="698" priority="717" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="684" priority="717" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G171)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="697" priority="718" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="683" priority="718" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G171)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="696" priority="719" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="682" priority="719" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171">
-    <cfRule type="cellIs" dxfId="695" priority="714" operator="equal">
+    <cfRule type="cellIs" dxfId="681" priority="714" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="694" priority="715" operator="equal">
+    <cfRule type="cellIs" dxfId="680" priority="715" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="693" priority="716" operator="equal">
+    <cfRule type="cellIs" dxfId="679" priority="716" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F171">
-    <cfRule type="containsText" dxfId="692" priority="713" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="678" priority="713" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F171">
-    <cfRule type="containsText" dxfId="691" priority="712" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="677" priority="712" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E172">
-    <cfRule type="cellIs" dxfId="690" priority="709" operator="equal">
+    <cfRule type="cellIs" dxfId="676" priority="709" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="689" priority="710" operator="equal">
+    <cfRule type="cellIs" dxfId="675" priority="710" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="688" priority="711" operator="equal">
+    <cfRule type="cellIs" dxfId="674" priority="711" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F172">
-    <cfRule type="containsText" dxfId="687" priority="708" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="673" priority="708" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F172">
-    <cfRule type="containsText" dxfId="686" priority="707" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="672" priority="707" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F172">
-    <cfRule type="containsText" dxfId="685" priority="706" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="671" priority="706" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F172">
-    <cfRule type="containsText" dxfId="684" priority="705" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="670" priority="705" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F172">
-    <cfRule type="containsText" dxfId="683" priority="704" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="669" priority="704" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F172">
-    <cfRule type="containsText" dxfId="682" priority="703" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="668" priority="703" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F172">
-    <cfRule type="containsText" dxfId="681" priority="702" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="667" priority="702" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F172">
-    <cfRule type="containsText" dxfId="680" priority="701" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="666" priority="701" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G172">
-    <cfRule type="containsText" dxfId="679" priority="698" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="665" priority="698" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G172)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="678" priority="699" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="664" priority="699" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G172)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="677" priority="700" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="663" priority="700" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G173">
-    <cfRule type="containsText" dxfId="676" priority="695" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="662" priority="695" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G173)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="675" priority="696" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="661" priority="696" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G173)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="674" priority="697" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="660" priority="697" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G173)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E173">
-    <cfRule type="cellIs" dxfId="673" priority="692" operator="equal">
+    <cfRule type="cellIs" dxfId="659" priority="692" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="672" priority="693" operator="equal">
+    <cfRule type="cellIs" dxfId="658" priority="693" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="671" priority="694" operator="equal">
+    <cfRule type="cellIs" dxfId="657" priority="694" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F173">
-    <cfRule type="containsText" dxfId="670" priority="691" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="656" priority="691" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F173)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F173">
-    <cfRule type="containsText" dxfId="669" priority="690" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="655" priority="690" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F173)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E174">
-    <cfRule type="cellIs" dxfId="668" priority="687" operator="equal">
+    <cfRule type="cellIs" dxfId="654" priority="687" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="667" priority="688" operator="equal">
+    <cfRule type="cellIs" dxfId="653" priority="688" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="666" priority="689" operator="equal">
+    <cfRule type="cellIs" dxfId="652" priority="689" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F174">
-    <cfRule type="containsText" dxfId="665" priority="686" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="651" priority="686" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F174)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G174">
-    <cfRule type="containsText" dxfId="664" priority="683" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="650" priority="683" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G174)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="663" priority="684" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="649" priority="684" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G174)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="662" priority="685" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="648" priority="685" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G174)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E175">
-    <cfRule type="cellIs" dxfId="661" priority="680" operator="equal">
+    <cfRule type="cellIs" dxfId="647" priority="680" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="660" priority="681" operator="equal">
+    <cfRule type="cellIs" dxfId="646" priority="681" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="659" priority="682" operator="equal">
+    <cfRule type="cellIs" dxfId="645" priority="682" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F175">
-    <cfRule type="containsText" dxfId="658" priority="679" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="644" priority="679" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F175)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G175">
-    <cfRule type="containsText" dxfId="657" priority="676" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="643" priority="676" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G175)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="656" priority="677" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="642" priority="677" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G175)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="655" priority="678" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="641" priority="678" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G175)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F175">
-    <cfRule type="containsText" dxfId="654" priority="675" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="640" priority="675" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F175)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F176">
-    <cfRule type="containsText" dxfId="653" priority="671" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="639" priority="671" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F176)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E176">
-    <cfRule type="cellIs" dxfId="652" priority="672" operator="equal">
+    <cfRule type="cellIs" dxfId="638" priority="672" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="651" priority="673" operator="equal">
+    <cfRule type="cellIs" dxfId="637" priority="673" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="650" priority="674" operator="equal">
+    <cfRule type="cellIs" dxfId="636" priority="674" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G176">
-    <cfRule type="containsText" dxfId="649" priority="668" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="635" priority="668" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G176)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="648" priority="669" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="634" priority="669" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G176)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="647" priority="670" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="633" priority="670" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G176)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E177:E178">
-    <cfRule type="cellIs" dxfId="646" priority="665" operator="equal">
+    <cfRule type="cellIs" dxfId="632" priority="665" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="645" priority="666" operator="equal">
+    <cfRule type="cellIs" dxfId="631" priority="666" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="644" priority="667" operator="equal">
+    <cfRule type="cellIs" dxfId="630" priority="667" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G177:G178">
-    <cfRule type="containsText" dxfId="643" priority="662" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="629" priority="662" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G177)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="642" priority="663" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="628" priority="663" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G177)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="641" priority="664" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="627" priority="664" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G177)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G177">
-    <cfRule type="containsText" dxfId="640" priority="659" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="626" priority="659" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G177)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="639" priority="660" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="625" priority="660" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G177)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="638" priority="661" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="624" priority="661" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G177)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F178 B178:C178">
-    <cfRule type="containsText" dxfId="637" priority="658" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="623" priority="658" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",B178)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E178">
-    <cfRule type="cellIs" dxfId="636" priority="657" operator="equal">
+    <cfRule type="cellIs" dxfId="622" priority="657" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E178">
-    <cfRule type="cellIs" dxfId="635" priority="656" operator="equal">
+    <cfRule type="cellIs" dxfId="621" priority="656" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E178">
-    <cfRule type="cellIs" dxfId="634" priority="655" operator="equal">
+    <cfRule type="cellIs" dxfId="620" priority="655" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G179">
-    <cfRule type="containsText" dxfId="633" priority="652" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="619" priority="652" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G179)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="632" priority="653" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="618" priority="653" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G179)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="631" priority="654" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="617" priority="654" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G179)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E179">
-    <cfRule type="cellIs" dxfId="630" priority="649" operator="equal">
+    <cfRule type="cellIs" dxfId="616" priority="649" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="629" priority="650" operator="equal">
+    <cfRule type="cellIs" dxfId="615" priority="650" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="628" priority="651" operator="equal">
+    <cfRule type="cellIs" dxfId="614" priority="651" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E180">
-    <cfRule type="cellIs" dxfId="627" priority="646" operator="equal">
+    <cfRule type="cellIs" dxfId="613" priority="646" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="626" priority="647" operator="equal">
+    <cfRule type="cellIs" dxfId="612" priority="647" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="625" priority="648" operator="equal">
+    <cfRule type="cellIs" dxfId="611" priority="648" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F180">
-    <cfRule type="containsText" dxfId="624" priority="645" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="610" priority="645" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F180)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F180">
-    <cfRule type="containsText" dxfId="623" priority="644" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="609" priority="644" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F180)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G180">
-    <cfRule type="containsText" dxfId="622" priority="641" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="608" priority="641" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G180)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="621" priority="642" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="607" priority="642" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G180)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="620" priority="643" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="606" priority="643" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G180)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E181">
-    <cfRule type="cellIs" dxfId="619" priority="638" operator="equal">
+    <cfRule type="cellIs" dxfId="605" priority="638" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="618" priority="639" operator="equal">
+    <cfRule type="cellIs" dxfId="604" priority="639" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="617" priority="640" operator="equal">
+    <cfRule type="cellIs" dxfId="603" priority="640" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G181">
-    <cfRule type="containsText" dxfId="616" priority="635" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="602" priority="635" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="615" priority="636" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="601" priority="636" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="614" priority="637" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="600" priority="637" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G181)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F181">
-    <cfRule type="containsText" dxfId="613" priority="634" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="599" priority="634" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F181)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F181">
-    <cfRule type="containsText" dxfId="612" priority="633" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="598" priority="633" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F181)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G182">
-    <cfRule type="containsText" dxfId="611" priority="630" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="597" priority="630" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G182)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="610" priority="631" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="596" priority="631" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G182)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="609" priority="632" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="595" priority="632" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G182)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E182">
-    <cfRule type="cellIs" dxfId="608" priority="627" operator="equal">
+    <cfRule type="cellIs" dxfId="594" priority="627" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="607" priority="628" operator="equal">
+    <cfRule type="cellIs" dxfId="593" priority="628" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="606" priority="629" operator="equal">
+    <cfRule type="cellIs" dxfId="592" priority="629" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G183:G185">
-    <cfRule type="containsText" dxfId="605" priority="621" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="591" priority="621" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G183)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="604" priority="622" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="590" priority="622" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G183)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="603" priority="623" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="589" priority="623" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G183)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E183:E185">
-    <cfRule type="cellIs" dxfId="602" priority="624" operator="equal">
+    <cfRule type="cellIs" dxfId="588" priority="624" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="601" priority="625" operator="equal">
+    <cfRule type="cellIs" dxfId="587" priority="625" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="600" priority="626" operator="equal">
+    <cfRule type="cellIs" dxfId="586" priority="626" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E186">
-    <cfRule type="cellIs" dxfId="599" priority="618" operator="equal">
+    <cfRule type="cellIs" dxfId="585" priority="618" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="598" priority="619" operator="equal">
+    <cfRule type="cellIs" dxfId="584" priority="619" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="597" priority="620" operator="equal">
+    <cfRule type="cellIs" dxfId="583" priority="620" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G186">
-    <cfRule type="containsText" dxfId="596" priority="615" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="582" priority="615" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G186)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="595" priority="616" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="581" priority="616" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G186)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="594" priority="617" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="580" priority="617" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G186)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E187">
-    <cfRule type="cellIs" dxfId="593" priority="612" operator="equal">
+    <cfRule type="cellIs" dxfId="579" priority="612" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="592" priority="613" operator="equal">
+    <cfRule type="cellIs" dxfId="578" priority="613" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="591" priority="614" operator="equal">
+    <cfRule type="cellIs" dxfId="577" priority="614" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F187">
-    <cfRule type="containsText" dxfId="590" priority="611" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="576" priority="611" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F187)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F187">
-    <cfRule type="containsText" dxfId="589" priority="610" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="575" priority="610" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F187)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G187">
-    <cfRule type="containsText" dxfId="588" priority="607" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="574" priority="607" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G187)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="587" priority="608" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="573" priority="608" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G187)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="586" priority="609" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="572" priority="609" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G187)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E188">
-    <cfRule type="cellIs" dxfId="585" priority="604" operator="equal">
+    <cfRule type="cellIs" dxfId="571" priority="604" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="584" priority="605" operator="equal">
+    <cfRule type="cellIs" dxfId="570" priority="605" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="583" priority="606" operator="equal">
+    <cfRule type="cellIs" dxfId="569" priority="606" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F188">
-    <cfRule type="containsText" dxfId="582" priority="603" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="568" priority="603" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F188)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F188">
-    <cfRule type="containsText" dxfId="581" priority="602" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="567" priority="602" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F188)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G188">
-    <cfRule type="containsText" dxfId="580" priority="599" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="566" priority="599" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G188)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="579" priority="600" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="565" priority="600" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G188)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="578" priority="601" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="564" priority="601" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G188)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E189">
-    <cfRule type="cellIs" dxfId="577" priority="596" operator="equal">
+    <cfRule type="cellIs" dxfId="563" priority="596" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="576" priority="597" operator="equal">
+    <cfRule type="cellIs" dxfId="562" priority="597" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="575" priority="598" operator="equal">
+    <cfRule type="cellIs" dxfId="561" priority="598" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G189">
-    <cfRule type="containsText" dxfId="574" priority="591" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="560" priority="591" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G189)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="573" priority="592" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="559" priority="592" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G189)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="572" priority="593" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="558" priority="593" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G189)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F189">
-    <cfRule type="containsText" dxfId="571" priority="594" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="557" priority="594" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",#REF!)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F189">
-    <cfRule type="containsText" dxfId="570" priority="595" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="556" priority="595" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",#REF!)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E190">
-    <cfRule type="cellIs" dxfId="569" priority="588" operator="equal">
+    <cfRule type="cellIs" dxfId="555" priority="588" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="568" priority="589" operator="equal">
+    <cfRule type="cellIs" dxfId="554" priority="589" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="567" priority="590" operator="equal">
+    <cfRule type="cellIs" dxfId="553" priority="590" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F190">
-    <cfRule type="containsText" dxfId="566" priority="586" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="552" priority="586" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",#REF!)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F190">
-    <cfRule type="containsText" dxfId="565" priority="587" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="551" priority="587" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",#REF!)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G190">
-    <cfRule type="containsText" dxfId="564" priority="583" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="550" priority="583" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G190)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="563" priority="584" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="549" priority="584" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G190)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="562" priority="585" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="548" priority="585" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G190)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F191">
-    <cfRule type="containsText" dxfId="561" priority="582" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="547" priority="582" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F191)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F191">
-    <cfRule type="containsText" dxfId="560" priority="581" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="546" priority="581" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F191)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G191">
-    <cfRule type="containsText" dxfId="559" priority="575" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="545" priority="575" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G191)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="558" priority="576" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="544" priority="576" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G191)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="557" priority="577" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="543" priority="577" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G191)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E191">
-    <cfRule type="cellIs" dxfId="556" priority="578" operator="equal">
+    <cfRule type="cellIs" dxfId="542" priority="578" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="555" priority="579" operator="equal">
+    <cfRule type="cellIs" dxfId="541" priority="579" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="554" priority="580" operator="equal">
+    <cfRule type="cellIs" dxfId="540" priority="580" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F192">
-    <cfRule type="containsText" dxfId="553" priority="573" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="539" priority="573" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F192)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F192">
-    <cfRule type="containsText" dxfId="552" priority="574" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="538" priority="574" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F192)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G192">
-    <cfRule type="containsText" dxfId="551" priority="566" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="537" priority="566" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G192)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="550" priority="567" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="536" priority="567" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G192)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="549" priority="568" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="535" priority="568" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G192)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G192">
-    <cfRule type="containsText" dxfId="548" priority="563" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="534" priority="563" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G192)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="547" priority="564" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="533" priority="564" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G192)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="546" priority="565" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="532" priority="565" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G192)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G192">
-    <cfRule type="containsText" dxfId="545" priority="569" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="531" priority="569" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G192)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="544" priority="570" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="530" priority="570" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G192)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="543" priority="571" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="529" priority="571" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G192)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G192">
-    <cfRule type="containsText" dxfId="542" priority="572" operator="containsText" text="CLOSED">
+    <cfRule type="containsText" dxfId="528" priority="572" operator="containsText" text="CLOSED">
       <formula>NOT(ISERROR(SEARCH("CLOSED",G192)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E192">
-    <cfRule type="cellIs" dxfId="541" priority="560" operator="equal">
+    <cfRule type="cellIs" dxfId="527" priority="560" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="540" priority="561" operator="equal">
+    <cfRule type="cellIs" dxfId="526" priority="561" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="539" priority="562" operator="equal">
+    <cfRule type="cellIs" dxfId="525" priority="562" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E193">
-    <cfRule type="cellIs" dxfId="538" priority="557" operator="equal">
+    <cfRule type="cellIs" dxfId="524" priority="557" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="537" priority="558" operator="equal">
+    <cfRule type="cellIs" dxfId="523" priority="558" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="536" priority="559" operator="equal">
+    <cfRule type="cellIs" dxfId="522" priority="559" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="535" priority="526" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="521" priority="526" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F194)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E194">
-    <cfRule type="cellIs" dxfId="534" priority="523" operator="equal">
+    <cfRule type="cellIs" dxfId="520" priority="523" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="533" priority="524" operator="equal">
+    <cfRule type="cellIs" dxfId="519" priority="524" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="532" priority="525" operator="equal">
+    <cfRule type="cellIs" dxfId="518" priority="525" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E194">
-    <cfRule type="cellIs" dxfId="531" priority="517" operator="equal">
+    <cfRule type="cellIs" dxfId="517" priority="517" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E194">
-    <cfRule type="cellIs" dxfId="530" priority="518" operator="equal">
+    <cfRule type="cellIs" dxfId="516" priority="518" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E194">
-    <cfRule type="cellIs" dxfId="529" priority="519" operator="equal">
+    <cfRule type="cellIs" dxfId="515" priority="519" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G194">
-    <cfRule type="containsText" dxfId="528" priority="520" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="514" priority="520" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH(("0"),(G194))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G194">
-    <cfRule type="containsText" dxfId="527" priority="521" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="513" priority="521" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH(("Closed"),(G194))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G194">
-    <cfRule type="containsText" dxfId="526" priority="522" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="512" priority="522" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH(("Open"),(G194))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G194">
-    <cfRule type="containsText" dxfId="525" priority="514" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="511" priority="514" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G194)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="524" priority="515" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="510" priority="515" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G194)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="523" priority="516" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="509" priority="516" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G194)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G194">
-    <cfRule type="containsText" dxfId="522" priority="506" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="508" priority="506" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G194)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="521" priority="507" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="507" priority="507" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G194)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="520" priority="508" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="506" priority="508" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G194)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="519" priority="534" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="505" priority="534" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="518" priority="535" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="504" priority="535" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="517" priority="505" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="503" priority="505" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F194)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E194">
-    <cfRule type="cellIs" dxfId="516" priority="502" operator="equal">
+    <cfRule type="cellIs" dxfId="502" priority="502" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="515" priority="503" operator="equal">
+    <cfRule type="cellIs" dxfId="501" priority="503" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="514" priority="504" operator="equal">
+    <cfRule type="cellIs" dxfId="500" priority="504" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G194">
-    <cfRule type="containsText" dxfId="513" priority="499" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="499" priority="499" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G194)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="512" priority="500" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="498" priority="500" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G194)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="511" priority="501" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="497" priority="501" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G194)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G194">
-    <cfRule type="containsText" dxfId="510" priority="496" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="496" priority="496" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G194)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="509" priority="497" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="495" priority="497" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G194)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="508" priority="498" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="494" priority="498" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G194)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E194">
-    <cfRule type="cellIs" dxfId="507" priority="495" operator="equal">
+    <cfRule type="cellIs" dxfId="493" priority="495" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E194">
-    <cfRule type="cellIs" dxfId="506" priority="494" operator="equal">
+    <cfRule type="cellIs" dxfId="492" priority="494" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E194">
-    <cfRule type="cellIs" dxfId="505" priority="493" operator="equal">
+    <cfRule type="cellIs" dxfId="491" priority="493" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="504" priority="490" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="490" priority="490" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="503" priority="489" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="489" priority="489" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="502" priority="488" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="488" priority="488" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="501" priority="538" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="487" priority="538" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="500" priority="554" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="486" priority="554" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="499" priority="555" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="485" priority="555" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="498" priority="556" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="484" priority="556" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="497" priority="484" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="483" priority="484" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F195">
-    <cfRule type="containsText" dxfId="496" priority="458" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="482" priority="458" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F195)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E195">
-    <cfRule type="cellIs" dxfId="495" priority="455" operator="equal">
+    <cfRule type="cellIs" dxfId="481" priority="455" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="494" priority="456" operator="equal">
+    <cfRule type="cellIs" dxfId="480" priority="456" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="493" priority="457" operator="equal">
+    <cfRule type="cellIs" dxfId="479" priority="457" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E195">
-    <cfRule type="cellIs" dxfId="492" priority="449" operator="equal">
+    <cfRule type="cellIs" dxfId="478" priority="449" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E195">
-    <cfRule type="cellIs" dxfId="491" priority="450" operator="equal">
+    <cfRule type="cellIs" dxfId="477" priority="450" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E195">
-    <cfRule type="cellIs" dxfId="490" priority="451" operator="equal">
+    <cfRule type="cellIs" dxfId="476" priority="451" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G195">
-    <cfRule type="containsText" dxfId="489" priority="452" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="475" priority="452" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH(("0"),(G195))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G195">
-    <cfRule type="containsText" dxfId="488" priority="453" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="474" priority="453" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH(("Closed"),(G195))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G195">
-    <cfRule type="containsText" dxfId="487" priority="454" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="473" priority="454" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH(("Open"),(G195))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G195">
-    <cfRule type="containsText" dxfId="486" priority="445" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="472" priority="445" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G195)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="485" priority="446" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="471" priority="446" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G195)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="484" priority="447" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="470" priority="447" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G195)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G195">
-    <cfRule type="containsText" dxfId="483" priority="437" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="469" priority="437" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G195)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="482" priority="438" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="468" priority="438" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G195)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="481" priority="439" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="467" priority="439" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G195)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F195">
-    <cfRule type="containsText" dxfId="480" priority="462" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="466" priority="462" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F195">
-    <cfRule type="containsText" dxfId="479" priority="463" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="465" priority="463" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F195">
-    <cfRule type="containsText" dxfId="478" priority="464" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="464" priority="464" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F195">
-    <cfRule type="containsText" dxfId="477" priority="467" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="463" priority="467" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F195">
-    <cfRule type="containsText" dxfId="476" priority="480" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="462" priority="480" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F195">
-    <cfRule type="containsText" dxfId="475" priority="481" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="461" priority="481" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196:F197">
-    <cfRule type="containsText" dxfId="474" priority="392" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="460" priority="392" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F196)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196:F197">
-    <cfRule type="containsText" dxfId="473" priority="395" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="459" priority="395" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196:F197">
-    <cfRule type="containsText" dxfId="472" priority="396" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="458" priority="396" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196:F197">
-    <cfRule type="containsText" dxfId="471" priority="387" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="457" priority="387" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F196)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196:F197">
-    <cfRule type="containsText" dxfId="470" priority="386" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="456" priority="386" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196:F197">
-    <cfRule type="containsText" dxfId="469" priority="385" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="455" priority="385" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196:F197">
-    <cfRule type="containsText" dxfId="468" priority="384" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="454" priority="384" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196:F197">
-    <cfRule type="containsText" dxfId="467" priority="398" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="453" priority="398" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="466" priority="380" operator="equal">
+    <cfRule type="cellIs" dxfId="452" priority="380" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="465" priority="381" operator="equal">
+    <cfRule type="cellIs" dxfId="451" priority="381" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="464" priority="382" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="382" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="463" priority="377" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="377" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="462" priority="378" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="378" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="461" priority="379" operator="equal">
+    <cfRule type="cellIs" dxfId="447" priority="379" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="460" priority="376" operator="equal">
+    <cfRule type="cellIs" dxfId="446" priority="376" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="459" priority="375" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="375" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="458" priority="374" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="374" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="457" priority="371" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="371" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="456" priority="372" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="372" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="455" priority="373" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="373" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="454" priority="368" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="368" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="453" priority="369" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="369" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="452" priority="370" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="370" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="451" priority="367" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="367" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="450" priority="366" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="366" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="449" priority="365" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="365" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="448" priority="362" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="362" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="447" priority="363" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="363" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="446" priority="364" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="364" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="445" priority="361" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="361" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="444" priority="360" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="360" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="443" priority="359" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="359" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="442" priority="356" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="356" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="441" priority="357" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="357" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="440" priority="358" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="358" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="439" priority="355" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="355" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="438" priority="354" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="354" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="437" priority="353" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="353" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="436" priority="350" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="350" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="435" priority="351" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="351" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="434" priority="352" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="352" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="433" priority="347" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="419" priority="347" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH(("0"),(G196))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="432" priority="348" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="418" priority="348" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH(("Closed"),(G196))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="431" priority="349" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="417" priority="349" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH(("Open"),(G196))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="430" priority="344" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="416" priority="344" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="429" priority="345" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="415" priority="345" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="428" priority="346" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="414" priority="346" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="427" priority="341" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="413" priority="341" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="426" priority="342" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="412" priority="342" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="425" priority="343" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="411" priority="343" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="424" priority="338" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="410" priority="338" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="423" priority="339" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="409" priority="339" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="422" priority="340" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="408" priority="340" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="421" priority="335" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="407" priority="335" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="420" priority="336" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="406" priority="336" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="419" priority="337" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="405" priority="337" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="418" priority="332" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="404" priority="332" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="417" priority="333" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="403" priority="333" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="416" priority="334" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="402" priority="334" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="415" priority="329" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="401" priority="329" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="414" priority="330" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="400" priority="330" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="413" priority="331" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="399" priority="331" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="412" priority="326" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="398" priority="326" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="411" priority="327" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="397" priority="327" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="410" priority="328" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="396" priority="328" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="409" priority="323" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="395" priority="323" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",#REF!)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="408" priority="324" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="394" priority="324" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",#REF!)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="407" priority="325" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="393" priority="325" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",#REF!)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="406" priority="320" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="392" priority="320" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="405" priority="321" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="391" priority="321" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="404" priority="322" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="390" priority="322" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="403" priority="317" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="389" priority="317" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="402" priority="318" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="388" priority="318" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="401" priority="319" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="387" priority="319" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="400" priority="314" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="386" priority="314" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="399" priority="315" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="385" priority="315" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="398" priority="316" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="384" priority="316" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="397" priority="311" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="383" priority="311" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="396" priority="312" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="382" priority="312" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="395" priority="313" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="381" priority="313" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="394" priority="308" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="380" priority="308" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="393" priority="309" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="379" priority="309" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="392" priority="310" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="378" priority="310" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="391" priority="305" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="377" priority="305" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="390" priority="306" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="376" priority="306" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="389" priority="307" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="375" priority="307" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="388" priority="302" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="374" priority="302" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="387" priority="303" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="373" priority="303" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="386" priority="304" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="372" priority="304" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="385" priority="299" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="371" priority="299" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="384" priority="300" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="370" priority="300" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="383" priority="301" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="369" priority="301" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="382" priority="296" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="368" priority="296" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="381" priority="297" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="367" priority="297" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="380" priority="298" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="366" priority="298" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="379" priority="293" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="365" priority="293" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",#REF!)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="378" priority="294" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="364" priority="294" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",#REF!)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="377" priority="295" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="363" priority="295" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",#REF!)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="376" priority="290" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="362" priority="290" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="375" priority="291" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="361" priority="291" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="374" priority="292" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="360" priority="292" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="373" priority="287" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="359" priority="287" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="372" priority="288" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="358" priority="288" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="371" priority="289" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="357" priority="289" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="370" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="270" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="369" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="271" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="368" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="272" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="367" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="267" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="268" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="365" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="269" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="364" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="266" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="363" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="265" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="362" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="264" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="361" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="261" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="262" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="359" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="263" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="358" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="258" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="259" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="356" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="260" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="355" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="257" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="354" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="256" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="353" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="255" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="352" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="252" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="351" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="253" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="350" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="254" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="349" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="251" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="348" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="250" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="347" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="249" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="346" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="246" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="345" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="247" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="248" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="343" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="245" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="342" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="244" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="341" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="243" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="340" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="240" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="339" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="241" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="242" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="337" priority="231" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="323" priority="231" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="336" priority="232" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="322" priority="232" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="335" priority="233" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="321" priority="233" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="334" priority="222" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="320" priority="222" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="333" priority="223" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="319" priority="223" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="332" priority="224" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="318" priority="224" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="331" priority="237" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="317" priority="237" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH(("0"),(G197))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="330" priority="238" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="316" priority="238" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH(("Closed"),(G197))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="329" priority="239" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="315" priority="239" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH(("Open"),(G197))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="328" priority="234" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="314" priority="234" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="327" priority="235" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="313" priority="235" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="326" priority="236" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="312" priority="236" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="325" priority="228" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="311" priority="228" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="324" priority="229" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="310" priority="229" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="323" priority="230" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="309" priority="230" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="322" priority="225" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="308" priority="225" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="321" priority="226" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="307" priority="226" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="320" priority="227" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="306" priority="227" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="319" priority="219" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="305" priority="219" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="318" priority="220" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="304" priority="220" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="317" priority="221" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="303" priority="221" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="316" priority="216" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="302" priority="216" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="315" priority="217" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="301" priority="217" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="314" priority="218" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="300" priority="218" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="313" priority="213" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="299" priority="213" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",#REF!)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="312" priority="214" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="298" priority="214" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",#REF!)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="311" priority="215" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="297" priority="215" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",#REF!)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="310" priority="210" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="296" priority="210" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="309" priority="211" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="295" priority="211" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="308" priority="212" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="294" priority="212" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="307" priority="207" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="293" priority="207" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="306" priority="208" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="292" priority="208" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="305" priority="209" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="291" priority="209" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="304" priority="204" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="290" priority="204" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="303" priority="205" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="289" priority="205" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="302" priority="206" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="288" priority="206" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="301" priority="201" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="287" priority="201" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="300" priority="202" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="286" priority="202" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="299" priority="203" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="285" priority="203" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="298" priority="198" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="284" priority="198" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="297" priority="199" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="283" priority="199" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="296" priority="200" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="282" priority="200" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="295" priority="195" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="281" priority="195" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="294" priority="196" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="280" priority="196" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="293" priority="197" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="279" priority="197" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="292" priority="192" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="278" priority="192" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="291" priority="193" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="277" priority="193" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="290" priority="194" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="276" priority="194" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="289" priority="189" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="275" priority="189" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="288" priority="190" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="274" priority="190" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="287" priority="191" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="273" priority="191" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="286" priority="186" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="272" priority="186" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="285" priority="187" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="271" priority="187" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="284" priority="188" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="270" priority="188" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="283" priority="183" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="269" priority="183" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",#REF!)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="282" priority="184" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="268" priority="184" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",#REF!)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="281" priority="185" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="267" priority="185" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",#REF!)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="280" priority="180" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="266" priority="180" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="279" priority="181" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="265" priority="181" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="278" priority="182" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="264" priority="182" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="277" priority="177" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="263" priority="177" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="276" priority="178" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="262" priority="178" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="275" priority="179" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="261" priority="179" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E198">
-    <cfRule type="cellIs" dxfId="274" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="174" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="175" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="176" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E198">
-    <cfRule type="cellIs" dxfId="271" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="171" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E198">
-    <cfRule type="cellIs" dxfId="270" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="172" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E198">
-    <cfRule type="cellIs" dxfId="269" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="173" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E198">
-    <cfRule type="cellIs" dxfId="268" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="168" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="169" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="170" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E198">
-    <cfRule type="cellIs" dxfId="265" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="167" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E198">
-    <cfRule type="cellIs" dxfId="264" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="166" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E198">
-    <cfRule type="cellIs" dxfId="263" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="165" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G198">
-    <cfRule type="containsText" dxfId="262" priority="160" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="248" priority="160" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH(("0"),(G198))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G198">
-    <cfRule type="containsText" dxfId="261" priority="161" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="247" priority="161" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH(("Closed"),(G198))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G198">
-    <cfRule type="containsText" dxfId="260" priority="162" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="246" priority="162" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH(("Open"),(G198))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G198">
-    <cfRule type="containsText" dxfId="259" priority="157" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="245" priority="157" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G198)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="258" priority="158" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="244" priority="158" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G198)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="257" priority="159" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="243" priority="159" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G198">
-    <cfRule type="containsText" dxfId="256" priority="154" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="242" priority="154" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G198)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="255" priority="155" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="241" priority="155" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G198)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="254" priority="156" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="240" priority="156" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G244">
-    <cfRule type="containsText" dxfId="253" priority="151" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="239" priority="151" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G244)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="252" priority="152" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="238" priority="152" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G244)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="251" priority="153" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="237" priority="153" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G244)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E244">
-    <cfRule type="cellIs" dxfId="250" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="148" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="149" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="150" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F244">
-    <cfRule type="containsText" dxfId="247" priority="147" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="233" priority="147" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F244)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F244">
-    <cfRule type="containsText" dxfId="246" priority="146" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="232" priority="146" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F244)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E245">
-    <cfRule type="cellIs" dxfId="245" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="143" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="144" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="145" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G245">
-    <cfRule type="containsText" dxfId="242" priority="140" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="228" priority="140" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G245)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="241" priority="141" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="227" priority="141" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G245)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="240" priority="142" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="226" priority="142" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G245)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E248 E246">
-    <cfRule type="cellIs" dxfId="239" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="137" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="138" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="139" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G248 G246">
-    <cfRule type="containsText" dxfId="236" priority="134" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="222" priority="134" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G246)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="235" priority="135" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="221" priority="135" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G246)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="234" priority="136" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="220" priority="136" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G246)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E248 E246">
-    <cfRule type="cellIs" dxfId="233" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="133" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E248 E246">
-    <cfRule type="cellIs" dxfId="232" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="132" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E248 E246">
-    <cfRule type="cellIs" dxfId="231" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="131" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D247 F247">
-    <cfRule type="containsText" dxfId="230" priority="130" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="216" priority="130" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",D247)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E247:F247">
-    <cfRule type="cellIs" dxfId="229" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="127" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="128" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="129" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G247">
-    <cfRule type="containsText" dxfId="226" priority="124" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="212" priority="124" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G247)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="225" priority="125" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="211" priority="125" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G247)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="224" priority="126" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="210" priority="126" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G247)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D247">
-    <cfRule type="containsText" dxfId="223" priority="123" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="209" priority="123" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",D247)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G247">
-    <cfRule type="containsText" dxfId="222" priority="120" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="208" priority="120" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G247)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="221" priority="121" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="207" priority="121" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G247)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="220" priority="122" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="206" priority="122" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G247)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G247">
-    <cfRule type="containsText" dxfId="219" priority="117" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="205" priority="117" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G247)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="218" priority="118" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="204" priority="118" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G247)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="217" priority="119" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="203" priority="119" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G247)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G247">
-    <cfRule type="containsText" dxfId="216" priority="114" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="202" priority="114" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G247)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="215" priority="115" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="201" priority="115" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G247)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="116" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="200" priority="116" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G247)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F248">
-    <cfRule type="containsText" dxfId="213" priority="113" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="199" priority="113" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F248)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G248">
-    <cfRule type="containsText" dxfId="212" priority="112" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="198" priority="112" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH(("0"),(G248))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G248">
-    <cfRule type="containsText" dxfId="211" priority="111" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="197" priority="111" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH(("Closed"),(G248))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G248">
-    <cfRule type="containsText" dxfId="210" priority="110" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="196" priority="110" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH(("Open"),(G248))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F248">
-    <cfRule type="containsText" dxfId="209" priority="108" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="195" priority="108" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F248)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E248">
-    <cfRule type="cellIs" dxfId="208" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="105" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="106" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="107" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G248">
-    <cfRule type="containsText" dxfId="205" priority="102" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="191" priority="102" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G248)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="103" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="190" priority="103" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G248)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="203" priority="104" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="189" priority="104" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G248)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D249 F249">
-    <cfRule type="containsText" dxfId="202" priority="101" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="188" priority="101" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",D249)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F249">
-    <cfRule type="cellIs" dxfId="201" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="98" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="99" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="100" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D249">
-    <cfRule type="containsText" dxfId="198" priority="97" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="184" priority="97" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",D249)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E249">
-    <cfRule type="cellIs" dxfId="197" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="94" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="95" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="96" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E249">
-    <cfRule type="cellIs" dxfId="194" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="93" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E249">
-    <cfRule type="cellIs" dxfId="193" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="92" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E249">
-    <cfRule type="cellIs" dxfId="192" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="91" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E249">
-    <cfRule type="cellIs" dxfId="191" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="88" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="89" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="90" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G249">
-    <cfRule type="containsText" dxfId="188" priority="85" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="174" priority="85" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G249)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="187" priority="86" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="173" priority="86" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G249)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="87" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="172" priority="87" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G249)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G249">
-    <cfRule type="containsText" dxfId="185" priority="84" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="171" priority="84" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH(("0"),(G249))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G249">
-    <cfRule type="containsText" dxfId="184" priority="83" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="170" priority="83" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH(("Closed"),(G249))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G249">
-    <cfRule type="containsText" dxfId="183" priority="82" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="169" priority="82" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH(("Open"),(G249))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G249">
-    <cfRule type="containsText" dxfId="182" priority="79" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="168" priority="79" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G249)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="80" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="167" priority="80" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G249)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="81" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="166" priority="81" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G249)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70 F194">
-    <cfRule type="containsText" dxfId="179" priority="1465" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="165" priority="1465" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70 F196:F197">
-    <cfRule type="containsText" dxfId="178" priority="1466" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="164" priority="1466" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70">
-    <cfRule type="containsText" dxfId="177" priority="1467" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="163" priority="1467" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70">
-    <cfRule type="containsText" dxfId="176" priority="1468" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="162" priority="1468" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80">
-    <cfRule type="containsText" dxfId="175" priority="1470" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="161" priority="1470" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80 F195">
-    <cfRule type="containsText" dxfId="174" priority="1471" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="160" priority="1471" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80">
-    <cfRule type="containsText" dxfId="173" priority="1472" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="159" priority="1472" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80 F248">
-    <cfRule type="containsText" dxfId="172" priority="1473" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="158" priority="1473" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107">
-    <cfRule type="containsText" dxfId="171" priority="1475" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="157" priority="1475" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107">
-    <cfRule type="containsText" dxfId="170" priority="1476" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="156" priority="1476" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107">
-    <cfRule type="containsText" dxfId="169" priority="1477" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="155" priority="1477" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107 F122:F123">
-    <cfRule type="containsText" dxfId="168" priority="1478" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="154" priority="1478" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107 F194:F197">
-    <cfRule type="containsText" dxfId="167" priority="1479" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="153" priority="1479" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107 F194 F196">
-    <cfRule type="containsText" dxfId="166" priority="1480" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="152" priority="1480" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107">
-    <cfRule type="containsText" dxfId="165" priority="1481" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="151" priority="1481" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107">
-    <cfRule type="containsText" dxfId="164" priority="1482" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="150" priority="1482" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107 F195:F196">
-    <cfRule type="containsText" dxfId="163" priority="1483" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="149" priority="1483" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107 F195:F197">
-    <cfRule type="containsText" dxfId="162" priority="1484" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="148" priority="1484" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107">
-    <cfRule type="containsText" dxfId="161" priority="1485" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="147" priority="1485" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107">
-    <cfRule type="containsText" dxfId="160" priority="1486" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="146" priority="1486" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F108">
-    <cfRule type="containsText" dxfId="159" priority="1487" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="145" priority="1487" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F109">
-    <cfRule type="containsText" dxfId="158" priority="1488" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="144" priority="1488" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F119">
-    <cfRule type="containsText" dxfId="157" priority="1489" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="143" priority="1489" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F119">
-    <cfRule type="containsText" dxfId="156" priority="1490" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="142" priority="1490" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="155" priority="1491" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="141" priority="1491" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F122:F123">
-    <cfRule type="containsText" dxfId="154" priority="1492" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="140" priority="1492" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F122:F123">
-    <cfRule type="containsText" dxfId="153" priority="1493" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="139" priority="1493" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F122:F123">
-    <cfRule type="containsText" dxfId="152" priority="1494" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="138" priority="1494" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F122:F123 F196:F197">
-    <cfRule type="containsText" dxfId="151" priority="1496" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="137" priority="1496" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F122:F123 F194 F197">
-    <cfRule type="containsText" dxfId="150" priority="1497" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="136" priority="1497" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F123">
-    <cfRule type="containsText" dxfId="149" priority="1499" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="135" priority="1499" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F123">
-    <cfRule type="containsText" dxfId="148" priority="1502" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="134" priority="1502" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194:F195">
-    <cfRule type="containsText" dxfId="147" priority="1507" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="133" priority="1507" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194:F195">
-    <cfRule type="containsText" dxfId="146" priority="1508" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="132" priority="1508" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="145" priority="1509" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="131" priority="1509" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194:F195">
-    <cfRule type="containsText" dxfId="144" priority="1510" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="130" priority="1510" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194:F195">
-    <cfRule type="containsText" dxfId="143" priority="1511" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="129" priority="1511" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194 F196">
-    <cfRule type="containsText" dxfId="142" priority="1512" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="128" priority="1512" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="141" priority="1513" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="127" priority="1513" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="140" priority="1514" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="126" priority="1514" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194 F197">
-    <cfRule type="containsText" dxfId="139" priority="1515" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="125" priority="1515" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F197 F194:F195">
-    <cfRule type="containsText" dxfId="138" priority="1516" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="124" priority="1516" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F197 F194:F195">
-    <cfRule type="containsText" dxfId="137" priority="1517" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="123" priority="1517" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194:F195">
-    <cfRule type="containsText" dxfId="136" priority="1518" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="122" priority="1518" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194 F197">
-    <cfRule type="containsText" dxfId="135" priority="1519" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="121" priority="1519" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="134" priority="1520" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="120" priority="1520" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="133" priority="1521" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="119" priority="1521" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194:F197">
-    <cfRule type="containsText" dxfId="132" priority="1522" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="118" priority="1522" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194 F197">
-    <cfRule type="containsText" dxfId="131" priority="1523" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="117" priority="1523" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F197 F194:F195">
-    <cfRule type="containsText" dxfId="130" priority="1525" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="116" priority="1525" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F197 F194:F195">
-    <cfRule type="containsText" dxfId="129" priority="1526" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="115" priority="1526" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F197 F194:F195">
-    <cfRule type="containsText" dxfId="128" priority="1527" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="114" priority="1527" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F197 F194:F195">
-    <cfRule type="containsText" dxfId="127" priority="1528" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="113" priority="1528" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194 F196">
-    <cfRule type="containsText" dxfId="126" priority="1529" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="112" priority="1529" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F197 F194:F195">
-    <cfRule type="containsText" dxfId="125" priority="1530" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="111" priority="1530" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194 F196">
-    <cfRule type="containsText" dxfId="124" priority="1532" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="110" priority="1532" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194 F196">
-    <cfRule type="containsText" dxfId="123" priority="1533" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="109" priority="1533" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194:F197">
-    <cfRule type="containsText" dxfId="122" priority="1535" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="108" priority="1535" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194:F197">
-    <cfRule type="containsText" dxfId="121" priority="1536" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="107" priority="1536" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="120" priority="1537" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="106" priority="1537" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194 F197">
-    <cfRule type="containsText" dxfId="119" priority="1538" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="105" priority="1538" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194 F196:F197">
-    <cfRule type="containsText" dxfId="118" priority="1539" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="104" priority="1539" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F197 F194:F195">
-    <cfRule type="containsText" dxfId="117" priority="1540" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="103" priority="1540" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194:F195">
-    <cfRule type="containsText" dxfId="116" priority="1542" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="102" priority="1542" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F197 F195">
-    <cfRule type="containsText" dxfId="115" priority="1543" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="101" priority="1543" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F195:F196">
-    <cfRule type="containsText" dxfId="114" priority="1545" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="100" priority="1545" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F195:F197">
-    <cfRule type="containsText" dxfId="113" priority="1546" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="99" priority="1546" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F195">
-    <cfRule type="containsText" dxfId="112" priority="1549" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="98" priority="1549" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F195:F196">
-    <cfRule type="containsText" dxfId="111" priority="1550" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="97" priority="1550" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F195">
-    <cfRule type="containsText" dxfId="110" priority="1551" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="96" priority="1551" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F195">
-    <cfRule type="containsText" dxfId="109" priority="1553" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="95" priority="1553" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F197 F195">
-    <cfRule type="containsText" dxfId="108" priority="1554" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="94" priority="1554" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F195">
-    <cfRule type="containsText" dxfId="107" priority="1556" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="93" priority="1556" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F195 F197">
-    <cfRule type="containsText" dxfId="106" priority="1560" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="92" priority="1560" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F195:F197">
-    <cfRule type="containsText" dxfId="105" priority="1567" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="91" priority="1567" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F195 F197">
-    <cfRule type="containsText" dxfId="104" priority="1575" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="90" priority="1575" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F195 F197">
-    <cfRule type="containsText" dxfId="103" priority="1576" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="89" priority="1576" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F195">
-    <cfRule type="containsText" dxfId="102" priority="1583" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="88" priority="1583" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196:F197">
-    <cfRule type="containsText" dxfId="101" priority="1593" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="87" priority="1593" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196:F197">
-    <cfRule type="containsText" dxfId="100" priority="1594" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="86" priority="1594" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196:F197">
-    <cfRule type="containsText" dxfId="99" priority="1595" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="85" priority="1595" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196:F197">
-    <cfRule type="containsText" dxfId="98" priority="1596" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="84" priority="1596" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196:F197">
-    <cfRule type="containsText" dxfId="97" priority="1597" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="83" priority="1597" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196:F197">
-    <cfRule type="containsText" dxfId="96" priority="1598" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="82" priority="1598" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196">
-    <cfRule type="containsText" dxfId="95" priority="1599" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="81" priority="1599" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196">
-    <cfRule type="containsText" dxfId="94" priority="1602" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="80" priority="1602" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196">
-    <cfRule type="containsText" dxfId="93" priority="1608" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="79" priority="1608" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196">
-    <cfRule type="containsText" dxfId="92" priority="1609" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="78" priority="1609" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196">
-    <cfRule type="containsText" dxfId="91" priority="1610" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="77" priority="1610" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196">
-    <cfRule type="containsText" dxfId="90" priority="1612" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="76" priority="1612" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196">
-    <cfRule type="containsText" dxfId="89" priority="1613" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="75" priority="1613" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196">
-    <cfRule type="containsText" dxfId="88" priority="1614" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="74" priority="1614" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196">
-    <cfRule type="containsText" dxfId="87" priority="1616" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="73" priority="1616" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196">
-    <cfRule type="containsText" dxfId="86" priority="1617" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="72" priority="1617" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196">
-    <cfRule type="containsText" dxfId="85" priority="1618" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="71" priority="1618" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196">
-    <cfRule type="containsText" dxfId="84" priority="1624" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="70" priority="1624" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196">
-    <cfRule type="containsText" dxfId="83" priority="1625" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="69" priority="1625" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F197">
-    <cfRule type="containsText" dxfId="82" priority="1629" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="68" priority="1629" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F197">
-    <cfRule type="containsText" dxfId="81" priority="1631" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="67" priority="1631" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F197">
-    <cfRule type="containsText" dxfId="80" priority="1636" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="66" priority="1636" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F198">
-    <cfRule type="containsText" dxfId="79" priority="1640" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="65" priority="1640" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G198">
-    <cfRule type="containsText" dxfId="78" priority="1641" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="64" priority="1641" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E261">
-    <cfRule type="cellIs" dxfId="77" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="76" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="77" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="78" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G261">
-    <cfRule type="containsText" dxfId="74" priority="73" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="60" priority="73" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G261)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="74" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="59" priority="74" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G261)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="75" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="58" priority="75" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F261">
-    <cfRule type="containsText" dxfId="71" priority="72" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="57" priority="72" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F262">
-    <cfRule type="containsText" dxfId="70" priority="71" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="56" priority="71" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F262)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E262">
-    <cfRule type="cellIs" dxfId="69" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="68" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="69" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="70" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E262">
-    <cfRule type="cellIs" dxfId="66" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="67" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E262">
-    <cfRule type="cellIs" dxfId="65" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="66" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E262">
-    <cfRule type="cellIs" dxfId="64" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="65" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G262">
-    <cfRule type="containsText" dxfId="63" priority="62" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="49" priority="62" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G262)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="63" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="48" priority="63" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G262)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="64" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="47" priority="64" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G262)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G262">
-    <cfRule type="containsText" dxfId="60" priority="61" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="46" priority="61" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH(("0"),(G262))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G262">
-    <cfRule type="containsText" dxfId="59" priority="60" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="45" priority="60" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH(("Closed"),(G262))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G262">
-    <cfRule type="containsText" dxfId="58" priority="59" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="44" priority="59" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH(("Open"),(G262))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G262">
-    <cfRule type="containsText" dxfId="57" priority="56" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="43" priority="56" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G262)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="57" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="42" priority="57" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G262)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="58" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="41" priority="58" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G262)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G262">
-    <cfRule type="containsText" dxfId="54" priority="55" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="40" priority="55" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH(("0"),(G262))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G262">
-    <cfRule type="containsText" dxfId="53" priority="54" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="39" priority="54" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH(("Closed"),(G262))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G262">
-    <cfRule type="containsText" dxfId="52" priority="53" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="38" priority="53" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH(("Open"),(G262))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E262">
-    <cfRule type="cellIs" dxfId="51" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="50" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="51" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="52" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E262">
-    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="49" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E262">
-    <cfRule type="cellIs" dxfId="47" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="48" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E262">
-    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="47" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G263">
-    <cfRule type="containsText" dxfId="45" priority="44" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="31" priority="44" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G263)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="45" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="30" priority="45" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G263)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="46" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="29" priority="46" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G263)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E263">
-    <cfRule type="cellIs" dxfId="42" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="41" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="42" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="43" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F263">
-    <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="25" priority="40" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F263)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F263">
-    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="24" priority="39" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F263)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G264">
-    <cfRule type="containsText" dxfId="37" priority="36" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="23" priority="36" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G264)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="22" priority="37" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G264)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="38" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="21" priority="38" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F264">
-    <cfRule type="containsText" dxfId="34" priority="31" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="20" priority="31" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E264">
-    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="33" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="34" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="35" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F264">
-    <cfRule type="containsText" dxfId="30" priority="32" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="16" priority="32" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G265">
-    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="15" priority="28" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G265)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="14" priority="29" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G265)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="30" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="13" priority="30" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G265)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E265">
-    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="25" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="26" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="27" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F265">
-    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="9" priority="24" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F265)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F265">
-    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="8" priority="23" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F265)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7095" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7095"/>
   </bookViews>
   <sheets>
     <sheet name="Audit_Teams_Follow_Up" sheetId="1" r:id="rId1"/>
@@ -15070,8 +15070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15172,8 +15172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15250,7 +15250,7 @@
         <v>45170</v>
       </c>
       <c r="J2" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -22,7 +22,7 @@
     <sheet name="Rig_Mast_Problems_Drops" sheetId="11" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">All_Critical_Points!$A$1:$I$265</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">All_Critical_Points!$A$1:$I$266</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Phase_Dates!$A$1:$C$162</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Plan!$A$1:$G$30</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Rig_Mast_Problems_Drops!$A$1:$C$12</definedName>
@@ -3045,7 +3045,7 @@
     <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yyyy"/>
     <numFmt numFmtId="167" formatCode="_-&quot;ج.م.‏&quot;\ * #,##0.00_-;_-&quot;ج.م.‏&quot;\ * #,##0.00\-;_-&quot;ج.م.‏&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3303,40 +3303,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="14"/>
-      <color indexed="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -3566,7 +3532,7 @@
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="234">
+  <cellXfs count="228">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4357,30 +4323,6 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="42" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Currency 2" xfId="7"/>
@@ -4393,7 +4335,69 @@
     <cellStyle name="Normal 2 4" xfId="3"/>
     <cellStyle name="Normal 3" xfId="8"/>
   </cellStyles>
-  <dxfs count="1322">
+  <dxfs count="1330">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -15071,7 +15075,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15313,7 +15317,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I267" sqref="I267"/>
+      <selection pane="bottomLeft" activeCell="D265" sqref="D265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22929,26 +22933,26 @@
         <v>73</v>
       </c>
     </row>
-    <row r="266" spans="1:9" ht="108" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A266" s="70" t="s">
         <v>822</v>
       </c>
-      <c r="B266" s="228" t="s">
+      <c r="B266" s="218" t="s">
         <v>358</v>
       </c>
-      <c r="C266" s="229" t="s">
+      <c r="C266" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D266" s="230" t="s">
+      <c r="D266" s="221" t="s">
         <v>865</v>
       </c>
-      <c r="E266" s="231" t="s">
+      <c r="E266" s="222" t="s">
         <v>31</v>
       </c>
-      <c r="F266" s="232" t="s">
+      <c r="F266" s="10" t="s">
         <v>866</v>
       </c>
-      <c r="G266" s="233" t="s">
+      <c r="G266" s="220" t="s">
         <v>12</v>
       </c>
       <c r="H266" s="70" t="s">
@@ -22959,62 +22963,94 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I265"/>
+  <autoFilter ref="A1:I266"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G59">
-    <cfRule type="containsText" dxfId="1321" priority="1461" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1329" priority="1469" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1320" priority="1462" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1328" priority="1470" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1319" priority="1463" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1327" priority="1471" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="containsText" dxfId="1318" priority="1457" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1326" priority="1465" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="containsText" dxfId="1317" priority="1456" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1325" priority="1464" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="1316" priority="1458" operator="equal">
+    <cfRule type="cellIs" dxfId="1324" priority="1466" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1315" priority="1459" operator="equal">
+    <cfRule type="cellIs" dxfId="1323" priority="1467" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1314" priority="1460" operator="equal">
+    <cfRule type="cellIs" dxfId="1322" priority="1468" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="1313" priority="1451" operator="equal">
+    <cfRule type="cellIs" dxfId="1321" priority="1459" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1312" priority="1452" operator="equal">
+    <cfRule type="cellIs" dxfId="1320" priority="1460" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1311" priority="1453" operator="equal">
+    <cfRule type="cellIs" dxfId="1319" priority="1461" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60:G60">
-    <cfRule type="containsText" dxfId="1310" priority="1454" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1318" priority="1462" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",#REF!)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60:G60">
-    <cfRule type="containsText" dxfId="1309" priority="1455" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1317" priority="1463" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",#REF!)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="1316" priority="1456" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1315" priority="1457" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1314" priority="1458" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F61">
+    <cfRule type="containsText" dxfId="1313" priority="1451" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F61)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F61">
+    <cfRule type="containsText" dxfId="1312" priority="1452" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F61)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G61">
+    <cfRule type="containsText" dxfId="1311" priority="1453" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1310" priority="1454" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1309" priority="1455" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G61)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
     <cfRule type="cellIs" dxfId="1308" priority="1448" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
@@ -23025,28 +23061,28 @@
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F61">
-    <cfRule type="containsText" dxfId="1305" priority="1443" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F61)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F61">
-    <cfRule type="containsText" dxfId="1304" priority="1444" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F61)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G61">
-    <cfRule type="containsText" dxfId="1303" priority="1445" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G61)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1302" priority="1446" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G61)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1301" priority="1447" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G61)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
+  <conditionalFormatting sqref="F62">
+    <cfRule type="containsText" dxfId="1305" priority="1447" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62">
+    <cfRule type="containsText" dxfId="1304" priority="1443" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G62">
+    <cfRule type="containsText" dxfId="1303" priority="1444" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G62)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1302" priority="1445" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G62)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1301" priority="1446" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
     <cfRule type="cellIs" dxfId="1300" priority="1440" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
@@ -23057,176 +23093,176 @@
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F62">
+  <conditionalFormatting sqref="F63">
     <cfRule type="containsText" dxfId="1297" priority="1439" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F62)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F62">
-    <cfRule type="containsText" dxfId="1296" priority="1435" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F62)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G62">
-    <cfRule type="containsText" dxfId="1295" priority="1436" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G62)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1294" priority="1437" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G62)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1293" priority="1438" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G62)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="1292" priority="1432" operator="equal">
+      <formula>NOT(ISERROR(SEARCH("open",F63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G63">
+    <cfRule type="containsText" dxfId="1296" priority="1436" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G63)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1295" priority="1437" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G63)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1294" priority="1438" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="containsText" dxfId="1293" priority="1433" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1292" priority="1434" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1291" priority="1435" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="1290" priority="1430" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1291" priority="1433" operator="equal">
+    <cfRule type="cellIs" dxfId="1289" priority="1431" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1290" priority="1434" operator="equal">
+    <cfRule type="cellIs" dxfId="1288" priority="1432" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F63">
-    <cfRule type="containsText" dxfId="1289" priority="1431" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F63)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G63">
-    <cfRule type="containsText" dxfId="1288" priority="1428" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G63)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1287" priority="1429" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G63)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1286" priority="1430" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G63)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="1285" priority="1425" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1284" priority="1426" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1283" priority="1427" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="1282" priority="1422" operator="equal">
+    <cfRule type="cellIs" dxfId="1287" priority="1427" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1281" priority="1423" operator="equal">
+    <cfRule type="cellIs" dxfId="1286" priority="1428" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1280" priority="1424" operator="equal">
+    <cfRule type="cellIs" dxfId="1285" priority="1429" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="1279" priority="1419" operator="equal">
+  <conditionalFormatting sqref="F5">
+    <cfRule type="containsText" dxfId="1284" priority="1426" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="containsText" dxfId="1283" priority="1425" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="containsText" dxfId="1282" priority="1423" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="containsText" dxfId="1281" priority="1424" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="containsText" dxfId="1280" priority="1420" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1279" priority="1421" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1278" priority="1422" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="1277" priority="1417" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1278" priority="1420" operator="equal">
+    <cfRule type="cellIs" dxfId="1276" priority="1418" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1277" priority="1421" operator="equal">
+    <cfRule type="cellIs" dxfId="1275" priority="1419" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="1276" priority="1418" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="1275" priority="1417" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="1274" priority="1415" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="1273" priority="1416" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="1272" priority="1412" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1271" priority="1413" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1270" priority="1414" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="1269" priority="1409" operator="equal">
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="1274" priority="1414" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1268" priority="1410" operator="equal">
+    <cfRule type="cellIs" dxfId="1273" priority="1415" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1267" priority="1411" operator="equal">
+    <cfRule type="cellIs" dxfId="1272" priority="1416" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="1266" priority="1406" operator="equal">
+  <conditionalFormatting sqref="G7">
+    <cfRule type="containsText" dxfId="1271" priority="1411" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1270" priority="1412" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1269" priority="1413" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="containsText" dxfId="1268" priority="1410" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="cellIs" dxfId="1267" priority="1407" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1265" priority="1407" operator="equal">
+    <cfRule type="cellIs" dxfId="1266" priority="1408" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1264" priority="1408" operator="equal">
+    <cfRule type="cellIs" dxfId="1265" priority="1409" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="containsText" dxfId="1263" priority="1403" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1262" priority="1404" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1261" priority="1405" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="1260" priority="1402" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="1259" priority="1399" operator="equal">
+  <conditionalFormatting sqref="G27">
+    <cfRule type="containsText" dxfId="1264" priority="1404" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1263" priority="1405" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1262" priority="1406" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="containsText" dxfId="1261" priority="1401" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1260" priority="1402" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1259" priority="1403" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="1258" priority="1398" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1258" priority="1400" operator="equal">
+    <cfRule type="cellIs" dxfId="1257" priority="1399" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1257" priority="1401" operator="equal">
+    <cfRule type="cellIs" dxfId="1256" priority="1400" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="1256" priority="1396" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1255" priority="1397" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1254" priority="1398" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G27)))</formula>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="containsText" dxfId="1255" priority="1397" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="containsText" dxfId="1254" priority="1396" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
@@ -23252,13 +23288,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="1247" priority="1389" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1247" priority="1389" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="containsText" dxfId="1246" priority="1388" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="1246" priority="1388" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
@@ -23325,57 +23361,57 @@
       <formula>NOT(ISERROR(SEARCH("open",F29)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="1229" priority="1369" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1228" priority="1370" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1227" priority="1371" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="1226" priority="1366" operator="equal">
+  <conditionalFormatting sqref="F30">
+    <cfRule type="containsText" dxfId="1229" priority="1370" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="1228" priority="1367" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1225" priority="1367" operator="equal">
+    <cfRule type="cellIs" dxfId="1227" priority="1368" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1224" priority="1368" operator="equal">
+    <cfRule type="cellIs" dxfId="1226" priority="1369" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="1223" priority="1365" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="1222" priority="1364" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="1221" priority="1362" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1225" priority="1371" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30">
+    <cfRule type="containsText" dxfId="1224" priority="1364" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1223" priority="1365" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1222" priority="1366" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="1221" priority="1361" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1220" priority="1362" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1219" priority="1363" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="containsText" dxfId="1218" priority="1360" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="containsText" dxfId="1217" priority="1359" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="1220" priority="1359" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1219" priority="1360" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1218" priority="1361" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="1217" priority="1363" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
@@ -23389,36 +23425,36 @@
       <formula>NOT(ISERROR(SEARCH("Open",G30)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G30">
+    <cfRule type="containsText" dxfId="1213" priority="1353" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1212" priority="1354" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1211" priority="1355" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="1213" priority="1353" operator="equal">
+    <cfRule type="cellIs" dxfId="1210" priority="1350" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1212" priority="1354" operator="equal">
+    <cfRule type="cellIs" dxfId="1209" priority="1351" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1211" priority="1355" operator="equal">
+    <cfRule type="cellIs" dxfId="1208" priority="1352" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="1210" priority="1352" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1207" priority="1349" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="containsText" dxfId="1206" priority="1348" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="1209" priority="1351" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
-    <cfRule type="containsText" dxfId="1208" priority="1348" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1207" priority="1349" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1206" priority="1350" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
@@ -23453,563 +23489,563 @@
       <formula>NOT(ISERROR(SEARCH("open",F30)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
+  <conditionalFormatting sqref="G31">
     <cfRule type="containsText" dxfId="1197" priority="1337" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G30)))</formula>
+      <formula>NOT(ISERROR(SEARCH("0",G31)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1196" priority="1338" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G30)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Closed",G31)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1195" priority="1339" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="1194" priority="1334" operator="equal">
+      <formula>NOT(ISERROR(SEARCH("Open",G31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="containsText" dxfId="1194" priority="1336" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="containsText" dxfId="1193" priority="1335" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="1192" priority="1332" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1193" priority="1335" operator="equal">
+    <cfRule type="cellIs" dxfId="1191" priority="1333" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1192" priority="1336" operator="equal">
+    <cfRule type="cellIs" dxfId="1190" priority="1334" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="1191" priority="1333" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="1190" priority="1332" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31">
-    <cfRule type="containsText" dxfId="1189" priority="1329" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1188" priority="1330" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1187" priority="1331" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="1186" priority="1328" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="1185" priority="1327" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="1184" priority="1324" operator="equal">
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="1189" priority="1329" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1183" priority="1325" operator="equal">
+    <cfRule type="cellIs" dxfId="1188" priority="1330" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1182" priority="1326" operator="equal">
+    <cfRule type="cellIs" dxfId="1187" priority="1331" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="1181" priority="1321" operator="equal">
+  <conditionalFormatting sqref="G32">
+    <cfRule type="containsText" dxfId="1186" priority="1326" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1185" priority="1327" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1184" priority="1328" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
+    <cfRule type="containsText" dxfId="1183" priority="1325" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
+    <cfRule type="containsText" dxfId="1182" priority="1324" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
+    <cfRule type="containsText" dxfId="1181" priority="1323" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33:F33">
+    <cfRule type="cellIs" dxfId="1180" priority="1320" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1180" priority="1322" operator="equal">
+    <cfRule type="cellIs" dxfId="1179" priority="1321" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1179" priority="1323" operator="equal">
+    <cfRule type="cellIs" dxfId="1178" priority="1322" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
-    <cfRule type="containsText" dxfId="1178" priority="1318" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1177" priority="1319" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1176" priority="1320" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
-    <cfRule type="containsText" dxfId="1175" priority="1317" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
-    <cfRule type="containsText" dxfId="1174" priority="1316" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="1173" priority="1315" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1177" priority="1319" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F33)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33:F33">
-    <cfRule type="cellIs" dxfId="1172" priority="1312" operator="equal">
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="1176" priority="1318" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1171" priority="1313" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="1175" priority="1317" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1170" priority="1314" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="1174" priority="1316" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="1169" priority="1311" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="1168" priority="1310" operator="equal">
+  <conditionalFormatting sqref="G33">
+    <cfRule type="containsText" dxfId="1173" priority="1313" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1172" priority="1314" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1171" priority="1315" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33">
+    <cfRule type="containsText" dxfId="1170" priority="1312" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH(("0"),(G33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33">
+    <cfRule type="containsText" dxfId="1169" priority="1311" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH(("Closed"),(G33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33">
+    <cfRule type="containsText" dxfId="1168" priority="1310" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH(("Open"),(G33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
+    <cfRule type="containsText" dxfId="1167" priority="1307" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1166" priority="1308" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1165" priority="1309" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="1164" priority="1304" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="1167" priority="1309" operator="equal">
+    <cfRule type="cellIs" dxfId="1163" priority="1305" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="1166" priority="1308" operator="equal">
+    <cfRule type="cellIs" dxfId="1162" priority="1306" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33">
-    <cfRule type="containsText" dxfId="1165" priority="1305" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1164" priority="1306" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1163" priority="1307" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G33">
-    <cfRule type="containsText" dxfId="1162" priority="1304" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH(("0"),(G33))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G33">
-    <cfRule type="containsText" dxfId="1161" priority="1303" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH(("Closed"),(G33))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G33">
-    <cfRule type="containsText" dxfId="1160" priority="1302" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH(("Open"),(G33))))</formula>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="1161" priority="1303" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="1160" priority="1302" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="1159" priority="1301" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
+    <cfRule type="containsText" dxfId="1158" priority="1300" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
+    <cfRule type="cellIs" dxfId="1157" priority="1297" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1156" priority="1298" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1155" priority="1299" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
+    <cfRule type="containsText" dxfId="1154" priority="1296" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="1159" priority="1299" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1158" priority="1300" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1157" priority="1301" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="1156" priority="1296" operator="equal">
+    <cfRule type="containsText" dxfId="1153" priority="1295" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH(("0"),(G34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
+    <cfRule type="containsText" dxfId="1152" priority="1294" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH(("Closed"),(G34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
+    <cfRule type="containsText" dxfId="1151" priority="1293" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH(("Open"),(G34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="1150" priority="1285" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1155" priority="1297" operator="equal">
+    <cfRule type="cellIs" dxfId="1149" priority="1286" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1154" priority="1298" operator="equal">
+    <cfRule type="cellIs" dxfId="1148" priority="1287" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="1153" priority="1295" operator="equal">
+  <conditionalFormatting sqref="F46">
+    <cfRule type="containsText" dxfId="1147" priority="1292" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="containsText" dxfId="1146" priority="1291" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="containsText" dxfId="1145" priority="1289" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1144" priority="1290" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="containsText" dxfId="1143" priority="1288" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G46">
+    <cfRule type="containsText" dxfId="1142" priority="1282" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1141" priority="1283" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1140" priority="1284" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="1139" priority="1279" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="1152" priority="1294" operator="equal">
+    <cfRule type="cellIs" dxfId="1138" priority="1280" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="1151" priority="1293" operator="equal">
+    <cfRule type="cellIs" dxfId="1137" priority="1281" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
-    <cfRule type="containsText" dxfId="1150" priority="1292" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="1149" priority="1289" operator="equal">
+  <conditionalFormatting sqref="G47">
+    <cfRule type="containsText" dxfId="1136" priority="1276" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1135" priority="1277" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1134" priority="1278" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48">
+    <cfRule type="containsText" dxfId="1133" priority="1275" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="1132" priority="1272" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1148" priority="1290" operator="equal">
+    <cfRule type="cellIs" dxfId="1131" priority="1273" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1147" priority="1291" operator="equal">
+    <cfRule type="cellIs" dxfId="1130" priority="1274" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
-    <cfRule type="containsText" dxfId="1146" priority="1288" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="1145" priority="1287" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH(("0"),(G34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="1144" priority="1286" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH(("Closed"),(G34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="1143" priority="1285" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH(("Open"),(G34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="1142" priority="1277" operator="equal">
+  <conditionalFormatting sqref="G48">
+    <cfRule type="containsText" dxfId="1129" priority="1269" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1128" priority="1270" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1127" priority="1271" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49">
+    <cfRule type="containsText" dxfId="1126" priority="1261" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1125" priority="1262" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1124" priority="1263" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="1123" priority="1266" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1141" priority="1278" operator="equal">
+    <cfRule type="cellIs" dxfId="1122" priority="1267" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1140" priority="1279" operator="equal">
+    <cfRule type="cellIs" dxfId="1121" priority="1268" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
-    <cfRule type="containsText" dxfId="1139" priority="1284" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
-    <cfRule type="containsText" dxfId="1138" priority="1283" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
-    <cfRule type="containsText" dxfId="1137" priority="1281" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1136" priority="1282" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
-    <cfRule type="containsText" dxfId="1135" priority="1280" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G46">
-    <cfRule type="containsText" dxfId="1134" priority="1274" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1133" priority="1275" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1132" priority="1276" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="1131" priority="1271" operator="equal">
+  <conditionalFormatting sqref="F49">
+    <cfRule type="containsText" dxfId="1120" priority="1265" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49">
+    <cfRule type="containsText" dxfId="1119" priority="1264" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G50">
+    <cfRule type="containsText" dxfId="1118" priority="1258" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1117" priority="1259" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1116" priority="1260" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F50">
+    <cfRule type="containsText" dxfId="1115" priority="1257" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F50">
+    <cfRule type="containsText" dxfId="1114" priority="1256" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="1113" priority="1253" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1130" priority="1272" operator="equal">
+    <cfRule type="cellIs" dxfId="1112" priority="1254" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1129" priority="1273" operator="equal">
+    <cfRule type="cellIs" dxfId="1111" priority="1255" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G47">
-    <cfRule type="containsText" dxfId="1128" priority="1268" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G47)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1127" priority="1269" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G47)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1126" priority="1270" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F48">
-    <cfRule type="containsText" dxfId="1125" priority="1267" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="1124" priority="1264" operator="equal">
+  <conditionalFormatting sqref="G51">
+    <cfRule type="containsText" dxfId="1110" priority="1235" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1109" priority="1236" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1108" priority="1237" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F51">
+    <cfRule type="containsText" dxfId="1107" priority="1234" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F51">
+    <cfRule type="containsText" dxfId="1106" priority="1247" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G51">
+    <cfRule type="containsText" dxfId="1105" priority="1238" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",G51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1104" priority="1239" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1103" priority="1240" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G51">
+    <cfRule type="containsText" dxfId="1102" priority="1244" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1101" priority="1245" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1100" priority="1246" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",#REF!)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F51">
+    <cfRule type="containsText" dxfId="1099" priority="1251" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1098" priority="1252" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="1097" priority="1241" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1096" priority="1242" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1095" priority="1243" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1123" priority="1265" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51:E52">
+    <cfRule type="cellIs" dxfId="1094" priority="1231" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1093" priority="1232" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1122" priority="1266" operator="equal">
+    <cfRule type="cellIs" dxfId="1092" priority="1233" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G48">
-    <cfRule type="containsText" dxfId="1121" priority="1261" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1120" priority="1262" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1119" priority="1263" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G49">
-    <cfRule type="containsText" dxfId="1118" priority="1253" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1117" priority="1254" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1116" priority="1255" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="1115" priority="1258" operator="equal">
+  <conditionalFormatting sqref="F51">
+    <cfRule type="containsText" dxfId="1091" priority="1248" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1090" priority="1249" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1089" priority="1250" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G51">
+    <cfRule type="containsText" dxfId="1088" priority="1225" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1087" priority="1226" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1086" priority="1227" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1085" priority="1228" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1084" priority="1229" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1083" priority="1230" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F52">
+    <cfRule type="containsText" dxfId="1082" priority="1222" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G52">
+    <cfRule type="containsText" dxfId="1081" priority="1215" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",G52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1080" priority="1216" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1079" priority="1217" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F52">
+    <cfRule type="containsText" dxfId="1078" priority="1223" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G52">
+    <cfRule type="containsText" dxfId="1077" priority="1218" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1076" priority="1219" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1075" priority="1220" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F52">
+    <cfRule type="containsText" dxfId="1074" priority="1221" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F52">
+    <cfRule type="containsText" dxfId="1073" priority="1224" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F53">
+    <cfRule type="containsText" dxfId="1072" priority="1214" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="1071" priority="1211" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1114" priority="1259" operator="equal">
+    <cfRule type="cellIs" dxfId="1070" priority="1212" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1113" priority="1260" operator="equal">
+    <cfRule type="cellIs" dxfId="1069" priority="1213" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
-    <cfRule type="containsText" dxfId="1112" priority="1257" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
-    <cfRule type="containsText" dxfId="1111" priority="1256" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G50">
-    <cfRule type="containsText" dxfId="1110" priority="1250" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1109" priority="1251" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1108" priority="1252" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G50)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F50">
-    <cfRule type="containsText" dxfId="1107" priority="1249" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F50)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F50">
-    <cfRule type="containsText" dxfId="1106" priority="1248" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F50)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="1105" priority="1245" operator="equal">
+  <conditionalFormatting sqref="F53">
+    <cfRule type="containsText" dxfId="1068" priority="1210" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G53">
+    <cfRule type="cellIs" dxfId="1067" priority="1207" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1066" priority="1208" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1065" priority="1209" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54">
+    <cfRule type="containsText" dxfId="1064" priority="1206" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54">
+    <cfRule type="containsText" dxfId="1063" priority="1205" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="1062" priority="1202" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1104" priority="1246" operator="equal">
+    <cfRule type="cellIs" dxfId="1061" priority="1203" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1103" priority="1247" operator="equal">
+    <cfRule type="cellIs" dxfId="1060" priority="1204" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G51">
-    <cfRule type="containsText" dxfId="1102" priority="1227" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1101" priority="1228" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1100" priority="1229" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F51">
-    <cfRule type="containsText" dxfId="1099" priority="1226" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F51">
-    <cfRule type="containsText" dxfId="1098" priority="1239" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G51">
-    <cfRule type="containsText" dxfId="1097" priority="1230" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",G51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1096" priority="1231" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1095" priority="1232" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G51">
-    <cfRule type="containsText" dxfId="1094" priority="1236" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",#REF!)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1093" priority="1237" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",#REF!)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1092" priority="1238" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",#REF!)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F51">
-    <cfRule type="containsText" dxfId="1091" priority="1243" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1090" priority="1244" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="1089" priority="1233" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1088" priority="1234" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1087" priority="1235" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51:E52">
-    <cfRule type="cellIs" dxfId="1086" priority="1223" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1085" priority="1224" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1084" priority="1225" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F51">
-    <cfRule type="containsText" dxfId="1083" priority="1240" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1082" priority="1241" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1081" priority="1242" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G51">
-    <cfRule type="containsText" dxfId="1080" priority="1217" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1079" priority="1218" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1078" priority="1219" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1077" priority="1220" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1076" priority="1221" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1075" priority="1222" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F52">
-    <cfRule type="containsText" dxfId="1074" priority="1214" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F52)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G52">
-    <cfRule type="containsText" dxfId="1073" priority="1207" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",G52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1072" priority="1208" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1071" priority="1209" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G52)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F52">
-    <cfRule type="containsText" dxfId="1070" priority="1215" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G52">
-    <cfRule type="containsText" dxfId="1069" priority="1210" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1068" priority="1211" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1067" priority="1212" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G52)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F52">
-    <cfRule type="containsText" dxfId="1066" priority="1213" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F52)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F52">
-    <cfRule type="containsText" dxfId="1065" priority="1216" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F53">
-    <cfRule type="containsText" dxfId="1064" priority="1206" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F53)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="1063" priority="1203" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1062" priority="1204" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1061" priority="1205" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F53">
-    <cfRule type="containsText" dxfId="1060" priority="1202" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F53)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G53">
+  <conditionalFormatting sqref="G54">
     <cfRule type="cellIs" dxfId="1059" priority="1199" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
@@ -24020,36 +24056,40 @@
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
+  <conditionalFormatting sqref="F55">
     <cfRule type="containsText" dxfId="1056" priority="1198" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F54)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
-    <cfRule type="containsText" dxfId="1055" priority="1197" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F54)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="1054" priority="1194" operator="equal">
+      <formula>NOT(ISERROR(SEARCH("open",F55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55">
+    <cfRule type="cellIs" dxfId="1055" priority="1195" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1053" priority="1195" operator="equal">
+    <cfRule type="cellIs" dxfId="1054" priority="1196" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1052" priority="1196" operator="equal">
+    <cfRule type="cellIs" dxfId="1053" priority="1197" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G54">
-    <cfRule type="cellIs" dxfId="1051" priority="1191" operator="equal">
-      <formula>"In Progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1050" priority="1192" operator="equal">
-      <formula>"Open"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1049" priority="1193" operator="equal">
-      <formula>"Closed"</formula>
+  <conditionalFormatting sqref="F55">
+    <cfRule type="containsText" dxfId="1052" priority="1194" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55">
+    <cfRule type="containsText" dxfId="1051" priority="1193" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55">
+    <cfRule type="containsText" dxfId="1050" priority="1192" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55">
+    <cfRule type="containsText" dxfId="1049" priority="1191" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
@@ -24058,1157 +24098,1153 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="1047" priority="1187" operator="equal">
+    <cfRule type="containsText" dxfId="1047" priority="1189" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55">
+    <cfRule type="containsText" dxfId="1046" priority="1188" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G55:G56">
+    <cfRule type="cellIs" dxfId="1045" priority="1185" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1044" priority="1186" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1043" priority="1187" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="1042" priority="1182" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1046" priority="1188" operator="equal">
+    <cfRule type="cellIs" dxfId="1041" priority="1183" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1045" priority="1189" operator="equal">
+    <cfRule type="cellIs" dxfId="1040" priority="1184" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="1044" priority="1186" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F55)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="1043" priority="1185" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F55)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="1042" priority="1184" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F55)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="1041" priority="1183" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F55)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="1040" priority="1182" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F55)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="1039" priority="1181" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F55)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="1038" priority="1180" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F55)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G55:G56">
-    <cfRule type="cellIs" dxfId="1037" priority="1177" operator="equal">
-      <formula>"In Progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1036" priority="1178" operator="equal">
-      <formula>"Open"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1035" priority="1179" operator="equal">
-      <formula>"Closed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="1034" priority="1174" operator="equal">
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="1039" priority="1178" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1033" priority="1175" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="1038" priority="1179" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1032" priority="1176" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="1037" priority="1180" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="1031" priority="1170" operator="equal">
+  <conditionalFormatting sqref="G57">
+    <cfRule type="containsText" dxfId="1036" priority="1128" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1035" priority="1129" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1034" priority="1130" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G57)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57">
+    <cfRule type="containsText" dxfId="1033" priority="1124" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F57)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57">
+    <cfRule type="containsText" dxfId="1032" priority="1123" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F57)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="1031" priority="1125" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="1030" priority="1171" operator="equal">
+    <cfRule type="cellIs" dxfId="1030" priority="1126" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="1029" priority="1172" operator="equal">
+    <cfRule type="cellIs" dxfId="1029" priority="1127" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G57">
-    <cfRule type="containsText" dxfId="1028" priority="1120" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1027" priority="1121" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1026" priority="1122" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G57)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F57">
-    <cfRule type="containsText" dxfId="1025" priority="1116" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F57)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F57">
-    <cfRule type="containsText" dxfId="1024" priority="1115" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F57)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="1023" priority="1117" operator="equal">
+  <conditionalFormatting sqref="G58">
+    <cfRule type="containsText" dxfId="1028" priority="1112" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1027" priority="1113" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1026" priority="1114" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="1025" priority="1104" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1022" priority="1118" operator="equal">
+    <cfRule type="cellIs" dxfId="1024" priority="1105" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1021" priority="1119" operator="equal">
+    <cfRule type="cellIs" dxfId="1023" priority="1106" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G58">
-    <cfRule type="containsText" dxfId="1020" priority="1104" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1019" priority="1105" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1018" priority="1106" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G58)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="1017" priority="1096" operator="equal">
+  <conditionalFormatting sqref="F58">
+    <cfRule type="containsText" dxfId="1022" priority="1102" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="containsText" dxfId="1021" priority="1103" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F56">
+    <cfRule type="containsText" dxfId="1020" priority="1472" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66:E67">
+    <cfRule type="cellIs" dxfId="1019" priority="1083" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1016" priority="1097" operator="equal">
+    <cfRule type="cellIs" dxfId="1018" priority="1084" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1015" priority="1098" operator="equal">
+    <cfRule type="cellIs" dxfId="1017" priority="1085" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="containsText" dxfId="1014" priority="1094" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F58)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="containsText" dxfId="1013" priority="1095" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F58)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F56">
-    <cfRule type="containsText" dxfId="1012" priority="1464" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E66:E67">
-    <cfRule type="cellIs" dxfId="1011" priority="1075" operator="equal">
+    <cfRule type="cellIs" dxfId="1016" priority="1080" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1010" priority="1076" operator="equal">
+    <cfRule type="cellIs" dxfId="1015" priority="1081" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1009" priority="1077" operator="equal">
+    <cfRule type="cellIs" dxfId="1014" priority="1082" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="cellIs" dxfId="1013" priority="1099" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1012" priority="1100" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1011" priority="1101" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E66:E67">
-    <cfRule type="cellIs" dxfId="1008" priority="1072" operator="equal">
+    <cfRule type="cellIs" dxfId="1010" priority="1086" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1007" priority="1073" operator="equal">
+    <cfRule type="cellIs" dxfId="1009" priority="1087" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1006" priority="1074" operator="equal">
+    <cfRule type="cellIs" dxfId="1008" priority="1088" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="1005" priority="1091" operator="equal">
+  <conditionalFormatting sqref="G66">
+    <cfRule type="containsText" dxfId="1007" priority="1089" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1006" priority="1090" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1005" priority="1091" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G66)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G66">
+    <cfRule type="containsText" dxfId="1004" priority="1095" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1003" priority="1096" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1002" priority="1097" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G66)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G66">
+    <cfRule type="containsText" dxfId="1001" priority="1098" operator="containsText" text="CLOSED">
+      <formula>NOT(ISERROR(SEARCH("CLOSED",G66)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G66">
+    <cfRule type="containsText" dxfId="1000" priority="1092" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="999" priority="1093" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="998" priority="1094" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G66)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F66">
+    <cfRule type="containsText" dxfId="997" priority="1079" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F66)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F66">
+    <cfRule type="containsText" dxfId="996" priority="1078" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F66)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G67:G68">
+    <cfRule type="containsText" dxfId="995" priority="1075" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G67)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="994" priority="1076" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G67)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="993" priority="1077" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G67)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F67:F68">
+    <cfRule type="containsText" dxfId="992" priority="1074" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F67)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F67:F68">
+    <cfRule type="containsText" dxfId="991" priority="1073" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F67)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G69">
+    <cfRule type="containsText" dxfId="990" priority="1070" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G69)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="989" priority="1071" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G69)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="988" priority="1072" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="cellIs" dxfId="987" priority="1067" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1004" priority="1092" operator="equal">
+    <cfRule type="cellIs" dxfId="986" priority="1068" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1003" priority="1093" operator="equal">
+    <cfRule type="cellIs" dxfId="985" priority="1069" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E66:E67">
-    <cfRule type="cellIs" dxfId="1002" priority="1078" operator="equal">
+  <conditionalFormatting sqref="F69">
+    <cfRule type="containsText" dxfId="984" priority="1065" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F69">
+    <cfRule type="containsText" dxfId="983" priority="1066" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G65">
+    <cfRule type="containsText" dxfId="982" priority="1062" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G65)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="981" priority="1063" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G65)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="980" priority="1064" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G65)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F65">
+    <cfRule type="containsText" dxfId="979" priority="1061" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F65)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="978" priority="1058" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1001" priority="1079" operator="equal">
+    <cfRule type="cellIs" dxfId="977" priority="1059" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1000" priority="1080" operator="equal">
+    <cfRule type="cellIs" dxfId="976" priority="1060" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G66">
-    <cfRule type="containsText" dxfId="999" priority="1081" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G66)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="998" priority="1082" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G66)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="997" priority="1083" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G66)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G66">
-    <cfRule type="containsText" dxfId="996" priority="1087" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G66)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="995" priority="1088" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G66)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="994" priority="1089" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G66)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G66">
-    <cfRule type="containsText" dxfId="993" priority="1090" operator="containsText" text="CLOSED">
-      <formula>NOT(ISERROR(SEARCH("CLOSED",G66)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G66">
-    <cfRule type="containsText" dxfId="992" priority="1084" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G66)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="991" priority="1085" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G66)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="990" priority="1086" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G66)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F66">
-    <cfRule type="containsText" dxfId="989" priority="1071" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F66)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F66">
-    <cfRule type="containsText" dxfId="988" priority="1070" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F66)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G67:G68">
-    <cfRule type="containsText" dxfId="987" priority="1067" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G67)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="986" priority="1068" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G67)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="985" priority="1069" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G67)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F67:F68">
-    <cfRule type="containsText" dxfId="984" priority="1066" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F67)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F67:F68">
-    <cfRule type="containsText" dxfId="983" priority="1065" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F67)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G69">
-    <cfRule type="containsText" dxfId="982" priority="1062" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G69)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="981" priority="1063" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G69)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="980" priority="1064" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G69)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="979" priority="1059" operator="equal">
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="975" priority="1055" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="978" priority="1060" operator="equal">
+    <cfRule type="cellIs" dxfId="974" priority="1056" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="977" priority="1061" operator="equal">
+    <cfRule type="cellIs" dxfId="973" priority="1057" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F69">
-    <cfRule type="containsText" dxfId="976" priority="1057" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F69)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F69">
-    <cfRule type="containsText" dxfId="975" priority="1058" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F69)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G65">
-    <cfRule type="containsText" dxfId="974" priority="1054" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G65)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="973" priority="1055" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G65)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="972" priority="1056" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G65)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F65">
-    <cfRule type="containsText" dxfId="971" priority="1053" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F65)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="970" priority="1050" operator="equal">
+  <conditionalFormatting sqref="F70">
+    <cfRule type="containsText" dxfId="972" priority="1054" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F70)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70:F70">
+    <cfRule type="cellIs" dxfId="971" priority="1051" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="969" priority="1051" operator="equal">
+    <cfRule type="cellIs" dxfId="970" priority="1052" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="968" priority="1052" operator="equal">
+    <cfRule type="cellIs" dxfId="969" priority="1053" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="967" priority="1047" operator="equal">
+  <conditionalFormatting sqref="G70">
+    <cfRule type="containsText" dxfId="968" priority="1048" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G70)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="967" priority="1049" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G70)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="966" priority="1050" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G70)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="965" priority="1047" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="966" priority="1048" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="964" priority="1046" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="965" priority="1049" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="963" priority="1045" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G70">
+    <cfRule type="containsText" dxfId="962" priority="1042" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",G70)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="961" priority="1043" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G70)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="960" priority="1044" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G70)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G70">
+    <cfRule type="containsText" dxfId="959" priority="1039" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH(("0"),(G70))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G70">
+    <cfRule type="containsText" dxfId="958" priority="1038" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH(("Closed"),(G70))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G70">
+    <cfRule type="containsText" dxfId="957" priority="1037" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH(("Open"),(G70))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F70">
-    <cfRule type="containsText" dxfId="964" priority="1046" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="956" priority="1036" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F70)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E70:F70">
-    <cfRule type="cellIs" dxfId="963" priority="1043" operator="equal">
+  <conditionalFormatting sqref="F71">
+    <cfRule type="containsText" dxfId="955" priority="1032" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F71)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="954" priority="1029" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="962" priority="1044" operator="equal">
+    <cfRule type="cellIs" dxfId="953" priority="1030" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="961" priority="1045" operator="equal">
+    <cfRule type="cellIs" dxfId="952" priority="1031" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G70">
-    <cfRule type="containsText" dxfId="960" priority="1040" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G70)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="959" priority="1041" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G70)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="958" priority="1042" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G70)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="957" priority="1039" operator="equal">
+  <conditionalFormatting sqref="G71">
+    <cfRule type="containsText" dxfId="951" priority="1026" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G71)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="950" priority="1027" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G71)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="949" priority="1028" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G71)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G73">
+    <cfRule type="containsText" dxfId="948" priority="1023" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="947" priority="1024" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="946" priority="1025" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="945" priority="1020" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="956" priority="1038" operator="equal">
+    <cfRule type="cellIs" dxfId="944" priority="1021" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="955" priority="1037" operator="equal">
+    <cfRule type="cellIs" dxfId="943" priority="1022" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G70">
-    <cfRule type="containsText" dxfId="954" priority="1034" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",G70)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="953" priority="1035" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G70)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="952" priority="1036" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G70)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G70">
-    <cfRule type="containsText" dxfId="951" priority="1031" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH(("0"),(G70))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G70">
-    <cfRule type="containsText" dxfId="950" priority="1030" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH(("Closed"),(G70))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G70">
-    <cfRule type="containsText" dxfId="949" priority="1029" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH(("Open"),(G70))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F70">
-    <cfRule type="containsText" dxfId="948" priority="1028" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F70)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F71">
-    <cfRule type="containsText" dxfId="947" priority="1024" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F71)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="946" priority="1021" operator="equal">
+  <conditionalFormatting sqref="F74">
+    <cfRule type="containsText" dxfId="942" priority="1019" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F74)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="941" priority="1016" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="945" priority="1022" operator="equal">
+    <cfRule type="cellIs" dxfId="940" priority="1017" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="944" priority="1023" operator="equal">
+    <cfRule type="cellIs" dxfId="939" priority="1018" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G71">
-    <cfRule type="containsText" dxfId="943" priority="1018" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G71)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="942" priority="1019" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G71)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="941" priority="1020" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G71)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G73">
-    <cfRule type="containsText" dxfId="940" priority="1015" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G73)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="939" priority="1016" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G73)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="938" priority="1017" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G73)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="937" priority="1012" operator="equal">
+  <conditionalFormatting sqref="G74">
+    <cfRule type="containsText" dxfId="938" priority="1013" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G74)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="937" priority="1014" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G74)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="936" priority="1015" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G74)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G74">
+    <cfRule type="containsText" dxfId="935" priority="1012" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH(("0"),(G74))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G74">
+    <cfRule type="containsText" dxfId="934" priority="1011" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH(("Closed"),(G74))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G74">
+    <cfRule type="containsText" dxfId="933" priority="1010" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH(("Open"),(G74))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G75">
+    <cfRule type="containsText" dxfId="932" priority="1007" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G75)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="931" priority="1008" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G75)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="930" priority="1009" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G75)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="929" priority="1004" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="936" priority="1013" operator="equal">
+    <cfRule type="cellIs" dxfId="928" priority="1005" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="935" priority="1014" operator="equal">
+    <cfRule type="cellIs" dxfId="927" priority="1006" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F74">
-    <cfRule type="containsText" dxfId="934" priority="1011" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F74)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="933" priority="1008" operator="equal">
+  <conditionalFormatting sqref="F75">
+    <cfRule type="containsText" dxfId="926" priority="1002" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F75)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F75">
+    <cfRule type="containsText" dxfId="925" priority="1003" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F75)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="924" priority="999" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="932" priority="1009" operator="equal">
+    <cfRule type="cellIs" dxfId="923" priority="1000" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="931" priority="1010" operator="equal">
+    <cfRule type="cellIs" dxfId="922" priority="1001" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G74">
-    <cfRule type="containsText" dxfId="930" priority="1005" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G74)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="929" priority="1006" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G74)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="928" priority="1007" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G74)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G74">
-    <cfRule type="containsText" dxfId="927" priority="1004" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH(("0"),(G74))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G74">
-    <cfRule type="containsText" dxfId="926" priority="1003" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH(("Closed"),(G74))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G74">
-    <cfRule type="containsText" dxfId="925" priority="1002" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH(("Open"),(G74))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G75">
-    <cfRule type="containsText" dxfId="924" priority="999" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G75)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="923" priority="1000" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G75)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="922" priority="1001" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G75)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="921" priority="996" operator="equal">
+  <conditionalFormatting sqref="G77">
+    <cfRule type="containsText" dxfId="921" priority="996" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G77)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="920" priority="997" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G77)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="919" priority="998" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G77)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="cellIs" dxfId="918" priority="988" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="920" priority="997" operator="equal">
+    <cfRule type="cellIs" dxfId="917" priority="989" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="919" priority="998" operator="equal">
+    <cfRule type="cellIs" dxfId="916" priority="990" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F75">
-    <cfRule type="containsText" dxfId="918" priority="994" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F75)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F75">
-    <cfRule type="containsText" dxfId="917" priority="995" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F75)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="916" priority="991" operator="equal">
+  <conditionalFormatting sqref="F78">
+    <cfRule type="containsText" dxfId="915" priority="994" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F78)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="914" priority="995" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F78)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G78">
+    <cfRule type="containsText" dxfId="913" priority="991" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G78)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="912" priority="992" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G78)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="911" priority="993" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G78)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79:E80">
+    <cfRule type="cellIs" dxfId="910" priority="977" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="909" priority="978" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="908" priority="979" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="915" priority="992" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F79:F80">
+    <cfRule type="containsText" dxfId="907" priority="987" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79:F80">
+    <cfRule type="cellIs" dxfId="906" priority="984" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="905" priority="985" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="914" priority="993" operator="equal">
+    <cfRule type="cellIs" dxfId="904" priority="986" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G77">
-    <cfRule type="containsText" dxfId="913" priority="988" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G77)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="912" priority="989" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G77)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="911" priority="990" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G77)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="910" priority="980" operator="equal">
+  <conditionalFormatting sqref="F79:F80">
+    <cfRule type="containsText" dxfId="903" priority="983" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F79:F80">
+    <cfRule type="containsText" dxfId="902" priority="973" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G79:G80">
+    <cfRule type="containsText" dxfId="901" priority="981" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G79)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="900" priority="982" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G79:G80">
+    <cfRule type="containsText" dxfId="899" priority="980" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G79:G80">
+    <cfRule type="containsText" dxfId="898" priority="975" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH(("Closed"),(G79))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="897" priority="976" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH(("0"),(G79))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G79:G80">
+    <cfRule type="containsText" dxfId="896" priority="974" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH(("Open"),(G79))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G79:G80">
+    <cfRule type="containsText" dxfId="895" priority="970" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G79)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="894" priority="971" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G79)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="893" priority="972" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G80">
+    <cfRule type="containsText" dxfId="892" priority="967" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G80)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="891" priority="968" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G80)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="890" priority="969" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G80)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G80">
+    <cfRule type="containsText" dxfId="889" priority="966" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH(("0"),(G80))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G80">
+    <cfRule type="containsText" dxfId="888" priority="965" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH(("Closed"),(G80))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G80">
+    <cfRule type="containsText" dxfId="887" priority="964" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH(("Open"),(G80))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F80">
+    <cfRule type="containsText" dxfId="886" priority="963" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F80)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80:F80">
+    <cfRule type="cellIs" dxfId="885" priority="960" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="909" priority="981" operator="equal">
+    <cfRule type="cellIs" dxfId="884" priority="961" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="908" priority="982" operator="equal">
+    <cfRule type="cellIs" dxfId="883" priority="962" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F78">
-    <cfRule type="containsText" dxfId="907" priority="986" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F78)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="906" priority="987" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F78)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G78">
-    <cfRule type="containsText" dxfId="905" priority="983" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G78)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="904" priority="984" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G78)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="903" priority="985" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G78)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79:E80">
-    <cfRule type="cellIs" dxfId="902" priority="969" operator="equal">
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="882" priority="959" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="881" priority="958" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="880" priority="957" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="901" priority="970" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F80">
+    <cfRule type="containsText" dxfId="879" priority="954" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F80)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="cellIs" dxfId="878" priority="948" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="877" priority="949" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="900" priority="971" operator="equal">
+    <cfRule type="cellIs" dxfId="876" priority="950" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G81">
+    <cfRule type="containsText" dxfId="875" priority="947" operator="containsText" text="OPEN">
+      <formula>NOT(ISERROR(SEARCH("OPEN",G81)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G81">
+    <cfRule type="containsText" dxfId="874" priority="946" operator="containsText" text="CLOSED">
+      <formula>NOT(ISERROR(SEARCH("CLOSED",G81)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="cellIs" dxfId="873" priority="940" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F79:F80">
-    <cfRule type="containsText" dxfId="899" priority="979" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F79)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79:F80">
-    <cfRule type="cellIs" dxfId="898" priority="976" operator="equal">
+    <cfRule type="cellIs" dxfId="872" priority="941" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="871" priority="942" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F82">
+    <cfRule type="containsText" dxfId="870" priority="938" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="869" priority="939" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",#REF!)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G82">
+    <cfRule type="containsText" dxfId="868" priority="943" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G82)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="867" priority="944" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G82)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="866" priority="945" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G82)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="865" priority="935" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="864" priority="936" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="863" priority="937" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="897" priority="977" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F83">
+    <cfRule type="containsText" dxfId="862" priority="934" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F83)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83:F83">
+    <cfRule type="cellIs" dxfId="861" priority="931" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="860" priority="932" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="896" priority="978" operator="equal">
+    <cfRule type="cellIs" dxfId="859" priority="933" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F79:F80">
-    <cfRule type="containsText" dxfId="895" priority="975" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F79)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F79:F80">
-    <cfRule type="containsText" dxfId="894" priority="965" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F79)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G79:G80">
-    <cfRule type="containsText" dxfId="893" priority="973" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G79)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="892" priority="974" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G79)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G79:G80">
-    <cfRule type="containsText" dxfId="891" priority="972" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G79)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G79:G80">
-    <cfRule type="containsText" dxfId="890" priority="967" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH(("Closed"),(G79))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="889" priority="968" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH(("0"),(G79))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G79:G80">
-    <cfRule type="containsText" dxfId="888" priority="966" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH(("Open"),(G79))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G79:G80">
-    <cfRule type="containsText" dxfId="887" priority="962" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G79)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="886" priority="963" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G79)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="885" priority="964" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G79)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G80">
-    <cfRule type="containsText" dxfId="884" priority="959" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G80)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="883" priority="960" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G80)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="882" priority="961" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G80)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G80">
-    <cfRule type="containsText" dxfId="881" priority="958" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH(("0"),(G80))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G80">
-    <cfRule type="containsText" dxfId="880" priority="957" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH(("Closed"),(G80))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G80">
-    <cfRule type="containsText" dxfId="879" priority="956" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH(("Open"),(G80))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F80">
-    <cfRule type="containsText" dxfId="878" priority="955" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F80)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80:F80">
-    <cfRule type="cellIs" dxfId="877" priority="952" operator="equal">
+  <conditionalFormatting sqref="F83">
+    <cfRule type="containsText" dxfId="858" priority="930" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F83)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F83">
+    <cfRule type="containsText" dxfId="857" priority="929" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F83)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G83">
+    <cfRule type="containsText" dxfId="856" priority="927" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G83)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="855" priority="928" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G83)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G83">
+    <cfRule type="containsText" dxfId="854" priority="926" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G83)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G83">
+    <cfRule type="containsText" dxfId="853" priority="924" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH(("Closed"),(G83))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="852" priority="925" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH(("0"),(G83))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G83">
+    <cfRule type="containsText" dxfId="851" priority="923" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH(("Open"),(G83))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G83">
+    <cfRule type="containsText" dxfId="850" priority="920" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G83)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="849" priority="921" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G83)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="848" priority="922" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G83)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="847" priority="917" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="876" priority="953" operator="equal">
+    <cfRule type="cellIs" dxfId="846" priority="918" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="875" priority="954" operator="equal">
+    <cfRule type="cellIs" dxfId="845" priority="919" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="874" priority="951" operator="equal">
+  <conditionalFormatting sqref="E86:E87">
+    <cfRule type="cellIs" dxfId="844" priority="911" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="873" priority="950" operator="equal">
+    <cfRule type="cellIs" dxfId="843" priority="912" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="872" priority="949" operator="equal">
+    <cfRule type="cellIs" dxfId="842" priority="913" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F80">
-    <cfRule type="containsText" dxfId="871" priority="946" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F80)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="870" priority="940" operator="equal">
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="841" priority="908" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="869" priority="941" operator="equal">
+    <cfRule type="cellIs" dxfId="840" priority="909" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="868" priority="942" operator="equal">
+    <cfRule type="cellIs" dxfId="839" priority="910" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G81">
-    <cfRule type="containsText" dxfId="867" priority="939" operator="containsText" text="OPEN">
-      <formula>NOT(ISERROR(SEARCH("OPEN",G81)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G81">
-    <cfRule type="containsText" dxfId="866" priority="938" operator="containsText" text="CLOSED">
-      <formula>NOT(ISERROR(SEARCH("CLOSED",G81)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="865" priority="932" operator="equal">
+  <conditionalFormatting sqref="G86:G87">
+    <cfRule type="containsText" dxfId="838" priority="905" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",G86)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="837" priority="906" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G86)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="836" priority="907" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G86)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G88:G89">
+    <cfRule type="containsText" dxfId="835" priority="902" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",G88)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="834" priority="903" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G88)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="833" priority="904" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G88)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="832" priority="897" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="864" priority="933" operator="equal">
+    <cfRule type="cellIs" dxfId="831" priority="898" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="863" priority="934" operator="equal">
+    <cfRule type="cellIs" dxfId="830" priority="899" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F82">
-    <cfRule type="containsText" dxfId="862" priority="930" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",#REF!)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="861" priority="931" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",#REF!)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G82">
-    <cfRule type="containsText" dxfId="860" priority="935" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G82)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="859" priority="936" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G82)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="858" priority="937" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G82)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="857" priority="927" operator="equal">
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="829" priority="894" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="828" priority="895" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="827" priority="896" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="856" priority="928" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="826" priority="891" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="825" priority="892" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="855" priority="929" operator="equal">
+    <cfRule type="cellIs" dxfId="824" priority="893" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="823" priority="888" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F83">
-    <cfRule type="containsText" dxfId="854" priority="926" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F83)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83:F83">
-    <cfRule type="cellIs" dxfId="853" priority="923" operator="equal">
+    <cfRule type="cellIs" dxfId="822" priority="889" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="821" priority="890" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="820" priority="885" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="852" priority="924" operator="equal">
+    <cfRule type="cellIs" dxfId="819" priority="886" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="851" priority="925" operator="equal">
+    <cfRule type="cellIs" dxfId="818" priority="887" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F83">
-    <cfRule type="containsText" dxfId="850" priority="922" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F83)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F83">
-    <cfRule type="containsText" dxfId="849" priority="921" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F83)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G83">
-    <cfRule type="containsText" dxfId="848" priority="919" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G83)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="847" priority="920" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G83)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G83">
-    <cfRule type="containsText" dxfId="846" priority="918" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G83)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G83">
-    <cfRule type="containsText" dxfId="845" priority="916" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH(("Closed"),(G83))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="844" priority="917" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH(("0"),(G83))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G83">
-    <cfRule type="containsText" dxfId="843" priority="915" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH(("Open"),(G83))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G83">
-    <cfRule type="containsText" dxfId="842" priority="912" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G83)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="841" priority="913" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G83)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="840" priority="914" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G83)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="839" priority="909" operator="equal">
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="817" priority="882" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="838" priority="910" operator="equal">
+    <cfRule type="cellIs" dxfId="816" priority="883" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="837" priority="911" operator="equal">
+    <cfRule type="cellIs" dxfId="815" priority="884" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E86:E87">
-    <cfRule type="cellIs" dxfId="836" priority="903" operator="equal">
+  <conditionalFormatting sqref="E96:E99">
+    <cfRule type="cellIs" dxfId="814" priority="879" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="835" priority="904" operator="equal">
+    <cfRule type="cellIs" dxfId="813" priority="880" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="834" priority="905" operator="equal">
+    <cfRule type="cellIs" dxfId="812" priority="881" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="833" priority="900" operator="equal">
+  <conditionalFormatting sqref="G96:G99">
+    <cfRule type="containsText" dxfId="811" priority="876" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",G96)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="810" priority="877" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G96)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="809" priority="878" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G96)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100:E103">
+    <cfRule type="cellIs" dxfId="808" priority="873" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="832" priority="901" operator="equal">
+    <cfRule type="cellIs" dxfId="807" priority="874" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="831" priority="902" operator="equal">
+    <cfRule type="cellIs" dxfId="806" priority="875" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G86:G87">
-    <cfRule type="containsText" dxfId="830" priority="897" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",G86)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="829" priority="898" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G86)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="828" priority="899" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G86)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G88:G89">
-    <cfRule type="containsText" dxfId="827" priority="894" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",G88)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="826" priority="895" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G88)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="825" priority="896" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G88)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="824" priority="889" operator="equal">
+  <conditionalFormatting sqref="E102:E103">
+    <cfRule type="cellIs" dxfId="805" priority="870" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="804" priority="871" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="803" priority="872" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="823" priority="890" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G105">
+    <cfRule type="containsText" dxfId="802" priority="867" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G105)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="801" priority="868" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G105)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="800" priority="869" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G105)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105">
+    <cfRule type="cellIs" dxfId="799" priority="864" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="798" priority="865" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="822" priority="891" operator="equal">
+    <cfRule type="cellIs" dxfId="797" priority="866" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="821" priority="886" operator="equal">
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="796" priority="861" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="820" priority="887" operator="equal">
+    <cfRule type="cellIs" dxfId="795" priority="862" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="819" priority="888" operator="equal">
+    <cfRule type="cellIs" dxfId="794" priority="863" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="818" priority="883" operator="equal">
+  <conditionalFormatting sqref="G106">
+    <cfRule type="containsText" dxfId="793" priority="858" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G106)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="792" priority="859" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G106)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="791" priority="860" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G106)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F106">
+    <cfRule type="containsText" dxfId="790" priority="857" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F106)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F106">
+    <cfRule type="containsText" dxfId="789" priority="856" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F106)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F109 F107">
+    <cfRule type="containsText" dxfId="788" priority="854" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F107)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109 E107">
+    <cfRule type="cellIs" dxfId="787" priority="851" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="817" priority="884" operator="equal">
+    <cfRule type="cellIs" dxfId="786" priority="852" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="816" priority="885" operator="equal">
+    <cfRule type="cellIs" dxfId="785" priority="853" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="815" priority="880" operator="equal">
+  <conditionalFormatting sqref="F107:F109">
+    <cfRule type="containsText" dxfId="784" priority="843" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(F107))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107:E109">
+    <cfRule type="cellIs" dxfId="783" priority="842" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="814" priority="881" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107:E109">
+    <cfRule type="cellIs" dxfId="782" priority="841" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="813" priority="882" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107:E109">
+    <cfRule type="cellIs" dxfId="781" priority="840" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="812" priority="877" operator="equal">
+  <conditionalFormatting sqref="G107:G108">
+    <cfRule type="containsText" dxfId="780" priority="837" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH(("0"),(G107))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G107:G108">
+    <cfRule type="containsText" dxfId="779" priority="838" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH(("Closed"),(G107))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G107:G108">
+    <cfRule type="containsText" dxfId="778" priority="839" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH(("Open"),(G107))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G107">
+    <cfRule type="containsText" dxfId="777" priority="834" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G107)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="776" priority="835" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G107)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="775" priority="836" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G107)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F107">
+    <cfRule type="containsText" dxfId="774" priority="833" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F107)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F107">
+    <cfRule type="containsText" dxfId="773" priority="832" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(F107))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G108">
+    <cfRule type="containsText" dxfId="772" priority="827" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH(("0"),(G108))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="771" priority="822" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="811" priority="878" operator="equal">
+    <cfRule type="cellIs" dxfId="770" priority="823" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="810" priority="879" operator="equal">
+    <cfRule type="cellIs" dxfId="769" priority="824" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="809" priority="874" operator="equal">
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="768" priority="819" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="808" priority="875" operator="equal">
+    <cfRule type="cellIs" dxfId="767" priority="820" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="807" priority="876" operator="equal">
+    <cfRule type="cellIs" dxfId="766" priority="821" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E96:E99">
-    <cfRule type="cellIs" dxfId="806" priority="871" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="805" priority="872" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="804" priority="873" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G96:G99">
-    <cfRule type="containsText" dxfId="803" priority="868" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",G96)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="802" priority="869" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G96)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="801" priority="870" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G96)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100:E103">
-    <cfRule type="cellIs" dxfId="800" priority="865" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="799" priority="866" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="798" priority="867" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102:E103">
-    <cfRule type="cellIs" dxfId="797" priority="862" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="796" priority="863" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="795" priority="864" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G105">
-    <cfRule type="containsText" dxfId="794" priority="859" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G105)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="793" priority="860" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G105)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="792" priority="861" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G105)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="791" priority="856" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="790" priority="857" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="789" priority="858" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="788" priority="853" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="787" priority="854" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="786" priority="855" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G106">
-    <cfRule type="containsText" dxfId="785" priority="850" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G106)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="784" priority="851" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G106)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="783" priority="852" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G106)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F106">
-    <cfRule type="containsText" dxfId="782" priority="849" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F106)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F106">
-    <cfRule type="containsText" dxfId="781" priority="848" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F106)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F109 F107">
-    <cfRule type="containsText" dxfId="780" priority="846" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F107)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109 E107">
-    <cfRule type="cellIs" dxfId="779" priority="843" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="778" priority="844" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="777" priority="845" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F107:F109">
-    <cfRule type="containsText" dxfId="776" priority="835" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(F107))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107:E109">
-    <cfRule type="cellIs" dxfId="775" priority="834" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107:E109">
-    <cfRule type="cellIs" dxfId="774" priority="833" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107:E109">
-    <cfRule type="cellIs" dxfId="773" priority="832" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G107:G108">
-    <cfRule type="containsText" dxfId="772" priority="829" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH(("0"),(G107))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G107:G108">
-    <cfRule type="containsText" dxfId="771" priority="830" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH(("Closed"),(G107))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G107:G108">
-    <cfRule type="containsText" dxfId="770" priority="831" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH(("Open"),(G107))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G107">
-    <cfRule type="containsText" dxfId="769" priority="826" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G107)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="768" priority="827" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G107)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="767" priority="828" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G107)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F107">
-    <cfRule type="containsText" dxfId="766" priority="825" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F107)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F107">
-    <cfRule type="containsText" dxfId="765" priority="824" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(F107))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G108">
-    <cfRule type="containsText" dxfId="764" priority="819" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH(("0"),(G108))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="763" priority="814" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="762" priority="815" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="761" priority="816" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
+  <conditionalFormatting sqref="G111">
+    <cfRule type="containsText" dxfId="765" priority="816" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G111)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="764" priority="817" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G111)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="763" priority="818" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G111)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F111">
+    <cfRule type="containsText" dxfId="762" priority="815" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F111)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F111">
+    <cfRule type="containsText" dxfId="761" priority="814" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F111)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
     <cfRule type="cellIs" dxfId="760" priority="811" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
@@ -25219,587 +25255,587 @@
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G111">
-    <cfRule type="containsText" dxfId="757" priority="808" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G111)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="756" priority="809" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G111)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="755" priority="810" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G111)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F111">
-    <cfRule type="containsText" dxfId="754" priority="807" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F111)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F111">
-    <cfRule type="containsText" dxfId="753" priority="806" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F111)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="752" priority="803" operator="equal">
+  <conditionalFormatting sqref="F112">
+    <cfRule type="containsText" dxfId="757" priority="810" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F112)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G112">
+    <cfRule type="containsText" dxfId="756" priority="807" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G112)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="755" priority="808" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G112)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="754" priority="809" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G112)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="cellIs" dxfId="753" priority="804" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="751" priority="804" operator="equal">
+    <cfRule type="cellIs" dxfId="752" priority="805" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="750" priority="805" operator="equal">
+    <cfRule type="cellIs" dxfId="751" priority="806" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F112">
-    <cfRule type="containsText" dxfId="749" priority="802" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F112)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G112">
-    <cfRule type="containsText" dxfId="748" priority="799" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G112)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="747" priority="800" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G112)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="746" priority="801" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G112)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="745" priority="796" operator="equal">
+  <conditionalFormatting sqref="E114">
+    <cfRule type="cellIs" dxfId="750" priority="801" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="744" priority="797" operator="equal">
+    <cfRule type="cellIs" dxfId="749" priority="802" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="743" priority="798" operator="equal">
+    <cfRule type="cellIs" dxfId="748" priority="803" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="742" priority="793" operator="equal">
+  <conditionalFormatting sqref="F115">
+    <cfRule type="containsText" dxfId="747" priority="800" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F115)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115">
+    <cfRule type="cellIs" dxfId="746" priority="797" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="741" priority="794" operator="equal">
+    <cfRule type="cellIs" dxfId="745" priority="798" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="740" priority="795" operator="equal">
+    <cfRule type="cellIs" dxfId="744" priority="799" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F115">
-    <cfRule type="containsText" dxfId="739" priority="792" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F115)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="738" priority="789" operator="equal">
+    <cfRule type="containsText" dxfId="743" priority="796" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F115)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G115">
+    <cfRule type="containsText" dxfId="742" priority="793" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G115)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="741" priority="794" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G115)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="740" priority="795" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G115)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="739" priority="790" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="737" priority="790" operator="equal">
+    <cfRule type="cellIs" dxfId="738" priority="791" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="736" priority="791" operator="equal">
+    <cfRule type="cellIs" dxfId="737" priority="792" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F115">
-    <cfRule type="containsText" dxfId="735" priority="788" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F115)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G115">
-    <cfRule type="containsText" dxfId="734" priority="785" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G115)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="733" priority="786" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G115)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="732" priority="787" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G115)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="731" priority="782" operator="equal">
+  <conditionalFormatting sqref="E117">
+    <cfRule type="cellIs" dxfId="736" priority="787" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="730" priority="783" operator="equal">
+    <cfRule type="cellIs" dxfId="735" priority="788" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="729" priority="784" operator="equal">
+    <cfRule type="cellIs" dxfId="734" priority="789" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="728" priority="779" operator="equal">
+  <conditionalFormatting sqref="G117">
+    <cfRule type="containsText" dxfId="733" priority="784" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G117)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="732" priority="785" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G117)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="731" priority="786" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G117)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F122:F123 F118:F119">
+    <cfRule type="containsText" dxfId="730" priority="783" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F118)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F123:G123 F122 E120:E123 E119:F119 E118">
+    <cfRule type="cellIs" dxfId="729" priority="780" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="727" priority="780" operator="equal">
+    <cfRule type="cellIs" dxfId="728" priority="781" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="726" priority="781" operator="equal">
+    <cfRule type="cellIs" dxfId="727" priority="782" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G117">
-    <cfRule type="containsText" dxfId="725" priority="776" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G117)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="724" priority="777" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G117)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="723" priority="778" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G117)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F122:F123 F118:F119">
-    <cfRule type="containsText" dxfId="722" priority="775" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F118)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F123:G123 F122 E120:E123 E119:F119 E118">
-    <cfRule type="cellIs" dxfId="721" priority="772" operator="equal">
+  <conditionalFormatting sqref="G118:G123">
+    <cfRule type="containsText" dxfId="726" priority="777" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G118)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="725" priority="778" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G118)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="724" priority="779" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G118)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G123 E122:E123 E119">
+    <cfRule type="cellIs" dxfId="723" priority="776" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="720" priority="773" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G123 E122:E123 E119">
+    <cfRule type="cellIs" dxfId="722" priority="775" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="719" priority="774" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G123 E122:E123 E119">
+    <cfRule type="cellIs" dxfId="721" priority="774" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G118:G123">
-    <cfRule type="containsText" dxfId="718" priority="769" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G118)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="717" priority="770" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G118)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="716" priority="771" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G118)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G123 E122:E123 E119">
-    <cfRule type="cellIs" dxfId="715" priority="768" operator="equal">
+  <conditionalFormatting sqref="F122:F123 F119">
+    <cfRule type="containsText" dxfId="720" priority="773" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F119)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122:E123 E119">
+    <cfRule type="cellIs" dxfId="719" priority="770" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="718" priority="771" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="717" priority="772" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G123 E122:E123 E119">
-    <cfRule type="cellIs" dxfId="714" priority="767" operator="equal">
+  <conditionalFormatting sqref="G122:G123 G119">
+    <cfRule type="containsText" dxfId="716" priority="765" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G119)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="715" priority="766" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G119)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G122:G123 G119">
+    <cfRule type="containsText" dxfId="714" priority="764" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G119)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G122:G123 G119">
+    <cfRule type="containsText" dxfId="713" priority="762" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH(("Closed"),(G119))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="712" priority="763" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH(("0"),(G119))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G122:G123 G119">
+    <cfRule type="containsText" dxfId="711" priority="761" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH(("Open"),(G119))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G122:G123">
+    <cfRule type="containsText" dxfId="710" priority="760" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH(("0"),(G122))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G122:G123">
+    <cfRule type="containsText" dxfId="709" priority="759" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH(("Closed"),(G122))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F124">
+    <cfRule type="containsText" dxfId="708" priority="737" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F124)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G124">
+    <cfRule type="containsText" dxfId="707" priority="741" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G124)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="706" priority="742" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G124)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="705" priority="743" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G124)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E124">
+    <cfRule type="cellIs" dxfId="704" priority="738" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="703" priority="739" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G123 E122:E123 E119">
-    <cfRule type="cellIs" dxfId="713" priority="766" operator="equal">
+    <cfRule type="cellIs" dxfId="702" priority="740" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F122:F123 F119">
-    <cfRule type="containsText" dxfId="712" priority="765" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F119)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122:E123 E119">
-    <cfRule type="cellIs" dxfId="711" priority="762" operator="equal">
+  <conditionalFormatting sqref="D124">
+    <cfRule type="containsText" dxfId="701" priority="736" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",#REF!)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E170">
+    <cfRule type="cellIs" dxfId="700" priority="733" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="699" priority="734" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="698" priority="735" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="710" priority="763" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F170">
+    <cfRule type="containsText" dxfId="697" priority="732" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F170)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F170">
+    <cfRule type="containsText" dxfId="696" priority="731" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F170)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G170">
+    <cfRule type="containsText" dxfId="695" priority="728" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G170)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="694" priority="729" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G170)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="693" priority="730" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G170)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G171">
+    <cfRule type="containsText" dxfId="692" priority="725" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G171)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="691" priority="726" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G171)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="690" priority="727" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G171)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E171">
+    <cfRule type="cellIs" dxfId="689" priority="722" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="688" priority="723" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="709" priority="764" operator="equal">
+    <cfRule type="cellIs" dxfId="687" priority="724" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F171">
+    <cfRule type="containsText" dxfId="686" priority="721" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F171)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F171">
+    <cfRule type="containsText" dxfId="685" priority="720" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F171)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E172">
+    <cfRule type="cellIs" dxfId="684" priority="717" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G122:G123 G119">
-    <cfRule type="containsText" dxfId="708" priority="757" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G119)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="707" priority="758" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G119)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G122:G123 G119">
-    <cfRule type="containsText" dxfId="706" priority="756" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G119)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G122:G123 G119">
-    <cfRule type="containsText" dxfId="705" priority="754" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH(("Closed"),(G119))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="704" priority="755" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH(("0"),(G119))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G122:G123 G119">
-    <cfRule type="containsText" dxfId="703" priority="753" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH(("Open"),(G119))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G122:G123">
-    <cfRule type="containsText" dxfId="702" priority="752" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH(("0"),(G122))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G122:G123">
-    <cfRule type="containsText" dxfId="701" priority="751" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH(("Closed"),(G122))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F124">
-    <cfRule type="containsText" dxfId="700" priority="729" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F124)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G124">
-    <cfRule type="containsText" dxfId="699" priority="733" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G124)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="698" priority="734" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G124)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="697" priority="735" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G124)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="696" priority="730" operator="equal">
+    <cfRule type="cellIs" dxfId="683" priority="718" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="682" priority="719" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F172">
+    <cfRule type="containsText" dxfId="681" priority="716" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F172)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F172">
+    <cfRule type="containsText" dxfId="680" priority="715" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F172)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F172">
+    <cfRule type="containsText" dxfId="679" priority="714" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F172)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F172">
+    <cfRule type="containsText" dxfId="678" priority="713" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F172)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F172">
+    <cfRule type="containsText" dxfId="677" priority="712" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F172)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F172">
+    <cfRule type="containsText" dxfId="676" priority="711" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F172)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F172">
+    <cfRule type="containsText" dxfId="675" priority="710" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F172)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F172">
+    <cfRule type="containsText" dxfId="674" priority="709" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F172)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G172">
+    <cfRule type="containsText" dxfId="673" priority="706" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G172)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="672" priority="707" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G172)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="671" priority="708" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G172)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G173">
+    <cfRule type="containsText" dxfId="670" priority="703" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G173)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="669" priority="704" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G173)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="668" priority="705" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G173)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E173">
+    <cfRule type="cellIs" dxfId="667" priority="700" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="695" priority="731" operator="equal">
+    <cfRule type="cellIs" dxfId="666" priority="701" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="694" priority="732" operator="equal">
+    <cfRule type="cellIs" dxfId="665" priority="702" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D124">
-    <cfRule type="containsText" dxfId="693" priority="728" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",#REF!)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E170">
-    <cfRule type="cellIs" dxfId="692" priority="725" operator="equal">
+  <conditionalFormatting sqref="F173">
+    <cfRule type="containsText" dxfId="664" priority="699" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F173)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F173">
+    <cfRule type="containsText" dxfId="663" priority="698" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F173)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E174">
+    <cfRule type="cellIs" dxfId="662" priority="695" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="691" priority="726" operator="equal">
+    <cfRule type="cellIs" dxfId="661" priority="696" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="690" priority="727" operator="equal">
+    <cfRule type="cellIs" dxfId="660" priority="697" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F170">
-    <cfRule type="containsText" dxfId="689" priority="724" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F170)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F170">
-    <cfRule type="containsText" dxfId="688" priority="723" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F170)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G170">
-    <cfRule type="containsText" dxfId="687" priority="720" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G170)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="686" priority="721" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G170)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="685" priority="722" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G170)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G171">
-    <cfRule type="containsText" dxfId="684" priority="717" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G171)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="683" priority="718" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G171)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="682" priority="719" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G171)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E171">
-    <cfRule type="cellIs" dxfId="681" priority="714" operator="equal">
+  <conditionalFormatting sqref="F174">
+    <cfRule type="containsText" dxfId="659" priority="694" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F174)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G174">
+    <cfRule type="containsText" dxfId="658" priority="691" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G174)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="657" priority="692" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G174)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="656" priority="693" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G174)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E175">
+    <cfRule type="cellIs" dxfId="655" priority="688" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="680" priority="715" operator="equal">
+    <cfRule type="cellIs" dxfId="654" priority="689" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="679" priority="716" operator="equal">
+    <cfRule type="cellIs" dxfId="653" priority="690" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F171">
-    <cfRule type="containsText" dxfId="678" priority="713" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F171)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F171">
-    <cfRule type="containsText" dxfId="677" priority="712" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F171)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E172">
-    <cfRule type="cellIs" dxfId="676" priority="709" operator="equal">
+  <conditionalFormatting sqref="F175">
+    <cfRule type="containsText" dxfId="652" priority="687" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F175)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G175">
+    <cfRule type="containsText" dxfId="651" priority="684" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G175)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="650" priority="685" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G175)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="649" priority="686" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G175)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F175">
+    <cfRule type="containsText" dxfId="648" priority="683" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F175)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F176">
+    <cfRule type="containsText" dxfId="647" priority="679" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F176)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E176">
+    <cfRule type="cellIs" dxfId="646" priority="680" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="675" priority="710" operator="equal">
+    <cfRule type="cellIs" dxfId="645" priority="681" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="674" priority="711" operator="equal">
+    <cfRule type="cellIs" dxfId="644" priority="682" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F172">
-    <cfRule type="containsText" dxfId="673" priority="708" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F172)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F172">
-    <cfRule type="containsText" dxfId="672" priority="707" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F172)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F172">
-    <cfRule type="containsText" dxfId="671" priority="706" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F172)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F172">
-    <cfRule type="containsText" dxfId="670" priority="705" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F172)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F172">
-    <cfRule type="containsText" dxfId="669" priority="704" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F172)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F172">
-    <cfRule type="containsText" dxfId="668" priority="703" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F172)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F172">
-    <cfRule type="containsText" dxfId="667" priority="702" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F172)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F172">
-    <cfRule type="containsText" dxfId="666" priority="701" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F172)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G172">
-    <cfRule type="containsText" dxfId="665" priority="698" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G172)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="664" priority="699" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G172)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="663" priority="700" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G172)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G173">
-    <cfRule type="containsText" dxfId="662" priority="695" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G173)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="661" priority="696" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G173)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="660" priority="697" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G173)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E173">
-    <cfRule type="cellIs" dxfId="659" priority="692" operator="equal">
+  <conditionalFormatting sqref="G176">
+    <cfRule type="containsText" dxfId="643" priority="676" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G176)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="642" priority="677" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G176)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="641" priority="678" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G176)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E177:E178">
+    <cfRule type="cellIs" dxfId="640" priority="673" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="658" priority="693" operator="equal">
+    <cfRule type="cellIs" dxfId="639" priority="674" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="657" priority="694" operator="equal">
+    <cfRule type="cellIs" dxfId="638" priority="675" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F173">
-    <cfRule type="containsText" dxfId="656" priority="691" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F173)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F173">
-    <cfRule type="containsText" dxfId="655" priority="690" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F173)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E174">
-    <cfRule type="cellIs" dxfId="654" priority="687" operator="equal">
+  <conditionalFormatting sqref="G177:G178">
+    <cfRule type="containsText" dxfId="637" priority="670" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",G177)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="636" priority="671" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G177)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="635" priority="672" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G177)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G177">
+    <cfRule type="containsText" dxfId="634" priority="667" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G177)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="633" priority="668" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G177)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="632" priority="669" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G177)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F178 B178:C178">
+    <cfRule type="containsText" dxfId="631" priority="666" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",B178)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E178">
+    <cfRule type="cellIs" dxfId="630" priority="665" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="653" priority="688" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E178">
+    <cfRule type="cellIs" dxfId="629" priority="664" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="652" priority="689" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E178">
+    <cfRule type="cellIs" dxfId="628" priority="663" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F174">
-    <cfRule type="containsText" dxfId="651" priority="686" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F174)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G174">
-    <cfRule type="containsText" dxfId="650" priority="683" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G174)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="649" priority="684" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G174)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="648" priority="685" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G174)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E175">
-    <cfRule type="cellIs" dxfId="647" priority="680" operator="equal">
+  <conditionalFormatting sqref="G179">
+    <cfRule type="containsText" dxfId="627" priority="660" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G179)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="626" priority="661" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G179)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="625" priority="662" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G179)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E179">
+    <cfRule type="cellIs" dxfId="624" priority="657" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="646" priority="681" operator="equal">
+    <cfRule type="cellIs" dxfId="623" priority="658" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="645" priority="682" operator="equal">
+    <cfRule type="cellIs" dxfId="622" priority="659" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F175">
-    <cfRule type="containsText" dxfId="644" priority="679" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F175)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G175">
-    <cfRule type="containsText" dxfId="643" priority="676" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G175)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="642" priority="677" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G175)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="641" priority="678" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G175)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F175">
-    <cfRule type="containsText" dxfId="640" priority="675" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F175)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F176">
-    <cfRule type="containsText" dxfId="639" priority="671" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F176)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E176">
-    <cfRule type="cellIs" dxfId="638" priority="672" operator="equal">
+  <conditionalFormatting sqref="E180">
+    <cfRule type="cellIs" dxfId="621" priority="654" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="637" priority="673" operator="equal">
+    <cfRule type="cellIs" dxfId="620" priority="655" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="636" priority="674" operator="equal">
+    <cfRule type="cellIs" dxfId="619" priority="656" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G176">
-    <cfRule type="containsText" dxfId="635" priority="668" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G176)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="634" priority="669" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G176)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="633" priority="670" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G176)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E177:E178">
-    <cfRule type="cellIs" dxfId="632" priority="665" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="631" priority="666" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="630" priority="667" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G177:G178">
-    <cfRule type="containsText" dxfId="629" priority="662" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",G177)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="628" priority="663" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G177)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="627" priority="664" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G177)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G177">
-    <cfRule type="containsText" dxfId="626" priority="659" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G177)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="625" priority="660" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G177)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="624" priority="661" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G177)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F178 B178:C178">
-    <cfRule type="containsText" dxfId="623" priority="658" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",B178)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E178">
-    <cfRule type="cellIs" dxfId="622" priority="657" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E178">
-    <cfRule type="cellIs" dxfId="621" priority="656" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E178">
-    <cfRule type="cellIs" dxfId="620" priority="655" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G179">
-    <cfRule type="containsText" dxfId="619" priority="652" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G179)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="618" priority="653" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G179)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="617" priority="654" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G179)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E179">
-    <cfRule type="cellIs" dxfId="616" priority="649" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="615" priority="650" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="614" priority="651" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E180">
+  <conditionalFormatting sqref="F180">
+    <cfRule type="containsText" dxfId="618" priority="653" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F180)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F180">
+    <cfRule type="containsText" dxfId="617" priority="652" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F180)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G180">
+    <cfRule type="containsText" dxfId="616" priority="649" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G180)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="615" priority="650" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G180)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="614" priority="651" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G180)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E181">
     <cfRule type="cellIs" dxfId="613" priority="646" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
@@ -25810,126 +25846,126 @@
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F180">
-    <cfRule type="containsText" dxfId="610" priority="645" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F180)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F180">
-    <cfRule type="containsText" dxfId="609" priority="644" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F180)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G180">
-    <cfRule type="containsText" dxfId="608" priority="641" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G180)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="607" priority="642" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G180)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="606" priority="643" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G180)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E181">
-    <cfRule type="cellIs" dxfId="605" priority="638" operator="equal">
+  <conditionalFormatting sqref="G181">
+    <cfRule type="containsText" dxfId="610" priority="643" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G181)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="609" priority="644" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G181)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="608" priority="645" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G181)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F181">
+    <cfRule type="containsText" dxfId="607" priority="642" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F181)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F181">
+    <cfRule type="containsText" dxfId="606" priority="641" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F181)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G182">
+    <cfRule type="containsText" dxfId="605" priority="638" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G182)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="604" priority="639" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G182)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="603" priority="640" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G182)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E182">
+    <cfRule type="cellIs" dxfId="602" priority="635" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="604" priority="639" operator="equal">
+    <cfRule type="cellIs" dxfId="601" priority="636" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="603" priority="640" operator="equal">
+    <cfRule type="cellIs" dxfId="600" priority="637" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G181">
-    <cfRule type="containsText" dxfId="602" priority="635" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G181)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="601" priority="636" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G181)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="600" priority="637" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G181)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F181">
-    <cfRule type="containsText" dxfId="599" priority="634" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F181)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F181">
-    <cfRule type="containsText" dxfId="598" priority="633" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F181)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G182">
-    <cfRule type="containsText" dxfId="597" priority="630" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G182)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="596" priority="631" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G182)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="595" priority="632" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G182)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E182">
-    <cfRule type="cellIs" dxfId="594" priority="627" operator="equal">
+  <conditionalFormatting sqref="G183:G185">
+    <cfRule type="containsText" dxfId="599" priority="629" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G183)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="598" priority="630" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G183)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="597" priority="631" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G183)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E183:E185">
+    <cfRule type="cellIs" dxfId="596" priority="632" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="593" priority="628" operator="equal">
+    <cfRule type="cellIs" dxfId="595" priority="633" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="592" priority="629" operator="equal">
+    <cfRule type="cellIs" dxfId="594" priority="634" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G183:G185">
-    <cfRule type="containsText" dxfId="591" priority="621" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G183)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="590" priority="622" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G183)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="589" priority="623" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G183)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E183:E185">
-    <cfRule type="cellIs" dxfId="588" priority="624" operator="equal">
+  <conditionalFormatting sqref="E186">
+    <cfRule type="cellIs" dxfId="593" priority="626" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="587" priority="625" operator="equal">
+    <cfRule type="cellIs" dxfId="592" priority="627" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="586" priority="626" operator="equal">
+    <cfRule type="cellIs" dxfId="591" priority="628" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E186">
-    <cfRule type="cellIs" dxfId="585" priority="618" operator="equal">
+  <conditionalFormatting sqref="G186">
+    <cfRule type="containsText" dxfId="590" priority="623" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G186)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="589" priority="624" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G186)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="588" priority="625" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G186)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E187">
+    <cfRule type="cellIs" dxfId="587" priority="620" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="584" priority="619" operator="equal">
+    <cfRule type="cellIs" dxfId="586" priority="621" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="583" priority="620" operator="equal">
+    <cfRule type="cellIs" dxfId="585" priority="622" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G186">
+  <conditionalFormatting sqref="F187">
+    <cfRule type="containsText" dxfId="584" priority="619" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F187)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F187">
+    <cfRule type="containsText" dxfId="583" priority="618" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F187)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G187">
     <cfRule type="containsText" dxfId="582" priority="615" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G186)))</formula>
+      <formula>NOT(ISERROR(SEARCH("0",G187)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="581" priority="616" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G186)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Closed",G187)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="580" priority="617" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G186)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E187">
+      <formula>NOT(ISERROR(SEARCH("Open",G187)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E188">
     <cfRule type="cellIs" dxfId="579" priority="612" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
@@ -25940,28 +25976,28 @@
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F187">
+  <conditionalFormatting sqref="F188">
     <cfRule type="containsText" dxfId="576" priority="611" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F187)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F187">
+      <formula>NOT(ISERROR(SEARCH("open",F188)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F188">
     <cfRule type="containsText" dxfId="575" priority="610" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F187)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G187">
+      <formula>NOT(ISERROR(SEARCH("closed",F188)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G188">
     <cfRule type="containsText" dxfId="574" priority="607" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G187)))</formula>
+      <formula>NOT(ISERROR(SEARCH("0",G188)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="573" priority="608" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G187)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Closed",G188)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="572" priority="609" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G187)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E188">
+      <formula>NOT(ISERROR(SEARCH("Open",G188)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E189">
     <cfRule type="cellIs" dxfId="571" priority="604" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
@@ -25972,28 +26008,28 @@
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F188">
-    <cfRule type="containsText" dxfId="568" priority="603" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F188)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F188">
-    <cfRule type="containsText" dxfId="567" priority="602" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F188)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G188">
-    <cfRule type="containsText" dxfId="566" priority="599" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G188)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="565" priority="600" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G188)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="564" priority="601" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G188)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E189">
+  <conditionalFormatting sqref="G189">
+    <cfRule type="containsText" dxfId="568" priority="599" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G189)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="567" priority="600" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G189)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="566" priority="601" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G189)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F189">
+    <cfRule type="containsText" dxfId="565" priority="602" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",#REF!)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F189">
+    <cfRule type="containsText" dxfId="564" priority="603" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",#REF!)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E190">
     <cfRule type="cellIs" dxfId="563" priority="596" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
@@ -26004,2118 +26040,2118 @@
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G189">
-    <cfRule type="containsText" dxfId="560" priority="591" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G189)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="559" priority="592" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G189)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="558" priority="593" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G189)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F189">
-    <cfRule type="containsText" dxfId="557" priority="594" operator="containsText" text="open">
+  <conditionalFormatting sqref="F190">
+    <cfRule type="containsText" dxfId="560" priority="594" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",#REF!)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F189">
-    <cfRule type="containsText" dxfId="556" priority="595" operator="containsText" text="closed">
+  <conditionalFormatting sqref="F190">
+    <cfRule type="containsText" dxfId="559" priority="595" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",#REF!)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E190">
-    <cfRule type="cellIs" dxfId="555" priority="588" operator="equal">
+  <conditionalFormatting sqref="G190">
+    <cfRule type="containsText" dxfId="558" priority="591" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G190)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="557" priority="592" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G190)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="556" priority="593" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G190)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F191">
+    <cfRule type="containsText" dxfId="555" priority="590" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F191)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F191">
+    <cfRule type="containsText" dxfId="554" priority="589" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F191)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G191">
+    <cfRule type="containsText" dxfId="553" priority="583" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G191)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="552" priority="584" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G191)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="551" priority="585" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G191)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E191">
+    <cfRule type="cellIs" dxfId="550" priority="586" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="554" priority="589" operator="equal">
+    <cfRule type="cellIs" dxfId="549" priority="587" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="553" priority="590" operator="equal">
+    <cfRule type="cellIs" dxfId="548" priority="588" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F190">
-    <cfRule type="containsText" dxfId="552" priority="586" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",#REF!)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F190">
-    <cfRule type="containsText" dxfId="551" priority="587" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",#REF!)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G190">
-    <cfRule type="containsText" dxfId="550" priority="583" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G190)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="549" priority="584" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G190)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="548" priority="585" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G190)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F191">
-    <cfRule type="containsText" dxfId="547" priority="582" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F191)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F191">
-    <cfRule type="containsText" dxfId="546" priority="581" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F191)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G191">
-    <cfRule type="containsText" dxfId="545" priority="575" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G191)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="544" priority="576" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G191)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="543" priority="577" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G191)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E191">
-    <cfRule type="cellIs" dxfId="542" priority="578" operator="equal">
+  <conditionalFormatting sqref="F192">
+    <cfRule type="containsText" dxfId="547" priority="581" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F192)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F192">
+    <cfRule type="containsText" dxfId="546" priority="582" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F192)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G192">
+    <cfRule type="containsText" dxfId="545" priority="574" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G192)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="544" priority="575" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G192)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="543" priority="576" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G192)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G192">
+    <cfRule type="containsText" dxfId="542" priority="571" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G192)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="541" priority="572" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G192)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="540" priority="573" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G192)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G192">
+    <cfRule type="containsText" dxfId="539" priority="577" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G192)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="538" priority="578" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G192)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="537" priority="579" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G192)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G192">
+    <cfRule type="containsText" dxfId="536" priority="580" operator="containsText" text="CLOSED">
+      <formula>NOT(ISERROR(SEARCH("CLOSED",G192)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E192">
+    <cfRule type="cellIs" dxfId="535" priority="568" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="541" priority="579" operator="equal">
+    <cfRule type="cellIs" dxfId="534" priority="569" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="540" priority="580" operator="equal">
+    <cfRule type="cellIs" dxfId="533" priority="570" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F192">
-    <cfRule type="containsText" dxfId="539" priority="573" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F192)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F192">
-    <cfRule type="containsText" dxfId="538" priority="574" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F192)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G192">
-    <cfRule type="containsText" dxfId="537" priority="566" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G192)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="536" priority="567" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G192)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="535" priority="568" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G192)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G192">
-    <cfRule type="containsText" dxfId="534" priority="563" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G192)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="533" priority="564" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G192)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="532" priority="565" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G192)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G192">
-    <cfRule type="containsText" dxfId="531" priority="569" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G192)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="530" priority="570" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G192)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="529" priority="571" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G192)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G192">
-    <cfRule type="containsText" dxfId="528" priority="572" operator="containsText" text="CLOSED">
-      <formula>NOT(ISERROR(SEARCH("CLOSED",G192)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E192">
-    <cfRule type="cellIs" dxfId="527" priority="560" operator="equal">
+  <conditionalFormatting sqref="E193">
+    <cfRule type="cellIs" dxfId="532" priority="565" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="526" priority="561" operator="equal">
+    <cfRule type="cellIs" dxfId="531" priority="566" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="525" priority="562" operator="equal">
+    <cfRule type="cellIs" dxfId="530" priority="567" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E193">
-    <cfRule type="cellIs" dxfId="524" priority="557" operator="equal">
+  <conditionalFormatting sqref="F194">
+    <cfRule type="containsText" dxfId="529" priority="534" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F194)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E194">
+    <cfRule type="cellIs" dxfId="528" priority="531" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="523" priority="558" operator="equal">
+    <cfRule type="cellIs" dxfId="527" priority="532" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="522" priority="559" operator="equal">
+    <cfRule type="cellIs" dxfId="526" priority="533" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E194">
+    <cfRule type="cellIs" dxfId="525" priority="525" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E194">
+    <cfRule type="cellIs" dxfId="524" priority="526" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E194">
+    <cfRule type="cellIs" dxfId="523" priority="527" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G194">
+    <cfRule type="containsText" dxfId="522" priority="528" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH(("0"),(G194))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G194">
+    <cfRule type="containsText" dxfId="521" priority="529" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH(("Closed"),(G194))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G194">
+    <cfRule type="containsText" dxfId="520" priority="530" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH(("Open"),(G194))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G194">
+    <cfRule type="containsText" dxfId="519" priority="522" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G194)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="518" priority="523" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G194)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="517" priority="524" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G194)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G194">
+    <cfRule type="containsText" dxfId="516" priority="514" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",G194)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="515" priority="515" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G194)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="514" priority="516" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G194)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="521" priority="526" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="513" priority="542" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F194">
+    <cfRule type="containsText" dxfId="512" priority="543" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F194">
+    <cfRule type="containsText" dxfId="511" priority="513" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F194)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E194">
-    <cfRule type="cellIs" dxfId="520" priority="523" operator="equal">
+    <cfRule type="cellIs" dxfId="510" priority="510" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="519" priority="524" operator="equal">
+    <cfRule type="cellIs" dxfId="509" priority="511" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="518" priority="525" operator="equal">
+    <cfRule type="cellIs" dxfId="508" priority="512" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G194">
+    <cfRule type="containsText" dxfId="507" priority="507" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",G194)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="506" priority="508" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G194)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="505" priority="509" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G194)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G194">
+    <cfRule type="containsText" dxfId="504" priority="504" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G194)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="503" priority="505" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G194)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="502" priority="506" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G194)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E194">
-    <cfRule type="cellIs" dxfId="517" priority="517" operator="equal">
+    <cfRule type="cellIs" dxfId="501" priority="503" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E194">
-    <cfRule type="cellIs" dxfId="516" priority="518" operator="equal">
+    <cfRule type="cellIs" dxfId="500" priority="502" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E194">
-    <cfRule type="cellIs" dxfId="515" priority="519" operator="equal">
+    <cfRule type="cellIs" dxfId="499" priority="501" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G194">
-    <cfRule type="containsText" dxfId="514" priority="520" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH(("0"),(G194))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G194">
-    <cfRule type="containsText" dxfId="513" priority="521" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH(("Closed"),(G194))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G194">
-    <cfRule type="containsText" dxfId="512" priority="522" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH(("Open"),(G194))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G194">
-    <cfRule type="containsText" dxfId="511" priority="514" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G194)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="510" priority="515" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G194)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="509" priority="516" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G194)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G194">
-    <cfRule type="containsText" dxfId="508" priority="506" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",G194)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="507" priority="507" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G194)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="506" priority="508" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G194)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="505" priority="534" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="498" priority="498" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="504" priority="535" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="497" priority="497" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="503" priority="505" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F194)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E194">
-    <cfRule type="cellIs" dxfId="502" priority="502" operator="equal">
+    <cfRule type="containsText" dxfId="496" priority="496" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F194">
+    <cfRule type="containsText" dxfId="495" priority="546" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F194">
+    <cfRule type="containsText" dxfId="494" priority="562" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F194">
+    <cfRule type="containsText" dxfId="493" priority="563" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F194">
+    <cfRule type="containsText" dxfId="492" priority="564" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F194">
+    <cfRule type="containsText" dxfId="491" priority="492" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F195">
+    <cfRule type="containsText" dxfId="490" priority="466" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F195)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E195">
+    <cfRule type="cellIs" dxfId="489" priority="463" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="501" priority="503" operator="equal">
+    <cfRule type="cellIs" dxfId="488" priority="464" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="500" priority="504" operator="equal">
+    <cfRule type="cellIs" dxfId="487" priority="465" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G194">
-    <cfRule type="containsText" dxfId="499" priority="499" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",G194)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="498" priority="500" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G194)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="497" priority="501" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G194)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G194">
-    <cfRule type="containsText" dxfId="496" priority="496" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G194)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="495" priority="497" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G194)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="494" priority="498" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G194)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E194">
-    <cfRule type="cellIs" dxfId="493" priority="495" operator="equal">
+  <conditionalFormatting sqref="E195">
+    <cfRule type="cellIs" dxfId="486" priority="457" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E194">
-    <cfRule type="cellIs" dxfId="492" priority="494" operator="equal">
+  <conditionalFormatting sqref="E195">
+    <cfRule type="cellIs" dxfId="485" priority="458" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E194">
-    <cfRule type="cellIs" dxfId="491" priority="493" operator="equal">
+  <conditionalFormatting sqref="E195">
+    <cfRule type="cellIs" dxfId="484" priority="459" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="490" priority="490" operator="containsText" text="open">
+  <conditionalFormatting sqref="G195">
+    <cfRule type="containsText" dxfId="483" priority="460" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH(("0"),(G195))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G195">
+    <cfRule type="containsText" dxfId="482" priority="461" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH(("Closed"),(G195))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G195">
+    <cfRule type="containsText" dxfId="481" priority="462" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH(("Open"),(G195))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G195">
+    <cfRule type="containsText" dxfId="480" priority="453" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G195)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="479" priority="454" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G195)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="478" priority="455" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G195)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G195">
+    <cfRule type="containsText" dxfId="477" priority="445" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",G195)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="476" priority="446" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G195)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="475" priority="447" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G195)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F195">
+    <cfRule type="containsText" dxfId="474" priority="470" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="489" priority="489" operator="containsText" text="open">
+  <conditionalFormatting sqref="F195">
+    <cfRule type="containsText" dxfId="473" priority="471" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="488" priority="488" operator="containsText" text="open">
+  <conditionalFormatting sqref="F195">
+    <cfRule type="containsText" dxfId="472" priority="472" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="487" priority="538" operator="containsText" text="open">
+  <conditionalFormatting sqref="F195">
+    <cfRule type="containsText" dxfId="471" priority="475" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="486" priority="554" operator="containsText" text="open">
+  <conditionalFormatting sqref="F195">
+    <cfRule type="containsText" dxfId="470" priority="488" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="485" priority="555" operator="containsText" text="open">
+  <conditionalFormatting sqref="F195">
+    <cfRule type="containsText" dxfId="469" priority="489" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="484" priority="556" operator="containsText" text="open">
+  <conditionalFormatting sqref="F196:F197">
+    <cfRule type="containsText" dxfId="468" priority="400" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F196)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F196:F197">
+    <cfRule type="containsText" dxfId="467" priority="403" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="483" priority="484" operator="containsText" text="open">
+  <conditionalFormatting sqref="F196:F197">
+    <cfRule type="containsText" dxfId="466" priority="404" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F195">
-    <cfRule type="containsText" dxfId="482" priority="458" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F195)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E195">
-    <cfRule type="cellIs" dxfId="481" priority="455" operator="equal">
+  <conditionalFormatting sqref="F196:F197">
+    <cfRule type="containsText" dxfId="465" priority="395" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F196)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F196:F197">
+    <cfRule type="containsText" dxfId="464" priority="394" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F196:F197">
+    <cfRule type="containsText" dxfId="463" priority="393" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F196:F197">
+    <cfRule type="containsText" dxfId="462" priority="392" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F196:F197">
+    <cfRule type="containsText" dxfId="461" priority="406" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E196">
+    <cfRule type="cellIs" dxfId="460" priority="388" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="480" priority="456" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E196">
+    <cfRule type="cellIs" dxfId="459" priority="389" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="479" priority="457" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E196">
+    <cfRule type="cellIs" dxfId="458" priority="390" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E195">
-    <cfRule type="cellIs" dxfId="478" priority="449" operator="equal">
+  <conditionalFormatting sqref="E196">
+    <cfRule type="cellIs" dxfId="457" priority="385" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E195">
-    <cfRule type="cellIs" dxfId="477" priority="450" operator="equal">
+    <cfRule type="cellIs" dxfId="456" priority="386" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E195">
-    <cfRule type="cellIs" dxfId="476" priority="451" operator="equal">
+    <cfRule type="cellIs" dxfId="455" priority="387" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G195">
-    <cfRule type="containsText" dxfId="475" priority="452" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH(("0"),(G195))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G195">
-    <cfRule type="containsText" dxfId="474" priority="453" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH(("Closed"),(G195))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G195">
-    <cfRule type="containsText" dxfId="473" priority="454" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH(("Open"),(G195))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G195">
-    <cfRule type="containsText" dxfId="472" priority="445" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G195)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="471" priority="446" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G195)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="470" priority="447" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G195)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G195">
-    <cfRule type="containsText" dxfId="469" priority="437" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",G195)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="468" priority="438" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G195)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="467" priority="439" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G195)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F195">
-    <cfRule type="containsText" dxfId="466" priority="462" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F195">
-    <cfRule type="containsText" dxfId="465" priority="463" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F195">
-    <cfRule type="containsText" dxfId="464" priority="464" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F195">
-    <cfRule type="containsText" dxfId="463" priority="467" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F195">
-    <cfRule type="containsText" dxfId="462" priority="480" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F195">
-    <cfRule type="containsText" dxfId="461" priority="481" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F196:F197">
-    <cfRule type="containsText" dxfId="460" priority="392" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F196)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F196:F197">
-    <cfRule type="containsText" dxfId="459" priority="395" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F196:F197">
-    <cfRule type="containsText" dxfId="458" priority="396" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F196:F197">
-    <cfRule type="containsText" dxfId="457" priority="387" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F196)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F196:F197">
-    <cfRule type="containsText" dxfId="456" priority="386" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F196:F197">
-    <cfRule type="containsText" dxfId="455" priority="385" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F196:F197">
-    <cfRule type="containsText" dxfId="454" priority="384" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F196:F197">
-    <cfRule type="containsText" dxfId="453" priority="398" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="452" priority="380" operator="equal">
+    <cfRule type="cellIs" dxfId="454" priority="384" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="451" priority="381" operator="equal">
+    <cfRule type="cellIs" dxfId="453" priority="383" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="450" priority="382" operator="equal">
+    <cfRule type="cellIs" dxfId="452" priority="382" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="449" priority="377" operator="equal">
+    <cfRule type="cellIs" dxfId="451" priority="379" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="448" priority="378" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="380" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="447" priority="379" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="381" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="446" priority="376" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="376" operator="equal">
       <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="447" priority="377" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="446" priority="378" operator="equal">
+      <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
     <cfRule type="cellIs" dxfId="445" priority="375" operator="equal">
-      <formula>"Minor"</formula>
+      <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
     <cfRule type="cellIs" dxfId="444" priority="374" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E196">
+    <cfRule type="cellIs" dxfId="443" priority="373" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="443" priority="371" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="370" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="442" priority="372" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="371" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="441" priority="373" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="372" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="440" priority="368" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="369" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="439" priority="369" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E196">
+    <cfRule type="cellIs" dxfId="438" priority="368" operator="equal">
       <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="438" priority="370" operator="equal">
-      <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
     <cfRule type="cellIs" dxfId="437" priority="367" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E196">
+    <cfRule type="cellIs" dxfId="436" priority="364" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="435" priority="365" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="434" priority="366" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="436" priority="366" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="363" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E196">
+    <cfRule type="cellIs" dxfId="432" priority="362" operator="equal">
       <formula>"Minor"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="435" priority="365" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="434" priority="362" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="433" priority="363" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="432" priority="364" operator="equal">
-      <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
     <cfRule type="cellIs" dxfId="431" priority="361" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E196">
+    <cfRule type="cellIs" dxfId="430" priority="358" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="430" priority="360" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="359" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="429" priority="359" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="360" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="428" priority="356" operator="equal">
+  <conditionalFormatting sqref="G196">
+    <cfRule type="containsText" dxfId="427" priority="355" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH(("0"),(G196))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G196">
+    <cfRule type="containsText" dxfId="426" priority="356" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH(("Closed"),(G196))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G196">
+    <cfRule type="containsText" dxfId="425" priority="357" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH(("Open"),(G196))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G196">
+    <cfRule type="containsText" dxfId="424" priority="352" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",G196)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="423" priority="353" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="422" priority="354" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G196">
+    <cfRule type="containsText" dxfId="421" priority="349" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G196)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="420" priority="350" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="419" priority="351" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G196">
+    <cfRule type="containsText" dxfId="418" priority="346" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G196)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="417" priority="347" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="416" priority="348" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G196">
+    <cfRule type="containsText" dxfId="415" priority="343" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",G196)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="414" priority="344" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="413" priority="345" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G196">
+    <cfRule type="containsText" dxfId="412" priority="340" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G196)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="411" priority="341" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="410" priority="342" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G196">
+    <cfRule type="containsText" dxfId="409" priority="337" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G196)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="408" priority="338" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="407" priority="339" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G196">
+    <cfRule type="containsText" dxfId="406" priority="334" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",G196)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="405" priority="335" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="404" priority="336" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G196">
+    <cfRule type="containsText" dxfId="403" priority="331" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="402" priority="332" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="401" priority="333" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",#REF!)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G196">
+    <cfRule type="containsText" dxfId="400" priority="328" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G196)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="399" priority="329" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="398" priority="330" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G196">
+    <cfRule type="containsText" dxfId="397" priority="325" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",G196)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="396" priority="326" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="395" priority="327" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G196">
+    <cfRule type="containsText" dxfId="394" priority="322" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",G196)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="393" priority="323" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="392" priority="324" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G196">
+    <cfRule type="containsText" dxfId="391" priority="319" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G196)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="390" priority="320" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="389" priority="321" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G196">
+    <cfRule type="containsText" dxfId="388" priority="316" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G196)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="387" priority="317" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="386" priority="318" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G196">
+    <cfRule type="containsText" dxfId="385" priority="313" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",G196)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="384" priority="314" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="383" priority="315" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G196">
+    <cfRule type="containsText" dxfId="382" priority="310" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G196)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="381" priority="311" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="380" priority="312" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G196">
+    <cfRule type="containsText" dxfId="379" priority="307" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G196)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="378" priority="308" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="377" priority="309" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G196">
+    <cfRule type="containsText" dxfId="376" priority="304" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",G196)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="375" priority="305" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="374" priority="306" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G196">
+    <cfRule type="containsText" dxfId="373" priority="301" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="372" priority="302" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="371" priority="303" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",#REF!)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G196">
+    <cfRule type="containsText" dxfId="370" priority="298" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G196)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="369" priority="299" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="368" priority="300" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G196">
+    <cfRule type="containsText" dxfId="367" priority="295" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",G196)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="366" priority="296" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="365" priority="297" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E197">
+    <cfRule type="cellIs" dxfId="364" priority="278" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="427" priority="357" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E197">
+    <cfRule type="cellIs" dxfId="363" priority="279" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="426" priority="358" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E197">
+    <cfRule type="cellIs" dxfId="362" priority="280" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="425" priority="355" operator="equal">
+  <conditionalFormatting sqref="E197">
+    <cfRule type="cellIs" dxfId="361" priority="275" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="424" priority="354" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="276" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="423" priority="353" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="277" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="422" priority="350" operator="equal">
+  <conditionalFormatting sqref="E197">
+    <cfRule type="cellIs" dxfId="358" priority="274" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="421" priority="351" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E197">
+    <cfRule type="cellIs" dxfId="357" priority="273" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="352" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E197">
+    <cfRule type="cellIs" dxfId="356" priority="272" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="419" priority="347" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH(("0"),(G196))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="418" priority="348" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH(("Closed"),(G196))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="417" priority="349" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH(("Open"),(G196))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="416" priority="344" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",G196)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="415" priority="345" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="414" priority="346" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="413" priority="341" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G196)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="412" priority="342" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="411" priority="343" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="410" priority="338" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G196)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="409" priority="339" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="408" priority="340" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="407" priority="335" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",G196)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="406" priority="336" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="405" priority="337" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="404" priority="332" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G196)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="403" priority="333" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="402" priority="334" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="401" priority="329" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G196)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="400" priority="330" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="399" priority="331" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="398" priority="326" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",G196)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="397" priority="327" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="396" priority="328" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="395" priority="323" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",#REF!)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="394" priority="324" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",#REF!)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="393" priority="325" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",#REF!)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="392" priority="320" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G196)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="391" priority="321" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="390" priority="322" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="389" priority="317" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",G196)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="388" priority="318" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="387" priority="319" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="386" priority="314" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",G196)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="385" priority="315" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="384" priority="316" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="383" priority="311" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G196)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="382" priority="312" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="381" priority="313" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="380" priority="308" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G196)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="379" priority="309" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="378" priority="310" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="377" priority="305" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",G196)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="376" priority="306" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="375" priority="307" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="374" priority="302" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G196)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="373" priority="303" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="372" priority="304" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="371" priority="299" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G196)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="370" priority="300" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="369" priority="301" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="368" priority="296" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",G196)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="367" priority="297" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="366" priority="298" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="365" priority="293" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",#REF!)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="364" priority="294" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",#REF!)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="363" priority="295" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",#REF!)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="362" priority="290" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G196)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="361" priority="291" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="360" priority="292" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="359" priority="287" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",G196)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="358" priority="288" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="357" priority="289" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="356" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="269" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="354" priority="270" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="353" priority="271" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="355" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="266" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="351" priority="267" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="354" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="268" operator="equal">
       <formula>"Major"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="353" priority="267" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="268" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="351" priority="269" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="350" priority="266" operator="equal">
-      <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197">
     <cfRule type="cellIs" dxfId="349" priority="265" operator="equal">
-      <formula>"Minor"</formula>
+      <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197">
     <cfRule type="cellIs" dxfId="348" priority="264" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E197">
+    <cfRule type="cellIs" dxfId="347" priority="263" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="347" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="260" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="261" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="345" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="262" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="344" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="259" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="343" priority="259" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E197">
+    <cfRule type="cellIs" dxfId="342" priority="258" operator="equal">
       <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="260" operator="equal">
-      <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197">
     <cfRule type="cellIs" dxfId="341" priority="257" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E197">
+    <cfRule type="cellIs" dxfId="340" priority="254" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="339" priority="255" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="338" priority="256" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="340" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="253" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E197">
+    <cfRule type="cellIs" dxfId="336" priority="252" operator="equal">
       <formula>"Minor"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="339" priority="255" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="338" priority="252" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="253" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="254" operator="equal">
-      <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197">
     <cfRule type="cellIs" dxfId="335" priority="251" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E197">
+    <cfRule type="cellIs" dxfId="334" priority="248" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="334" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="249" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="333" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="250" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="332" priority="246" operator="equal">
+  <conditionalFormatting sqref="G197">
+    <cfRule type="containsText" dxfId="331" priority="239" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G197)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="330" priority="240" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="329" priority="241" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G197">
+    <cfRule type="containsText" dxfId="328" priority="230" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G197)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="327" priority="231" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="326" priority="232" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G197">
+    <cfRule type="containsText" dxfId="325" priority="245" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH(("0"),(G197))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G197">
+    <cfRule type="containsText" dxfId="324" priority="246" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH(("Closed"),(G197))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G197">
+    <cfRule type="containsText" dxfId="323" priority="247" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH(("Open"),(G197))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G197">
+    <cfRule type="containsText" dxfId="322" priority="242" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",G197)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="321" priority="243" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="320" priority="244" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G197">
+    <cfRule type="containsText" dxfId="319" priority="236" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G197)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="318" priority="237" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="317" priority="238" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G197">
+    <cfRule type="containsText" dxfId="316" priority="233" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",G197)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="315" priority="234" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="314" priority="235" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G197">
+    <cfRule type="containsText" dxfId="313" priority="227" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G197)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="312" priority="228" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="311" priority="229" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G197">
+    <cfRule type="containsText" dxfId="310" priority="224" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",G197)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="309" priority="225" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="308" priority="226" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G197">
+    <cfRule type="containsText" dxfId="307" priority="221" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="306" priority="222" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="305" priority="223" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",#REF!)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G197">
+    <cfRule type="containsText" dxfId="304" priority="218" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G197)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="303" priority="219" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="302" priority="220" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G197">
+    <cfRule type="containsText" dxfId="301" priority="215" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",G197)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="300" priority="216" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="299" priority="217" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G197">
+    <cfRule type="containsText" dxfId="298" priority="212" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",G197)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="297" priority="213" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="296" priority="214" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G197">
+    <cfRule type="containsText" dxfId="295" priority="209" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G197)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="294" priority="210" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="293" priority="211" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G197">
+    <cfRule type="containsText" dxfId="292" priority="206" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G197)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="291" priority="207" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="290" priority="208" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G197">
+    <cfRule type="containsText" dxfId="289" priority="203" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",G197)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="288" priority="204" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="287" priority="205" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G197">
+    <cfRule type="containsText" dxfId="286" priority="200" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G197)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="285" priority="201" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="284" priority="202" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G197">
+    <cfRule type="containsText" dxfId="283" priority="197" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G197)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="282" priority="198" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="281" priority="199" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G197">
+    <cfRule type="containsText" dxfId="280" priority="194" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",G197)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="279" priority="195" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="278" priority="196" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G197">
+    <cfRule type="containsText" dxfId="277" priority="191" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="276" priority="192" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="275" priority="193" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",#REF!)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G197">
+    <cfRule type="containsText" dxfId="274" priority="188" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G197)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="273" priority="189" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="272" priority="190" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G197">
+    <cfRule type="containsText" dxfId="271" priority="185" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",G197)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="270" priority="186" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="269" priority="187" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E198">
+    <cfRule type="cellIs" dxfId="268" priority="182" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="183" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="184" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="329" priority="245" operator="equal">
+  <conditionalFormatting sqref="E198">
+    <cfRule type="cellIs" dxfId="265" priority="179" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="328" priority="244" operator="equal">
+  <conditionalFormatting sqref="E198">
+    <cfRule type="cellIs" dxfId="264" priority="180" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="327" priority="243" operator="equal">
+  <conditionalFormatting sqref="E198">
+    <cfRule type="cellIs" dxfId="263" priority="181" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="326" priority="240" operator="equal">
+  <conditionalFormatting sqref="E198">
+    <cfRule type="cellIs" dxfId="262" priority="176" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="177" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="178" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="323" priority="231" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G197)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="322" priority="232" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="321" priority="233" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="320" priority="222" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G197)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="319" priority="223" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="318" priority="224" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="317" priority="237" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH(("0"),(G197))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="316" priority="238" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH(("Closed"),(G197))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="315" priority="239" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH(("Open"),(G197))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="314" priority="234" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",G197)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="313" priority="235" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="312" priority="236" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="311" priority="228" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G197)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="310" priority="229" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="309" priority="230" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="308" priority="225" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",G197)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="307" priority="226" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="306" priority="227" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="305" priority="219" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G197)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="304" priority="220" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="303" priority="221" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="302" priority="216" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",G197)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="301" priority="217" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="300" priority="218" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="299" priority="213" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",#REF!)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="298" priority="214" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",#REF!)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="297" priority="215" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",#REF!)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="296" priority="210" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G197)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="295" priority="211" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="294" priority="212" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="293" priority="207" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",G197)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="292" priority="208" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="291" priority="209" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="290" priority="204" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",G197)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="289" priority="205" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="288" priority="206" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="287" priority="201" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G197)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="286" priority="202" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="285" priority="203" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="284" priority="198" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G197)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="283" priority="199" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="282" priority="200" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="281" priority="195" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",G197)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="280" priority="196" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="279" priority="197" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="278" priority="192" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G197)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="277" priority="193" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="276" priority="194" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="275" priority="189" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G197)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="274" priority="190" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="273" priority="191" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="272" priority="186" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",G197)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="271" priority="187" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="270" priority="188" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="269" priority="183" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",#REF!)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="268" priority="184" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",#REF!)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="267" priority="185" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",#REF!)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="266" priority="180" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G197)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="265" priority="181" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="264" priority="182" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="263" priority="177" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",G197)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="262" priority="178" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="261" priority="179" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E198">
-    <cfRule type="cellIs" dxfId="260" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="175" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="175" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E198">
+    <cfRule type="cellIs" dxfId="258" priority="174" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="176" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E198">
+    <cfRule type="cellIs" dxfId="257" priority="173" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E198">
-    <cfRule type="cellIs" dxfId="257" priority="171" operator="equal">
+  <conditionalFormatting sqref="G198">
+    <cfRule type="containsText" dxfId="256" priority="168" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH(("0"),(G198))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G198">
+    <cfRule type="containsText" dxfId="255" priority="169" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH(("Closed"),(G198))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G198">
+    <cfRule type="containsText" dxfId="254" priority="170" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH(("Open"),(G198))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G198">
+    <cfRule type="containsText" dxfId="253" priority="165" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",G198)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="252" priority="166" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G198)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="251" priority="167" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G198)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G198">
+    <cfRule type="containsText" dxfId="250" priority="162" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G198)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="249" priority="163" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G198)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="248" priority="164" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G198)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G244">
+    <cfRule type="containsText" dxfId="247" priority="159" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G244)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="246" priority="160" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G244)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="245" priority="161" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G244)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E244">
+    <cfRule type="cellIs" dxfId="244" priority="156" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E198">
-    <cfRule type="cellIs" dxfId="256" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="157" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E198">
-    <cfRule type="cellIs" dxfId="255" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="158" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E198">
-    <cfRule type="cellIs" dxfId="254" priority="168" operator="equal">
+  <conditionalFormatting sqref="F244">
+    <cfRule type="containsText" dxfId="241" priority="155" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F244)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F244">
+    <cfRule type="containsText" dxfId="240" priority="154" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F244)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E245">
+    <cfRule type="cellIs" dxfId="239" priority="151" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="152" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="153" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E198">
-    <cfRule type="cellIs" dxfId="251" priority="167" operator="equal">
+  <conditionalFormatting sqref="G245">
+    <cfRule type="containsText" dxfId="236" priority="148" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G245)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="235" priority="149" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G245)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="234" priority="150" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G245)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E248 E246">
+    <cfRule type="cellIs" dxfId="233" priority="145" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E198">
-    <cfRule type="cellIs" dxfId="250" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="146" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E198">
-    <cfRule type="cellIs" dxfId="249" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="147" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G248 G246">
+    <cfRule type="containsText" dxfId="230" priority="142" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G246)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="229" priority="143" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G246)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="228" priority="144" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G246)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E248 E246">
+    <cfRule type="cellIs" dxfId="227" priority="141" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E248 E246">
+    <cfRule type="cellIs" dxfId="226" priority="140" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E248 E246">
+    <cfRule type="cellIs" dxfId="225" priority="139" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D247 F247">
+    <cfRule type="containsText" dxfId="224" priority="138" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",D247)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E247:F247">
+    <cfRule type="cellIs" dxfId="223" priority="135" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="222" priority="136" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="221" priority="137" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G247">
+    <cfRule type="containsText" dxfId="220" priority="132" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G247)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="219" priority="133" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G247)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="218" priority="134" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G247)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D247">
+    <cfRule type="containsText" dxfId="217" priority="131" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",D247)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G247">
+    <cfRule type="containsText" dxfId="216" priority="128" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",G247)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="215" priority="129" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G247)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="214" priority="130" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G247)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G247">
+    <cfRule type="containsText" dxfId="213" priority="125" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G247)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="212" priority="126" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G247)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="211" priority="127" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G247)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G247">
+    <cfRule type="containsText" dxfId="210" priority="122" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",G247)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="209" priority="123" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G247)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="208" priority="124" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G247)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F248">
+    <cfRule type="containsText" dxfId="207" priority="121" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F248)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G248">
+    <cfRule type="containsText" dxfId="206" priority="120" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH(("0"),(G248))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G248">
+    <cfRule type="containsText" dxfId="205" priority="119" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH(("Closed"),(G248))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G248">
+    <cfRule type="containsText" dxfId="204" priority="118" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH(("Open"),(G248))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F248">
+    <cfRule type="containsText" dxfId="203" priority="116" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F248)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E248">
+    <cfRule type="cellIs" dxfId="202" priority="113" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="201" priority="114" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="200" priority="115" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G248">
+    <cfRule type="containsText" dxfId="199" priority="110" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G248)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="198" priority="111" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G248)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="197" priority="112" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G248)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D249 F249">
+    <cfRule type="containsText" dxfId="196" priority="109" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",D249)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F249">
+    <cfRule type="cellIs" dxfId="195" priority="106" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="194" priority="107" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="193" priority="108" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D249">
+    <cfRule type="containsText" dxfId="192" priority="105" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",D249)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E249">
+    <cfRule type="cellIs" dxfId="191" priority="102" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="103" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="189" priority="104" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E249">
+    <cfRule type="cellIs" dxfId="188" priority="101" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E249">
+    <cfRule type="cellIs" dxfId="187" priority="100" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E249">
+    <cfRule type="cellIs" dxfId="186" priority="99" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E249">
+    <cfRule type="cellIs" dxfId="185" priority="96" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="97" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="183" priority="98" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G249">
+    <cfRule type="containsText" dxfId="182" priority="93" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G249)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="181" priority="94" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G249)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="180" priority="95" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G249)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G249">
+    <cfRule type="containsText" dxfId="179" priority="92" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH(("0"),(G249))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G249">
+    <cfRule type="containsText" dxfId="178" priority="91" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH(("Closed"),(G249))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G249">
+    <cfRule type="containsText" dxfId="177" priority="90" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH(("Open"),(G249))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G249">
+    <cfRule type="containsText" dxfId="176" priority="87" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G249)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="175" priority="88" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G249)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="174" priority="89" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G249)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F70 F194">
+    <cfRule type="containsText" dxfId="173" priority="1473" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F70 F196:F197">
+    <cfRule type="containsText" dxfId="172" priority="1474" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F70">
+    <cfRule type="containsText" dxfId="171" priority="1475" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F70">
+    <cfRule type="containsText" dxfId="170" priority="1476" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F80">
+    <cfRule type="containsText" dxfId="169" priority="1478" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F80 F195">
+    <cfRule type="containsText" dxfId="168" priority="1479" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F80">
+    <cfRule type="containsText" dxfId="167" priority="1480" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F80 F248">
+    <cfRule type="containsText" dxfId="166" priority="1481" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F107">
+    <cfRule type="containsText" dxfId="165" priority="1483" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F107">
+    <cfRule type="containsText" dxfId="164" priority="1484" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F107">
+    <cfRule type="containsText" dxfId="163" priority="1485" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F107 F122:F123">
+    <cfRule type="containsText" dxfId="162" priority="1486" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F107 F194:F197">
+    <cfRule type="containsText" dxfId="161" priority="1487" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F107 F194 F196">
+    <cfRule type="containsText" dxfId="160" priority="1488" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F107">
+    <cfRule type="containsText" dxfId="159" priority="1489" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F107">
+    <cfRule type="containsText" dxfId="158" priority="1490" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F107 F195:F196">
+    <cfRule type="containsText" dxfId="157" priority="1491" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F107 F195:F197">
+    <cfRule type="containsText" dxfId="156" priority="1492" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F107">
+    <cfRule type="containsText" dxfId="155" priority="1493" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F107">
+    <cfRule type="containsText" dxfId="154" priority="1494" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F108">
+    <cfRule type="containsText" dxfId="153" priority="1495" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F109">
+    <cfRule type="containsText" dxfId="152" priority="1496" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F119">
+    <cfRule type="containsText" dxfId="151" priority="1497" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F119">
+    <cfRule type="containsText" dxfId="150" priority="1498" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="149" priority="1499" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F122:F123">
+    <cfRule type="containsText" dxfId="148" priority="1500" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F122:F123">
+    <cfRule type="containsText" dxfId="147" priority="1501" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F122:F123">
+    <cfRule type="containsText" dxfId="146" priority="1502" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F122:F123 F196:F197">
+    <cfRule type="containsText" dxfId="145" priority="1504" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F122:F123 F194 F197">
+    <cfRule type="containsText" dxfId="144" priority="1505" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F123">
+    <cfRule type="containsText" dxfId="143" priority="1507" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F123">
+    <cfRule type="containsText" dxfId="142" priority="1510" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F194:F195">
+    <cfRule type="containsText" dxfId="141" priority="1515" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F194:F195">
+    <cfRule type="containsText" dxfId="140" priority="1516" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F194">
+    <cfRule type="containsText" dxfId="139" priority="1517" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F194:F195">
+    <cfRule type="containsText" dxfId="138" priority="1518" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F194:F195">
+    <cfRule type="containsText" dxfId="137" priority="1519" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F194 F196">
+    <cfRule type="containsText" dxfId="136" priority="1520" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F194">
+    <cfRule type="containsText" dxfId="135" priority="1521" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F194">
+    <cfRule type="containsText" dxfId="134" priority="1522" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F194 F197">
+    <cfRule type="containsText" dxfId="133" priority="1523" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F197 F194:F195">
+    <cfRule type="containsText" dxfId="132" priority="1524" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F197 F194:F195">
+    <cfRule type="containsText" dxfId="131" priority="1525" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F194:F195">
+    <cfRule type="containsText" dxfId="130" priority="1526" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F194 F197">
+    <cfRule type="containsText" dxfId="129" priority="1527" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F194">
+    <cfRule type="containsText" dxfId="128" priority="1528" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F194">
+    <cfRule type="containsText" dxfId="127" priority="1529" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F194:F197">
+    <cfRule type="containsText" dxfId="126" priority="1530" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F194 F197">
+    <cfRule type="containsText" dxfId="125" priority="1531" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F197 F194:F195">
+    <cfRule type="containsText" dxfId="124" priority="1533" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F197 F194:F195">
+    <cfRule type="containsText" dxfId="123" priority="1534" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F197 F194:F195">
+    <cfRule type="containsText" dxfId="122" priority="1535" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F197 F194:F195">
+    <cfRule type="containsText" dxfId="121" priority="1536" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F194 F196">
+    <cfRule type="containsText" dxfId="120" priority="1537" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F197 F194:F195">
+    <cfRule type="containsText" dxfId="119" priority="1538" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F194 F196">
+    <cfRule type="containsText" dxfId="118" priority="1540" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F194 F196">
+    <cfRule type="containsText" dxfId="117" priority="1541" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F194:F197">
+    <cfRule type="containsText" dxfId="116" priority="1543" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F194:F197">
+    <cfRule type="containsText" dxfId="115" priority="1544" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F194">
+    <cfRule type="containsText" dxfId="114" priority="1545" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F194 F197">
+    <cfRule type="containsText" dxfId="113" priority="1546" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F194 F196:F197">
+    <cfRule type="containsText" dxfId="112" priority="1547" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F197 F194:F195">
+    <cfRule type="containsText" dxfId="111" priority="1548" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F194:F195">
+    <cfRule type="containsText" dxfId="110" priority="1550" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F197 F195">
+    <cfRule type="containsText" dxfId="109" priority="1551" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F195:F196">
+    <cfRule type="containsText" dxfId="108" priority="1553" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F195:F197">
+    <cfRule type="containsText" dxfId="107" priority="1554" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F195">
+    <cfRule type="containsText" dxfId="106" priority="1557" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F195:F196">
+    <cfRule type="containsText" dxfId="105" priority="1558" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F195">
+    <cfRule type="containsText" dxfId="104" priority="1559" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F195">
+    <cfRule type="containsText" dxfId="103" priority="1561" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F197 F195">
+    <cfRule type="containsText" dxfId="102" priority="1562" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F195">
+    <cfRule type="containsText" dxfId="101" priority="1564" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F195 F197">
+    <cfRule type="containsText" dxfId="100" priority="1568" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F195:F197">
+    <cfRule type="containsText" dxfId="99" priority="1575" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F195 F197">
+    <cfRule type="containsText" dxfId="98" priority="1583" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F195 F197">
+    <cfRule type="containsText" dxfId="97" priority="1584" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F195">
+    <cfRule type="containsText" dxfId="96" priority="1591" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F196:F197">
+    <cfRule type="containsText" dxfId="95" priority="1601" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F196:F197">
+    <cfRule type="containsText" dxfId="94" priority="1602" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F196:F197">
+    <cfRule type="containsText" dxfId="93" priority="1603" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F196:F197">
+    <cfRule type="containsText" dxfId="92" priority="1604" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F196:F197">
+    <cfRule type="containsText" dxfId="91" priority="1605" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F196:F197">
+    <cfRule type="containsText" dxfId="90" priority="1606" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F196">
+    <cfRule type="containsText" dxfId="89" priority="1607" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F196">
+    <cfRule type="containsText" dxfId="88" priority="1610" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F196">
+    <cfRule type="containsText" dxfId="87" priority="1616" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F196">
+    <cfRule type="containsText" dxfId="86" priority="1617" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F196">
+    <cfRule type="containsText" dxfId="85" priority="1618" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F196">
+    <cfRule type="containsText" dxfId="84" priority="1620" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F196">
+    <cfRule type="containsText" dxfId="83" priority="1621" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F196">
+    <cfRule type="containsText" dxfId="82" priority="1622" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F196">
+    <cfRule type="containsText" dxfId="81" priority="1624" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F196">
+    <cfRule type="containsText" dxfId="80" priority="1625" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F196">
+    <cfRule type="containsText" dxfId="79" priority="1626" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F196">
+    <cfRule type="containsText" dxfId="78" priority="1632" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F196">
+    <cfRule type="containsText" dxfId="77" priority="1633" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F197">
+    <cfRule type="containsText" dxfId="76" priority="1637" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F197">
+    <cfRule type="containsText" dxfId="75" priority="1639" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F197">
+    <cfRule type="containsText" dxfId="74" priority="1644" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F198">
+    <cfRule type="containsText" dxfId="73" priority="1648" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G198">
-    <cfRule type="containsText" dxfId="248" priority="160" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH(("0"),(G198))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G198">
-    <cfRule type="containsText" dxfId="247" priority="161" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH(("Closed"),(G198))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G198">
-    <cfRule type="containsText" dxfId="246" priority="162" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH(("Open"),(G198))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G198">
-    <cfRule type="containsText" dxfId="245" priority="157" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",G198)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="244" priority="158" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G198)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="243" priority="159" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G198)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G198">
-    <cfRule type="containsText" dxfId="242" priority="154" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G198)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="241" priority="155" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G198)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="240" priority="156" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G198)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G244">
-    <cfRule type="containsText" dxfId="239" priority="151" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G244)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="238" priority="152" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G244)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="237" priority="153" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G244)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E244">
-    <cfRule type="cellIs" dxfId="236" priority="148" operator="equal">
+    <cfRule type="containsText" dxfId="72" priority="1649" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E261">
+    <cfRule type="cellIs" dxfId="71" priority="84" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="85" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="86" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F244">
-    <cfRule type="containsText" dxfId="233" priority="147" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F244)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F244">
-    <cfRule type="containsText" dxfId="232" priority="146" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F244)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E245">
-    <cfRule type="cellIs" dxfId="231" priority="143" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="144" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="145" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G245">
-    <cfRule type="containsText" dxfId="228" priority="140" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G245)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="227" priority="141" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G245)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="226" priority="142" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G245)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E248 E246">
-    <cfRule type="cellIs" dxfId="225" priority="137" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="138" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="139" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G248 G246">
-    <cfRule type="containsText" dxfId="222" priority="134" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G246)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="221" priority="135" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G246)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="220" priority="136" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G246)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E248 E246">
-    <cfRule type="cellIs" dxfId="219" priority="133" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E248 E246">
-    <cfRule type="cellIs" dxfId="218" priority="132" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E248 E246">
-    <cfRule type="cellIs" dxfId="217" priority="131" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D247 F247">
-    <cfRule type="containsText" dxfId="216" priority="130" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",D247)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E247:F247">
-    <cfRule type="cellIs" dxfId="215" priority="127" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="128" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="129" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G247">
-    <cfRule type="containsText" dxfId="212" priority="124" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G247)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="211" priority="125" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G247)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="126" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G247)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D247">
-    <cfRule type="containsText" dxfId="209" priority="123" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",D247)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G247">
-    <cfRule type="containsText" dxfId="208" priority="120" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",G247)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="207" priority="121" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G247)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="206" priority="122" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G247)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G247">
-    <cfRule type="containsText" dxfId="205" priority="117" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G247)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="118" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G247)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="203" priority="119" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G247)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G247">
-    <cfRule type="containsText" dxfId="202" priority="114" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",G247)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="115" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G247)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="200" priority="116" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G247)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F248">
-    <cfRule type="containsText" dxfId="199" priority="113" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F248)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G248">
-    <cfRule type="containsText" dxfId="198" priority="112" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH(("0"),(G248))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G248">
-    <cfRule type="containsText" dxfId="197" priority="111" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH(("Closed"),(G248))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G248">
-    <cfRule type="containsText" dxfId="196" priority="110" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH(("Open"),(G248))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F248">
-    <cfRule type="containsText" dxfId="195" priority="108" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F248)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E248">
-    <cfRule type="cellIs" dxfId="194" priority="105" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="106" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="107" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G248">
-    <cfRule type="containsText" dxfId="191" priority="102" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G248)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="103" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G248)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="104" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G248)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D249 F249">
-    <cfRule type="containsText" dxfId="188" priority="101" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",D249)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F249">
-    <cfRule type="cellIs" dxfId="187" priority="98" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="99" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="100" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D249">
-    <cfRule type="containsText" dxfId="184" priority="97" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",D249)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E249">
-    <cfRule type="cellIs" dxfId="183" priority="94" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="95" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="96" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E249">
-    <cfRule type="cellIs" dxfId="180" priority="93" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E249">
-    <cfRule type="cellIs" dxfId="179" priority="92" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E249">
-    <cfRule type="cellIs" dxfId="178" priority="91" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E249">
-    <cfRule type="cellIs" dxfId="177" priority="88" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="89" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="90" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G249">
-    <cfRule type="containsText" dxfId="174" priority="85" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G249)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="86" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G249)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="87" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G249)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G249">
-    <cfRule type="containsText" dxfId="171" priority="84" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH(("0"),(G249))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G249">
-    <cfRule type="containsText" dxfId="170" priority="83" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH(("Closed"),(G249))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G249">
-    <cfRule type="containsText" dxfId="169" priority="82" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH(("Open"),(G249))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G249">
-    <cfRule type="containsText" dxfId="168" priority="79" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G249)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="167" priority="80" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G249)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="81" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G249)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F70 F194">
-    <cfRule type="containsText" dxfId="165" priority="1465" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F70 F196:F197">
-    <cfRule type="containsText" dxfId="164" priority="1466" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F70">
-    <cfRule type="containsText" dxfId="163" priority="1467" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F70">
-    <cfRule type="containsText" dxfId="162" priority="1468" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F80">
-    <cfRule type="containsText" dxfId="161" priority="1470" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F80 F195">
-    <cfRule type="containsText" dxfId="160" priority="1471" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F80">
-    <cfRule type="containsText" dxfId="159" priority="1472" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F80 F248">
-    <cfRule type="containsText" dxfId="158" priority="1473" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F107">
-    <cfRule type="containsText" dxfId="157" priority="1475" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F107">
-    <cfRule type="containsText" dxfId="156" priority="1476" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F107">
-    <cfRule type="containsText" dxfId="155" priority="1477" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F107 F122:F123">
-    <cfRule type="containsText" dxfId="154" priority="1478" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F107 F194:F197">
-    <cfRule type="containsText" dxfId="153" priority="1479" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F107 F194 F196">
-    <cfRule type="containsText" dxfId="152" priority="1480" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F107">
-    <cfRule type="containsText" dxfId="151" priority="1481" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F107">
-    <cfRule type="containsText" dxfId="150" priority="1482" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F107 F195:F196">
-    <cfRule type="containsText" dxfId="149" priority="1483" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F107 F195:F197">
-    <cfRule type="containsText" dxfId="148" priority="1484" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F107">
-    <cfRule type="containsText" dxfId="147" priority="1485" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F107">
-    <cfRule type="containsText" dxfId="146" priority="1486" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F108">
-    <cfRule type="containsText" dxfId="145" priority="1487" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F109">
-    <cfRule type="containsText" dxfId="144" priority="1488" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F119">
-    <cfRule type="containsText" dxfId="143" priority="1489" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F119">
-    <cfRule type="containsText" dxfId="142" priority="1490" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="1491" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F122:F123">
-    <cfRule type="containsText" dxfId="140" priority="1492" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F122:F123">
-    <cfRule type="containsText" dxfId="139" priority="1493" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F122:F123">
-    <cfRule type="containsText" dxfId="138" priority="1494" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F122:F123 F196:F197">
-    <cfRule type="containsText" dxfId="137" priority="1496" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F122:F123 F194 F197">
-    <cfRule type="containsText" dxfId="136" priority="1497" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F123">
-    <cfRule type="containsText" dxfId="135" priority="1499" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F123">
-    <cfRule type="containsText" dxfId="134" priority="1502" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F194:F195">
-    <cfRule type="containsText" dxfId="133" priority="1507" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F194:F195">
-    <cfRule type="containsText" dxfId="132" priority="1508" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="131" priority="1509" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F194:F195">
-    <cfRule type="containsText" dxfId="130" priority="1510" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F194:F195">
-    <cfRule type="containsText" dxfId="129" priority="1511" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F194 F196">
-    <cfRule type="containsText" dxfId="128" priority="1512" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="127" priority="1513" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="126" priority="1514" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F194 F197">
-    <cfRule type="containsText" dxfId="125" priority="1515" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F197 F194:F195">
-    <cfRule type="containsText" dxfId="124" priority="1516" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F197 F194:F195">
-    <cfRule type="containsText" dxfId="123" priority="1517" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F194:F195">
-    <cfRule type="containsText" dxfId="122" priority="1518" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F194 F197">
-    <cfRule type="containsText" dxfId="121" priority="1519" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="120" priority="1520" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="119" priority="1521" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F194:F197">
-    <cfRule type="containsText" dxfId="118" priority="1522" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F194 F197">
-    <cfRule type="containsText" dxfId="117" priority="1523" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F197 F194:F195">
-    <cfRule type="containsText" dxfId="116" priority="1525" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F197 F194:F195">
-    <cfRule type="containsText" dxfId="115" priority="1526" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F197 F194:F195">
-    <cfRule type="containsText" dxfId="114" priority="1527" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F197 F194:F195">
-    <cfRule type="containsText" dxfId="113" priority="1528" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F194 F196">
-    <cfRule type="containsText" dxfId="112" priority="1529" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F197 F194:F195">
-    <cfRule type="containsText" dxfId="111" priority="1530" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F194 F196">
-    <cfRule type="containsText" dxfId="110" priority="1532" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F194 F196">
-    <cfRule type="containsText" dxfId="109" priority="1533" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F194:F197">
-    <cfRule type="containsText" dxfId="108" priority="1535" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F194:F197">
-    <cfRule type="containsText" dxfId="107" priority="1536" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="106" priority="1537" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F194 F197">
-    <cfRule type="containsText" dxfId="105" priority="1538" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F194 F196:F197">
-    <cfRule type="containsText" dxfId="104" priority="1539" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F197 F194:F195">
-    <cfRule type="containsText" dxfId="103" priority="1540" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F194:F195">
-    <cfRule type="containsText" dxfId="102" priority="1542" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F197 F195">
-    <cfRule type="containsText" dxfId="101" priority="1543" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F195:F196">
-    <cfRule type="containsText" dxfId="100" priority="1545" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F195:F197">
-    <cfRule type="containsText" dxfId="99" priority="1546" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F195">
-    <cfRule type="containsText" dxfId="98" priority="1549" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F195:F196">
-    <cfRule type="containsText" dxfId="97" priority="1550" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F195">
-    <cfRule type="containsText" dxfId="96" priority="1551" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F195">
-    <cfRule type="containsText" dxfId="95" priority="1553" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F197 F195">
-    <cfRule type="containsText" dxfId="94" priority="1554" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F195">
-    <cfRule type="containsText" dxfId="93" priority="1556" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F195 F197">
-    <cfRule type="containsText" dxfId="92" priority="1560" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F195:F197">
-    <cfRule type="containsText" dxfId="91" priority="1567" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F195 F197">
-    <cfRule type="containsText" dxfId="90" priority="1575" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F195 F197">
-    <cfRule type="containsText" dxfId="89" priority="1576" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F195">
-    <cfRule type="containsText" dxfId="88" priority="1583" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F196:F197">
-    <cfRule type="containsText" dxfId="87" priority="1593" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F196:F197">
-    <cfRule type="containsText" dxfId="86" priority="1594" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F196:F197">
-    <cfRule type="containsText" dxfId="85" priority="1595" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F196:F197">
-    <cfRule type="containsText" dxfId="84" priority="1596" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F196:F197">
-    <cfRule type="containsText" dxfId="83" priority="1597" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F196:F197">
-    <cfRule type="containsText" dxfId="82" priority="1598" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F196">
-    <cfRule type="containsText" dxfId="81" priority="1599" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F196">
-    <cfRule type="containsText" dxfId="80" priority="1602" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F196">
-    <cfRule type="containsText" dxfId="79" priority="1608" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F196">
-    <cfRule type="containsText" dxfId="78" priority="1609" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F196">
-    <cfRule type="containsText" dxfId="77" priority="1610" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F196">
-    <cfRule type="containsText" dxfId="76" priority="1612" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F196">
-    <cfRule type="containsText" dxfId="75" priority="1613" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F196">
-    <cfRule type="containsText" dxfId="74" priority="1614" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F196">
-    <cfRule type="containsText" dxfId="73" priority="1616" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F196">
-    <cfRule type="containsText" dxfId="72" priority="1617" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F196">
-    <cfRule type="containsText" dxfId="71" priority="1618" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F196">
-    <cfRule type="containsText" dxfId="70" priority="1624" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F196">
-    <cfRule type="containsText" dxfId="69" priority="1625" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F197">
-    <cfRule type="containsText" dxfId="68" priority="1629" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F197">
-    <cfRule type="containsText" dxfId="67" priority="1631" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F197">
-    <cfRule type="containsText" dxfId="66" priority="1636" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F198">
-    <cfRule type="containsText" dxfId="65" priority="1640" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G198">
-    <cfRule type="containsText" dxfId="64" priority="1641" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E261">
+  <conditionalFormatting sqref="G261">
+    <cfRule type="containsText" dxfId="68" priority="81" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G261)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="67" priority="82" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G261)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="83" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G261)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F261">
+    <cfRule type="containsText" dxfId="65" priority="80" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F261)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F262">
+    <cfRule type="containsText" dxfId="64" priority="79" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F262)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E262">
     <cfRule type="cellIs" dxfId="63" priority="76" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
@@ -28126,257 +28162,225 @@
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G261">
-    <cfRule type="containsText" dxfId="60" priority="73" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G261)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="74" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G261)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="75" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G261)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F261">
-    <cfRule type="containsText" dxfId="57" priority="72" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F261)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F262">
-    <cfRule type="containsText" dxfId="56" priority="71" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F262)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E262">
-    <cfRule type="cellIs" dxfId="55" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="75" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="69" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E262">
+    <cfRule type="cellIs" dxfId="59" priority="74" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="70" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E262">
+    <cfRule type="cellIs" dxfId="58" priority="73" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G262">
+    <cfRule type="containsText" dxfId="57" priority="70" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G262)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="56" priority="71" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G262)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="55" priority="72" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G262)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G262">
+    <cfRule type="containsText" dxfId="54" priority="69" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH(("0"),(G262))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G262">
+    <cfRule type="containsText" dxfId="53" priority="68" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH(("Closed"),(G262))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G262">
+    <cfRule type="containsText" dxfId="52" priority="67" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH(("Open"),(G262))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G262">
+    <cfRule type="containsText" dxfId="51" priority="64" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G262)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="65" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G262)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="66" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G262)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G262">
+    <cfRule type="containsText" dxfId="48" priority="63" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH(("0"),(G262))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G262">
+    <cfRule type="containsText" dxfId="47" priority="62" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH(("Closed"),(G262))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G262">
+    <cfRule type="containsText" dxfId="46" priority="61" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH(("Open"),(G262))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E262">
-    <cfRule type="cellIs" dxfId="52" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="58" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="59" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="60" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E262">
-    <cfRule type="cellIs" dxfId="51" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="57" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E262">
+    <cfRule type="cellIs" dxfId="41" priority="56" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E262">
-    <cfRule type="cellIs" dxfId="50" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="55" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G262">
-    <cfRule type="containsText" dxfId="49" priority="62" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G262)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="63" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G262)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="64" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G262)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G262">
-    <cfRule type="containsText" dxfId="46" priority="61" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH(("0"),(G262))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G262">
-    <cfRule type="containsText" dxfId="45" priority="60" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH(("Closed"),(G262))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G262">
-    <cfRule type="containsText" dxfId="44" priority="59" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH(("Open"),(G262))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G262">
-    <cfRule type="containsText" dxfId="43" priority="56" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G262)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="57" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G262)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="58" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G262)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G262">
-    <cfRule type="containsText" dxfId="40" priority="55" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH(("0"),(G262))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G262">
-    <cfRule type="containsText" dxfId="39" priority="54" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH(("Closed"),(G262))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G262">
-    <cfRule type="containsText" dxfId="38" priority="53" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH(("Open"),(G262))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E262">
-    <cfRule type="cellIs" dxfId="37" priority="50" operator="equal">
+  <conditionalFormatting sqref="G263">
+    <cfRule type="containsText" dxfId="39" priority="52" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G263)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="53" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G263)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="54" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G263)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E263">
+    <cfRule type="cellIs" dxfId="36" priority="49" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="50" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="51" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E262">
-    <cfRule type="cellIs" dxfId="34" priority="49" operator="equal">
+  <conditionalFormatting sqref="F263">
+    <cfRule type="containsText" dxfId="33" priority="48" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F263)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F263">
+    <cfRule type="containsText" dxfId="32" priority="47" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F263)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G264">
+    <cfRule type="containsText" dxfId="31" priority="44" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G264)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="45" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G264)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="46" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G264)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F264">
+    <cfRule type="containsText" dxfId="28" priority="39" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F264)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E264">
+    <cfRule type="cellIs" dxfId="27" priority="41" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E262">
-    <cfRule type="cellIs" dxfId="33" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="42" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E262">
-    <cfRule type="cellIs" dxfId="32" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="43" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G263">
-    <cfRule type="containsText" dxfId="31" priority="44" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G263)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="45" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G263)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="46" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G263)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E263">
-    <cfRule type="cellIs" dxfId="28" priority="41" operator="equal">
+  <conditionalFormatting sqref="F264">
+    <cfRule type="containsText" dxfId="24" priority="40" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F264)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G265">
+    <cfRule type="containsText" dxfId="23" priority="36" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G265)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="37" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G265)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="38" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G265)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E265">
+    <cfRule type="cellIs" dxfId="20" priority="33" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="34" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="35" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F263">
-    <cfRule type="containsText" dxfId="25" priority="40" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F263)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F263">
-    <cfRule type="containsText" dxfId="24" priority="39" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F263)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G264">
-    <cfRule type="containsText" dxfId="23" priority="36" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G264)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="37" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G264)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="38" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G264)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F264">
-    <cfRule type="containsText" dxfId="20" priority="31" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F264)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E264">
-    <cfRule type="cellIs" dxfId="19" priority="33" operator="equal">
+  <conditionalFormatting sqref="F265">
+    <cfRule type="containsText" dxfId="17" priority="32" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F265)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F265">
+    <cfRule type="containsText" dxfId="16" priority="31" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F265)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G266">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G266)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G266)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G266)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E266">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F264">
-    <cfRule type="containsText" dxfId="16" priority="32" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F264)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G265">
-    <cfRule type="containsText" dxfId="15" priority="28" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G265)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="29" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G265)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="30" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G265)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E265">
-    <cfRule type="cellIs" dxfId="12" priority="25" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="26" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="27" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F265">
-    <cfRule type="containsText" dxfId="9" priority="24" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F265)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F265">
-    <cfRule type="containsText" dxfId="8" priority="23" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F265)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E266">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F266">
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F266)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F266">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F266)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F266">
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F266)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G266">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G266)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G266)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G266)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28448,8 +28452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C163"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A170" sqref="A170"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7095"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7095" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Audit_Teams_Follow_Up" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Team_Management!$A$1:$F$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">Rig_Mast_Problems_Drops!$A$1:$C$12</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcMode="manual" calcCompleted="0"/>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4335,7 +4335,7 @@
     <cellStyle name="Normal 2 4" xfId="3"/>
     <cellStyle name="Normal 3" xfId="8"/>
   </cellStyles>
-  <dxfs count="1330">
+  <dxfs count="1310">
     <dxf>
       <font>
         <b/>
@@ -4362,60 +4362,12 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -4427,100 +4379,6 @@
           <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -15074,7 +14932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -15315,9 +15173,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I266"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D265" sqref="D265"/>
+      <selection pane="bottomLeft" activeCell="J263" sqref="J263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22904,59 +22762,59 @@
         <v>73</v>
       </c>
     </row>
-    <row r="265" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A265" s="70" t="s">
-        <v>174</v>
+        <v>822</v>
       </c>
       <c r="B265" s="218" t="s">
-        <v>836</v>
+        <v>358</v>
       </c>
       <c r="C265" s="15" t="s">
-        <v>837</v>
+        <v>44</v>
       </c>
       <c r="D265" s="221" t="s">
-        <v>838</v>
+        <v>865</v>
       </c>
       <c r="E265" s="222" t="s">
         <v>31</v>
       </c>
       <c r="F265" s="10" t="s">
-        <v>839</v>
+        <v>866</v>
       </c>
       <c r="G265" s="220" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="H265" s="70" t="s">
-        <v>179</v>
+        <v>15</v>
       </c>
       <c r="I265" s="70" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="266" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A266" s="70" t="s">
-        <v>822</v>
+        <v>174</v>
       </c>
       <c r="B266" s="218" t="s">
-        <v>358</v>
+        <v>836</v>
       </c>
       <c r="C266" s="15" t="s">
-        <v>44</v>
+        <v>837</v>
       </c>
       <c r="D266" s="221" t="s">
-        <v>865</v>
+        <v>838</v>
       </c>
       <c r="E266" s="222" t="s">
         <v>31</v>
       </c>
       <c r="F266" s="10" t="s">
-        <v>866</v>
+        <v>839</v>
       </c>
       <c r="G266" s="220" t="s">
         <v>12</v>
       </c>
       <c r="H266" s="70" t="s">
-        <v>15</v>
+        <v>179</v>
       </c>
       <c r="I266" s="70" t="s">
         <v>73</v>
@@ -22965,5422 +22823,5378 @@
   </sheetData>
   <autoFilter ref="A1:I266"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G59">
-    <cfRule type="containsText" dxfId="1329" priority="1469" operator="containsText" text="0">
+  <conditionalFormatting sqref="G59 G265:G266">
+    <cfRule type="containsText" dxfId="1309" priority="1469" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1328" priority="1470" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1308" priority="1470" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1327" priority="1471" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1307" priority="1471" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="containsText" dxfId="1326" priority="1465" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1306" priority="1465" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="containsText" dxfId="1325" priority="1464" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1305" priority="1464" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F59)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="1324" priority="1466" operator="equal">
+  <conditionalFormatting sqref="E59 E265:E266">
+    <cfRule type="cellIs" dxfId="1304" priority="1466" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1323" priority="1467" operator="equal">
+    <cfRule type="cellIs" dxfId="1303" priority="1467" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1322" priority="1468" operator="equal">
+    <cfRule type="cellIs" dxfId="1302" priority="1468" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="1321" priority="1459" operator="equal">
+    <cfRule type="cellIs" dxfId="1301" priority="1459" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1320" priority="1460" operator="equal">
+    <cfRule type="cellIs" dxfId="1300" priority="1460" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1319" priority="1461" operator="equal">
+    <cfRule type="cellIs" dxfId="1299" priority="1461" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60:G60">
-    <cfRule type="containsText" dxfId="1318" priority="1462" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1298" priority="1462" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",#REF!)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60:G60">
-    <cfRule type="containsText" dxfId="1317" priority="1463" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1297" priority="1463" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",#REF!)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="1316" priority="1456" operator="equal">
+    <cfRule type="cellIs" dxfId="1296" priority="1456" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1315" priority="1457" operator="equal">
+    <cfRule type="cellIs" dxfId="1295" priority="1457" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1314" priority="1458" operator="equal">
+    <cfRule type="cellIs" dxfId="1294" priority="1458" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="containsText" dxfId="1313" priority="1451" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1293" priority="1451" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="containsText" dxfId="1312" priority="1452" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1292" priority="1452" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G61">
-    <cfRule type="containsText" dxfId="1311" priority="1453" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1291" priority="1453" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1310" priority="1454" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1290" priority="1454" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1309" priority="1455" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1289" priority="1455" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="1308" priority="1448" operator="equal">
+    <cfRule type="cellIs" dxfId="1288" priority="1448" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1307" priority="1449" operator="equal">
+    <cfRule type="cellIs" dxfId="1287" priority="1449" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1306" priority="1450" operator="equal">
+    <cfRule type="cellIs" dxfId="1286" priority="1450" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62">
-    <cfRule type="containsText" dxfId="1305" priority="1447" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1285" priority="1447" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62">
-    <cfRule type="containsText" dxfId="1304" priority="1443" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1284" priority="1443" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62">
-    <cfRule type="containsText" dxfId="1303" priority="1444" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1283" priority="1444" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1302" priority="1445" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1282" priority="1445" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1301" priority="1446" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1281" priority="1446" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="1300" priority="1440" operator="equal">
+    <cfRule type="cellIs" dxfId="1280" priority="1440" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1299" priority="1441" operator="equal">
+    <cfRule type="cellIs" dxfId="1279" priority="1441" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1298" priority="1442" operator="equal">
+    <cfRule type="cellIs" dxfId="1278" priority="1442" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F63">
-    <cfRule type="containsText" dxfId="1297" priority="1439" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1277" priority="1439" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G63">
-    <cfRule type="containsText" dxfId="1296" priority="1436" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1276" priority="1436" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1295" priority="1437" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1275" priority="1437" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1294" priority="1438" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1274" priority="1438" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="1293" priority="1433" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1273" priority="1433" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1292" priority="1434" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1272" priority="1434" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1291" priority="1435" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1271" priority="1435" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="1290" priority="1430" operator="equal">
+    <cfRule type="cellIs" dxfId="1270" priority="1430" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1289" priority="1431" operator="equal">
+    <cfRule type="cellIs" dxfId="1269" priority="1431" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1288" priority="1432" operator="equal">
+    <cfRule type="cellIs" dxfId="1268" priority="1432" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="1287" priority="1427" operator="equal">
+    <cfRule type="cellIs" dxfId="1267" priority="1427" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1286" priority="1428" operator="equal">
+    <cfRule type="cellIs" dxfId="1266" priority="1428" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1285" priority="1429" operator="equal">
+    <cfRule type="cellIs" dxfId="1265" priority="1429" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="1284" priority="1426" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1264" priority="1426" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="1283" priority="1425" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1263" priority="1425" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="1282" priority="1423" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1262" priority="1423" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="1281" priority="1424" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1261" priority="1424" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="1280" priority="1420" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1260" priority="1420" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1279" priority="1421" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1259" priority="1421" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1278" priority="1422" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1258" priority="1422" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="1277" priority="1417" operator="equal">
+    <cfRule type="cellIs" dxfId="1257" priority="1417" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1276" priority="1418" operator="equal">
+    <cfRule type="cellIs" dxfId="1256" priority="1418" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1275" priority="1419" operator="equal">
+    <cfRule type="cellIs" dxfId="1255" priority="1419" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="1274" priority="1414" operator="equal">
+    <cfRule type="cellIs" dxfId="1254" priority="1414" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1273" priority="1415" operator="equal">
+    <cfRule type="cellIs" dxfId="1253" priority="1415" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1272" priority="1416" operator="equal">
+    <cfRule type="cellIs" dxfId="1252" priority="1416" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="containsText" dxfId="1271" priority="1411" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1251" priority="1411" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1270" priority="1412" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1250" priority="1412" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1269" priority="1413" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1249" priority="1413" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="1268" priority="1410" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1248" priority="1410" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="1267" priority="1407" operator="equal">
+    <cfRule type="cellIs" dxfId="1247" priority="1407" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1266" priority="1408" operator="equal">
+    <cfRule type="cellIs" dxfId="1246" priority="1408" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1265" priority="1409" operator="equal">
+    <cfRule type="cellIs" dxfId="1245" priority="1409" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="1264" priority="1404" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1244" priority="1404" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1263" priority="1405" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1243" priority="1405" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1262" priority="1406" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1242" priority="1406" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="1261" priority="1401" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1241" priority="1401" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1260" priority="1402" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1240" priority="1402" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1259" priority="1403" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1239" priority="1403" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="1258" priority="1398" operator="equal">
+    <cfRule type="cellIs" dxfId="1238" priority="1398" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1257" priority="1399" operator="equal">
+    <cfRule type="cellIs" dxfId="1237" priority="1399" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1256" priority="1400" operator="equal">
+    <cfRule type="cellIs" dxfId="1236" priority="1400" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="1255" priority="1397" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1235" priority="1397" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="1254" priority="1396" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1234" priority="1396" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="1253" priority="1393" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1233" priority="1393" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1252" priority="1394" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1232" priority="1394" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1251" priority="1395" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1231" priority="1395" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="1250" priority="1390" operator="equal">
+    <cfRule type="cellIs" dxfId="1230" priority="1390" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1249" priority="1391" operator="equal">
+    <cfRule type="cellIs" dxfId="1229" priority="1391" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1248" priority="1392" operator="equal">
+    <cfRule type="cellIs" dxfId="1228" priority="1392" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="1247" priority="1389" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1227" priority="1389" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="1246" priority="1388" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1226" priority="1388" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="1245" priority="1385" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1225" priority="1385" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1244" priority="1386" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1224" priority="1386" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1243" priority="1387" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1223" priority="1387" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="1242" priority="1382" operator="equal">
+    <cfRule type="cellIs" dxfId="1222" priority="1382" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1241" priority="1383" operator="equal">
+    <cfRule type="cellIs" dxfId="1221" priority="1383" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1240" priority="1384" operator="equal">
+    <cfRule type="cellIs" dxfId="1220" priority="1384" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="1239" priority="1381" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1219" priority="1381" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="1238" priority="1380" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1218" priority="1380" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="1237" priority="1377" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1217" priority="1377" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1236" priority="1378" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1216" priority="1378" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1235" priority="1379" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1215" priority="1379" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="1234" priority="1374" operator="equal">
+    <cfRule type="cellIs" dxfId="1214" priority="1374" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1233" priority="1375" operator="equal">
+    <cfRule type="cellIs" dxfId="1213" priority="1375" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1232" priority="1376" operator="equal">
+    <cfRule type="cellIs" dxfId="1212" priority="1376" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="1231" priority="1373" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1211" priority="1373" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="1230" priority="1372" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1210" priority="1372" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="1229" priority="1370" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1209" priority="1370" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="1228" priority="1367" operator="equal">
+    <cfRule type="cellIs" dxfId="1208" priority="1367" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1227" priority="1368" operator="equal">
+    <cfRule type="cellIs" dxfId="1207" priority="1368" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1226" priority="1369" operator="equal">
+    <cfRule type="cellIs" dxfId="1206" priority="1369" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="1225" priority="1371" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1205" priority="1371" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="containsText" dxfId="1224" priority="1364" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1204" priority="1364" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1223" priority="1365" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1203" priority="1365" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1222" priority="1366" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1202" priority="1366" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="1221" priority="1361" operator="equal">
+    <cfRule type="cellIs" dxfId="1201" priority="1361" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1220" priority="1362" operator="equal">
+    <cfRule type="cellIs" dxfId="1200" priority="1362" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1219" priority="1363" operator="equal">
+    <cfRule type="cellIs" dxfId="1199" priority="1363" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="1218" priority="1360" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1198" priority="1360" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="1217" priority="1359" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1197" priority="1359" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="containsText" dxfId="1216" priority="1356" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1196" priority="1356" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1215" priority="1357" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1195" priority="1357" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1214" priority="1358" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1194" priority="1358" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="containsText" dxfId="1213" priority="1353" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1193" priority="1353" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1212" priority="1354" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1192" priority="1354" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1211" priority="1355" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1191" priority="1355" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="1210" priority="1350" operator="equal">
+    <cfRule type="cellIs" dxfId="1190" priority="1350" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1209" priority="1351" operator="equal">
+    <cfRule type="cellIs" dxfId="1189" priority="1351" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1208" priority="1352" operator="equal">
+    <cfRule type="cellIs" dxfId="1188" priority="1352" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="1207" priority="1349" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1187" priority="1349" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="1206" priority="1348" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1186" priority="1348" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="containsText" dxfId="1205" priority="1345" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1185" priority="1345" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1204" priority="1346" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1184" priority="1346" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1203" priority="1347" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1183" priority="1347" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="1202" priority="1342" operator="equal">
+    <cfRule type="cellIs" dxfId="1182" priority="1342" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1201" priority="1343" operator="equal">
+    <cfRule type="cellIs" dxfId="1181" priority="1343" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1200" priority="1344" operator="equal">
+    <cfRule type="cellIs" dxfId="1180" priority="1344" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="1199" priority="1341" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1179" priority="1341" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="1198" priority="1340" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1178" priority="1340" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="containsText" dxfId="1197" priority="1337" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1177" priority="1337" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1196" priority="1338" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1176" priority="1338" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1195" priority="1339" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1175" priority="1339" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="1194" priority="1336" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1174" priority="1336" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="1193" priority="1335" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1173" priority="1335" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="1192" priority="1332" operator="equal">
+    <cfRule type="cellIs" dxfId="1172" priority="1332" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1191" priority="1333" operator="equal">
+    <cfRule type="cellIs" dxfId="1171" priority="1333" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1190" priority="1334" operator="equal">
+    <cfRule type="cellIs" dxfId="1170" priority="1334" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="1189" priority="1329" operator="equal">
+    <cfRule type="cellIs" dxfId="1169" priority="1329" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1188" priority="1330" operator="equal">
+    <cfRule type="cellIs" dxfId="1168" priority="1330" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1187" priority="1331" operator="equal">
+    <cfRule type="cellIs" dxfId="1167" priority="1331" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="containsText" dxfId="1186" priority="1326" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1166" priority="1326" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1185" priority="1327" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1165" priority="1327" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1184" priority="1328" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1164" priority="1328" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="containsText" dxfId="1183" priority="1325" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1163" priority="1325" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="containsText" dxfId="1182" priority="1324" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1162" priority="1324" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="1181" priority="1323" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1161" priority="1323" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:F33">
-    <cfRule type="cellIs" dxfId="1180" priority="1320" operator="equal">
+    <cfRule type="cellIs" dxfId="1160" priority="1320" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1179" priority="1321" operator="equal">
+    <cfRule type="cellIs" dxfId="1159" priority="1321" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1178" priority="1322" operator="equal">
+    <cfRule type="cellIs" dxfId="1158" priority="1322" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="1177" priority="1319" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1157" priority="1319" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="1176" priority="1318" operator="equal">
+    <cfRule type="cellIs" dxfId="1156" priority="1318" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="1175" priority="1317" operator="equal">
+    <cfRule type="cellIs" dxfId="1155" priority="1317" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="1174" priority="1316" operator="equal">
+    <cfRule type="cellIs" dxfId="1154" priority="1316" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="containsText" dxfId="1173" priority="1313" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1153" priority="1313" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1172" priority="1314" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1152" priority="1314" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1171" priority="1315" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1151" priority="1315" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="containsText" dxfId="1170" priority="1312" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1150" priority="1312" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH(("0"),(G33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="containsText" dxfId="1169" priority="1311" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1149" priority="1311" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH(("Closed"),(G33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="containsText" dxfId="1168" priority="1310" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1148" priority="1310" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH(("Open"),(G33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="1167" priority="1307" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1147" priority="1307" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1166" priority="1308" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1146" priority="1308" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1165" priority="1309" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1145" priority="1309" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="1164" priority="1304" operator="equal">
+    <cfRule type="cellIs" dxfId="1144" priority="1304" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1163" priority="1305" operator="equal">
+    <cfRule type="cellIs" dxfId="1143" priority="1305" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1162" priority="1306" operator="equal">
+    <cfRule type="cellIs" dxfId="1142" priority="1306" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="1161" priority="1303" operator="equal">
+    <cfRule type="cellIs" dxfId="1141" priority="1303" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="1160" priority="1302" operator="equal">
+    <cfRule type="cellIs" dxfId="1140" priority="1302" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="1159" priority="1301" operator="equal">
+    <cfRule type="cellIs" dxfId="1139" priority="1301" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="containsText" dxfId="1158" priority="1300" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1138" priority="1300" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="1157" priority="1297" operator="equal">
+    <cfRule type="cellIs" dxfId="1137" priority="1297" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1156" priority="1298" operator="equal">
+    <cfRule type="cellIs" dxfId="1136" priority="1298" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1155" priority="1299" operator="equal">
+    <cfRule type="cellIs" dxfId="1135" priority="1299" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="containsText" dxfId="1154" priority="1296" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1134" priority="1296" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="1153" priority="1295" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1133" priority="1295" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH(("0"),(G34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="1152" priority="1294" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1132" priority="1294" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH(("Closed"),(G34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="1151" priority="1293" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1131" priority="1293" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH(("Open"),(G34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="1150" priority="1285" operator="equal">
+    <cfRule type="cellIs" dxfId="1130" priority="1285" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1149" priority="1286" operator="equal">
+    <cfRule type="cellIs" dxfId="1129" priority="1286" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1148" priority="1287" operator="equal">
+    <cfRule type="cellIs" dxfId="1128" priority="1287" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="containsText" dxfId="1147" priority="1292" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1127" priority="1292" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="containsText" dxfId="1146" priority="1291" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1126" priority="1291" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="containsText" dxfId="1145" priority="1289" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1125" priority="1289" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1144" priority="1290" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1124" priority="1290" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="containsText" dxfId="1143" priority="1288" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1123" priority="1288" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="containsText" dxfId="1142" priority="1282" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1122" priority="1282" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1141" priority="1283" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1121" priority="1283" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1140" priority="1284" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1120" priority="1284" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="1139" priority="1279" operator="equal">
+    <cfRule type="cellIs" dxfId="1119" priority="1279" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1138" priority="1280" operator="equal">
+    <cfRule type="cellIs" dxfId="1118" priority="1280" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1137" priority="1281" operator="equal">
+    <cfRule type="cellIs" dxfId="1117" priority="1281" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47">
-    <cfRule type="containsText" dxfId="1136" priority="1276" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1116" priority="1276" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1135" priority="1277" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1115" priority="1277" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1134" priority="1278" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1114" priority="1278" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48">
-    <cfRule type="containsText" dxfId="1133" priority="1275" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1113" priority="1275" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="1132" priority="1272" operator="equal">
+    <cfRule type="cellIs" dxfId="1112" priority="1272" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1131" priority="1273" operator="equal">
+    <cfRule type="cellIs" dxfId="1111" priority="1273" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1130" priority="1274" operator="equal">
+    <cfRule type="cellIs" dxfId="1110" priority="1274" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48">
-    <cfRule type="containsText" dxfId="1129" priority="1269" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1109" priority="1269" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1128" priority="1270" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1108" priority="1270" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1127" priority="1271" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1107" priority="1271" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49">
-    <cfRule type="containsText" dxfId="1126" priority="1261" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1106" priority="1261" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1125" priority="1262" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1105" priority="1262" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1124" priority="1263" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1104" priority="1263" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="1123" priority="1266" operator="equal">
+    <cfRule type="cellIs" dxfId="1103" priority="1266" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1122" priority="1267" operator="equal">
+    <cfRule type="cellIs" dxfId="1102" priority="1267" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1121" priority="1268" operator="equal">
+    <cfRule type="cellIs" dxfId="1101" priority="1268" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49">
-    <cfRule type="containsText" dxfId="1120" priority="1265" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1100" priority="1265" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49">
-    <cfRule type="containsText" dxfId="1119" priority="1264" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1099" priority="1264" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50">
-    <cfRule type="containsText" dxfId="1118" priority="1258" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1098" priority="1258" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1117" priority="1259" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1097" priority="1259" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1116" priority="1260" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1096" priority="1260" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="containsText" dxfId="1115" priority="1257" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1095" priority="1257" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="containsText" dxfId="1114" priority="1256" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1094" priority="1256" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="1113" priority="1253" operator="equal">
+    <cfRule type="cellIs" dxfId="1093" priority="1253" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1112" priority="1254" operator="equal">
+    <cfRule type="cellIs" dxfId="1092" priority="1254" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1111" priority="1255" operator="equal">
+    <cfRule type="cellIs" dxfId="1091" priority="1255" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51">
-    <cfRule type="containsText" dxfId="1110" priority="1235" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1090" priority="1235" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1109" priority="1236" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1089" priority="1236" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1108" priority="1237" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1088" priority="1237" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51">
-    <cfRule type="containsText" dxfId="1107" priority="1234" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1087" priority="1234" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51">
-    <cfRule type="containsText" dxfId="1106" priority="1247" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1086" priority="1247" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51">
-    <cfRule type="containsText" dxfId="1105" priority="1238" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="1085" priority="1238" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1104" priority="1239" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1084" priority="1239" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1103" priority="1240" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1083" priority="1240" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51">
-    <cfRule type="containsText" dxfId="1102" priority="1244" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1082" priority="1244" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",#REF!)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1101" priority="1245" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1081" priority="1245" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",#REF!)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1100" priority="1246" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1080" priority="1246" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",#REF!)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51">
-    <cfRule type="containsText" dxfId="1099" priority="1251" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1079" priority="1251" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1098" priority="1252" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1078" priority="1252" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="1097" priority="1241" operator="equal">
+    <cfRule type="cellIs" dxfId="1077" priority="1241" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1096" priority="1242" operator="equal">
+    <cfRule type="cellIs" dxfId="1076" priority="1242" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1095" priority="1243" operator="equal">
+    <cfRule type="cellIs" dxfId="1075" priority="1243" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51:E52">
-    <cfRule type="cellIs" dxfId="1094" priority="1231" operator="equal">
+    <cfRule type="cellIs" dxfId="1074" priority="1231" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1093" priority="1232" operator="equal">
+    <cfRule type="cellIs" dxfId="1073" priority="1232" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1092" priority="1233" operator="equal">
+    <cfRule type="cellIs" dxfId="1072" priority="1233" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51">
-    <cfRule type="containsText" dxfId="1091" priority="1248" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1071" priority="1248" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1090" priority="1249" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1070" priority="1249" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1089" priority="1250" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1069" priority="1250" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51">
-    <cfRule type="containsText" dxfId="1088" priority="1225" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1068" priority="1225" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1087" priority="1226" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1067" priority="1226" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1086" priority="1227" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1066" priority="1227" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1085" priority="1228" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1065" priority="1228" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1084" priority="1229" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1064" priority="1229" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1083" priority="1230" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1063" priority="1230" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52">
-    <cfRule type="containsText" dxfId="1082" priority="1222" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1062" priority="1222" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52">
-    <cfRule type="containsText" dxfId="1081" priority="1215" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="1061" priority="1215" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1080" priority="1216" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1060" priority="1216" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1079" priority="1217" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1059" priority="1217" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52">
-    <cfRule type="containsText" dxfId="1078" priority="1223" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1058" priority="1223" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52">
-    <cfRule type="containsText" dxfId="1077" priority="1218" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1057" priority="1218" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1076" priority="1219" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1056" priority="1219" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1075" priority="1220" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1055" priority="1220" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52">
-    <cfRule type="containsText" dxfId="1074" priority="1221" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1054" priority="1221" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52">
-    <cfRule type="containsText" dxfId="1073" priority="1224" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1053" priority="1224" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53">
-    <cfRule type="containsText" dxfId="1072" priority="1214" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1052" priority="1214" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="1071" priority="1211" operator="equal">
+    <cfRule type="cellIs" dxfId="1051" priority="1211" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1070" priority="1212" operator="equal">
+    <cfRule type="cellIs" dxfId="1050" priority="1212" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1069" priority="1213" operator="equal">
+    <cfRule type="cellIs" dxfId="1049" priority="1213" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53">
-    <cfRule type="containsText" dxfId="1068" priority="1210" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1048" priority="1210" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G53">
-    <cfRule type="cellIs" dxfId="1067" priority="1207" operator="equal">
+    <cfRule type="cellIs" dxfId="1047" priority="1207" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1066" priority="1208" operator="equal">
+    <cfRule type="cellIs" dxfId="1046" priority="1208" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1065" priority="1209" operator="equal">
+    <cfRule type="cellIs" dxfId="1045" priority="1209" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="containsText" dxfId="1064" priority="1206" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1044" priority="1206" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="containsText" dxfId="1063" priority="1205" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1043" priority="1205" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="1062" priority="1202" operator="equal">
+    <cfRule type="cellIs" dxfId="1042" priority="1202" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1061" priority="1203" operator="equal">
+    <cfRule type="cellIs" dxfId="1041" priority="1203" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1060" priority="1204" operator="equal">
+    <cfRule type="cellIs" dxfId="1040" priority="1204" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G54">
-    <cfRule type="cellIs" dxfId="1059" priority="1199" operator="equal">
+    <cfRule type="cellIs" dxfId="1039" priority="1199" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1058" priority="1200" operator="equal">
+    <cfRule type="cellIs" dxfId="1038" priority="1200" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1057" priority="1201" operator="equal">
+    <cfRule type="cellIs" dxfId="1037" priority="1201" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="1056" priority="1198" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1036" priority="1198" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="1055" priority="1195" operator="equal">
+    <cfRule type="cellIs" dxfId="1035" priority="1195" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1054" priority="1196" operator="equal">
+    <cfRule type="cellIs" dxfId="1034" priority="1196" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1053" priority="1197" operator="equal">
+    <cfRule type="cellIs" dxfId="1033" priority="1197" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="1052" priority="1194" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1032" priority="1194" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="1051" priority="1193" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1031" priority="1193" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="1050" priority="1192" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1030" priority="1192" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="1049" priority="1191" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1029" priority="1191" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="1048" priority="1190" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1028" priority="1190" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="1047" priority="1189" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1027" priority="1189" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="1046" priority="1188" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1026" priority="1188" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55:G56">
-    <cfRule type="cellIs" dxfId="1045" priority="1185" operator="equal">
+    <cfRule type="cellIs" dxfId="1025" priority="1185" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1044" priority="1186" operator="equal">
+    <cfRule type="cellIs" dxfId="1024" priority="1186" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1043" priority="1187" operator="equal">
+    <cfRule type="cellIs" dxfId="1023" priority="1187" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="1042" priority="1182" operator="equal">
+    <cfRule type="cellIs" dxfId="1022" priority="1182" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1041" priority="1183" operator="equal">
+    <cfRule type="cellIs" dxfId="1021" priority="1183" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1040" priority="1184" operator="equal">
+    <cfRule type="cellIs" dxfId="1020" priority="1184" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="1039" priority="1178" operator="equal">
+    <cfRule type="cellIs" dxfId="1019" priority="1178" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="1038" priority="1179" operator="equal">
+    <cfRule type="cellIs" dxfId="1018" priority="1179" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="1037" priority="1180" operator="equal">
+    <cfRule type="cellIs" dxfId="1017" priority="1180" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57">
-    <cfRule type="containsText" dxfId="1036" priority="1128" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1016" priority="1128" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1035" priority="1129" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1015" priority="1129" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1034" priority="1130" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1014" priority="1130" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="containsText" dxfId="1033" priority="1124" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1013" priority="1124" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="containsText" dxfId="1032" priority="1123" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1012" priority="1123" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="1031" priority="1125" operator="equal">
+    <cfRule type="cellIs" dxfId="1011" priority="1125" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1030" priority="1126" operator="equal">
+    <cfRule type="cellIs" dxfId="1010" priority="1126" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1029" priority="1127" operator="equal">
+    <cfRule type="cellIs" dxfId="1009" priority="1127" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58">
-    <cfRule type="containsText" dxfId="1028" priority="1112" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1008" priority="1112" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1027" priority="1113" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1007" priority="1113" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1026" priority="1114" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1006" priority="1114" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="1025" priority="1104" operator="equal">
+    <cfRule type="cellIs" dxfId="1005" priority="1104" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1024" priority="1105" operator="equal">
+    <cfRule type="cellIs" dxfId="1004" priority="1105" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1023" priority="1106" operator="equal">
+    <cfRule type="cellIs" dxfId="1003" priority="1106" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="containsText" dxfId="1022" priority="1102" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1002" priority="1102" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="containsText" dxfId="1021" priority="1103" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1001" priority="1103" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="containsText" dxfId="1020" priority="1472" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1000" priority="1472" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66:E67">
-    <cfRule type="cellIs" dxfId="1019" priority="1083" operator="equal">
+    <cfRule type="cellIs" dxfId="999" priority="1083" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1018" priority="1084" operator="equal">
+    <cfRule type="cellIs" dxfId="998" priority="1084" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1017" priority="1085" operator="equal">
+    <cfRule type="cellIs" dxfId="997" priority="1085" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66:E67">
-    <cfRule type="cellIs" dxfId="1016" priority="1080" operator="equal">
+    <cfRule type="cellIs" dxfId="996" priority="1080" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1015" priority="1081" operator="equal">
+    <cfRule type="cellIs" dxfId="995" priority="1081" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1014" priority="1082" operator="equal">
+    <cfRule type="cellIs" dxfId="994" priority="1082" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="1013" priority="1099" operator="equal">
+    <cfRule type="cellIs" dxfId="993" priority="1099" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1012" priority="1100" operator="equal">
+    <cfRule type="cellIs" dxfId="992" priority="1100" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1011" priority="1101" operator="equal">
+    <cfRule type="cellIs" dxfId="991" priority="1101" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66:E67">
-    <cfRule type="cellIs" dxfId="1010" priority="1086" operator="equal">
+    <cfRule type="cellIs" dxfId="990" priority="1086" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1009" priority="1087" operator="equal">
+    <cfRule type="cellIs" dxfId="989" priority="1087" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1008" priority="1088" operator="equal">
+    <cfRule type="cellIs" dxfId="988" priority="1088" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="containsText" dxfId="1007" priority="1089" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="987" priority="1089" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1006" priority="1090" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="986" priority="1090" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1005" priority="1091" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="985" priority="1091" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="containsText" dxfId="1004" priority="1095" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="984" priority="1095" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1003" priority="1096" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="983" priority="1096" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1002" priority="1097" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="982" priority="1097" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="containsText" dxfId="1001" priority="1098" operator="containsText" text="CLOSED">
+    <cfRule type="containsText" dxfId="981" priority="1098" operator="containsText" text="CLOSED">
       <formula>NOT(ISERROR(SEARCH("CLOSED",G66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="containsText" dxfId="1000" priority="1092" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="980" priority="1092" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="999" priority="1093" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="979" priority="1093" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="998" priority="1094" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="978" priority="1094" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66">
-    <cfRule type="containsText" dxfId="997" priority="1079" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="977" priority="1079" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66">
-    <cfRule type="containsText" dxfId="996" priority="1078" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="976" priority="1078" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G67:G68">
-    <cfRule type="containsText" dxfId="995" priority="1075" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="975" priority="1075" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="994" priority="1076" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="974" priority="1076" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="993" priority="1077" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="973" priority="1077" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67:F68">
-    <cfRule type="containsText" dxfId="992" priority="1074" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="972" priority="1074" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67:F68">
-    <cfRule type="containsText" dxfId="991" priority="1073" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="971" priority="1073" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G69">
-    <cfRule type="containsText" dxfId="990" priority="1070" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="970" priority="1070" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="989" priority="1071" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="969" priority="1071" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="988" priority="1072" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="968" priority="1072" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="987" priority="1067" operator="equal">
+    <cfRule type="cellIs" dxfId="967" priority="1067" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="986" priority="1068" operator="equal">
+    <cfRule type="cellIs" dxfId="966" priority="1068" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="985" priority="1069" operator="equal">
+    <cfRule type="cellIs" dxfId="965" priority="1069" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69">
-    <cfRule type="containsText" dxfId="984" priority="1065" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="964" priority="1065" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69">
-    <cfRule type="containsText" dxfId="983" priority="1066" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="963" priority="1066" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G65">
-    <cfRule type="containsText" dxfId="982" priority="1062" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="962" priority="1062" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="981" priority="1063" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="961" priority="1063" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="980" priority="1064" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="960" priority="1064" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F65">
-    <cfRule type="containsText" dxfId="979" priority="1061" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="959" priority="1061" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="978" priority="1058" operator="equal">
+    <cfRule type="cellIs" dxfId="958" priority="1058" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="977" priority="1059" operator="equal">
+    <cfRule type="cellIs" dxfId="957" priority="1059" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="976" priority="1060" operator="equal">
+    <cfRule type="cellIs" dxfId="956" priority="1060" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="975" priority="1055" operator="equal">
+    <cfRule type="cellIs" dxfId="955" priority="1055" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="974" priority="1056" operator="equal">
+    <cfRule type="cellIs" dxfId="954" priority="1056" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="973" priority="1057" operator="equal">
+    <cfRule type="cellIs" dxfId="953" priority="1057" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70">
-    <cfRule type="containsText" dxfId="972" priority="1054" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="952" priority="1054" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F70)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70:F70">
-    <cfRule type="cellIs" dxfId="971" priority="1051" operator="equal">
+    <cfRule type="cellIs" dxfId="951" priority="1051" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="970" priority="1052" operator="equal">
+    <cfRule type="cellIs" dxfId="950" priority="1052" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="969" priority="1053" operator="equal">
+    <cfRule type="cellIs" dxfId="949" priority="1053" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="containsText" dxfId="968" priority="1048" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="948" priority="1048" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G70)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="967" priority="1049" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="947" priority="1049" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G70)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="966" priority="1050" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="946" priority="1050" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G70)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="965" priority="1047" operator="equal">
+    <cfRule type="cellIs" dxfId="945" priority="1047" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="964" priority="1046" operator="equal">
+    <cfRule type="cellIs" dxfId="944" priority="1046" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="963" priority="1045" operator="equal">
+    <cfRule type="cellIs" dxfId="943" priority="1045" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="containsText" dxfId="962" priority="1042" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="942" priority="1042" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G70)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="961" priority="1043" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="941" priority="1043" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G70)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="960" priority="1044" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="940" priority="1044" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G70)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="containsText" dxfId="959" priority="1039" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="939" priority="1039" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH(("0"),(G70))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="containsText" dxfId="958" priority="1038" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="938" priority="1038" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH(("Closed"),(G70))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="containsText" dxfId="957" priority="1037" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="937" priority="1037" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH(("Open"),(G70))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70">
-    <cfRule type="containsText" dxfId="956" priority="1036" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="936" priority="1036" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F70)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71">
-    <cfRule type="containsText" dxfId="955" priority="1032" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="935" priority="1032" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="954" priority="1029" operator="equal">
+    <cfRule type="cellIs" dxfId="934" priority="1029" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="953" priority="1030" operator="equal">
+    <cfRule type="cellIs" dxfId="933" priority="1030" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="952" priority="1031" operator="equal">
+    <cfRule type="cellIs" dxfId="932" priority="1031" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G71">
-    <cfRule type="containsText" dxfId="951" priority="1026" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="931" priority="1026" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="950" priority="1027" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="930" priority="1027" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="949" priority="1028" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="929" priority="1028" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G73">
-    <cfRule type="containsText" dxfId="948" priority="1023" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="928" priority="1023" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="947" priority="1024" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="927" priority="1024" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="946" priority="1025" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="926" priority="1025" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="945" priority="1020" operator="equal">
+    <cfRule type="cellIs" dxfId="925" priority="1020" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="944" priority="1021" operator="equal">
+    <cfRule type="cellIs" dxfId="924" priority="1021" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="943" priority="1022" operator="equal">
+    <cfRule type="cellIs" dxfId="923" priority="1022" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74">
-    <cfRule type="containsText" dxfId="942" priority="1019" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="922" priority="1019" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="941" priority="1016" operator="equal">
+    <cfRule type="cellIs" dxfId="921" priority="1016" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="940" priority="1017" operator="equal">
+    <cfRule type="cellIs" dxfId="920" priority="1017" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="939" priority="1018" operator="equal">
+    <cfRule type="cellIs" dxfId="919" priority="1018" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G74">
-    <cfRule type="containsText" dxfId="938" priority="1013" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="918" priority="1013" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="937" priority="1014" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="917" priority="1014" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="936" priority="1015" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="916" priority="1015" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G74">
-    <cfRule type="containsText" dxfId="935" priority="1012" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="915" priority="1012" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH(("0"),(G74))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G74">
-    <cfRule type="containsText" dxfId="934" priority="1011" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="914" priority="1011" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH(("Closed"),(G74))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G74">
-    <cfRule type="containsText" dxfId="933" priority="1010" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="913" priority="1010" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH(("Open"),(G74))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G75">
-    <cfRule type="containsText" dxfId="932" priority="1007" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="912" priority="1007" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="931" priority="1008" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="911" priority="1008" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="930" priority="1009" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="910" priority="1009" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="929" priority="1004" operator="equal">
+    <cfRule type="cellIs" dxfId="909" priority="1004" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="928" priority="1005" operator="equal">
+    <cfRule type="cellIs" dxfId="908" priority="1005" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="927" priority="1006" operator="equal">
+    <cfRule type="cellIs" dxfId="907" priority="1006" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F75">
-    <cfRule type="containsText" dxfId="926" priority="1002" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="906" priority="1002" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F75">
-    <cfRule type="containsText" dxfId="925" priority="1003" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="905" priority="1003" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="924" priority="999" operator="equal">
+    <cfRule type="cellIs" dxfId="904" priority="999" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="923" priority="1000" operator="equal">
+    <cfRule type="cellIs" dxfId="903" priority="1000" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="922" priority="1001" operator="equal">
+    <cfRule type="cellIs" dxfId="902" priority="1001" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G77">
-    <cfRule type="containsText" dxfId="921" priority="996" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="901" priority="996" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="920" priority="997" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="900" priority="997" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="919" priority="998" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="899" priority="998" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="918" priority="988" operator="equal">
+    <cfRule type="cellIs" dxfId="898" priority="988" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="917" priority="989" operator="equal">
+    <cfRule type="cellIs" dxfId="897" priority="989" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="916" priority="990" operator="equal">
+    <cfRule type="cellIs" dxfId="896" priority="990" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78">
-    <cfRule type="containsText" dxfId="915" priority="994" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="895" priority="994" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F78)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="914" priority="995" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="894" priority="995" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F78)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G78">
-    <cfRule type="containsText" dxfId="913" priority="991" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="893" priority="991" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G78)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="912" priority="992" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="892" priority="992" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G78)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="911" priority="993" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="891" priority="993" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G78)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79:E80">
-    <cfRule type="cellIs" dxfId="910" priority="977" operator="equal">
+    <cfRule type="cellIs" dxfId="890" priority="977" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="909" priority="978" operator="equal">
+    <cfRule type="cellIs" dxfId="889" priority="978" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="908" priority="979" operator="equal">
+    <cfRule type="cellIs" dxfId="888" priority="979" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79:F80">
-    <cfRule type="containsText" dxfId="907" priority="987" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="887" priority="987" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79:F80">
-    <cfRule type="cellIs" dxfId="906" priority="984" operator="equal">
+    <cfRule type="cellIs" dxfId="886" priority="984" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="905" priority="985" operator="equal">
+    <cfRule type="cellIs" dxfId="885" priority="985" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="904" priority="986" operator="equal">
+    <cfRule type="cellIs" dxfId="884" priority="986" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79:F80">
-    <cfRule type="containsText" dxfId="903" priority="983" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="883" priority="983" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79:F80">
-    <cfRule type="containsText" dxfId="902" priority="973" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="882" priority="973" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G79:G80">
-    <cfRule type="containsText" dxfId="901" priority="981" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="881" priority="981" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G79)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="900" priority="982" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="880" priority="982" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G79:G80">
-    <cfRule type="containsText" dxfId="899" priority="980" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="879" priority="980" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G79:G80">
-    <cfRule type="containsText" dxfId="898" priority="975" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="878" priority="975" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH(("Closed"),(G79))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="897" priority="976" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="877" priority="976" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH(("0"),(G79))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G79:G80">
-    <cfRule type="containsText" dxfId="896" priority="974" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="876" priority="974" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH(("Open"),(G79))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G79:G80">
-    <cfRule type="containsText" dxfId="895" priority="970" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="875" priority="970" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G79)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="894" priority="971" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="874" priority="971" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G79)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="893" priority="972" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="873" priority="972" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G80">
-    <cfRule type="containsText" dxfId="892" priority="967" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="872" priority="967" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G80)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="891" priority="968" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="871" priority="968" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G80)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="890" priority="969" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="870" priority="969" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G80">
-    <cfRule type="containsText" dxfId="889" priority="966" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="869" priority="966" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH(("0"),(G80))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G80">
-    <cfRule type="containsText" dxfId="888" priority="965" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="868" priority="965" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH(("Closed"),(G80))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G80">
-    <cfRule type="containsText" dxfId="887" priority="964" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="867" priority="964" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH(("Open"),(G80))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80">
-    <cfRule type="containsText" dxfId="886" priority="963" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="866" priority="963" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80:F80">
-    <cfRule type="cellIs" dxfId="885" priority="960" operator="equal">
+    <cfRule type="cellIs" dxfId="865" priority="960" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="884" priority="961" operator="equal">
+    <cfRule type="cellIs" dxfId="864" priority="961" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="883" priority="962" operator="equal">
+    <cfRule type="cellIs" dxfId="863" priority="962" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="882" priority="959" operator="equal">
+    <cfRule type="cellIs" dxfId="862" priority="959" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="881" priority="958" operator="equal">
+    <cfRule type="cellIs" dxfId="861" priority="958" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="880" priority="957" operator="equal">
+    <cfRule type="cellIs" dxfId="860" priority="957" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80">
-    <cfRule type="containsText" dxfId="879" priority="954" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="859" priority="954" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="878" priority="948" operator="equal">
+    <cfRule type="cellIs" dxfId="858" priority="948" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="877" priority="949" operator="equal">
+    <cfRule type="cellIs" dxfId="857" priority="949" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="876" priority="950" operator="equal">
+    <cfRule type="cellIs" dxfId="856" priority="950" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81">
-    <cfRule type="containsText" dxfId="875" priority="947" operator="containsText" text="OPEN">
+    <cfRule type="containsText" dxfId="855" priority="947" operator="containsText" text="OPEN">
       <formula>NOT(ISERROR(SEARCH("OPEN",G81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81">
-    <cfRule type="containsText" dxfId="874" priority="946" operator="containsText" text="CLOSED">
+    <cfRule type="containsText" dxfId="854" priority="946" operator="containsText" text="CLOSED">
       <formula>NOT(ISERROR(SEARCH("CLOSED",G81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="873" priority="940" operator="equal">
+    <cfRule type="cellIs" dxfId="853" priority="940" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="872" priority="941" operator="equal">
+    <cfRule type="cellIs" dxfId="852" priority="941" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="871" priority="942" operator="equal">
+    <cfRule type="cellIs" dxfId="851" priority="942" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F82">
-    <cfRule type="containsText" dxfId="870" priority="938" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="850" priority="938" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",#REF!)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="869" priority="939" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="849" priority="939" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",#REF!)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G82">
-    <cfRule type="containsText" dxfId="868" priority="943" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="848" priority="943" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G82)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="867" priority="944" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="847" priority="944" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G82)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="866" priority="945" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="846" priority="945" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="865" priority="935" operator="equal">
+    <cfRule type="cellIs" dxfId="845" priority="935" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="864" priority="936" operator="equal">
+    <cfRule type="cellIs" dxfId="844" priority="936" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="863" priority="937" operator="equal">
+    <cfRule type="cellIs" dxfId="843" priority="937" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F83">
-    <cfRule type="containsText" dxfId="862" priority="934" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="842" priority="934" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83:F83">
-    <cfRule type="cellIs" dxfId="861" priority="931" operator="equal">
+    <cfRule type="cellIs" dxfId="841" priority="931" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="860" priority="932" operator="equal">
+    <cfRule type="cellIs" dxfId="840" priority="932" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="859" priority="933" operator="equal">
+    <cfRule type="cellIs" dxfId="839" priority="933" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F83">
-    <cfRule type="containsText" dxfId="858" priority="930" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="838" priority="930" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F83">
-    <cfRule type="containsText" dxfId="857" priority="929" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="837" priority="929" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G83">
-    <cfRule type="containsText" dxfId="856" priority="927" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="836" priority="927" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="855" priority="928" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="835" priority="928" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G83">
-    <cfRule type="containsText" dxfId="854" priority="926" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="834" priority="926" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G83">
-    <cfRule type="containsText" dxfId="853" priority="924" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="833" priority="924" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH(("Closed"),(G83))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="852" priority="925" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="832" priority="925" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH(("0"),(G83))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G83">
-    <cfRule type="containsText" dxfId="851" priority="923" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="831" priority="923" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH(("Open"),(G83))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G83">
-    <cfRule type="containsText" dxfId="850" priority="920" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="830" priority="920" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="849" priority="921" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="829" priority="921" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="848" priority="922" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="828" priority="922" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="847" priority="917" operator="equal">
+    <cfRule type="cellIs" dxfId="827" priority="917" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="846" priority="918" operator="equal">
+    <cfRule type="cellIs" dxfId="826" priority="918" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="845" priority="919" operator="equal">
+    <cfRule type="cellIs" dxfId="825" priority="919" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86:E87">
-    <cfRule type="cellIs" dxfId="844" priority="911" operator="equal">
+    <cfRule type="cellIs" dxfId="824" priority="911" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="843" priority="912" operator="equal">
+    <cfRule type="cellIs" dxfId="823" priority="912" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="842" priority="913" operator="equal">
+    <cfRule type="cellIs" dxfId="822" priority="913" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="841" priority="908" operator="equal">
+    <cfRule type="cellIs" dxfId="821" priority="908" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="840" priority="909" operator="equal">
+    <cfRule type="cellIs" dxfId="820" priority="909" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="839" priority="910" operator="equal">
+    <cfRule type="cellIs" dxfId="819" priority="910" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G86:G87">
-    <cfRule type="containsText" dxfId="838" priority="905" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="818" priority="905" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="837" priority="906" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="817" priority="906" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="836" priority="907" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="816" priority="907" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G86)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G88:G89">
-    <cfRule type="containsText" dxfId="835" priority="902" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="815" priority="902" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="834" priority="903" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="814" priority="903" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="833" priority="904" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="813" priority="904" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="832" priority="897" operator="equal">
+    <cfRule type="cellIs" dxfId="812" priority="897" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="831" priority="898" operator="equal">
+    <cfRule type="cellIs" dxfId="811" priority="898" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="830" priority="899" operator="equal">
+    <cfRule type="cellIs" dxfId="810" priority="899" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="829" priority="894" operator="equal">
+    <cfRule type="cellIs" dxfId="809" priority="894" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="828" priority="895" operator="equal">
+    <cfRule type="cellIs" dxfId="808" priority="895" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="827" priority="896" operator="equal">
+    <cfRule type="cellIs" dxfId="807" priority="896" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="826" priority="891" operator="equal">
+    <cfRule type="cellIs" dxfId="806" priority="891" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="825" priority="892" operator="equal">
+    <cfRule type="cellIs" dxfId="805" priority="892" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="824" priority="893" operator="equal">
+    <cfRule type="cellIs" dxfId="804" priority="893" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="823" priority="888" operator="equal">
+    <cfRule type="cellIs" dxfId="803" priority="888" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="822" priority="889" operator="equal">
+    <cfRule type="cellIs" dxfId="802" priority="889" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="821" priority="890" operator="equal">
+    <cfRule type="cellIs" dxfId="801" priority="890" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="820" priority="885" operator="equal">
+    <cfRule type="cellIs" dxfId="800" priority="885" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="819" priority="886" operator="equal">
+    <cfRule type="cellIs" dxfId="799" priority="886" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="818" priority="887" operator="equal">
+    <cfRule type="cellIs" dxfId="798" priority="887" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="817" priority="882" operator="equal">
+    <cfRule type="cellIs" dxfId="797" priority="882" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="816" priority="883" operator="equal">
+    <cfRule type="cellIs" dxfId="796" priority="883" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="815" priority="884" operator="equal">
+    <cfRule type="cellIs" dxfId="795" priority="884" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96:E99">
-    <cfRule type="cellIs" dxfId="814" priority="879" operator="equal">
+    <cfRule type="cellIs" dxfId="794" priority="879" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="813" priority="880" operator="equal">
+    <cfRule type="cellIs" dxfId="793" priority="880" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="812" priority="881" operator="equal">
+    <cfRule type="cellIs" dxfId="792" priority="881" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G96:G99">
-    <cfRule type="containsText" dxfId="811" priority="876" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="791" priority="876" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G96)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="810" priority="877" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="790" priority="877" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G96)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="809" priority="878" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="789" priority="878" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100:E103">
-    <cfRule type="cellIs" dxfId="808" priority="873" operator="equal">
+    <cfRule type="cellIs" dxfId="788" priority="873" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="807" priority="874" operator="equal">
+    <cfRule type="cellIs" dxfId="787" priority="874" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="806" priority="875" operator="equal">
+    <cfRule type="cellIs" dxfId="786" priority="875" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102:E103">
-    <cfRule type="cellIs" dxfId="805" priority="870" operator="equal">
+    <cfRule type="cellIs" dxfId="785" priority="870" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="804" priority="871" operator="equal">
+    <cfRule type="cellIs" dxfId="784" priority="871" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="803" priority="872" operator="equal">
+    <cfRule type="cellIs" dxfId="783" priority="872" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G105">
-    <cfRule type="containsText" dxfId="802" priority="867" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="782" priority="867" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G105)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="801" priority="868" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="781" priority="868" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G105)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="800" priority="869" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="780" priority="869" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G105)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="799" priority="864" operator="equal">
+    <cfRule type="cellIs" dxfId="779" priority="864" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="798" priority="865" operator="equal">
+    <cfRule type="cellIs" dxfId="778" priority="865" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="797" priority="866" operator="equal">
+    <cfRule type="cellIs" dxfId="777" priority="866" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="796" priority="861" operator="equal">
+    <cfRule type="cellIs" dxfId="776" priority="861" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="795" priority="862" operator="equal">
+    <cfRule type="cellIs" dxfId="775" priority="862" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="794" priority="863" operator="equal">
+    <cfRule type="cellIs" dxfId="774" priority="863" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G106">
-    <cfRule type="containsText" dxfId="793" priority="858" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="773" priority="858" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G106)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="792" priority="859" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="772" priority="859" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G106)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="791" priority="860" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="771" priority="860" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G106)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F106">
-    <cfRule type="containsText" dxfId="790" priority="857" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="770" priority="857" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F106)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F106">
-    <cfRule type="containsText" dxfId="789" priority="856" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="769" priority="856" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F106)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F109 F107">
-    <cfRule type="containsText" dxfId="788" priority="854" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="768" priority="854" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F107)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109 E107">
-    <cfRule type="cellIs" dxfId="787" priority="851" operator="equal">
+    <cfRule type="cellIs" dxfId="767" priority="851" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="786" priority="852" operator="equal">
+    <cfRule type="cellIs" dxfId="766" priority="852" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="785" priority="853" operator="equal">
+    <cfRule type="cellIs" dxfId="765" priority="853" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107:F109">
-    <cfRule type="containsText" dxfId="784" priority="843" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="764" priority="843" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(F107))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107:E109">
-    <cfRule type="cellIs" dxfId="783" priority="842" operator="equal">
+    <cfRule type="cellIs" dxfId="763" priority="842" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107:E109">
-    <cfRule type="cellIs" dxfId="782" priority="841" operator="equal">
+    <cfRule type="cellIs" dxfId="762" priority="841" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107:E109">
-    <cfRule type="cellIs" dxfId="781" priority="840" operator="equal">
+    <cfRule type="cellIs" dxfId="761" priority="840" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G107:G108">
-    <cfRule type="containsText" dxfId="780" priority="837" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="760" priority="837" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH(("0"),(G107))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G107:G108">
-    <cfRule type="containsText" dxfId="779" priority="838" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="759" priority="838" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH(("Closed"),(G107))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G107:G108">
-    <cfRule type="containsText" dxfId="778" priority="839" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="758" priority="839" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH(("Open"),(G107))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G107">
-    <cfRule type="containsText" dxfId="777" priority="834" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="757" priority="834" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G107)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="776" priority="835" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="756" priority="835" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G107)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="775" priority="836" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="755" priority="836" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G107)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107">
-    <cfRule type="containsText" dxfId="774" priority="833" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="754" priority="833" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F107)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107">
-    <cfRule type="containsText" dxfId="773" priority="832" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="753" priority="832" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(F107))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G108">
-    <cfRule type="containsText" dxfId="772" priority="827" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="752" priority="827" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH(("0"),(G108))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="771" priority="822" operator="equal">
+    <cfRule type="cellIs" dxfId="751" priority="822" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="770" priority="823" operator="equal">
+    <cfRule type="cellIs" dxfId="750" priority="823" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="769" priority="824" operator="equal">
+    <cfRule type="cellIs" dxfId="749" priority="824" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="768" priority="819" operator="equal">
+    <cfRule type="cellIs" dxfId="748" priority="819" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="767" priority="820" operator="equal">
+    <cfRule type="cellIs" dxfId="747" priority="820" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="766" priority="821" operator="equal">
+    <cfRule type="cellIs" dxfId="746" priority="821" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G111">
-    <cfRule type="containsText" dxfId="765" priority="816" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="745" priority="816" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G111)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="764" priority="817" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="744" priority="817" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G111)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="763" priority="818" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="743" priority="818" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G111)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F111">
-    <cfRule type="containsText" dxfId="762" priority="815" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="742" priority="815" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F111)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F111">
-    <cfRule type="containsText" dxfId="761" priority="814" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="741" priority="814" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F111)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="760" priority="811" operator="equal">
+    <cfRule type="cellIs" dxfId="740" priority="811" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="759" priority="812" operator="equal">
+    <cfRule type="cellIs" dxfId="739" priority="812" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="758" priority="813" operator="equal">
+    <cfRule type="cellIs" dxfId="738" priority="813" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F112">
-    <cfRule type="containsText" dxfId="757" priority="810" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="737" priority="810" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F112)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G112">
-    <cfRule type="containsText" dxfId="756" priority="807" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="736" priority="807" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G112)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="755" priority="808" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="735" priority="808" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G112)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="754" priority="809" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="734" priority="809" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G112)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="753" priority="804" operator="equal">
+    <cfRule type="cellIs" dxfId="733" priority="804" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="752" priority="805" operator="equal">
+    <cfRule type="cellIs" dxfId="732" priority="805" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="751" priority="806" operator="equal">
+    <cfRule type="cellIs" dxfId="731" priority="806" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="750" priority="801" operator="equal">
+    <cfRule type="cellIs" dxfId="730" priority="801" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="749" priority="802" operator="equal">
+    <cfRule type="cellIs" dxfId="729" priority="802" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="748" priority="803" operator="equal">
+    <cfRule type="cellIs" dxfId="728" priority="803" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F115">
-    <cfRule type="containsText" dxfId="747" priority="800" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="727" priority="800" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F115)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="746" priority="797" operator="equal">
+    <cfRule type="cellIs" dxfId="726" priority="797" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="745" priority="798" operator="equal">
+    <cfRule type="cellIs" dxfId="725" priority="798" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="744" priority="799" operator="equal">
+    <cfRule type="cellIs" dxfId="724" priority="799" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F115">
-    <cfRule type="containsText" dxfId="743" priority="796" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="723" priority="796" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F115)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G115">
-    <cfRule type="containsText" dxfId="742" priority="793" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="722" priority="793" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G115)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="741" priority="794" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="721" priority="794" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G115)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="740" priority="795" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="720" priority="795" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G115)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="739" priority="790" operator="equal">
+    <cfRule type="cellIs" dxfId="719" priority="790" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="738" priority="791" operator="equal">
+    <cfRule type="cellIs" dxfId="718" priority="791" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="737" priority="792" operator="equal">
+    <cfRule type="cellIs" dxfId="717" priority="792" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="736" priority="787" operator="equal">
+    <cfRule type="cellIs" dxfId="716" priority="787" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="735" priority="788" operator="equal">
+    <cfRule type="cellIs" dxfId="715" priority="788" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="734" priority="789" operator="equal">
+    <cfRule type="cellIs" dxfId="714" priority="789" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G117">
-    <cfRule type="containsText" dxfId="733" priority="784" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="713" priority="784" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G117)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="732" priority="785" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="712" priority="785" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G117)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="731" priority="786" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="711" priority="786" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F122:F123 F118:F119">
-    <cfRule type="containsText" dxfId="730" priority="783" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="710" priority="783" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F118)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F123:G123 F122 E120:E123 E119:F119 E118">
-    <cfRule type="cellIs" dxfId="729" priority="780" operator="equal">
+    <cfRule type="cellIs" dxfId="709" priority="780" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="728" priority="781" operator="equal">
+    <cfRule type="cellIs" dxfId="708" priority="781" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="727" priority="782" operator="equal">
+    <cfRule type="cellIs" dxfId="707" priority="782" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G118:G123">
-    <cfRule type="containsText" dxfId="726" priority="777" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="706" priority="777" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G118)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="725" priority="778" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="705" priority="778" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G118)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="724" priority="779" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="704" priority="779" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G118)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G123 E122:E123 E119">
-    <cfRule type="cellIs" dxfId="723" priority="776" operator="equal">
+    <cfRule type="cellIs" dxfId="703" priority="776" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G123 E122:E123 E119">
-    <cfRule type="cellIs" dxfId="722" priority="775" operator="equal">
+    <cfRule type="cellIs" dxfId="702" priority="775" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G123 E122:E123 E119">
-    <cfRule type="cellIs" dxfId="721" priority="774" operator="equal">
+    <cfRule type="cellIs" dxfId="701" priority="774" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F122:F123 F119">
-    <cfRule type="containsText" dxfId="720" priority="773" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="700" priority="773" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E122:E123 E119">
-    <cfRule type="cellIs" dxfId="719" priority="770" operator="equal">
+    <cfRule type="cellIs" dxfId="699" priority="770" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="718" priority="771" operator="equal">
+    <cfRule type="cellIs" dxfId="698" priority="771" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="717" priority="772" operator="equal">
+    <cfRule type="cellIs" dxfId="697" priority="772" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G122:G123 G119">
-    <cfRule type="containsText" dxfId="716" priority="765" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="696" priority="765" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G119)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="715" priority="766" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="695" priority="766" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G122:G123 G119">
-    <cfRule type="containsText" dxfId="714" priority="764" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="694" priority="764" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G122:G123 G119">
-    <cfRule type="containsText" dxfId="713" priority="762" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="693" priority="762" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH(("Closed"),(G119))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="712" priority="763" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="692" priority="763" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH(("0"),(G119))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G122:G123 G119">
-    <cfRule type="containsText" dxfId="711" priority="761" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="691" priority="761" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH(("Open"),(G119))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G122:G123">
-    <cfRule type="containsText" dxfId="710" priority="760" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="690" priority="760" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH(("0"),(G122))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G122:G123">
-    <cfRule type="containsText" dxfId="709" priority="759" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="689" priority="759" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH(("Closed"),(G122))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F124">
-    <cfRule type="containsText" dxfId="708" priority="737" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="688" priority="737" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G124">
-    <cfRule type="containsText" dxfId="707" priority="741" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="687" priority="741" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G124)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="706" priority="742" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="686" priority="742" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G124)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="705" priority="743" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="685" priority="743" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="704" priority="738" operator="equal">
+    <cfRule type="cellIs" dxfId="684" priority="738" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="703" priority="739" operator="equal">
+    <cfRule type="cellIs" dxfId="683" priority="739" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="702" priority="740" operator="equal">
+    <cfRule type="cellIs" dxfId="682" priority="740" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D124">
-    <cfRule type="containsText" dxfId="701" priority="736" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="681" priority="736" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",#REF!)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E170">
-    <cfRule type="cellIs" dxfId="700" priority="733" operator="equal">
+    <cfRule type="cellIs" dxfId="680" priority="733" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="699" priority="734" operator="equal">
+    <cfRule type="cellIs" dxfId="679" priority="734" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="698" priority="735" operator="equal">
+    <cfRule type="cellIs" dxfId="678" priority="735" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F170">
-    <cfRule type="containsText" dxfId="697" priority="732" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="677" priority="732" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F170)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F170">
-    <cfRule type="containsText" dxfId="696" priority="731" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="676" priority="731" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F170)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G170">
-    <cfRule type="containsText" dxfId="695" priority="728" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="675" priority="728" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G170)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="694" priority="729" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="674" priority="729" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G170)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="693" priority="730" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="673" priority="730" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G170)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G171">
-    <cfRule type="containsText" dxfId="692" priority="725" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="672" priority="725" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G171)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="691" priority="726" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="671" priority="726" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G171)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="690" priority="727" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="670" priority="727" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171">
-    <cfRule type="cellIs" dxfId="689" priority="722" operator="equal">
+    <cfRule type="cellIs" dxfId="669" priority="722" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="688" priority="723" operator="equal">
+    <cfRule type="cellIs" dxfId="668" priority="723" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="687" priority="724" operator="equal">
+    <cfRule type="cellIs" dxfId="667" priority="724" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F171">
-    <cfRule type="containsText" dxfId="686" priority="721" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="666" priority="721" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F171">
-    <cfRule type="containsText" dxfId="685" priority="720" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="665" priority="720" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E172">
-    <cfRule type="cellIs" dxfId="684" priority="717" operator="equal">
+    <cfRule type="cellIs" dxfId="664" priority="717" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="683" priority="718" operator="equal">
+    <cfRule type="cellIs" dxfId="663" priority="718" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="682" priority="719" operator="equal">
+    <cfRule type="cellIs" dxfId="662" priority="719" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F172">
-    <cfRule type="containsText" dxfId="681" priority="716" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="661" priority="716" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F172">
-    <cfRule type="containsText" dxfId="680" priority="715" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="660" priority="715" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F172">
-    <cfRule type="containsText" dxfId="679" priority="714" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="659" priority="714" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F172">
-    <cfRule type="containsText" dxfId="678" priority="713" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="658" priority="713" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F172">
-    <cfRule type="containsText" dxfId="677" priority="712" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="657" priority="712" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F172">
-    <cfRule type="containsText" dxfId="676" priority="711" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="656" priority="711" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F172">
-    <cfRule type="containsText" dxfId="675" priority="710" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="655" priority="710" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F172">
-    <cfRule type="containsText" dxfId="674" priority="709" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="654" priority="709" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G172">
-    <cfRule type="containsText" dxfId="673" priority="706" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="653" priority="706" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G172)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="672" priority="707" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="652" priority="707" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G172)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="671" priority="708" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="651" priority="708" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G173">
-    <cfRule type="containsText" dxfId="670" priority="703" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="650" priority="703" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G173)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="669" priority="704" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="649" priority="704" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G173)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="668" priority="705" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="648" priority="705" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G173)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E173">
-    <cfRule type="cellIs" dxfId="667" priority="700" operator="equal">
+    <cfRule type="cellIs" dxfId="647" priority="700" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="666" priority="701" operator="equal">
+    <cfRule type="cellIs" dxfId="646" priority="701" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="665" priority="702" operator="equal">
+    <cfRule type="cellIs" dxfId="645" priority="702" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F173">
-    <cfRule type="containsText" dxfId="664" priority="699" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="644" priority="699" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F173)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F173">
-    <cfRule type="containsText" dxfId="663" priority="698" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="643" priority="698" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F173)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E174">
-    <cfRule type="cellIs" dxfId="662" priority="695" operator="equal">
+    <cfRule type="cellIs" dxfId="642" priority="695" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="661" priority="696" operator="equal">
+    <cfRule type="cellIs" dxfId="641" priority="696" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="660" priority="697" operator="equal">
+    <cfRule type="cellIs" dxfId="640" priority="697" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F174">
-    <cfRule type="containsText" dxfId="659" priority="694" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="639" priority="694" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F174)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G174">
-    <cfRule type="containsText" dxfId="658" priority="691" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="638" priority="691" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G174)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="657" priority="692" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="637" priority="692" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G174)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="656" priority="693" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="636" priority="693" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G174)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E175">
-    <cfRule type="cellIs" dxfId="655" priority="688" operator="equal">
+    <cfRule type="cellIs" dxfId="635" priority="688" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="654" priority="689" operator="equal">
+    <cfRule type="cellIs" dxfId="634" priority="689" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="653" priority="690" operator="equal">
+    <cfRule type="cellIs" dxfId="633" priority="690" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F175">
-    <cfRule type="containsText" dxfId="652" priority="687" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="632" priority="687" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F175)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G175">
-    <cfRule type="containsText" dxfId="651" priority="684" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="631" priority="684" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G175)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="650" priority="685" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="630" priority="685" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G175)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="649" priority="686" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="629" priority="686" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G175)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F175">
-    <cfRule type="containsText" dxfId="648" priority="683" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="628" priority="683" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F175)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F176">
-    <cfRule type="containsText" dxfId="647" priority="679" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="627" priority="679" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F176)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E176">
-    <cfRule type="cellIs" dxfId="646" priority="680" operator="equal">
+    <cfRule type="cellIs" dxfId="626" priority="680" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="645" priority="681" operator="equal">
+    <cfRule type="cellIs" dxfId="625" priority="681" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="644" priority="682" operator="equal">
+    <cfRule type="cellIs" dxfId="624" priority="682" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G176">
-    <cfRule type="containsText" dxfId="643" priority="676" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="623" priority="676" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G176)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="642" priority="677" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="622" priority="677" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G176)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="641" priority="678" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="621" priority="678" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G176)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E177:E178">
-    <cfRule type="cellIs" dxfId="640" priority="673" operator="equal">
+    <cfRule type="cellIs" dxfId="620" priority="673" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="639" priority="674" operator="equal">
+    <cfRule type="cellIs" dxfId="619" priority="674" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="638" priority="675" operator="equal">
+    <cfRule type="cellIs" dxfId="618" priority="675" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G177:G178">
-    <cfRule type="containsText" dxfId="637" priority="670" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="617" priority="670" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G177)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="636" priority="671" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="616" priority="671" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G177)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="635" priority="672" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="615" priority="672" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G177)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G177">
-    <cfRule type="containsText" dxfId="634" priority="667" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="614" priority="667" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G177)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="633" priority="668" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="613" priority="668" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G177)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="632" priority="669" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="612" priority="669" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G177)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F178 B178:C178">
-    <cfRule type="containsText" dxfId="631" priority="666" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="611" priority="666" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",B178)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E178">
-    <cfRule type="cellIs" dxfId="630" priority="665" operator="equal">
+    <cfRule type="cellIs" dxfId="610" priority="665" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E178">
-    <cfRule type="cellIs" dxfId="629" priority="664" operator="equal">
+    <cfRule type="cellIs" dxfId="609" priority="664" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E178">
-    <cfRule type="cellIs" dxfId="628" priority="663" operator="equal">
+    <cfRule type="cellIs" dxfId="608" priority="663" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G179">
-    <cfRule type="containsText" dxfId="627" priority="660" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="607" priority="660" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G179)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="626" priority="661" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="606" priority="661" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G179)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="625" priority="662" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="605" priority="662" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G179)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E179">
-    <cfRule type="cellIs" dxfId="624" priority="657" operator="equal">
+    <cfRule type="cellIs" dxfId="604" priority="657" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="623" priority="658" operator="equal">
+    <cfRule type="cellIs" dxfId="603" priority="658" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="622" priority="659" operator="equal">
+    <cfRule type="cellIs" dxfId="602" priority="659" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E180">
-    <cfRule type="cellIs" dxfId="621" priority="654" operator="equal">
+    <cfRule type="cellIs" dxfId="601" priority="654" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="620" priority="655" operator="equal">
+    <cfRule type="cellIs" dxfId="600" priority="655" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="619" priority="656" operator="equal">
+    <cfRule type="cellIs" dxfId="599" priority="656" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F180">
-    <cfRule type="containsText" dxfId="618" priority="653" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="598" priority="653" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F180)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F180">
-    <cfRule type="containsText" dxfId="617" priority="652" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="597" priority="652" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F180)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G180">
-    <cfRule type="containsText" dxfId="616" priority="649" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="596" priority="649" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G180)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="615" priority="650" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="595" priority="650" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G180)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="614" priority="651" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="594" priority="651" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G180)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E181">
-    <cfRule type="cellIs" dxfId="613" priority="646" operator="equal">
+    <cfRule type="cellIs" dxfId="593" priority="646" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="612" priority="647" operator="equal">
+    <cfRule type="cellIs" dxfId="592" priority="647" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="611" priority="648" operator="equal">
+    <cfRule type="cellIs" dxfId="591" priority="648" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G181">
-    <cfRule type="containsText" dxfId="610" priority="643" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="590" priority="643" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="609" priority="644" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="589" priority="644" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="608" priority="645" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="588" priority="645" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G181)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F181">
-    <cfRule type="containsText" dxfId="607" priority="642" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="587" priority="642" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F181)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F181">
-    <cfRule type="containsText" dxfId="606" priority="641" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="586" priority="641" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F181)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G182">
-    <cfRule type="containsText" dxfId="605" priority="638" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="585" priority="638" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G182)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="604" priority="639" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="584" priority="639" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G182)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="603" priority="640" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="583" priority="640" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G182)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E182">
-    <cfRule type="cellIs" dxfId="602" priority="635" operator="equal">
+    <cfRule type="cellIs" dxfId="582" priority="635" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="601" priority="636" operator="equal">
+    <cfRule type="cellIs" dxfId="581" priority="636" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="600" priority="637" operator="equal">
+    <cfRule type="cellIs" dxfId="580" priority="637" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G183:G185">
-    <cfRule type="containsText" dxfId="599" priority="629" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="579" priority="629" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G183)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="598" priority="630" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="578" priority="630" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G183)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="597" priority="631" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="577" priority="631" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G183)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E183:E185">
-    <cfRule type="cellIs" dxfId="596" priority="632" operator="equal">
+    <cfRule type="cellIs" dxfId="576" priority="632" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="595" priority="633" operator="equal">
+    <cfRule type="cellIs" dxfId="575" priority="633" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="594" priority="634" operator="equal">
+    <cfRule type="cellIs" dxfId="574" priority="634" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E186">
-    <cfRule type="cellIs" dxfId="593" priority="626" operator="equal">
+    <cfRule type="cellIs" dxfId="573" priority="626" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="592" priority="627" operator="equal">
+    <cfRule type="cellIs" dxfId="572" priority="627" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="591" priority="628" operator="equal">
+    <cfRule type="cellIs" dxfId="571" priority="628" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G186">
-    <cfRule type="containsText" dxfId="590" priority="623" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="570" priority="623" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G186)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="589" priority="624" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="569" priority="624" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G186)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="588" priority="625" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="568" priority="625" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G186)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E187">
-    <cfRule type="cellIs" dxfId="587" priority="620" operator="equal">
+    <cfRule type="cellIs" dxfId="567" priority="620" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="586" priority="621" operator="equal">
+    <cfRule type="cellIs" dxfId="566" priority="621" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="585" priority="622" operator="equal">
+    <cfRule type="cellIs" dxfId="565" priority="622" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F187">
-    <cfRule type="containsText" dxfId="584" priority="619" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="564" priority="619" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F187)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F187">
-    <cfRule type="containsText" dxfId="583" priority="618" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="563" priority="618" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F187)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G187">
-    <cfRule type="containsText" dxfId="582" priority="615" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="562" priority="615" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G187)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="581" priority="616" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="561" priority="616" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G187)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="580" priority="617" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="560" priority="617" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G187)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E188">
-    <cfRule type="cellIs" dxfId="579" priority="612" operator="equal">
+    <cfRule type="cellIs" dxfId="559" priority="612" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="578" priority="613" operator="equal">
+    <cfRule type="cellIs" dxfId="558" priority="613" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="577" priority="614" operator="equal">
+    <cfRule type="cellIs" dxfId="557" priority="614" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F188">
-    <cfRule type="containsText" dxfId="576" priority="611" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="556" priority="611" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F188)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F188">
-    <cfRule type="containsText" dxfId="575" priority="610" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="555" priority="610" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F188)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G188">
-    <cfRule type="containsText" dxfId="574" priority="607" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="554" priority="607" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G188)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="573" priority="608" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="553" priority="608" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G188)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="572" priority="609" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="552" priority="609" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G188)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E189">
-    <cfRule type="cellIs" dxfId="571" priority="604" operator="equal">
+    <cfRule type="cellIs" dxfId="551" priority="604" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="570" priority="605" operator="equal">
+    <cfRule type="cellIs" dxfId="550" priority="605" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="569" priority="606" operator="equal">
+    <cfRule type="cellIs" dxfId="549" priority="606" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G189">
-    <cfRule type="containsText" dxfId="568" priority="599" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="548" priority="599" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G189)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="567" priority="600" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="547" priority="600" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G189)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="566" priority="601" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="546" priority="601" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G189)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F189">
-    <cfRule type="containsText" dxfId="565" priority="602" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="545" priority="602" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",#REF!)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F189">
-    <cfRule type="containsText" dxfId="564" priority="603" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="544" priority="603" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",#REF!)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E190">
-    <cfRule type="cellIs" dxfId="563" priority="596" operator="equal">
+    <cfRule type="cellIs" dxfId="543" priority="596" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="562" priority="597" operator="equal">
+    <cfRule type="cellIs" dxfId="542" priority="597" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="561" priority="598" operator="equal">
+    <cfRule type="cellIs" dxfId="541" priority="598" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F190">
-    <cfRule type="containsText" dxfId="560" priority="594" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="540" priority="594" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",#REF!)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F190">
-    <cfRule type="containsText" dxfId="559" priority="595" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="539" priority="595" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",#REF!)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G190">
-    <cfRule type="containsText" dxfId="558" priority="591" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="538" priority="591" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G190)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="557" priority="592" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="537" priority="592" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G190)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="556" priority="593" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="536" priority="593" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G190)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F191">
-    <cfRule type="containsText" dxfId="555" priority="590" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="535" priority="590" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F191)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F191">
-    <cfRule type="containsText" dxfId="554" priority="589" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="534" priority="589" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F191)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G191">
-    <cfRule type="containsText" dxfId="553" priority="583" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="533" priority="583" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G191)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="552" priority="584" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="532" priority="584" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G191)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="551" priority="585" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="531" priority="585" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G191)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E191">
-    <cfRule type="cellIs" dxfId="550" priority="586" operator="equal">
+    <cfRule type="cellIs" dxfId="530" priority="586" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="549" priority="587" operator="equal">
+    <cfRule type="cellIs" dxfId="529" priority="587" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="548" priority="588" operator="equal">
+    <cfRule type="cellIs" dxfId="528" priority="588" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F192">
-    <cfRule type="containsText" dxfId="547" priority="581" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="527" priority="581" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F192)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F192">
-    <cfRule type="containsText" dxfId="546" priority="582" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="526" priority="582" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F192)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G192">
-    <cfRule type="containsText" dxfId="545" priority="574" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="525" priority="574" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G192)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="544" priority="575" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="524" priority="575" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G192)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="543" priority="576" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="523" priority="576" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G192)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G192">
-    <cfRule type="containsText" dxfId="542" priority="571" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="522" priority="571" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G192)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="541" priority="572" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="521" priority="572" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G192)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="540" priority="573" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="520" priority="573" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G192)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G192">
-    <cfRule type="containsText" dxfId="539" priority="577" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="519" priority="577" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G192)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="538" priority="578" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="518" priority="578" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G192)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="537" priority="579" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="517" priority="579" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G192)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G192">
-    <cfRule type="containsText" dxfId="536" priority="580" operator="containsText" text="CLOSED">
+    <cfRule type="containsText" dxfId="516" priority="580" operator="containsText" text="CLOSED">
       <formula>NOT(ISERROR(SEARCH("CLOSED",G192)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E192">
-    <cfRule type="cellIs" dxfId="535" priority="568" operator="equal">
+    <cfRule type="cellIs" dxfId="515" priority="568" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="534" priority="569" operator="equal">
+    <cfRule type="cellIs" dxfId="514" priority="569" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="533" priority="570" operator="equal">
+    <cfRule type="cellIs" dxfId="513" priority="570" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E193">
-    <cfRule type="cellIs" dxfId="532" priority="565" operator="equal">
+    <cfRule type="cellIs" dxfId="512" priority="565" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="531" priority="566" operator="equal">
+    <cfRule type="cellIs" dxfId="511" priority="566" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="530" priority="567" operator="equal">
+    <cfRule type="cellIs" dxfId="510" priority="567" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="529" priority="534" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="509" priority="534" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F194)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E194">
-    <cfRule type="cellIs" dxfId="528" priority="531" operator="equal">
+    <cfRule type="cellIs" dxfId="508" priority="531" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="527" priority="532" operator="equal">
+    <cfRule type="cellIs" dxfId="507" priority="532" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="526" priority="533" operator="equal">
+    <cfRule type="cellIs" dxfId="506" priority="533" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E194">
-    <cfRule type="cellIs" dxfId="525" priority="525" operator="equal">
+    <cfRule type="cellIs" dxfId="505" priority="525" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E194">
-    <cfRule type="cellIs" dxfId="524" priority="526" operator="equal">
+    <cfRule type="cellIs" dxfId="504" priority="526" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E194">
-    <cfRule type="cellIs" dxfId="523" priority="527" operator="equal">
+    <cfRule type="cellIs" dxfId="503" priority="527" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G194">
-    <cfRule type="containsText" dxfId="522" priority="528" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="502" priority="528" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH(("0"),(G194))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G194">
-    <cfRule type="containsText" dxfId="521" priority="529" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="501" priority="529" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH(("Closed"),(G194))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G194">
-    <cfRule type="containsText" dxfId="520" priority="530" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="500" priority="530" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH(("Open"),(G194))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G194">
-    <cfRule type="containsText" dxfId="519" priority="522" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="499" priority="522" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G194)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="518" priority="523" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="498" priority="523" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G194)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="517" priority="524" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="497" priority="524" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G194)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G194">
-    <cfRule type="containsText" dxfId="516" priority="514" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="496" priority="514" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G194)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="515" priority="515" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="495" priority="515" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G194)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="514" priority="516" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="494" priority="516" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G194)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="513" priority="542" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="493" priority="542" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="512" priority="543" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="492" priority="543" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="511" priority="513" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="491" priority="513" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F194)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E194">
-    <cfRule type="cellIs" dxfId="510" priority="510" operator="equal">
+    <cfRule type="cellIs" dxfId="490" priority="510" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="509" priority="511" operator="equal">
+    <cfRule type="cellIs" dxfId="489" priority="511" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="508" priority="512" operator="equal">
+    <cfRule type="cellIs" dxfId="488" priority="512" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G194">
-    <cfRule type="containsText" dxfId="507" priority="507" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="487" priority="507" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G194)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="506" priority="508" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="486" priority="508" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G194)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="505" priority="509" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="485" priority="509" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G194)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G194">
-    <cfRule type="containsText" dxfId="504" priority="504" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="484" priority="504" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G194)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="503" priority="505" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="483" priority="505" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G194)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="502" priority="506" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="482" priority="506" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G194)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E194">
-    <cfRule type="cellIs" dxfId="501" priority="503" operator="equal">
+    <cfRule type="cellIs" dxfId="481" priority="503" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E194">
-    <cfRule type="cellIs" dxfId="500" priority="502" operator="equal">
+    <cfRule type="cellIs" dxfId="480" priority="502" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E194">
-    <cfRule type="cellIs" dxfId="499" priority="501" operator="equal">
+    <cfRule type="cellIs" dxfId="479" priority="501" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="498" priority="498" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="478" priority="498" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="497" priority="497" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="477" priority="497" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="496" priority="496" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="476" priority="496" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="495" priority="546" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="475" priority="546" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="494" priority="562" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="474" priority="562" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="493" priority="563" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="473" priority="563" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="492" priority="564" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="472" priority="564" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="491" priority="492" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="471" priority="492" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F195">
-    <cfRule type="containsText" dxfId="490" priority="466" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="470" priority="466" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F195)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E195">
-    <cfRule type="cellIs" dxfId="489" priority="463" operator="equal">
+    <cfRule type="cellIs" dxfId="469" priority="463" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="488" priority="464" operator="equal">
+    <cfRule type="cellIs" dxfId="468" priority="464" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="487" priority="465" operator="equal">
+    <cfRule type="cellIs" dxfId="467" priority="465" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E195">
-    <cfRule type="cellIs" dxfId="486" priority="457" operator="equal">
+    <cfRule type="cellIs" dxfId="466" priority="457" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E195">
-    <cfRule type="cellIs" dxfId="485" priority="458" operator="equal">
+    <cfRule type="cellIs" dxfId="465" priority="458" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E195">
-    <cfRule type="cellIs" dxfId="484" priority="459" operator="equal">
+    <cfRule type="cellIs" dxfId="464" priority="459" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G195">
-    <cfRule type="containsText" dxfId="483" priority="460" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="463" priority="460" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH(("0"),(G195))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G195">
-    <cfRule type="containsText" dxfId="482" priority="461" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="462" priority="461" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH(("Closed"),(G195))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G195">
-    <cfRule type="containsText" dxfId="481" priority="462" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="461" priority="462" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH(("Open"),(G195))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G195">
-    <cfRule type="containsText" dxfId="480" priority="453" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="460" priority="453" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G195)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="479" priority="454" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="459" priority="454" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G195)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="478" priority="455" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="458" priority="455" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G195)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G195">
-    <cfRule type="containsText" dxfId="477" priority="445" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="457" priority="445" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G195)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="476" priority="446" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="456" priority="446" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G195)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="475" priority="447" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="455" priority="447" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G195)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F195">
-    <cfRule type="containsText" dxfId="474" priority="470" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="454" priority="470" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F195">
-    <cfRule type="containsText" dxfId="473" priority="471" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="453" priority="471" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F195">
-    <cfRule type="containsText" dxfId="472" priority="472" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="452" priority="472" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F195">
-    <cfRule type="containsText" dxfId="471" priority="475" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="451" priority="475" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F195">
-    <cfRule type="containsText" dxfId="470" priority="488" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="450" priority="488" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F195">
-    <cfRule type="containsText" dxfId="469" priority="489" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="449" priority="489" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196:F197">
-    <cfRule type="containsText" dxfId="468" priority="400" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="448" priority="400" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F196)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196:F197">
-    <cfRule type="containsText" dxfId="467" priority="403" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="447" priority="403" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196:F197">
-    <cfRule type="containsText" dxfId="466" priority="404" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="446" priority="404" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196:F197">
-    <cfRule type="containsText" dxfId="465" priority="395" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="445" priority="395" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F196)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196:F197">
-    <cfRule type="containsText" dxfId="464" priority="394" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="444" priority="394" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196:F197">
-    <cfRule type="containsText" dxfId="463" priority="393" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="443" priority="393" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196:F197">
-    <cfRule type="containsText" dxfId="462" priority="392" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="442" priority="392" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196:F197">
-    <cfRule type="containsText" dxfId="461" priority="406" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="441" priority="406" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="460" priority="388" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="388" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="459" priority="389" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="389" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="458" priority="390" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="390" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="457" priority="385" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="385" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="456" priority="386" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="386" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="455" priority="387" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="387" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="454" priority="384" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="384" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="453" priority="383" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="383" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="452" priority="382" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="382" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="451" priority="379" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="379" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="450" priority="380" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="380" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="449" priority="381" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="381" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="448" priority="376" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="376" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="447" priority="377" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="377" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="446" priority="378" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="378" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="445" priority="375" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="375" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="444" priority="374" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="374" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="443" priority="373" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="373" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="442" priority="370" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="370" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="441" priority="371" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="371" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="440" priority="372" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="372" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="439" priority="369" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="369" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="438" priority="368" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="368" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="437" priority="367" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="367" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="436" priority="364" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="364" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="435" priority="365" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="365" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="434" priority="366" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="366" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="433" priority="363" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="363" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="432" priority="362" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="362" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="431" priority="361" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="361" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="430" priority="358" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="358" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="429" priority="359" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="359" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="428" priority="360" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="360" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="427" priority="355" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="407" priority="355" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH(("0"),(G196))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="426" priority="356" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="406" priority="356" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH(("Closed"),(G196))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="425" priority="357" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="405" priority="357" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH(("Open"),(G196))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="424" priority="352" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="404" priority="352" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="423" priority="353" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="403" priority="353" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="422" priority="354" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="402" priority="354" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="421" priority="349" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="401" priority="349" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="420" priority="350" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="400" priority="350" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="419" priority="351" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="399" priority="351" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="418" priority="346" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="398" priority="346" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="417" priority="347" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="397" priority="347" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="416" priority="348" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="396" priority="348" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="415" priority="343" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="395" priority="343" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="414" priority="344" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="394" priority="344" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="413" priority="345" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="393" priority="345" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="412" priority="340" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="392" priority="340" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="411" priority="341" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="391" priority="341" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="410" priority="342" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="390" priority="342" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="409" priority="337" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="389" priority="337" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="408" priority="338" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="388" priority="338" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="407" priority="339" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="387" priority="339" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="406" priority="334" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="386" priority="334" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="405" priority="335" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="385" priority="335" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="404" priority="336" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="384" priority="336" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="403" priority="331" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="383" priority="331" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",#REF!)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="402" priority="332" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="382" priority="332" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",#REF!)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="401" priority="333" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="381" priority="333" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",#REF!)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="400" priority="328" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="380" priority="328" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="399" priority="329" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="379" priority="329" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="398" priority="330" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="378" priority="330" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="397" priority="325" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="377" priority="325" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="396" priority="326" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="376" priority="326" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="395" priority="327" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="375" priority="327" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="394" priority="322" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="374" priority="322" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="393" priority="323" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="373" priority="323" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="392" priority="324" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="372" priority="324" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="391" priority="319" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="371" priority="319" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="390" priority="320" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="370" priority="320" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="389" priority="321" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="369" priority="321" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="388" priority="316" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="368" priority="316" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="387" priority="317" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="367" priority="317" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="386" priority="318" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="366" priority="318" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="385" priority="313" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="365" priority="313" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="384" priority="314" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="364" priority="314" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="383" priority="315" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="363" priority="315" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="382" priority="310" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="362" priority="310" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="381" priority="311" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="361" priority="311" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="380" priority="312" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="360" priority="312" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="379" priority="307" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="359" priority="307" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="378" priority="308" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="358" priority="308" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="377" priority="309" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="357" priority="309" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="376" priority="304" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="356" priority="304" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="375" priority="305" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="355" priority="305" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="374" priority="306" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="354" priority="306" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="373" priority="301" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="353" priority="301" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",#REF!)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="372" priority="302" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="352" priority="302" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",#REF!)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="371" priority="303" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="351" priority="303" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",#REF!)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="370" priority="298" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="350" priority="298" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="369" priority="299" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="349" priority="299" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="368" priority="300" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="348" priority="300" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G196">
-    <cfRule type="containsText" dxfId="367" priority="295" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="347" priority="295" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="366" priority="296" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="346" priority="296" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="365" priority="297" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="345" priority="297" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G196)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="364" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="278" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="363" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="279" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="362" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="280" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="361" priority="275" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="275" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="276" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="359" priority="277" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="277" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="358" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="274" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="357" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="273" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="356" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="272" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="355" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="269" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="270" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="353" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="271" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="352" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="266" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="351" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="267" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="350" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="268" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="349" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="265" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="348" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="264" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="347" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="263" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="346" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="260" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="345" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="261" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="262" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="343" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="259" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="342" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="258" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="341" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="257" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="340" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="254" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="339" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="255" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="256" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="337" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="253" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="336" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="252" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="335" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="251" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="334" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="248" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="249" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="250" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="331" priority="239" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="311" priority="239" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="330" priority="240" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="310" priority="240" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="329" priority="241" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="309" priority="241" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="328" priority="230" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="308" priority="230" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="327" priority="231" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="307" priority="231" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="326" priority="232" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="306" priority="232" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="325" priority="245" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="305" priority="245" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH(("0"),(G197))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="324" priority="246" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="304" priority="246" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH(("Closed"),(G197))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="323" priority="247" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="303" priority="247" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH(("Open"),(G197))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="322" priority="242" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="302" priority="242" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="321" priority="243" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="301" priority="243" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="320" priority="244" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="300" priority="244" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="319" priority="236" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="299" priority="236" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="318" priority="237" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="298" priority="237" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="317" priority="238" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="297" priority="238" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="316" priority="233" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="296" priority="233" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="315" priority="234" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="295" priority="234" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="314" priority="235" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="294" priority="235" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="313" priority="227" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="293" priority="227" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="312" priority="228" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="292" priority="228" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="311" priority="229" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="291" priority="229" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="310" priority="224" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="290" priority="224" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="309" priority="225" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="289" priority="225" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="308" priority="226" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="288" priority="226" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="307" priority="221" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="287" priority="221" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",#REF!)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="306" priority="222" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="286" priority="222" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",#REF!)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="305" priority="223" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="285" priority="223" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",#REF!)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="304" priority="218" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="284" priority="218" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="303" priority="219" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="283" priority="219" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="302" priority="220" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="282" priority="220" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="301" priority="215" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="281" priority="215" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="300" priority="216" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="280" priority="216" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="299" priority="217" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="279" priority="217" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="298" priority="212" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="278" priority="212" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="297" priority="213" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="277" priority="213" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="296" priority="214" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="276" priority="214" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="295" priority="209" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="275" priority="209" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="294" priority="210" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="274" priority="210" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="293" priority="211" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="273" priority="211" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="292" priority="206" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="272" priority="206" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="291" priority="207" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="271" priority="207" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="290" priority="208" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="270" priority="208" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="289" priority="203" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="269" priority="203" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="288" priority="204" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="268" priority="204" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="287" priority="205" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="267" priority="205" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="286" priority="200" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="266" priority="200" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="285" priority="201" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="265" priority="201" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="284" priority="202" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="264" priority="202" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="283" priority="197" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="263" priority="197" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="282" priority="198" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="262" priority="198" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="281" priority="199" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="261" priority="199" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="280" priority="194" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="260" priority="194" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="279" priority="195" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="259" priority="195" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="278" priority="196" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="258" priority="196" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="277" priority="191" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="257" priority="191" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",#REF!)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="276" priority="192" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="256" priority="192" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",#REF!)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="275" priority="193" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="255" priority="193" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",#REF!)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="274" priority="188" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="254" priority="188" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="273" priority="189" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="253" priority="189" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="272" priority="190" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="252" priority="190" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G197">
-    <cfRule type="containsText" dxfId="271" priority="185" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="251" priority="185" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="270" priority="186" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="250" priority="186" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="269" priority="187" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="249" priority="187" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G197)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E198">
-    <cfRule type="cellIs" dxfId="268" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="182" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="183" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="184" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E198">
-    <cfRule type="cellIs" dxfId="265" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="179" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E198">
-    <cfRule type="cellIs" dxfId="264" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="180" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E198">
-    <cfRule type="cellIs" dxfId="263" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="181" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E198">
-    <cfRule type="cellIs" dxfId="262" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="176" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="177" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="178" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E198">
-    <cfRule type="cellIs" dxfId="259" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="175" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E198">
-    <cfRule type="cellIs" dxfId="258" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="174" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E198">
-    <cfRule type="cellIs" dxfId="257" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="173" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G198">
-    <cfRule type="containsText" dxfId="256" priority="168" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="236" priority="168" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH(("0"),(G198))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G198">
-    <cfRule type="containsText" dxfId="255" priority="169" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="235" priority="169" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH(("Closed"),(G198))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G198">
-    <cfRule type="containsText" dxfId="254" priority="170" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="234" priority="170" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH(("Open"),(G198))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G198">
-    <cfRule type="containsText" dxfId="253" priority="165" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="233" priority="165" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G198)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="252" priority="166" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="232" priority="166" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G198)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="251" priority="167" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="231" priority="167" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G198">
-    <cfRule type="containsText" dxfId="250" priority="162" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="230" priority="162" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G198)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="249" priority="163" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="229" priority="163" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G198)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="248" priority="164" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="228" priority="164" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G244">
-    <cfRule type="containsText" dxfId="247" priority="159" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="227" priority="159" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G244)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="246" priority="160" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="226" priority="160" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G244)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="245" priority="161" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="225" priority="161" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G244)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E244">
-    <cfRule type="cellIs" dxfId="244" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="156" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="157" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="158" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F244">
-    <cfRule type="containsText" dxfId="241" priority="155" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="221" priority="155" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F244)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F244">
-    <cfRule type="containsText" dxfId="240" priority="154" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="220" priority="154" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F244)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E245">
-    <cfRule type="cellIs" dxfId="239" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="151" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="152" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="153" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G245">
-    <cfRule type="containsText" dxfId="236" priority="148" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="216" priority="148" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G245)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="235" priority="149" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="215" priority="149" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G245)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="234" priority="150" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="214" priority="150" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G245)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E248 E246">
-    <cfRule type="cellIs" dxfId="233" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="145" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="146" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="147" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G248 G246">
-    <cfRule type="containsText" dxfId="230" priority="142" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="210" priority="142" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G246)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="229" priority="143" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="209" priority="143" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G246)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="228" priority="144" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="208" priority="144" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G246)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E248 E246">
-    <cfRule type="cellIs" dxfId="227" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="141" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E248 E246">
-    <cfRule type="cellIs" dxfId="226" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="140" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E248 E246">
-    <cfRule type="cellIs" dxfId="225" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="139" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D247 F247">
-    <cfRule type="containsText" dxfId="224" priority="138" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="204" priority="138" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",D247)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E247:F247">
-    <cfRule type="cellIs" dxfId="223" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="135" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="136" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="137" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G247">
-    <cfRule type="containsText" dxfId="220" priority="132" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="200" priority="132" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G247)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="219" priority="133" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="199" priority="133" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G247)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="218" priority="134" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="198" priority="134" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G247)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D247">
-    <cfRule type="containsText" dxfId="217" priority="131" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="197" priority="131" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",D247)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G247">
-    <cfRule type="containsText" dxfId="216" priority="128" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="196" priority="128" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G247)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="215" priority="129" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="195" priority="129" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G247)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="130" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="194" priority="130" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G247)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G247">
-    <cfRule type="containsText" dxfId="213" priority="125" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="193" priority="125" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G247)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="212" priority="126" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="192" priority="126" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G247)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="211" priority="127" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="191" priority="127" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G247)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G247">
-    <cfRule type="containsText" dxfId="210" priority="122" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="190" priority="122" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G247)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="209" priority="123" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="189" priority="123" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G247)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="208" priority="124" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="188" priority="124" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G247)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F248">
-    <cfRule type="containsText" dxfId="207" priority="121" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="187" priority="121" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F248)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G248">
-    <cfRule type="containsText" dxfId="206" priority="120" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="186" priority="120" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH(("0"),(G248))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G248">
-    <cfRule type="containsText" dxfId="205" priority="119" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="185" priority="119" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH(("Closed"),(G248))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G248">
-    <cfRule type="containsText" dxfId="204" priority="118" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="184" priority="118" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH(("Open"),(G248))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F248">
-    <cfRule type="containsText" dxfId="203" priority="116" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="183" priority="116" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F248)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E248">
-    <cfRule type="cellIs" dxfId="202" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="113" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="114" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="115" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G248">
-    <cfRule type="containsText" dxfId="199" priority="110" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="179" priority="110" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G248)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="111" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="178" priority="111" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G248)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="197" priority="112" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="177" priority="112" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G248)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D249 F249">
-    <cfRule type="containsText" dxfId="196" priority="109" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="176" priority="109" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",D249)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F249">
-    <cfRule type="cellIs" dxfId="195" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="106" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="107" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="108" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D249">
-    <cfRule type="containsText" dxfId="192" priority="105" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="172" priority="105" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",D249)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E249">
-    <cfRule type="cellIs" dxfId="191" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="102" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="103" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="104" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E249">
-    <cfRule type="cellIs" dxfId="188" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="101" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E249">
-    <cfRule type="cellIs" dxfId="187" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="100" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E249">
-    <cfRule type="cellIs" dxfId="186" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="99" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E249">
-    <cfRule type="cellIs" dxfId="185" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="96" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="97" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="98" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G249">
-    <cfRule type="containsText" dxfId="182" priority="93" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="162" priority="93" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G249)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="94" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="161" priority="94" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G249)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="95" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="160" priority="95" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G249)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G249">
-    <cfRule type="containsText" dxfId="179" priority="92" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="159" priority="92" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH(("0"),(G249))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G249">
-    <cfRule type="containsText" dxfId="178" priority="91" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="158" priority="91" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH(("Closed"),(G249))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G249">
-    <cfRule type="containsText" dxfId="177" priority="90" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="157" priority="90" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH(("Open"),(G249))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G249">
-    <cfRule type="containsText" dxfId="176" priority="87" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="156" priority="87" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G249)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="88" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="155" priority="88" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G249)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="89" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="154" priority="89" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G249)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70 F194">
-    <cfRule type="containsText" dxfId="173" priority="1473" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="153" priority="1473" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70 F196:F197">
-    <cfRule type="containsText" dxfId="172" priority="1474" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="152" priority="1474" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70">
-    <cfRule type="containsText" dxfId="171" priority="1475" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="151" priority="1475" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70">
-    <cfRule type="containsText" dxfId="170" priority="1476" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="150" priority="1476" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80">
-    <cfRule type="containsText" dxfId="169" priority="1478" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="149" priority="1478" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80 F195">
-    <cfRule type="containsText" dxfId="168" priority="1479" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="148" priority="1479" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80">
-    <cfRule type="containsText" dxfId="167" priority="1480" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="147" priority="1480" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80 F248">
-    <cfRule type="containsText" dxfId="166" priority="1481" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="146" priority="1481" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107">
-    <cfRule type="containsText" dxfId="165" priority="1483" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="145" priority="1483" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107">
-    <cfRule type="containsText" dxfId="164" priority="1484" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="144" priority="1484" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107">
-    <cfRule type="containsText" dxfId="163" priority="1485" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="143" priority="1485" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107 F122:F123">
-    <cfRule type="containsText" dxfId="162" priority="1486" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="142" priority="1486" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107 F194:F197">
-    <cfRule type="containsText" dxfId="161" priority="1487" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="141" priority="1487" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107 F194 F196">
-    <cfRule type="containsText" dxfId="160" priority="1488" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="140" priority="1488" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107">
-    <cfRule type="containsText" dxfId="159" priority="1489" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="139" priority="1489" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107">
-    <cfRule type="containsText" dxfId="158" priority="1490" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="138" priority="1490" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107 F195:F196">
-    <cfRule type="containsText" dxfId="157" priority="1491" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="137" priority="1491" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107 F195:F197">
-    <cfRule type="containsText" dxfId="156" priority="1492" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="136" priority="1492" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107">
-    <cfRule type="containsText" dxfId="155" priority="1493" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="135" priority="1493" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107">
-    <cfRule type="containsText" dxfId="154" priority="1494" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="134" priority="1494" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F108">
-    <cfRule type="containsText" dxfId="153" priority="1495" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="133" priority="1495" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F109">
-    <cfRule type="containsText" dxfId="152" priority="1496" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="132" priority="1496" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F119">
-    <cfRule type="containsText" dxfId="151" priority="1497" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="131" priority="1497" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F119">
-    <cfRule type="containsText" dxfId="150" priority="1498" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="130" priority="1498" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="1499" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="129" priority="1499" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F122:F123">
-    <cfRule type="containsText" dxfId="148" priority="1500" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="128" priority="1500" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F122:F123">
-    <cfRule type="containsText" dxfId="147" priority="1501" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="127" priority="1501" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F122:F123">
-    <cfRule type="containsText" dxfId="146" priority="1502" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="126" priority="1502" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F122:F123 F196:F197">
-    <cfRule type="containsText" dxfId="145" priority="1504" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="125" priority="1504" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F122:F123 F194 F197">
-    <cfRule type="containsText" dxfId="144" priority="1505" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="124" priority="1505" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F123">
-    <cfRule type="containsText" dxfId="143" priority="1507" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="123" priority="1507" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F123">
-    <cfRule type="containsText" dxfId="142" priority="1510" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="122" priority="1510" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194:F195">
-    <cfRule type="containsText" dxfId="141" priority="1515" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="121" priority="1515" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194:F195">
-    <cfRule type="containsText" dxfId="140" priority="1516" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="120" priority="1516" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="139" priority="1517" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="119" priority="1517" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194:F195">
-    <cfRule type="containsText" dxfId="138" priority="1518" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="118" priority="1518" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194:F195">
-    <cfRule type="containsText" dxfId="137" priority="1519" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="117" priority="1519" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194 F196">
-    <cfRule type="containsText" dxfId="136" priority="1520" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="116" priority="1520" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="135" priority="1521" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="115" priority="1521" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="134" priority="1522" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="114" priority="1522" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194 F197">
-    <cfRule type="containsText" dxfId="133" priority="1523" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="113" priority="1523" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F197 F194:F195">
-    <cfRule type="containsText" dxfId="132" priority="1524" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="112" priority="1524" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F197 F194:F195">
-    <cfRule type="containsText" dxfId="131" priority="1525" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="111" priority="1525" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194:F195">
-    <cfRule type="containsText" dxfId="130" priority="1526" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="110" priority="1526" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194 F197">
-    <cfRule type="containsText" dxfId="129" priority="1527" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="109" priority="1527" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="128" priority="1528" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="108" priority="1528" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="127" priority="1529" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="107" priority="1529" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194:F197">
-    <cfRule type="containsText" dxfId="126" priority="1530" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="106" priority="1530" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194 F197">
-    <cfRule type="containsText" dxfId="125" priority="1531" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="105" priority="1531" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F197 F194:F195">
-    <cfRule type="containsText" dxfId="124" priority="1533" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="104" priority="1533" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F197 F194:F195">
-    <cfRule type="containsText" dxfId="123" priority="1534" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="103" priority="1534" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F197 F194:F195">
-    <cfRule type="containsText" dxfId="122" priority="1535" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="102" priority="1535" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F197 F194:F195">
-    <cfRule type="containsText" dxfId="121" priority="1536" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="101" priority="1536" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194 F196">
-    <cfRule type="containsText" dxfId="120" priority="1537" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="100" priority="1537" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F197 F194:F195">
-    <cfRule type="containsText" dxfId="119" priority="1538" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="99" priority="1538" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194 F196">
-    <cfRule type="containsText" dxfId="118" priority="1540" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="98" priority="1540" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194 F196">
-    <cfRule type="containsText" dxfId="117" priority="1541" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="97" priority="1541" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194:F197">
-    <cfRule type="containsText" dxfId="116" priority="1543" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="96" priority="1543" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194:F197">
-    <cfRule type="containsText" dxfId="115" priority="1544" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="95" priority="1544" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194">
-    <cfRule type="containsText" dxfId="114" priority="1545" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="94" priority="1545" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194 F197">
-    <cfRule type="containsText" dxfId="113" priority="1546" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="93" priority="1546" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194 F196:F197">
-    <cfRule type="containsText" dxfId="112" priority="1547" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="92" priority="1547" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F197 F194:F195">
-    <cfRule type="containsText" dxfId="111" priority="1548" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="91" priority="1548" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194:F195">
-    <cfRule type="containsText" dxfId="110" priority="1550" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="90" priority="1550" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F197 F195">
-    <cfRule type="containsText" dxfId="109" priority="1551" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="89" priority="1551" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F195:F196">
-    <cfRule type="containsText" dxfId="108" priority="1553" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="88" priority="1553" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F195:F197">
-    <cfRule type="containsText" dxfId="107" priority="1554" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="87" priority="1554" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F195">
-    <cfRule type="containsText" dxfId="106" priority="1557" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="86" priority="1557" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F195:F196">
-    <cfRule type="containsText" dxfId="105" priority="1558" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="85" priority="1558" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F195">
-    <cfRule type="containsText" dxfId="104" priority="1559" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="84" priority="1559" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F195">
-    <cfRule type="containsText" dxfId="103" priority="1561" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="83" priority="1561" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F197 F195">
-    <cfRule type="containsText" dxfId="102" priority="1562" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="82" priority="1562" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F195">
-    <cfRule type="containsText" dxfId="101" priority="1564" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="81" priority="1564" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F195 F197">
-    <cfRule type="containsText" dxfId="100" priority="1568" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="80" priority="1568" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F195:F197">
-    <cfRule type="containsText" dxfId="99" priority="1575" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="79" priority="1575" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F195 F197">
-    <cfRule type="containsText" dxfId="98" priority="1583" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="78" priority="1583" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F195 F197">
-    <cfRule type="containsText" dxfId="97" priority="1584" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="77" priority="1584" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F195">
-    <cfRule type="containsText" dxfId="96" priority="1591" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="76" priority="1591" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196:F197">
-    <cfRule type="containsText" dxfId="95" priority="1601" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="75" priority="1601" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196:F197">
-    <cfRule type="containsText" dxfId="94" priority="1602" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="74" priority="1602" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196:F197">
-    <cfRule type="containsText" dxfId="93" priority="1603" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="73" priority="1603" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196:F197">
-    <cfRule type="containsText" dxfId="92" priority="1604" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="72" priority="1604" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196:F197">
-    <cfRule type="containsText" dxfId="91" priority="1605" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="71" priority="1605" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196:F197">
-    <cfRule type="containsText" dxfId="90" priority="1606" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="70" priority="1606" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196">
-    <cfRule type="containsText" dxfId="89" priority="1607" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="69" priority="1607" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196">
-    <cfRule type="containsText" dxfId="88" priority="1610" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="68" priority="1610" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196">
-    <cfRule type="containsText" dxfId="87" priority="1616" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="67" priority="1616" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196">
-    <cfRule type="containsText" dxfId="86" priority="1617" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="66" priority="1617" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196">
-    <cfRule type="containsText" dxfId="85" priority="1618" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="65" priority="1618" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196">
-    <cfRule type="containsText" dxfId="84" priority="1620" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="64" priority="1620" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196">
-    <cfRule type="containsText" dxfId="83" priority="1621" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="63" priority="1621" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196">
-    <cfRule type="containsText" dxfId="82" priority="1622" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="62" priority="1622" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196">
-    <cfRule type="containsText" dxfId="81" priority="1624" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="61" priority="1624" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196">
-    <cfRule type="containsText" dxfId="80" priority="1625" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="60" priority="1625" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196">
-    <cfRule type="containsText" dxfId="79" priority="1626" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="59" priority="1626" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196">
-    <cfRule type="containsText" dxfId="78" priority="1632" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="58" priority="1632" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196">
-    <cfRule type="containsText" dxfId="77" priority="1633" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="57" priority="1633" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F197">
-    <cfRule type="containsText" dxfId="76" priority="1637" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="56" priority="1637" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F197">
-    <cfRule type="containsText" dxfId="75" priority="1639" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="55" priority="1639" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F197">
-    <cfRule type="containsText" dxfId="74" priority="1644" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="54" priority="1644" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F198">
-    <cfRule type="containsText" dxfId="73" priority="1648" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="53" priority="1648" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G198">
-    <cfRule type="containsText" dxfId="72" priority="1649" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="52" priority="1649" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E261">
-    <cfRule type="cellIs" dxfId="71" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="84" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="85" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="86" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G261">
-    <cfRule type="containsText" dxfId="68" priority="81" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="48" priority="81" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G261)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="82" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="47" priority="82" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G261)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="83" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="46" priority="83" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F261">
-    <cfRule type="containsText" dxfId="65" priority="80" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="45" priority="80" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F262">
-    <cfRule type="containsText" dxfId="64" priority="79" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="44" priority="79" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F262)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E262">
-    <cfRule type="cellIs" dxfId="63" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="76" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="77" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="78" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E262">
-    <cfRule type="cellIs" dxfId="60" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="75" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E262">
-    <cfRule type="cellIs" dxfId="59" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="74" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E262">
-    <cfRule type="cellIs" dxfId="58" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="73" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G262">
-    <cfRule type="containsText" dxfId="57" priority="70" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="37" priority="70" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G262)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="71" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="36" priority="71" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G262)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="72" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="35" priority="72" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G262)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G262">
-    <cfRule type="containsText" dxfId="54" priority="69" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="34" priority="69" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH(("0"),(G262))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G262">
-    <cfRule type="containsText" dxfId="53" priority="68" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="33" priority="68" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH(("Closed"),(G262))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G262">
-    <cfRule type="containsText" dxfId="52" priority="67" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="32" priority="67" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH(("Open"),(G262))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G262">
-    <cfRule type="containsText" dxfId="51" priority="64" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="31" priority="64" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G262)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="65" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="30" priority="65" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G262)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="66" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="29" priority="66" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G262)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G262">
-    <cfRule type="containsText" dxfId="48" priority="63" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="28" priority="63" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH(("0"),(G262))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G262">
-    <cfRule type="containsText" dxfId="47" priority="62" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="27" priority="62" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH(("Closed"),(G262))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G262">
-    <cfRule type="containsText" dxfId="46" priority="61" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="26" priority="61" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH(("Open"),(G262))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E262">
-    <cfRule type="cellIs" dxfId="45" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="58" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="59" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="60" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E262">
-    <cfRule type="cellIs" dxfId="42" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="57" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E262">
-    <cfRule type="cellIs" dxfId="41" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="56" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E262">
-    <cfRule type="cellIs" dxfId="40" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="55" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G263">
-    <cfRule type="containsText" dxfId="39" priority="52" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="19" priority="52" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G263)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="53" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="18" priority="53" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G263)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="54" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="17" priority="54" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G263)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E263">
-    <cfRule type="cellIs" dxfId="36" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="49" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="50" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="51" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F263">
-    <cfRule type="containsText" dxfId="33" priority="48" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="13" priority="48" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F263)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F263">
-    <cfRule type="containsText" dxfId="32" priority="47" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="12" priority="47" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F263)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G264">
-    <cfRule type="containsText" dxfId="31" priority="44" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="11" priority="44" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G264)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="45" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="10" priority="45" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G264)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="46" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="9" priority="46" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F264">
-    <cfRule type="containsText" dxfId="28" priority="39" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="8" priority="39" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E264">
-    <cfRule type="cellIs" dxfId="27" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="41" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="42" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="43" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F264">
-    <cfRule type="containsText" dxfId="24" priority="40" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="4" priority="40" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F264)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G265">
-    <cfRule type="containsText" dxfId="23" priority="36" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G265)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="37" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G265)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="38" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G265)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E265">
-    <cfRule type="cellIs" dxfId="20" priority="33" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="34" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="35" operator="equal">
-      <formula>"Major"</formula>
+  <conditionalFormatting sqref="F266">
+    <cfRule type="containsText" dxfId="3" priority="32" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F266)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F266">
+    <cfRule type="containsText" dxfId="2" priority="31" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F266)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F265">
-    <cfRule type="containsText" dxfId="17" priority="32" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F265)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F265">
-    <cfRule type="containsText" dxfId="16" priority="31" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F265)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G266">
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G266)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G266)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G266)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E266">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F266">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F266)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F266">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F266)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -22,7 +22,7 @@
     <sheet name="Rig_Mast_Problems_Drops" sheetId="11" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">All_Critical_Points!$A$1:$I$266</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">All_Critical_Points!$A$1:$I$265</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Phase_Dates!$A$1:$C$162</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Plan!$A$1:$G$30</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Rig_Mast_Problems_Drops!$A$1:$C$12</definedName>
@@ -15175,7 +15175,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J263" sqref="J263"/>
+      <selection pane="bottomLeft" activeCell="A267" sqref="A267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22762,66 +22762,66 @@
         <v>73</v>
       </c>
     </row>
-    <row r="265" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A265" s="70" t="s">
-        <v>822</v>
+        <v>174</v>
       </c>
       <c r="B265" s="218" t="s">
-        <v>358</v>
+        <v>836</v>
       </c>
       <c r="C265" s="15" t="s">
-        <v>44</v>
+        <v>837</v>
       </c>
       <c r="D265" s="221" t="s">
-        <v>865</v>
+        <v>838</v>
       </c>
       <c r="E265" s="222" t="s">
         <v>31</v>
       </c>
       <c r="F265" s="10" t="s">
-        <v>866</v>
+        <v>839</v>
       </c>
       <c r="G265" s="220" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="H265" s="70" t="s">
-        <v>15</v>
+        <v>179</v>
       </c>
       <c r="I265" s="70" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="266" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A266" s="70" t="s">
-        <v>174</v>
+        <v>822</v>
       </c>
       <c r="B266" s="218" t="s">
-        <v>836</v>
+        <v>358</v>
       </c>
       <c r="C266" s="15" t="s">
-        <v>837</v>
+        <v>44</v>
       </c>
       <c r="D266" s="221" t="s">
-        <v>838</v>
+        <v>865</v>
       </c>
       <c r="E266" s="222" t="s">
         <v>31</v>
       </c>
       <c r="F266" s="10" t="s">
-        <v>839</v>
+        <v>866</v>
       </c>
       <c r="G266" s="220" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="H266" s="70" t="s">
-        <v>179</v>
+        <v>15</v>
       </c>
       <c r="I266" s="70" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I266"/>
+  <autoFilter ref="A1:I265"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G59 G265:G266">
     <cfRule type="containsText" dxfId="1309" priority="1469" operator="containsText" text="0">
@@ -28177,24 +28177,24 @@
       <formula>NOT(ISERROR(SEARCH("open",F264)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F265">
+    <cfRule type="containsText" dxfId="3" priority="32" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F265)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F265">
+    <cfRule type="containsText" dxfId="2" priority="31" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F265)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F266">
-    <cfRule type="containsText" dxfId="3" priority="32" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F266)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F266">
-    <cfRule type="containsText" dxfId="2" priority="31" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F266)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F265">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F265)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F265">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F265)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28266,8 +28266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C163"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B163" sqref="B163"/>
+    <sheetView topLeftCell="A145" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E162" sqref="E162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7095" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7095"/>
   </bookViews>
   <sheets>
     <sheet name="Audit_Teams_Follow_Up" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2910" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2923" uniqueCount="872">
   <si>
     <t>Team No.</t>
   </si>
@@ -3034,6 +3034,24 @@
   <si>
     <t>API RP 14FZ 6.10.3 ,API RP 540 5.5 , NFPA 70B 6.1.5</t>
   </si>
+  <si>
+    <t>5.8.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VFD power units not equipped with fixed co2 fire protection system, should to be provided before acceptance </t>
+  </si>
+  <si>
+    <t>API RP 54 7.2,NFPA 13,25</t>
+  </si>
+  <si>
+    <t>WD-33C-1X (JASPER-1X)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incident Investigation
+DW Brake Failure &amp; String Slippage
+(Free Fall to Rig Floor)
+</t>
+  </si>
 </sst>
 </file>
 
@@ -3045,7 +3063,7 @@
     <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yyyy"/>
     <numFmt numFmtId="167" formatCode="_-&quot;ج.م.‏&quot;\ * #,##0.00_-;_-&quot;ج.م.‏&quot;\ * #,##0.00\-;_-&quot;ج.م.‏&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3303,6 +3321,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -3521,7 +3545,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -3531,8 +3555,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="228">
+  <cellXfs count="230">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4323,10 +4356,19 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="18">
     <cellStyle name="Currency 2" xfId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="12"/>
+    <cellStyle name="Normal 2 2" xfId="14"/>
+    <cellStyle name="Normal 2 2 2" xfId="15"/>
     <cellStyle name="Normal 2 2 2 2" xfId="4"/>
     <cellStyle name="Normal 2 2 3" xfId="2"/>
     <cellStyle name="Normal 2 2 4" xfId="5"/>
@@ -4334,8 +4376,76 @@
     <cellStyle name="Normal 2 3 3" xfId="6"/>
     <cellStyle name="Normal 2 4" xfId="3"/>
     <cellStyle name="Normal 3" xfId="8"/>
+    <cellStyle name="Normal 3 2" xfId="16"/>
+    <cellStyle name="Normal 35" xfId="10"/>
+    <cellStyle name="Normal 35 2" xfId="11"/>
+    <cellStyle name="Normal 35 2 2" xfId="13"/>
+    <cellStyle name="Normal 4" xfId="9"/>
+    <cellStyle name="Percent 2" xfId="17"/>
   </cellStyles>
-  <dxfs count="1310">
+  <dxfs count="1318">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -14930,10 +15040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15018,6 +15128,29 @@
       </c>
       <c r="H4" s="4" t="s">
         <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" s="228" t="s">
+        <v>871</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="F5" s="229">
+        <v>45171</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -15171,11 +15304,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I266"/>
+  <dimension ref="A1:I267"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A267" sqref="A267"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A265" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D271" sqref="D271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22820,63 +22953,122 @@
         <v>73</v>
       </c>
     </row>
+    <row r="267" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+      <c r="A267" s="70" t="s">
+        <v>822</v>
+      </c>
+      <c r="B267" s="218" t="s">
+        <v>867</v>
+      </c>
+      <c r="C267" s="15"/>
+      <c r="D267" s="221" t="s">
+        <v>868</v>
+      </c>
+      <c r="E267" s="222" t="s">
+        <v>48</v>
+      </c>
+      <c r="F267" s="10" t="s">
+        <v>869</v>
+      </c>
+      <c r="G267" s="220" t="s">
+        <v>50</v>
+      </c>
+      <c r="H267" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="I267" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:I265"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G59 G265:G266">
-    <cfRule type="containsText" dxfId="1309" priority="1469" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1317" priority="1477" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1308" priority="1470" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="1316" priority="1478" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1307" priority="1471" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1315" priority="1479" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="containsText" dxfId="1306" priority="1465" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1314" priority="1473" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="containsText" dxfId="1305" priority="1464" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1313" priority="1472" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59 E265:E266">
-    <cfRule type="cellIs" dxfId="1304" priority="1466" operator="equal">
+    <cfRule type="cellIs" dxfId="1312" priority="1474" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1303" priority="1467" operator="equal">
+    <cfRule type="cellIs" dxfId="1311" priority="1475" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1302" priority="1468" operator="equal">
+    <cfRule type="cellIs" dxfId="1310" priority="1476" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="1301" priority="1459" operator="equal">
+    <cfRule type="cellIs" dxfId="1309" priority="1467" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1300" priority="1460" operator="equal">
+    <cfRule type="cellIs" dxfId="1308" priority="1468" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1299" priority="1461" operator="equal">
+    <cfRule type="cellIs" dxfId="1307" priority="1469" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60:G60">
-    <cfRule type="containsText" dxfId="1298" priority="1462" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1306" priority="1470" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",#REF!)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60:G60">
-    <cfRule type="containsText" dxfId="1297" priority="1463" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1305" priority="1471" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",#REF!)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="1304" priority="1464" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1303" priority="1465" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1302" priority="1466" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F61">
+    <cfRule type="containsText" dxfId="1301" priority="1459" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F61)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F61">
+    <cfRule type="containsText" dxfId="1300" priority="1460" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F61)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G61">
+    <cfRule type="containsText" dxfId="1299" priority="1461" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1298" priority="1462" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1297" priority="1463" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G61)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
     <cfRule type="cellIs" dxfId="1296" priority="1456" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
@@ -22887,28 +23079,28 @@
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F61">
-    <cfRule type="containsText" dxfId="1293" priority="1451" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F61)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F61">
-    <cfRule type="containsText" dxfId="1292" priority="1452" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F61)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G61">
-    <cfRule type="containsText" dxfId="1291" priority="1453" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G61)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1290" priority="1454" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G61)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1289" priority="1455" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G61)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
+  <conditionalFormatting sqref="F62">
+    <cfRule type="containsText" dxfId="1293" priority="1455" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62">
+    <cfRule type="containsText" dxfId="1292" priority="1451" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G62">
+    <cfRule type="containsText" dxfId="1291" priority="1452" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G62)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1290" priority="1453" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G62)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1289" priority="1454" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
     <cfRule type="cellIs" dxfId="1288" priority="1448" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
@@ -22919,176 +23111,176 @@
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F62">
+  <conditionalFormatting sqref="F63">
     <cfRule type="containsText" dxfId="1285" priority="1447" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F62)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F62">
-    <cfRule type="containsText" dxfId="1284" priority="1443" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F62)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G62">
-    <cfRule type="containsText" dxfId="1283" priority="1444" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G62)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1282" priority="1445" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G62)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1281" priority="1446" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G62)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="1280" priority="1440" operator="equal">
+      <formula>NOT(ISERROR(SEARCH("open",F63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G63">
+    <cfRule type="containsText" dxfId="1284" priority="1444" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G63)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1283" priority="1445" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G63)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1282" priority="1446" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="containsText" dxfId="1281" priority="1441" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1280" priority="1442" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1279" priority="1443" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="1278" priority="1438" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1279" priority="1441" operator="equal">
+    <cfRule type="cellIs" dxfId="1277" priority="1439" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1278" priority="1442" operator="equal">
+    <cfRule type="cellIs" dxfId="1276" priority="1440" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F63">
-    <cfRule type="containsText" dxfId="1277" priority="1439" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F63)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G63">
-    <cfRule type="containsText" dxfId="1276" priority="1436" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G63)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1275" priority="1437" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G63)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1274" priority="1438" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G63)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="1273" priority="1433" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1272" priority="1434" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1271" priority="1435" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="1270" priority="1430" operator="equal">
+    <cfRule type="cellIs" dxfId="1275" priority="1435" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1269" priority="1431" operator="equal">
+    <cfRule type="cellIs" dxfId="1274" priority="1436" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1268" priority="1432" operator="equal">
+    <cfRule type="cellIs" dxfId="1273" priority="1437" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="1267" priority="1427" operator="equal">
+  <conditionalFormatting sqref="F5">
+    <cfRule type="containsText" dxfId="1272" priority="1434" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="containsText" dxfId="1271" priority="1433" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="containsText" dxfId="1270" priority="1431" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="containsText" dxfId="1269" priority="1432" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="containsText" dxfId="1268" priority="1428" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1267" priority="1429" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1266" priority="1430" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="1265" priority="1425" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1266" priority="1428" operator="equal">
+    <cfRule type="cellIs" dxfId="1264" priority="1426" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1265" priority="1429" operator="equal">
+    <cfRule type="cellIs" dxfId="1263" priority="1427" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="1264" priority="1426" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="1263" priority="1425" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="1262" priority="1423" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="1261" priority="1424" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="1260" priority="1420" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1259" priority="1421" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1258" priority="1422" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="1257" priority="1417" operator="equal">
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="1262" priority="1422" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1256" priority="1418" operator="equal">
+    <cfRule type="cellIs" dxfId="1261" priority="1423" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1255" priority="1419" operator="equal">
+    <cfRule type="cellIs" dxfId="1260" priority="1424" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="1254" priority="1414" operator="equal">
+  <conditionalFormatting sqref="G7">
+    <cfRule type="containsText" dxfId="1259" priority="1419" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1258" priority="1420" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1257" priority="1421" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="containsText" dxfId="1256" priority="1418" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="cellIs" dxfId="1255" priority="1415" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1253" priority="1415" operator="equal">
+    <cfRule type="cellIs" dxfId="1254" priority="1416" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1252" priority="1416" operator="equal">
+    <cfRule type="cellIs" dxfId="1253" priority="1417" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="containsText" dxfId="1251" priority="1411" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1250" priority="1412" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1249" priority="1413" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="1248" priority="1410" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="1247" priority="1407" operator="equal">
+  <conditionalFormatting sqref="G27">
+    <cfRule type="containsText" dxfId="1252" priority="1412" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1251" priority="1413" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1250" priority="1414" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="containsText" dxfId="1249" priority="1409" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1248" priority="1410" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1247" priority="1411" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="1246" priority="1406" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1246" priority="1408" operator="equal">
+    <cfRule type="cellIs" dxfId="1245" priority="1407" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1245" priority="1409" operator="equal">
+    <cfRule type="cellIs" dxfId="1244" priority="1408" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="1244" priority="1404" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1243" priority="1405" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1242" priority="1406" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G27)))</formula>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="containsText" dxfId="1243" priority="1405" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="containsText" dxfId="1242" priority="1404" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
@@ -23114,13 +23306,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="1235" priority="1397" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1235" priority="1397" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="containsText" dxfId="1234" priority="1396" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="1234" priority="1396" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
@@ -23187,57 +23379,57 @@
       <formula>NOT(ISERROR(SEARCH("open",F29)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="1217" priority="1377" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1216" priority="1378" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1215" priority="1379" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="1214" priority="1374" operator="equal">
+  <conditionalFormatting sqref="F30">
+    <cfRule type="containsText" dxfId="1217" priority="1378" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="1216" priority="1375" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1213" priority="1375" operator="equal">
+    <cfRule type="cellIs" dxfId="1215" priority="1376" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1212" priority="1376" operator="equal">
+    <cfRule type="cellIs" dxfId="1214" priority="1377" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="1211" priority="1373" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="1210" priority="1372" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="1209" priority="1370" operator="containsText" text="closed">
+    <cfRule type="containsText" dxfId="1213" priority="1379" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30">
+    <cfRule type="containsText" dxfId="1212" priority="1372" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1211" priority="1373" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1210" priority="1374" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="1209" priority="1369" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1208" priority="1370" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1207" priority="1371" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="containsText" dxfId="1206" priority="1368" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="containsText" dxfId="1205" priority="1367" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",F30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="1208" priority="1367" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1207" priority="1368" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1206" priority="1369" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="1205" priority="1371" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
@@ -23251,36 +23443,36 @@
       <formula>NOT(ISERROR(SEARCH("Open",G30)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G30">
+    <cfRule type="containsText" dxfId="1201" priority="1361" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1200" priority="1362" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1199" priority="1363" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="1201" priority="1361" operator="equal">
+    <cfRule type="cellIs" dxfId="1198" priority="1358" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1200" priority="1362" operator="equal">
+    <cfRule type="cellIs" dxfId="1197" priority="1359" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1199" priority="1363" operator="equal">
+    <cfRule type="cellIs" dxfId="1196" priority="1360" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="1198" priority="1360" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1195" priority="1357" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="containsText" dxfId="1194" priority="1356" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="1197" priority="1359" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
-    <cfRule type="containsText" dxfId="1196" priority="1356" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1195" priority="1357" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1194" priority="1358" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
@@ -23315,563 +23507,563 @@
       <formula>NOT(ISERROR(SEARCH("open",F30)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
+  <conditionalFormatting sqref="G31">
     <cfRule type="containsText" dxfId="1185" priority="1345" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G30)))</formula>
+      <formula>NOT(ISERROR(SEARCH("0",G31)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1184" priority="1346" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G30)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Closed",G31)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1183" priority="1347" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="1182" priority="1342" operator="equal">
+      <formula>NOT(ISERROR(SEARCH("Open",G31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="containsText" dxfId="1182" priority="1344" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="containsText" dxfId="1181" priority="1343" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="1180" priority="1340" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1181" priority="1343" operator="equal">
+    <cfRule type="cellIs" dxfId="1179" priority="1341" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1180" priority="1344" operator="equal">
+    <cfRule type="cellIs" dxfId="1178" priority="1342" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="1179" priority="1341" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="1178" priority="1340" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31">
-    <cfRule type="containsText" dxfId="1177" priority="1337" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1176" priority="1338" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1175" priority="1339" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="1174" priority="1336" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="1173" priority="1335" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="1172" priority="1332" operator="equal">
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="1177" priority="1337" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1171" priority="1333" operator="equal">
+    <cfRule type="cellIs" dxfId="1176" priority="1338" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1170" priority="1334" operator="equal">
+    <cfRule type="cellIs" dxfId="1175" priority="1339" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="1169" priority="1329" operator="equal">
+  <conditionalFormatting sqref="G32">
+    <cfRule type="containsText" dxfId="1174" priority="1334" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1173" priority="1335" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1172" priority="1336" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
+    <cfRule type="containsText" dxfId="1171" priority="1333" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
+    <cfRule type="containsText" dxfId="1170" priority="1332" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
+    <cfRule type="containsText" dxfId="1169" priority="1331" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33:F33">
+    <cfRule type="cellIs" dxfId="1168" priority="1328" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1168" priority="1330" operator="equal">
+    <cfRule type="cellIs" dxfId="1167" priority="1329" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1167" priority="1331" operator="equal">
+    <cfRule type="cellIs" dxfId="1166" priority="1330" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
-    <cfRule type="containsText" dxfId="1166" priority="1326" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1165" priority="1327" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1164" priority="1328" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
-    <cfRule type="containsText" dxfId="1163" priority="1325" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
-    <cfRule type="containsText" dxfId="1162" priority="1324" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="1161" priority="1323" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1165" priority="1327" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F33)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33:F33">
-    <cfRule type="cellIs" dxfId="1160" priority="1320" operator="equal">
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="1164" priority="1326" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1159" priority="1321" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="1163" priority="1325" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1158" priority="1322" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="1162" priority="1324" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="1157" priority="1319" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="1156" priority="1318" operator="equal">
+  <conditionalFormatting sqref="G33">
+    <cfRule type="containsText" dxfId="1161" priority="1321" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1160" priority="1322" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1159" priority="1323" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33">
+    <cfRule type="containsText" dxfId="1158" priority="1320" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH(("0"),(G33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33">
+    <cfRule type="containsText" dxfId="1157" priority="1319" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH(("Closed"),(G33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33">
+    <cfRule type="containsText" dxfId="1156" priority="1318" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH(("Open"),(G33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
+    <cfRule type="containsText" dxfId="1155" priority="1315" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1154" priority="1316" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1153" priority="1317" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="1152" priority="1312" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="1155" priority="1317" operator="equal">
+    <cfRule type="cellIs" dxfId="1151" priority="1313" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="1154" priority="1316" operator="equal">
+    <cfRule type="cellIs" dxfId="1150" priority="1314" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33">
-    <cfRule type="containsText" dxfId="1153" priority="1313" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1152" priority="1314" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1151" priority="1315" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G33">
-    <cfRule type="containsText" dxfId="1150" priority="1312" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH(("0"),(G33))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G33">
-    <cfRule type="containsText" dxfId="1149" priority="1311" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH(("Closed"),(G33))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G33">
-    <cfRule type="containsText" dxfId="1148" priority="1310" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH(("Open"),(G33))))</formula>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="1149" priority="1311" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="1148" priority="1310" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="1147" priority="1309" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
+    <cfRule type="containsText" dxfId="1146" priority="1308" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
+    <cfRule type="cellIs" dxfId="1145" priority="1305" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1144" priority="1306" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1143" priority="1307" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
+    <cfRule type="containsText" dxfId="1142" priority="1304" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="1147" priority="1307" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1146" priority="1308" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1145" priority="1309" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="1144" priority="1304" operator="equal">
+    <cfRule type="containsText" dxfId="1141" priority="1303" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH(("0"),(G34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
+    <cfRule type="containsText" dxfId="1140" priority="1302" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH(("Closed"),(G34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
+    <cfRule type="containsText" dxfId="1139" priority="1301" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH(("Open"),(G34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="1138" priority="1293" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1143" priority="1305" operator="equal">
+    <cfRule type="cellIs" dxfId="1137" priority="1294" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1142" priority="1306" operator="equal">
+    <cfRule type="cellIs" dxfId="1136" priority="1295" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="1141" priority="1303" operator="equal">
+  <conditionalFormatting sqref="F46">
+    <cfRule type="containsText" dxfId="1135" priority="1300" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="containsText" dxfId="1134" priority="1299" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="containsText" dxfId="1133" priority="1297" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1132" priority="1298" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="containsText" dxfId="1131" priority="1296" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G46">
+    <cfRule type="containsText" dxfId="1130" priority="1290" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1129" priority="1291" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1128" priority="1292" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="1127" priority="1287" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="1140" priority="1302" operator="equal">
+    <cfRule type="cellIs" dxfId="1126" priority="1288" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="1139" priority="1301" operator="equal">
+    <cfRule type="cellIs" dxfId="1125" priority="1289" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
-    <cfRule type="containsText" dxfId="1138" priority="1300" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="1137" priority="1297" operator="equal">
+  <conditionalFormatting sqref="G47">
+    <cfRule type="containsText" dxfId="1124" priority="1284" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1123" priority="1285" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1122" priority="1286" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48">
+    <cfRule type="containsText" dxfId="1121" priority="1283" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="1120" priority="1280" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1136" priority="1298" operator="equal">
+    <cfRule type="cellIs" dxfId="1119" priority="1281" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1135" priority="1299" operator="equal">
+    <cfRule type="cellIs" dxfId="1118" priority="1282" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
-    <cfRule type="containsText" dxfId="1134" priority="1296" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="1133" priority="1295" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH(("0"),(G34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="1132" priority="1294" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH(("Closed"),(G34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="1131" priority="1293" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH(("Open"),(G34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="1130" priority="1285" operator="equal">
+  <conditionalFormatting sqref="G48">
+    <cfRule type="containsText" dxfId="1117" priority="1277" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1116" priority="1278" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1115" priority="1279" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49">
+    <cfRule type="containsText" dxfId="1114" priority="1269" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1113" priority="1270" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1112" priority="1271" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="1111" priority="1274" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1129" priority="1286" operator="equal">
+    <cfRule type="cellIs" dxfId="1110" priority="1275" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1128" priority="1287" operator="equal">
+    <cfRule type="cellIs" dxfId="1109" priority="1276" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
-    <cfRule type="containsText" dxfId="1127" priority="1292" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
-    <cfRule type="containsText" dxfId="1126" priority="1291" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
-    <cfRule type="containsText" dxfId="1125" priority="1289" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1124" priority="1290" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
-    <cfRule type="containsText" dxfId="1123" priority="1288" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G46">
-    <cfRule type="containsText" dxfId="1122" priority="1282" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1121" priority="1283" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1120" priority="1284" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="1119" priority="1279" operator="equal">
+  <conditionalFormatting sqref="F49">
+    <cfRule type="containsText" dxfId="1108" priority="1273" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49">
+    <cfRule type="containsText" dxfId="1107" priority="1272" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G50">
+    <cfRule type="containsText" dxfId="1106" priority="1266" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1105" priority="1267" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1104" priority="1268" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F50">
+    <cfRule type="containsText" dxfId="1103" priority="1265" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F50">
+    <cfRule type="containsText" dxfId="1102" priority="1264" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="1101" priority="1261" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1118" priority="1280" operator="equal">
+    <cfRule type="cellIs" dxfId="1100" priority="1262" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1117" priority="1281" operator="equal">
+    <cfRule type="cellIs" dxfId="1099" priority="1263" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G47">
-    <cfRule type="containsText" dxfId="1116" priority="1276" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G47)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1115" priority="1277" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G47)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1114" priority="1278" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F48">
-    <cfRule type="containsText" dxfId="1113" priority="1275" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="1112" priority="1272" operator="equal">
+  <conditionalFormatting sqref="G51">
+    <cfRule type="containsText" dxfId="1098" priority="1243" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1097" priority="1244" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1096" priority="1245" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F51">
+    <cfRule type="containsText" dxfId="1095" priority="1242" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F51">
+    <cfRule type="containsText" dxfId="1094" priority="1255" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G51">
+    <cfRule type="containsText" dxfId="1093" priority="1246" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",G51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1092" priority="1247" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1091" priority="1248" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G51">
+    <cfRule type="containsText" dxfId="1090" priority="1252" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1089" priority="1253" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1088" priority="1254" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",#REF!)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F51">
+    <cfRule type="containsText" dxfId="1087" priority="1259" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1086" priority="1260" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="1085" priority="1249" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1084" priority="1250" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1083" priority="1251" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1111" priority="1273" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51:E52">
+    <cfRule type="cellIs" dxfId="1082" priority="1239" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1081" priority="1240" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1110" priority="1274" operator="equal">
+    <cfRule type="cellIs" dxfId="1080" priority="1241" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G48">
-    <cfRule type="containsText" dxfId="1109" priority="1269" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1108" priority="1270" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1107" priority="1271" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G49">
-    <cfRule type="containsText" dxfId="1106" priority="1261" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1105" priority="1262" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1104" priority="1263" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="1103" priority="1266" operator="equal">
+  <conditionalFormatting sqref="F51">
+    <cfRule type="containsText" dxfId="1079" priority="1256" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1078" priority="1257" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1077" priority="1258" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G51">
+    <cfRule type="containsText" dxfId="1076" priority="1233" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1075" priority="1234" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1074" priority="1235" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1073" priority="1236" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1072" priority="1237" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1071" priority="1238" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F52">
+    <cfRule type="containsText" dxfId="1070" priority="1230" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G52">
+    <cfRule type="containsText" dxfId="1069" priority="1223" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",G52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1068" priority="1224" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1067" priority="1225" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F52">
+    <cfRule type="containsText" dxfId="1066" priority="1231" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G52">
+    <cfRule type="containsText" dxfId="1065" priority="1226" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1064" priority="1227" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1063" priority="1228" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F52">
+    <cfRule type="containsText" dxfId="1062" priority="1229" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F52">
+    <cfRule type="containsText" dxfId="1061" priority="1232" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F53">
+    <cfRule type="containsText" dxfId="1060" priority="1222" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="1059" priority="1219" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1102" priority="1267" operator="equal">
+    <cfRule type="cellIs" dxfId="1058" priority="1220" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1101" priority="1268" operator="equal">
+    <cfRule type="cellIs" dxfId="1057" priority="1221" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
-    <cfRule type="containsText" dxfId="1100" priority="1265" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
-    <cfRule type="containsText" dxfId="1099" priority="1264" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G50">
-    <cfRule type="containsText" dxfId="1098" priority="1258" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1097" priority="1259" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1096" priority="1260" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G50)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F50">
-    <cfRule type="containsText" dxfId="1095" priority="1257" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F50)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F50">
-    <cfRule type="containsText" dxfId="1094" priority="1256" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F50)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="1093" priority="1253" operator="equal">
+  <conditionalFormatting sqref="F53">
+    <cfRule type="containsText" dxfId="1056" priority="1218" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G53">
+    <cfRule type="cellIs" dxfId="1055" priority="1215" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1054" priority="1216" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1053" priority="1217" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54">
+    <cfRule type="containsText" dxfId="1052" priority="1214" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54">
+    <cfRule type="containsText" dxfId="1051" priority="1213" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="1050" priority="1210" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1092" priority="1254" operator="equal">
+    <cfRule type="cellIs" dxfId="1049" priority="1211" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1091" priority="1255" operator="equal">
+    <cfRule type="cellIs" dxfId="1048" priority="1212" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G51">
-    <cfRule type="containsText" dxfId="1090" priority="1235" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1089" priority="1236" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1088" priority="1237" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F51">
-    <cfRule type="containsText" dxfId="1087" priority="1234" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F51">
-    <cfRule type="containsText" dxfId="1086" priority="1247" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G51">
-    <cfRule type="containsText" dxfId="1085" priority="1238" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",G51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1084" priority="1239" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1083" priority="1240" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G51">
-    <cfRule type="containsText" dxfId="1082" priority="1244" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",#REF!)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1081" priority="1245" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",#REF!)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1080" priority="1246" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",#REF!)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F51">
-    <cfRule type="containsText" dxfId="1079" priority="1251" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1078" priority="1252" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="1077" priority="1241" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1076" priority="1242" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1075" priority="1243" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51:E52">
-    <cfRule type="cellIs" dxfId="1074" priority="1231" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1073" priority="1232" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1072" priority="1233" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F51">
-    <cfRule type="containsText" dxfId="1071" priority="1248" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1070" priority="1249" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1069" priority="1250" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G51">
-    <cfRule type="containsText" dxfId="1068" priority="1225" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1067" priority="1226" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1066" priority="1227" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1065" priority="1228" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1064" priority="1229" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1063" priority="1230" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F52">
-    <cfRule type="containsText" dxfId="1062" priority="1222" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F52)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G52">
-    <cfRule type="containsText" dxfId="1061" priority="1215" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",G52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1060" priority="1216" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1059" priority="1217" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G52)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F52">
-    <cfRule type="containsText" dxfId="1058" priority="1223" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G52">
-    <cfRule type="containsText" dxfId="1057" priority="1218" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1056" priority="1219" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1055" priority="1220" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G52)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F52">
-    <cfRule type="containsText" dxfId="1054" priority="1221" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F52)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F52">
-    <cfRule type="containsText" dxfId="1053" priority="1224" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F53">
-    <cfRule type="containsText" dxfId="1052" priority="1214" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F53)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="1051" priority="1211" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1050" priority="1212" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1049" priority="1213" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F53">
-    <cfRule type="containsText" dxfId="1048" priority="1210" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F53)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G53">
+  <conditionalFormatting sqref="G54">
     <cfRule type="cellIs" dxfId="1047" priority="1207" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
@@ -23882,36 +24074,40 @@
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
+  <conditionalFormatting sqref="F55">
     <cfRule type="containsText" dxfId="1044" priority="1206" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F54)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
-    <cfRule type="containsText" dxfId="1043" priority="1205" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F54)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="1042" priority="1202" operator="equal">
+      <formula>NOT(ISERROR(SEARCH("open",F55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55">
+    <cfRule type="cellIs" dxfId="1043" priority="1203" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1041" priority="1203" operator="equal">
+    <cfRule type="cellIs" dxfId="1042" priority="1204" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1040" priority="1204" operator="equal">
+    <cfRule type="cellIs" dxfId="1041" priority="1205" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G54">
-    <cfRule type="cellIs" dxfId="1039" priority="1199" operator="equal">
-      <formula>"In Progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1038" priority="1200" operator="equal">
-      <formula>"Open"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1037" priority="1201" operator="equal">
-      <formula>"Closed"</formula>
+  <conditionalFormatting sqref="F55">
+    <cfRule type="containsText" dxfId="1040" priority="1202" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55">
+    <cfRule type="containsText" dxfId="1039" priority="1201" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55">
+    <cfRule type="containsText" dxfId="1038" priority="1200" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55">
+    <cfRule type="containsText" dxfId="1037" priority="1199" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
@@ -23920,1157 +24116,1153 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="1035" priority="1195" operator="equal">
+    <cfRule type="containsText" dxfId="1035" priority="1197" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55">
+    <cfRule type="containsText" dxfId="1034" priority="1196" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G55:G56">
+    <cfRule type="cellIs" dxfId="1033" priority="1193" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1032" priority="1194" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1031" priority="1195" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="1030" priority="1190" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1034" priority="1196" operator="equal">
+    <cfRule type="cellIs" dxfId="1029" priority="1191" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1033" priority="1197" operator="equal">
+    <cfRule type="cellIs" dxfId="1028" priority="1192" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="1032" priority="1194" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F55)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="1031" priority="1193" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F55)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="1030" priority="1192" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F55)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="1029" priority="1191" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F55)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="1028" priority="1190" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F55)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="1027" priority="1189" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F55)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="1026" priority="1188" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F55)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G55:G56">
-    <cfRule type="cellIs" dxfId="1025" priority="1185" operator="equal">
-      <formula>"In Progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1024" priority="1186" operator="equal">
-      <formula>"Open"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1023" priority="1187" operator="equal">
-      <formula>"Closed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="1022" priority="1182" operator="equal">
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="1027" priority="1186" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1021" priority="1183" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="1026" priority="1187" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1020" priority="1184" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="1025" priority="1188" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="1019" priority="1178" operator="equal">
+  <conditionalFormatting sqref="G57">
+    <cfRule type="containsText" dxfId="1024" priority="1136" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1023" priority="1137" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1022" priority="1138" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G57)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57">
+    <cfRule type="containsText" dxfId="1021" priority="1132" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F57)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57">
+    <cfRule type="containsText" dxfId="1020" priority="1131" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F57)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="1019" priority="1133" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="1018" priority="1179" operator="equal">
+    <cfRule type="cellIs" dxfId="1018" priority="1134" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="1017" priority="1180" operator="equal">
+    <cfRule type="cellIs" dxfId="1017" priority="1135" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G57">
-    <cfRule type="containsText" dxfId="1016" priority="1128" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1015" priority="1129" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1014" priority="1130" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G57)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F57">
-    <cfRule type="containsText" dxfId="1013" priority="1124" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F57)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F57">
-    <cfRule type="containsText" dxfId="1012" priority="1123" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F57)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="1011" priority="1125" operator="equal">
+  <conditionalFormatting sqref="G58">
+    <cfRule type="containsText" dxfId="1016" priority="1120" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1015" priority="1121" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1014" priority="1122" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="1013" priority="1112" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1010" priority="1126" operator="equal">
+    <cfRule type="cellIs" dxfId="1012" priority="1113" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1009" priority="1127" operator="equal">
+    <cfRule type="cellIs" dxfId="1011" priority="1114" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G58">
-    <cfRule type="containsText" dxfId="1008" priority="1112" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1007" priority="1113" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1006" priority="1114" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G58)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="1005" priority="1104" operator="equal">
+  <conditionalFormatting sqref="F58">
+    <cfRule type="containsText" dxfId="1010" priority="1110" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="containsText" dxfId="1009" priority="1111" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F56">
+    <cfRule type="containsText" dxfId="1008" priority="1480" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66:E67">
+    <cfRule type="cellIs" dxfId="1007" priority="1091" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1004" priority="1105" operator="equal">
+    <cfRule type="cellIs" dxfId="1006" priority="1092" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1003" priority="1106" operator="equal">
+    <cfRule type="cellIs" dxfId="1005" priority="1093" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="containsText" dxfId="1002" priority="1102" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F58)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="containsText" dxfId="1001" priority="1103" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F58)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F56">
-    <cfRule type="containsText" dxfId="1000" priority="1472" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E66:E67">
-    <cfRule type="cellIs" dxfId="999" priority="1083" operator="equal">
+    <cfRule type="cellIs" dxfId="1004" priority="1088" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="998" priority="1084" operator="equal">
+    <cfRule type="cellIs" dxfId="1003" priority="1089" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="997" priority="1085" operator="equal">
+    <cfRule type="cellIs" dxfId="1002" priority="1090" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="cellIs" dxfId="1001" priority="1107" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1000" priority="1108" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="999" priority="1109" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E66:E67">
-    <cfRule type="cellIs" dxfId="996" priority="1080" operator="equal">
+    <cfRule type="cellIs" dxfId="998" priority="1094" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="995" priority="1081" operator="equal">
+    <cfRule type="cellIs" dxfId="997" priority="1095" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="994" priority="1082" operator="equal">
+    <cfRule type="cellIs" dxfId="996" priority="1096" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="993" priority="1099" operator="equal">
+  <conditionalFormatting sqref="G66">
+    <cfRule type="containsText" dxfId="995" priority="1097" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="994" priority="1098" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="993" priority="1099" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G66)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G66">
+    <cfRule type="containsText" dxfId="992" priority="1103" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="991" priority="1104" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="990" priority="1105" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G66)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G66">
+    <cfRule type="containsText" dxfId="989" priority="1106" operator="containsText" text="CLOSED">
+      <formula>NOT(ISERROR(SEARCH("CLOSED",G66)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G66">
+    <cfRule type="containsText" dxfId="988" priority="1100" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="987" priority="1101" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="986" priority="1102" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G66)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F66">
+    <cfRule type="containsText" dxfId="985" priority="1087" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F66)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F66">
+    <cfRule type="containsText" dxfId="984" priority="1086" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F66)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G67:G68">
+    <cfRule type="containsText" dxfId="983" priority="1083" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G67)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="982" priority="1084" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G67)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="981" priority="1085" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G67)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F67:F68">
+    <cfRule type="containsText" dxfId="980" priority="1082" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F67)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F67:F68">
+    <cfRule type="containsText" dxfId="979" priority="1081" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F67)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G69">
+    <cfRule type="containsText" dxfId="978" priority="1078" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G69)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="977" priority="1079" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G69)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="976" priority="1080" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="cellIs" dxfId="975" priority="1075" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="992" priority="1100" operator="equal">
+    <cfRule type="cellIs" dxfId="974" priority="1076" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="991" priority="1101" operator="equal">
+    <cfRule type="cellIs" dxfId="973" priority="1077" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E66:E67">
-    <cfRule type="cellIs" dxfId="990" priority="1086" operator="equal">
+  <conditionalFormatting sqref="F69">
+    <cfRule type="containsText" dxfId="972" priority="1073" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F69">
+    <cfRule type="containsText" dxfId="971" priority="1074" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G65">
+    <cfRule type="containsText" dxfId="970" priority="1070" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G65)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="969" priority="1071" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G65)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="968" priority="1072" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G65)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F65">
+    <cfRule type="containsText" dxfId="967" priority="1069" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F65)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="966" priority="1066" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="989" priority="1087" operator="equal">
+    <cfRule type="cellIs" dxfId="965" priority="1067" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="988" priority="1088" operator="equal">
+    <cfRule type="cellIs" dxfId="964" priority="1068" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G66">
-    <cfRule type="containsText" dxfId="987" priority="1089" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G66)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="986" priority="1090" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G66)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="985" priority="1091" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G66)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G66">
-    <cfRule type="containsText" dxfId="984" priority="1095" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G66)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="983" priority="1096" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G66)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="982" priority="1097" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G66)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G66">
-    <cfRule type="containsText" dxfId="981" priority="1098" operator="containsText" text="CLOSED">
-      <formula>NOT(ISERROR(SEARCH("CLOSED",G66)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G66">
-    <cfRule type="containsText" dxfId="980" priority="1092" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G66)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="979" priority="1093" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G66)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="978" priority="1094" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G66)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F66">
-    <cfRule type="containsText" dxfId="977" priority="1079" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F66)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F66">
-    <cfRule type="containsText" dxfId="976" priority="1078" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F66)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G67:G68">
-    <cfRule type="containsText" dxfId="975" priority="1075" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G67)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="974" priority="1076" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G67)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="973" priority="1077" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G67)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F67:F68">
-    <cfRule type="containsText" dxfId="972" priority="1074" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F67)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F67:F68">
-    <cfRule type="containsText" dxfId="971" priority="1073" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F67)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G69">
-    <cfRule type="containsText" dxfId="970" priority="1070" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G69)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="969" priority="1071" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G69)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="968" priority="1072" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G69)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="967" priority="1067" operator="equal">
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="963" priority="1063" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="966" priority="1068" operator="equal">
+    <cfRule type="cellIs" dxfId="962" priority="1064" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="965" priority="1069" operator="equal">
+    <cfRule type="cellIs" dxfId="961" priority="1065" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F69">
-    <cfRule type="containsText" dxfId="964" priority="1065" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F69)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F69">
-    <cfRule type="containsText" dxfId="963" priority="1066" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F69)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G65">
-    <cfRule type="containsText" dxfId="962" priority="1062" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G65)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="961" priority="1063" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G65)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="960" priority="1064" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G65)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F65">
-    <cfRule type="containsText" dxfId="959" priority="1061" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F65)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="958" priority="1058" operator="equal">
+  <conditionalFormatting sqref="F70">
+    <cfRule type="containsText" dxfId="960" priority="1062" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F70)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70:F70">
+    <cfRule type="cellIs" dxfId="959" priority="1059" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="957" priority="1059" operator="equal">
+    <cfRule type="cellIs" dxfId="958" priority="1060" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="956" priority="1060" operator="equal">
+    <cfRule type="cellIs" dxfId="957" priority="1061" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="955" priority="1055" operator="equal">
+  <conditionalFormatting sqref="G70">
+    <cfRule type="containsText" dxfId="956" priority="1056" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G70)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="955" priority="1057" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G70)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="954" priority="1058" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G70)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="953" priority="1055" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="954" priority="1056" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="952" priority="1054" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="953" priority="1057" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="951" priority="1053" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G70">
+    <cfRule type="containsText" dxfId="950" priority="1050" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",G70)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="949" priority="1051" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G70)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="948" priority="1052" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G70)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G70">
+    <cfRule type="containsText" dxfId="947" priority="1047" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH(("0"),(G70))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G70">
+    <cfRule type="containsText" dxfId="946" priority="1046" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH(("Closed"),(G70))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G70">
+    <cfRule type="containsText" dxfId="945" priority="1045" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH(("Open"),(G70))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F70">
-    <cfRule type="containsText" dxfId="952" priority="1054" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="944" priority="1044" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",F70)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E70:F70">
-    <cfRule type="cellIs" dxfId="951" priority="1051" operator="equal">
+  <conditionalFormatting sqref="F71">
+    <cfRule type="containsText" dxfId="943" priority="1040" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F71)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="942" priority="1037" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="950" priority="1052" operator="equal">
+    <cfRule type="cellIs" dxfId="941" priority="1038" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="949" priority="1053" operator="equal">
+    <cfRule type="cellIs" dxfId="940" priority="1039" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G70">
-    <cfRule type="containsText" dxfId="948" priority="1048" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G70)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="947" priority="1049" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G70)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="946" priority="1050" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G70)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="945" priority="1047" operator="equal">
+  <conditionalFormatting sqref="G71">
+    <cfRule type="containsText" dxfId="939" priority="1034" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G71)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="938" priority="1035" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G71)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="937" priority="1036" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G71)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G73">
+    <cfRule type="containsText" dxfId="936" priority="1031" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="935" priority="1032" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="934" priority="1033" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="933" priority="1028" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="944" priority="1046" operator="equal">
+    <cfRule type="cellIs" dxfId="932" priority="1029" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="943" priority="1045" operator="equal">
+    <cfRule type="cellIs" dxfId="931" priority="1030" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G70">
-    <cfRule type="containsText" dxfId="942" priority="1042" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",G70)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="941" priority="1043" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G70)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="940" priority="1044" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G70)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G70">
-    <cfRule type="containsText" dxfId="939" priority="1039" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH(("0"),(G70))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G70">
-    <cfRule type="containsText" dxfId="938" priority="1038" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH(("Closed"),(G70))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G70">
-    <cfRule type="containsText" dxfId="937" priority="1037" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH(("Open"),(G70))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F70">
-    <cfRule type="containsText" dxfId="936" priority="1036" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F70)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F71">
-    <cfRule type="containsText" dxfId="935" priority="1032" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F71)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="934" priority="1029" operator="equal">
+  <conditionalFormatting sqref="F74">
+    <cfRule type="containsText" dxfId="930" priority="1027" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F74)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="929" priority="1024" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="933" priority="1030" operator="equal">
+    <cfRule type="cellIs" dxfId="928" priority="1025" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="932" priority="1031" operator="equal">
+    <cfRule type="cellIs" dxfId="927" priority="1026" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G71">
-    <cfRule type="containsText" dxfId="931" priority="1026" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G71)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="930" priority="1027" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G71)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="929" priority="1028" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G71)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G73">
-    <cfRule type="containsText" dxfId="928" priority="1023" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G73)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="927" priority="1024" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G73)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="926" priority="1025" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G73)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="925" priority="1020" operator="equal">
+  <conditionalFormatting sqref="G74">
+    <cfRule type="containsText" dxfId="926" priority="1021" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G74)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="925" priority="1022" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G74)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="924" priority="1023" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G74)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G74">
+    <cfRule type="containsText" dxfId="923" priority="1020" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH(("0"),(G74))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G74">
+    <cfRule type="containsText" dxfId="922" priority="1019" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH(("Closed"),(G74))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G74">
+    <cfRule type="containsText" dxfId="921" priority="1018" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH(("Open"),(G74))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G75">
+    <cfRule type="containsText" dxfId="920" priority="1015" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G75)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="919" priority="1016" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G75)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="918" priority="1017" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G75)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="917" priority="1012" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="924" priority="1021" operator="equal">
+    <cfRule type="cellIs" dxfId="916" priority="1013" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="923" priority="1022" operator="equal">
+    <cfRule type="cellIs" dxfId="915" priority="1014" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F74">
-    <cfRule type="containsText" dxfId="922" priority="1019" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F74)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="921" priority="1016" operator="equal">
+  <conditionalFormatting sqref="F75">
+    <cfRule type="containsText" dxfId="914" priority="1010" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F75)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F75">
+    <cfRule type="containsText" dxfId="913" priority="1011" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F75)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="912" priority="1007" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="920" priority="1017" operator="equal">
+    <cfRule type="cellIs" dxfId="911" priority="1008" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="919" priority="1018" operator="equal">
+    <cfRule type="cellIs" dxfId="910" priority="1009" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G74">
-    <cfRule type="containsText" dxfId="918" priority="1013" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G74)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="917" priority="1014" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G74)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="916" priority="1015" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G74)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G74">
-    <cfRule type="containsText" dxfId="915" priority="1012" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH(("0"),(G74))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G74">
-    <cfRule type="containsText" dxfId="914" priority="1011" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH(("Closed"),(G74))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G74">
-    <cfRule type="containsText" dxfId="913" priority="1010" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH(("Open"),(G74))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G75">
-    <cfRule type="containsText" dxfId="912" priority="1007" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G75)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="911" priority="1008" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G75)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="910" priority="1009" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G75)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="909" priority="1004" operator="equal">
+  <conditionalFormatting sqref="G77">
+    <cfRule type="containsText" dxfId="909" priority="1004" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G77)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="908" priority="1005" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G77)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="907" priority="1006" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G77)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="cellIs" dxfId="906" priority="996" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="908" priority="1005" operator="equal">
+    <cfRule type="cellIs" dxfId="905" priority="997" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="907" priority="1006" operator="equal">
+    <cfRule type="cellIs" dxfId="904" priority="998" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F75">
-    <cfRule type="containsText" dxfId="906" priority="1002" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F75)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F75">
-    <cfRule type="containsText" dxfId="905" priority="1003" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F75)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="904" priority="999" operator="equal">
+  <conditionalFormatting sqref="F78">
+    <cfRule type="containsText" dxfId="903" priority="1002" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F78)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="902" priority="1003" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F78)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G78">
+    <cfRule type="containsText" dxfId="901" priority="999" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G78)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="900" priority="1000" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G78)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="899" priority="1001" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G78)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79:E80">
+    <cfRule type="cellIs" dxfId="898" priority="985" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="897" priority="986" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="896" priority="987" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="903" priority="1000" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F79:F80">
+    <cfRule type="containsText" dxfId="895" priority="995" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79:F80">
+    <cfRule type="cellIs" dxfId="894" priority="992" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="893" priority="993" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="902" priority="1001" operator="equal">
+    <cfRule type="cellIs" dxfId="892" priority="994" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G77">
-    <cfRule type="containsText" dxfId="901" priority="996" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G77)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="900" priority="997" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G77)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="899" priority="998" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G77)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="898" priority="988" operator="equal">
+  <conditionalFormatting sqref="F79:F80">
+    <cfRule type="containsText" dxfId="891" priority="991" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F79:F80">
+    <cfRule type="containsText" dxfId="890" priority="981" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G79:G80">
+    <cfRule type="containsText" dxfId="889" priority="989" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G79)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="888" priority="990" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G79:G80">
+    <cfRule type="containsText" dxfId="887" priority="988" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G79:G80">
+    <cfRule type="containsText" dxfId="886" priority="983" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH(("Closed"),(G79))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="885" priority="984" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH(("0"),(G79))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G79:G80">
+    <cfRule type="containsText" dxfId="884" priority="982" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH(("Open"),(G79))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G79:G80">
+    <cfRule type="containsText" dxfId="883" priority="978" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G79)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="882" priority="979" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G79)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="881" priority="980" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G80">
+    <cfRule type="containsText" dxfId="880" priority="975" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G80)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="879" priority="976" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G80)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="878" priority="977" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G80)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G80">
+    <cfRule type="containsText" dxfId="877" priority="974" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH(("0"),(G80))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G80">
+    <cfRule type="containsText" dxfId="876" priority="973" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH(("Closed"),(G80))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G80">
+    <cfRule type="containsText" dxfId="875" priority="972" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH(("Open"),(G80))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F80">
+    <cfRule type="containsText" dxfId="874" priority="971" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F80)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80:F80">
+    <cfRule type="cellIs" dxfId="873" priority="968" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="897" priority="989" operator="equal">
+    <cfRule type="cellIs" dxfId="872" priority="969" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="896" priority="990" operator="equal">
+    <cfRule type="cellIs" dxfId="871" priority="970" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F78">
-    <cfRule type="containsText" dxfId="895" priority="994" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F78)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="894" priority="995" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F78)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G78">
-    <cfRule type="containsText" dxfId="893" priority="991" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G78)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="892" priority="992" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G78)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="891" priority="993" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G78)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79:E80">
-    <cfRule type="cellIs" dxfId="890" priority="977" operator="equal">
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="870" priority="967" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="869" priority="966" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="868" priority="965" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="889" priority="978" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F80">
+    <cfRule type="containsText" dxfId="867" priority="962" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F80)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="cellIs" dxfId="866" priority="956" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="865" priority="957" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="888" priority="979" operator="equal">
+    <cfRule type="cellIs" dxfId="864" priority="958" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G81">
+    <cfRule type="containsText" dxfId="863" priority="955" operator="containsText" text="OPEN">
+      <formula>NOT(ISERROR(SEARCH("OPEN",G81)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G81">
+    <cfRule type="containsText" dxfId="862" priority="954" operator="containsText" text="CLOSED">
+      <formula>NOT(ISERROR(SEARCH("CLOSED",G81)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="cellIs" dxfId="861" priority="948" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F79:F80">
-    <cfRule type="containsText" dxfId="887" priority="987" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F79)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79:F80">
-    <cfRule type="cellIs" dxfId="886" priority="984" operator="equal">
+    <cfRule type="cellIs" dxfId="860" priority="949" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="859" priority="950" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F82">
+    <cfRule type="containsText" dxfId="858" priority="946" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="857" priority="947" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",#REF!)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G82">
+    <cfRule type="containsText" dxfId="856" priority="951" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G82)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="855" priority="952" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G82)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="854" priority="953" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G82)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="853" priority="943" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="852" priority="944" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="851" priority="945" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="885" priority="985" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F83">
+    <cfRule type="containsText" dxfId="850" priority="942" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F83)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83:F83">
+    <cfRule type="cellIs" dxfId="849" priority="939" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="848" priority="940" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="884" priority="986" operator="equal">
+    <cfRule type="cellIs" dxfId="847" priority="941" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F79:F80">
-    <cfRule type="containsText" dxfId="883" priority="983" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F79)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F79:F80">
-    <cfRule type="containsText" dxfId="882" priority="973" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F79)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G79:G80">
-    <cfRule type="containsText" dxfId="881" priority="981" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G79)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="880" priority="982" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G79)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G79:G80">
-    <cfRule type="containsText" dxfId="879" priority="980" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G79)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G79:G80">
-    <cfRule type="containsText" dxfId="878" priority="975" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH(("Closed"),(G79))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="877" priority="976" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH(("0"),(G79))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G79:G80">
-    <cfRule type="containsText" dxfId="876" priority="974" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH(("Open"),(G79))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G79:G80">
-    <cfRule type="containsText" dxfId="875" priority="970" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G79)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="874" priority="971" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G79)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="873" priority="972" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G79)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G80">
-    <cfRule type="containsText" dxfId="872" priority="967" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G80)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="871" priority="968" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G80)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="870" priority="969" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G80)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G80">
-    <cfRule type="containsText" dxfId="869" priority="966" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH(("0"),(G80))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G80">
-    <cfRule type="containsText" dxfId="868" priority="965" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH(("Closed"),(G80))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G80">
-    <cfRule type="containsText" dxfId="867" priority="964" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH(("Open"),(G80))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F80">
-    <cfRule type="containsText" dxfId="866" priority="963" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F80)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80:F80">
-    <cfRule type="cellIs" dxfId="865" priority="960" operator="equal">
+  <conditionalFormatting sqref="F83">
+    <cfRule type="containsText" dxfId="846" priority="938" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F83)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F83">
+    <cfRule type="containsText" dxfId="845" priority="937" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F83)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G83">
+    <cfRule type="containsText" dxfId="844" priority="935" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G83)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="843" priority="936" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G83)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G83">
+    <cfRule type="containsText" dxfId="842" priority="934" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G83)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G83">
+    <cfRule type="containsText" dxfId="841" priority="932" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH(("Closed"),(G83))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="840" priority="933" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH(("0"),(G83))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G83">
+    <cfRule type="containsText" dxfId="839" priority="931" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH(("Open"),(G83))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G83">
+    <cfRule type="containsText" dxfId="838" priority="928" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G83)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="837" priority="929" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G83)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="836" priority="930" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G83)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="835" priority="925" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="864" priority="961" operator="equal">
+    <cfRule type="cellIs" dxfId="834" priority="926" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="863" priority="962" operator="equal">
+    <cfRule type="cellIs" dxfId="833" priority="927" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="862" priority="959" operator="equal">
+  <conditionalFormatting sqref="E86:E87">
+    <cfRule type="cellIs" dxfId="832" priority="919" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="861" priority="958" operator="equal">
+    <cfRule type="cellIs" dxfId="831" priority="920" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="860" priority="957" operator="equal">
+    <cfRule type="cellIs" dxfId="830" priority="921" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F80">
-    <cfRule type="containsText" dxfId="859" priority="954" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F80)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="858" priority="948" operator="equal">
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="829" priority="916" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="857" priority="949" operator="equal">
+    <cfRule type="cellIs" dxfId="828" priority="917" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="856" priority="950" operator="equal">
+    <cfRule type="cellIs" dxfId="827" priority="918" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G81">
-    <cfRule type="containsText" dxfId="855" priority="947" operator="containsText" text="OPEN">
-      <formula>NOT(ISERROR(SEARCH("OPEN",G81)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G81">
-    <cfRule type="containsText" dxfId="854" priority="946" operator="containsText" text="CLOSED">
-      <formula>NOT(ISERROR(SEARCH("CLOSED",G81)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="853" priority="940" operator="equal">
+  <conditionalFormatting sqref="G86:G87">
+    <cfRule type="containsText" dxfId="826" priority="913" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",G86)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="825" priority="914" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G86)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="824" priority="915" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G86)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G88:G89">
+    <cfRule type="containsText" dxfId="823" priority="910" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",G88)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="822" priority="911" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G88)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="821" priority="912" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G88)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="820" priority="905" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="852" priority="941" operator="equal">
+    <cfRule type="cellIs" dxfId="819" priority="906" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="851" priority="942" operator="equal">
+    <cfRule type="cellIs" dxfId="818" priority="907" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F82">
-    <cfRule type="containsText" dxfId="850" priority="938" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",#REF!)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="849" priority="939" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",#REF!)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G82">
-    <cfRule type="containsText" dxfId="848" priority="943" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G82)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="847" priority="944" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G82)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="846" priority="945" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G82)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="845" priority="935" operator="equal">
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="817" priority="902" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="816" priority="903" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="815" priority="904" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="844" priority="936" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="814" priority="899" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="813" priority="900" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="843" priority="937" operator="equal">
+    <cfRule type="cellIs" dxfId="812" priority="901" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="811" priority="896" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F83">
-    <cfRule type="containsText" dxfId="842" priority="934" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F83)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83:F83">
-    <cfRule type="cellIs" dxfId="841" priority="931" operator="equal">
+    <cfRule type="cellIs" dxfId="810" priority="897" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="809" priority="898" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="808" priority="893" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="840" priority="932" operator="equal">
+    <cfRule type="cellIs" dxfId="807" priority="894" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="839" priority="933" operator="equal">
+    <cfRule type="cellIs" dxfId="806" priority="895" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F83">
-    <cfRule type="containsText" dxfId="838" priority="930" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F83)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F83">
-    <cfRule type="containsText" dxfId="837" priority="929" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F83)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G83">
-    <cfRule type="containsText" dxfId="836" priority="927" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G83)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="835" priority="928" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G83)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G83">
-    <cfRule type="containsText" dxfId="834" priority="926" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G83)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G83">
-    <cfRule type="containsText" dxfId="833" priority="924" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH(("Closed"),(G83))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="832" priority="925" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH(("0"),(G83))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G83">
-    <cfRule type="containsText" dxfId="831" priority="923" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH(("Open"),(G83))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G83">
-    <cfRule type="containsText" dxfId="830" priority="920" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G83)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="829" priority="921" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G83)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="828" priority="922" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G83)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="827" priority="917" operator="equal">
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="805" priority="890" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="826" priority="918" operator="equal">
+    <cfRule type="cellIs" dxfId="804" priority="891" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="825" priority="919" operator="equal">
+    <cfRule type="cellIs" dxfId="803" priority="892" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E86:E87">
-    <cfRule type="cellIs" dxfId="824" priority="911" operator="equal">
+  <conditionalFormatting sqref="E96:E99">
+    <cfRule type="cellIs" dxfId="802" priority="887" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="823" priority="912" operator="equal">
+    <cfRule type="cellIs" dxfId="801" priority="888" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="822" priority="913" operator="equal">
+    <cfRule type="cellIs" dxfId="800" priority="889" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="821" priority="908" operator="equal">
+  <conditionalFormatting sqref="G96:G99">
+    <cfRule type="containsText" dxfId="799" priority="884" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",G96)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="798" priority="885" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G96)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="797" priority="886" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G96)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100:E103">
+    <cfRule type="cellIs" dxfId="796" priority="881" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="820" priority="909" operator="equal">
+    <cfRule type="cellIs" dxfId="795" priority="882" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="819" priority="910" operator="equal">
+    <cfRule type="cellIs" dxfId="794" priority="883" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G86:G87">
-    <cfRule type="containsText" dxfId="818" priority="905" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",G86)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="817" priority="906" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G86)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="816" priority="907" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G86)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G88:G89">
-    <cfRule type="containsText" dxfId="815" priority="902" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",G88)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="814" priority="903" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G88)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="813" priority="904" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G88)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="812" priority="897" operator="equal">
+  <conditionalFormatting sqref="E102:E103">
+    <cfRule type="cellIs" dxfId="793" priority="878" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="792" priority="879" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="791" priority="880" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="811" priority="898" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G105">
+    <cfRule type="containsText" dxfId="790" priority="875" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G105)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="789" priority="876" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G105)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="788" priority="877" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G105)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105">
+    <cfRule type="cellIs" dxfId="787" priority="872" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="786" priority="873" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="810" priority="899" operator="equal">
+    <cfRule type="cellIs" dxfId="785" priority="874" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="809" priority="894" operator="equal">
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="784" priority="869" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="808" priority="895" operator="equal">
+    <cfRule type="cellIs" dxfId="783" priority="870" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="807" priority="896" operator="equal">
+    <cfRule type="cellIs" dxfId="782" priority="871" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="806" priority="891" operator="equal">
+  <conditionalFormatting sqref="G106">
+    <cfRule type="containsText" dxfId="781" priority="866" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G106)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="780" priority="867" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G106)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="779" priority="868" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G106)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F106">
+    <cfRule type="containsText" dxfId="778" priority="865" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F106)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F106">
+    <cfRule type="containsText" dxfId="777" priority="864" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F106)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F109 F107">
+    <cfRule type="containsText" dxfId="776" priority="862" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F107)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109 E107">
+    <cfRule type="cellIs" dxfId="775" priority="859" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="805" priority="892" operator="equal">
+    <cfRule type="cellIs" dxfId="774" priority="860" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="804" priority="893" operator="equal">
+    <cfRule type="cellIs" dxfId="773" priority="861" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="803" priority="888" operator="equal">
+  <conditionalFormatting sqref="F107:F109">
+    <cfRule type="containsText" dxfId="772" priority="851" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(F107))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107:E109">
+    <cfRule type="cellIs" dxfId="771" priority="850" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="802" priority="889" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107:E109">
+    <cfRule type="cellIs" dxfId="770" priority="849" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="801" priority="890" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107:E109">
+    <cfRule type="cellIs" dxfId="769" priority="848" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="800" priority="885" operator="equal">
+  <conditionalFormatting sqref="G107:G108">
+    <cfRule type="containsText" dxfId="768" priority="845" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH(("0"),(G107))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G107:G108">
+    <cfRule type="containsText" dxfId="767" priority="846" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH(("Closed"),(G107))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G107:G108">
+    <cfRule type="containsText" dxfId="766" priority="847" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH(("Open"),(G107))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G107">
+    <cfRule type="containsText" dxfId="765" priority="842" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G107)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="764" priority="843" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G107)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="763" priority="844" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G107)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F107">
+    <cfRule type="containsText" dxfId="762" priority="841" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F107)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F107">
+    <cfRule type="containsText" dxfId="761" priority="840" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH(("open"),(F107))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G108">
+    <cfRule type="containsText" dxfId="760" priority="835" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH(("0"),(G108))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="759" priority="830" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="799" priority="886" operator="equal">
+    <cfRule type="cellIs" dxfId="758" priority="831" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="798" priority="887" operator="equal">
+    <cfRule type="cellIs" dxfId="757" priority="832" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="797" priority="882" operator="equal">
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="756" priority="827" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="796" priority="883" operator="equal">
+    <cfRule type="cellIs" dxfId="755" priority="828" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="795" priority="884" operator="equal">
+    <cfRule type="cellIs" dxfId="754" priority="829" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E96:E99">
-    <cfRule type="cellIs" dxfId="794" priority="879" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="793" priority="880" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="792" priority="881" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G96:G99">
-    <cfRule type="containsText" dxfId="791" priority="876" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",G96)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="790" priority="877" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G96)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="789" priority="878" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G96)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100:E103">
-    <cfRule type="cellIs" dxfId="788" priority="873" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="787" priority="874" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="786" priority="875" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102:E103">
-    <cfRule type="cellIs" dxfId="785" priority="870" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="784" priority="871" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="783" priority="872" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G105">
-    <cfRule type="containsText" dxfId="782" priority="867" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G105)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="781" priority="868" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G105)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="780" priority="869" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G105)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="779" priority="864" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="778" priority="865" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="777" priority="866" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="776" priority="861" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="775" priority="862" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="774" priority="863" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G106">
-    <cfRule type="containsText" dxfId="773" priority="858" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G106)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="772" priority="859" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G106)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="771" priority="860" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G106)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F106">
-    <cfRule type="containsText" dxfId="770" priority="857" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F106)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F106">
-    <cfRule type="containsText" dxfId="769" priority="856" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F106)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F109 F107">
-    <cfRule type="containsText" dxfId="768" priority="854" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F107)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109 E107">
-    <cfRule type="cellIs" dxfId="767" priority="851" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="766" priority="852" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="765" priority="853" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F107:F109">
-    <cfRule type="containsText" dxfId="764" priority="843" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(F107))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107:E109">
-    <cfRule type="cellIs" dxfId="763" priority="842" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107:E109">
-    <cfRule type="cellIs" dxfId="762" priority="841" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107:E109">
-    <cfRule type="cellIs" dxfId="761" priority="840" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G107:G108">
-    <cfRule type="containsText" dxfId="760" priority="837" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH(("0"),(G107))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G107:G108">
-    <cfRule type="containsText" dxfId="759" priority="838" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH(("Closed"),(G107))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G107:G108">
-    <cfRule type="containsText" dxfId="758" priority="839" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH(("Open"),(G107))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G107">
-    <cfRule type="containsText" dxfId="757" priority="834" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G107)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="756" priority="835" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G107)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="755" priority="836" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G107)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F107">
-    <cfRule type="containsText" dxfId="754" priority="833" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F107)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F107">
-    <cfRule type="containsText" dxfId="753" priority="832" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH(("open"),(F107))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G108">
-    <cfRule type="containsText" dxfId="752" priority="827" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH(("0"),(G108))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="751" priority="822" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="750" priority="823" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="749" priority="824" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
+  <conditionalFormatting sqref="G111">
+    <cfRule type="containsText" dxfId="753" priority="824" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G111)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="752" priority="825" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G111)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="751" priority="826" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G111)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F111">
+    <cfRule type="containsText" dxfId="750" priority="823" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F111)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F111">
+    <cfRule type="containsText" dxfId="749" priority="822" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F111)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
     <cfRule type="cellIs" dxfId="748" priority="819" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
@@ -25081,587 +25273,587 @@
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G111">
-    <cfRule type="containsText" dxfId="745" priority="816" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G111)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="744" priority="817" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G111)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="743" priority="818" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G111)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F111">
-    <cfRule type="containsText" dxfId="742" priority="815" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F111)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F111">
-    <cfRule type="containsText" dxfId="741" priority="814" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F111)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="740" priority="811" operator="equal">
+  <conditionalFormatting sqref="F112">
+    <cfRule type="containsText" dxfId="745" priority="818" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F112)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G112">
+    <cfRule type="containsText" dxfId="744" priority="815" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G112)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="743" priority="816" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G112)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="742" priority="817" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G112)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="cellIs" dxfId="741" priority="812" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="739" priority="812" operator="equal">
+    <cfRule type="cellIs" dxfId="740" priority="813" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="738" priority="813" operator="equal">
+    <cfRule type="cellIs" dxfId="739" priority="814" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F112">
-    <cfRule type="containsText" dxfId="737" priority="810" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F112)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G112">
-    <cfRule type="containsText" dxfId="736" priority="807" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G112)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="735" priority="808" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G112)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="734" priority="809" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G112)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="733" priority="804" operator="equal">
+  <conditionalFormatting sqref="E114">
+    <cfRule type="cellIs" dxfId="738" priority="809" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="732" priority="805" operator="equal">
+    <cfRule type="cellIs" dxfId="737" priority="810" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="731" priority="806" operator="equal">
+    <cfRule type="cellIs" dxfId="736" priority="811" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="730" priority="801" operator="equal">
+  <conditionalFormatting sqref="F115">
+    <cfRule type="containsText" dxfId="735" priority="808" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F115)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115">
+    <cfRule type="cellIs" dxfId="734" priority="805" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="729" priority="802" operator="equal">
+    <cfRule type="cellIs" dxfId="733" priority="806" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="728" priority="803" operator="equal">
+    <cfRule type="cellIs" dxfId="732" priority="807" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F115">
-    <cfRule type="containsText" dxfId="727" priority="800" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F115)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="726" priority="797" operator="equal">
+    <cfRule type="containsText" dxfId="731" priority="804" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F115)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G115">
+    <cfRule type="containsText" dxfId="730" priority="801" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G115)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="729" priority="802" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G115)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="728" priority="803" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G115)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="727" priority="798" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="725" priority="798" operator="equal">
+    <cfRule type="cellIs" dxfId="726" priority="799" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="724" priority="799" operator="equal">
+    <cfRule type="cellIs" dxfId="725" priority="800" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F115">
-    <cfRule type="containsText" dxfId="723" priority="796" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F115)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G115">
-    <cfRule type="containsText" dxfId="722" priority="793" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G115)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="721" priority="794" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G115)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="720" priority="795" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G115)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="719" priority="790" operator="equal">
+  <conditionalFormatting sqref="E117">
+    <cfRule type="cellIs" dxfId="724" priority="795" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="718" priority="791" operator="equal">
+    <cfRule type="cellIs" dxfId="723" priority="796" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="717" priority="792" operator="equal">
+    <cfRule type="cellIs" dxfId="722" priority="797" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="716" priority="787" operator="equal">
+  <conditionalFormatting sqref="G117">
+    <cfRule type="containsText" dxfId="721" priority="792" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G117)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="720" priority="793" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G117)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="719" priority="794" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G117)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F122:F123 F118:F119">
+    <cfRule type="containsText" dxfId="718" priority="791" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F118)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F123:G123 F122 E120:E123 E119:F119 E118">
+    <cfRule type="cellIs" dxfId="717" priority="788" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="715" priority="788" operator="equal">
+    <cfRule type="cellIs" dxfId="716" priority="789" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="714" priority="789" operator="equal">
+    <cfRule type="cellIs" dxfId="715" priority="790" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G117">
-    <cfRule type="containsText" dxfId="713" priority="784" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G117)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="712" priority="785" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G117)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="711" priority="786" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G117)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F122:F123 F118:F119">
-    <cfRule type="containsText" dxfId="710" priority="783" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F118)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F123:G123 F122 E120:E123 E119:F119 E118">
-    <cfRule type="cellIs" dxfId="709" priority="780" operator="equal">
+  <conditionalFormatting sqref="G118:G123">
+    <cfRule type="containsText" dxfId="714" priority="785" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G118)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="713" priority="786" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G118)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="712" priority="787" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G118)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G123 E122:E123 E119">
+    <cfRule type="cellIs" dxfId="711" priority="784" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="708" priority="781" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G123 E122:E123 E119">
+    <cfRule type="cellIs" dxfId="710" priority="783" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="707" priority="782" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G123 E122:E123 E119">
+    <cfRule type="cellIs" dxfId="709" priority="782" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G118:G123">
-    <cfRule type="containsText" dxfId="706" priority="777" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G118)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="705" priority="778" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G118)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="704" priority="779" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G118)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G123 E122:E123 E119">
-    <cfRule type="cellIs" dxfId="703" priority="776" operator="equal">
+  <conditionalFormatting sqref="F122:F123 F119">
+    <cfRule type="containsText" dxfId="708" priority="781" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F119)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122:E123 E119">
+    <cfRule type="cellIs" dxfId="707" priority="778" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="706" priority="779" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="705" priority="780" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G123 E122:E123 E119">
-    <cfRule type="cellIs" dxfId="702" priority="775" operator="equal">
+  <conditionalFormatting sqref="G122:G123 G119">
+    <cfRule type="containsText" dxfId="704" priority="773" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G119)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="703" priority="774" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G119)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G122:G123 G119">
+    <cfRule type="containsText" dxfId="702" priority="772" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G119)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G122:G123 G119">
+    <cfRule type="containsText" dxfId="701" priority="770" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH(("Closed"),(G119))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="700" priority="771" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH(("0"),(G119))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G122:G123 G119">
+    <cfRule type="containsText" dxfId="699" priority="769" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH(("Open"),(G119))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G122:G123">
+    <cfRule type="containsText" dxfId="698" priority="768" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH(("0"),(G122))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G122:G123">
+    <cfRule type="containsText" dxfId="697" priority="767" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH(("Closed"),(G122))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F124">
+    <cfRule type="containsText" dxfId="696" priority="745" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F124)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G124">
+    <cfRule type="containsText" dxfId="695" priority="749" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G124)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="694" priority="750" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G124)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="693" priority="751" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G124)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E124">
+    <cfRule type="cellIs" dxfId="692" priority="746" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="691" priority="747" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G123 E122:E123 E119">
-    <cfRule type="cellIs" dxfId="701" priority="774" operator="equal">
+    <cfRule type="cellIs" dxfId="690" priority="748" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F122:F123 F119">
-    <cfRule type="containsText" dxfId="700" priority="773" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F119)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122:E123 E119">
-    <cfRule type="cellIs" dxfId="699" priority="770" operator="equal">
+  <conditionalFormatting sqref="D124">
+    <cfRule type="containsText" dxfId="689" priority="744" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",#REF!)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E170">
+    <cfRule type="cellIs" dxfId="688" priority="741" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="687" priority="742" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="686" priority="743" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="698" priority="771" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F170">
+    <cfRule type="containsText" dxfId="685" priority="740" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F170)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F170">
+    <cfRule type="containsText" dxfId="684" priority="739" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F170)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G170">
+    <cfRule type="containsText" dxfId="683" priority="736" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G170)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="682" priority="737" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G170)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="681" priority="738" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G170)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G171">
+    <cfRule type="containsText" dxfId="680" priority="733" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G171)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="679" priority="734" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G171)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="678" priority="735" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G171)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E171">
+    <cfRule type="cellIs" dxfId="677" priority="730" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="676" priority="731" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="697" priority="772" operator="equal">
+    <cfRule type="cellIs" dxfId="675" priority="732" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F171">
+    <cfRule type="containsText" dxfId="674" priority="729" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F171)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F171">
+    <cfRule type="containsText" dxfId="673" priority="728" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F171)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E172">
+    <cfRule type="cellIs" dxfId="672" priority="725" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G122:G123 G119">
-    <cfRule type="containsText" dxfId="696" priority="765" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G119)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="695" priority="766" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G119)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G122:G123 G119">
-    <cfRule type="containsText" dxfId="694" priority="764" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G119)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G122:G123 G119">
-    <cfRule type="containsText" dxfId="693" priority="762" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH(("Closed"),(G119))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="692" priority="763" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH(("0"),(G119))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G122:G123 G119">
-    <cfRule type="containsText" dxfId="691" priority="761" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH(("Open"),(G119))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G122:G123">
-    <cfRule type="containsText" dxfId="690" priority="760" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH(("0"),(G122))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G122:G123">
-    <cfRule type="containsText" dxfId="689" priority="759" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH(("Closed"),(G122))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F124">
-    <cfRule type="containsText" dxfId="688" priority="737" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F124)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G124">
-    <cfRule type="containsText" dxfId="687" priority="741" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G124)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="686" priority="742" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G124)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="685" priority="743" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G124)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="684" priority="738" operator="equal">
+    <cfRule type="cellIs" dxfId="671" priority="726" operator="equal">
+      <formula>"Minor"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="670" priority="727" operator="equal">
+      <formula>"Major"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F172">
+    <cfRule type="containsText" dxfId="669" priority="724" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F172)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F172">
+    <cfRule type="containsText" dxfId="668" priority="723" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F172)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F172">
+    <cfRule type="containsText" dxfId="667" priority="722" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F172)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F172">
+    <cfRule type="containsText" dxfId="666" priority="721" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F172)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F172">
+    <cfRule type="containsText" dxfId="665" priority="720" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F172)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F172">
+    <cfRule type="containsText" dxfId="664" priority="719" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F172)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F172">
+    <cfRule type="containsText" dxfId="663" priority="718" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F172)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F172">
+    <cfRule type="containsText" dxfId="662" priority="717" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F172)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G172">
+    <cfRule type="containsText" dxfId="661" priority="714" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G172)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="660" priority="715" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G172)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="659" priority="716" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G172)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G173">
+    <cfRule type="containsText" dxfId="658" priority="711" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G173)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="657" priority="712" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G173)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="656" priority="713" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G173)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E173">
+    <cfRule type="cellIs" dxfId="655" priority="708" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="683" priority="739" operator="equal">
+    <cfRule type="cellIs" dxfId="654" priority="709" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="682" priority="740" operator="equal">
+    <cfRule type="cellIs" dxfId="653" priority="710" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D124">
-    <cfRule type="containsText" dxfId="681" priority="736" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",#REF!)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E170">
-    <cfRule type="cellIs" dxfId="680" priority="733" operator="equal">
+  <conditionalFormatting sqref="F173">
+    <cfRule type="containsText" dxfId="652" priority="707" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F173)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F173">
+    <cfRule type="containsText" dxfId="651" priority="706" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F173)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E174">
+    <cfRule type="cellIs" dxfId="650" priority="703" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="679" priority="734" operator="equal">
+    <cfRule type="cellIs" dxfId="649" priority="704" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="678" priority="735" operator="equal">
+    <cfRule type="cellIs" dxfId="648" priority="705" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F170">
-    <cfRule type="containsText" dxfId="677" priority="732" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F170)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F170">
-    <cfRule type="containsText" dxfId="676" priority="731" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F170)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G170">
-    <cfRule type="containsText" dxfId="675" priority="728" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G170)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="674" priority="729" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G170)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="673" priority="730" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G170)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G171">
-    <cfRule type="containsText" dxfId="672" priority="725" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G171)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="671" priority="726" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G171)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="670" priority="727" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G171)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E171">
-    <cfRule type="cellIs" dxfId="669" priority="722" operator="equal">
+  <conditionalFormatting sqref="F174">
+    <cfRule type="containsText" dxfId="647" priority="702" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F174)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G174">
+    <cfRule type="containsText" dxfId="646" priority="699" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G174)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="645" priority="700" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G174)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="644" priority="701" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G174)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E175">
+    <cfRule type="cellIs" dxfId="643" priority="696" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="668" priority="723" operator="equal">
+    <cfRule type="cellIs" dxfId="642" priority="697" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="667" priority="724" operator="equal">
+    <cfRule type="cellIs" dxfId="641" priority="698" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F171">
-    <cfRule type="containsText" dxfId="666" priority="721" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F171)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F171">
-    <cfRule type="containsText" dxfId="665" priority="720" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F171)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E172">
-    <cfRule type="cellIs" dxfId="664" priority="717" operator="equal">
+  <conditionalFormatting sqref="F175">
+    <cfRule type="containsText" dxfId="640" priority="695" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F175)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G175">
+    <cfRule type="containsText" dxfId="639" priority="692" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G175)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="638" priority="693" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G175)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="637" priority="694" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G175)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F175">
+    <cfRule type="containsText" dxfId="636" priority="691" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F175)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F176">
+    <cfRule type="containsText" dxfId="635" priority="687" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F176)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E176">
+    <cfRule type="cellIs" dxfId="634" priority="688" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="663" priority="718" operator="equal">
+    <cfRule type="cellIs" dxfId="633" priority="689" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="662" priority="719" operator="equal">
+    <cfRule type="cellIs" dxfId="632" priority="690" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F172">
-    <cfRule type="containsText" dxfId="661" priority="716" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F172)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F172">
-    <cfRule type="containsText" dxfId="660" priority="715" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F172)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F172">
-    <cfRule type="containsText" dxfId="659" priority="714" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F172)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F172">
-    <cfRule type="containsText" dxfId="658" priority="713" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F172)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F172">
-    <cfRule type="containsText" dxfId="657" priority="712" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F172)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F172">
-    <cfRule type="containsText" dxfId="656" priority="711" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F172)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F172">
-    <cfRule type="containsText" dxfId="655" priority="710" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F172)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F172">
-    <cfRule type="containsText" dxfId="654" priority="709" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F172)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G172">
-    <cfRule type="containsText" dxfId="653" priority="706" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G172)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="652" priority="707" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G172)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="651" priority="708" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G172)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G173">
-    <cfRule type="containsText" dxfId="650" priority="703" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G173)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="649" priority="704" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G173)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="648" priority="705" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G173)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E173">
-    <cfRule type="cellIs" dxfId="647" priority="700" operator="equal">
+  <conditionalFormatting sqref="G176">
+    <cfRule type="containsText" dxfId="631" priority="684" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G176)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="630" priority="685" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G176)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="629" priority="686" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G176)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E177:E178">
+    <cfRule type="cellIs" dxfId="628" priority="681" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="646" priority="701" operator="equal">
+    <cfRule type="cellIs" dxfId="627" priority="682" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="645" priority="702" operator="equal">
+    <cfRule type="cellIs" dxfId="626" priority="683" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F173">
-    <cfRule type="containsText" dxfId="644" priority="699" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F173)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F173">
-    <cfRule type="containsText" dxfId="643" priority="698" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F173)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E174">
-    <cfRule type="cellIs" dxfId="642" priority="695" operator="equal">
+  <conditionalFormatting sqref="G177:G178">
+    <cfRule type="containsText" dxfId="625" priority="678" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",G177)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="624" priority="679" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G177)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="623" priority="680" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G177)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G177">
+    <cfRule type="containsText" dxfId="622" priority="675" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G177)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="621" priority="676" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G177)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="620" priority="677" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G177)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F178 B178:C178">
+    <cfRule type="containsText" dxfId="619" priority="674" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",B178)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E178">
+    <cfRule type="cellIs" dxfId="618" priority="673" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="641" priority="696" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E178">
+    <cfRule type="cellIs" dxfId="617" priority="672" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="640" priority="697" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E178">
+    <cfRule type="cellIs" dxfId="616" priority="671" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F174">
-    <cfRule type="containsText" dxfId="639" priority="694" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F174)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G174">
-    <cfRule type="containsText" dxfId="638" priority="691" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G174)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="637" priority="692" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G174)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="636" priority="693" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G174)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E175">
-    <cfRule type="cellIs" dxfId="635" priority="688" operator="equal">
+  <conditionalFormatting sqref="G179">
+    <cfRule type="containsText" dxfId="615" priority="668" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G179)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="614" priority="669" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G179)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="613" priority="670" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G179)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E179">
+    <cfRule type="cellIs" dxfId="612" priority="665" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="634" priority="689" operator="equal">
+    <cfRule type="cellIs" dxfId="611" priority="666" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="633" priority="690" operator="equal">
+    <cfRule type="cellIs" dxfId="610" priority="667" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F175">
-    <cfRule type="containsText" dxfId="632" priority="687" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F175)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G175">
-    <cfRule type="containsText" dxfId="631" priority="684" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G175)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="630" priority="685" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G175)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="629" priority="686" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G175)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F175">
-    <cfRule type="containsText" dxfId="628" priority="683" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F175)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F176">
-    <cfRule type="containsText" dxfId="627" priority="679" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F176)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E176">
-    <cfRule type="cellIs" dxfId="626" priority="680" operator="equal">
+  <conditionalFormatting sqref="E180">
+    <cfRule type="cellIs" dxfId="609" priority="662" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="625" priority="681" operator="equal">
+    <cfRule type="cellIs" dxfId="608" priority="663" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="624" priority="682" operator="equal">
+    <cfRule type="cellIs" dxfId="607" priority="664" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G176">
-    <cfRule type="containsText" dxfId="623" priority="676" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G176)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="622" priority="677" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G176)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="621" priority="678" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G176)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E177:E178">
-    <cfRule type="cellIs" dxfId="620" priority="673" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="619" priority="674" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="618" priority="675" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G177:G178">
-    <cfRule type="containsText" dxfId="617" priority="670" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",G177)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="616" priority="671" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G177)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="615" priority="672" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G177)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G177">
-    <cfRule type="containsText" dxfId="614" priority="667" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G177)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="613" priority="668" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G177)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="612" priority="669" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G177)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F178 B178:C178">
-    <cfRule type="containsText" dxfId="611" priority="666" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",B178)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E178">
-    <cfRule type="cellIs" dxfId="610" priority="665" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E178">
-    <cfRule type="cellIs" dxfId="609" priority="664" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E178">
-    <cfRule type="cellIs" dxfId="608" priority="663" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G179">
-    <cfRule type="containsText" dxfId="607" priority="660" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G179)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="606" priority="661" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G179)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="605" priority="662" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G179)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E179">
-    <cfRule type="cellIs" dxfId="604" priority="657" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="603" priority="658" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="602" priority="659" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E180">
+  <conditionalFormatting sqref="F180">
+    <cfRule type="containsText" dxfId="606" priority="661" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F180)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F180">
+    <cfRule type="containsText" dxfId="605" priority="660" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F180)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G180">
+    <cfRule type="containsText" dxfId="604" priority="657" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G180)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="603" priority="658" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G180)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="602" priority="659" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G180)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E181">
     <cfRule type="cellIs" dxfId="601" priority="654" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
@@ -25672,126 +25864,126 @@
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F180">
-    <cfRule type="containsText" dxfId="598" priority="653" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F180)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F180">
-    <cfRule type="containsText" dxfId="597" priority="652" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F180)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G180">
-    <cfRule type="containsText" dxfId="596" priority="649" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G180)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="595" priority="650" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G180)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="594" priority="651" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G180)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E181">
-    <cfRule type="cellIs" dxfId="593" priority="646" operator="equal">
+  <conditionalFormatting sqref="G181">
+    <cfRule type="containsText" dxfId="598" priority="651" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G181)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="597" priority="652" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G181)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="596" priority="653" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G181)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F181">
+    <cfRule type="containsText" dxfId="595" priority="650" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F181)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F181">
+    <cfRule type="containsText" dxfId="594" priority="649" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F181)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G182">
+    <cfRule type="containsText" dxfId="593" priority="646" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G182)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="592" priority="647" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G182)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="591" priority="648" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G182)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E182">
+    <cfRule type="cellIs" dxfId="590" priority="643" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="592" priority="647" operator="equal">
+    <cfRule type="cellIs" dxfId="589" priority="644" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="591" priority="648" operator="equal">
+    <cfRule type="cellIs" dxfId="588" priority="645" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G181">
-    <cfRule type="containsText" dxfId="590" priority="643" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G181)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="589" priority="644" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G181)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="588" priority="645" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G181)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F181">
-    <cfRule type="containsText" dxfId="587" priority="642" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F181)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F181">
-    <cfRule type="containsText" dxfId="586" priority="641" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F181)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G182">
-    <cfRule type="containsText" dxfId="585" priority="638" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G182)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="584" priority="639" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G182)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="583" priority="640" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G182)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E182">
-    <cfRule type="cellIs" dxfId="582" priority="635" operator="equal">
+  <conditionalFormatting sqref="G183:G185">
+    <cfRule type="containsText" dxfId="587" priority="637" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G183)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="586" priority="638" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G183)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="585" priority="639" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G183)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E183:E185">
+    <cfRule type="cellIs" dxfId="584" priority="640" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="581" priority="636" operator="equal">
+    <cfRule type="cellIs" dxfId="583" priority="641" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="580" priority="637" operator="equal">
+    <cfRule type="cellIs" dxfId="582" priority="642" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G183:G185">
-    <cfRule type="containsText" dxfId="579" priority="629" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G183)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="578" priority="630" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G183)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="577" priority="631" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G183)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E183:E185">
-    <cfRule type="cellIs" dxfId="576" priority="632" operator="equal">
+  <conditionalFormatting sqref="E186">
+    <cfRule type="cellIs" dxfId="581" priority="634" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="575" priority="633" operator="equal">
+    <cfRule type="cellIs" dxfId="580" priority="635" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="574" priority="634" operator="equal">
+    <cfRule type="cellIs" dxfId="579" priority="636" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E186">
-    <cfRule type="cellIs" dxfId="573" priority="626" operator="equal">
+  <conditionalFormatting sqref="G186">
+    <cfRule type="containsText" dxfId="578" priority="631" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G186)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="577" priority="632" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G186)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="576" priority="633" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G186)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E187">
+    <cfRule type="cellIs" dxfId="575" priority="628" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="572" priority="627" operator="equal">
+    <cfRule type="cellIs" dxfId="574" priority="629" operator="equal">
       <formula>"Minor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="571" priority="628" operator="equal">
+    <cfRule type="cellIs" dxfId="573" priority="630" operator="equal">
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G186">
+  <conditionalFormatting sqref="F187">
+    <cfRule type="containsText" dxfId="572" priority="627" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F187)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F187">
+    <cfRule type="containsText" dxfId="571" priority="626" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F187)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G187">
     <cfRule type="containsText" dxfId="570" priority="623" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G186)))</formula>
+      <formula>NOT(ISERROR(SEARCH("0",G187)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="569" priority="624" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G186)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Closed",G187)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="568" priority="625" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G186)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E187">
+      <formula>NOT(ISERROR(SEARCH("Open",G187)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E188">
     <cfRule type="cellIs" dxfId="567" priority="620" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
@@ -25802,28 +25994,28 @@
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F187">
+  <conditionalFormatting sqref="F188">
     <cfRule type="containsText" dxfId="564" priority="619" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F187)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F187">
+      <formula>NOT(ISERROR(SEARCH("open",F188)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F188">
     <cfRule type="containsText" dxfId="563" priority="618" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F187)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G187">
+      <formula>NOT(ISERROR(SEARCH("closed",F188)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G188">
     <cfRule type="containsText" dxfId="562" priority="615" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G187)))</formula>
+      <formula>NOT(ISERROR(SEARCH("0",G188)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="561" priority="616" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G187)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Closed",G188)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="560" priority="617" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G187)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E188">
+      <formula>NOT(ISERROR(SEARCH("Open",G188)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E189">
     <cfRule type="cellIs" dxfId="559" priority="612" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
@@ -25834,28 +26026,28 @@
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F188">
-    <cfRule type="containsText" dxfId="556" priority="611" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F188)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F188">
-    <cfRule type="containsText" dxfId="555" priority="610" operator="containsText" text="closed">
-      <formula>NOT(ISERROR(SEARCH("closed",F188)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G188">
-    <cfRule type="containsText" dxfId="554" priority="607" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G188)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="553" priority="608" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G188)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="552" priority="609" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G188)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E189">
+  <conditionalFormatting sqref="G189">
+    <cfRule type="containsText" dxfId="556" priority="607" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G189)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="555" priority="608" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G189)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="554" priority="609" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G189)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F189">
+    <cfRule type="containsText" dxfId="553" priority="610" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",#REF!)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F189">
+    <cfRule type="containsText" dxfId="552" priority="611" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",#REF!)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E190">
     <cfRule type="cellIs" dxfId="551" priority="604" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
@@ -25866,2118 +26058,2118 @@
       <formula>"Major"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G189">
-    <cfRule type="containsText" dxfId="548" priority="599" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G189)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="547" priority="600" operator="containsText" text="Closed">
-      <formula>NOT(ISERROR(SEARCH("Closed",G189)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="546" priority="601" operator="containsText" text="Open">
-      <formula>NOT(ISERROR(SEARCH("Open",G189)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F189">
-    <cfRule type="containsText" dxfId="545" priority="602" operator="containsText" text="open">
+  <conditionalFormatting sqref="F190">
+    <cfRule type="containsText" dxfId="548" priority="602" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",#REF!)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F189">
-    <cfRule type="containsText" dxfId="544" priority="603" operator="containsText" text="closed">
+  <conditionalFormatting sqref="F190">
+    <cfRule type="containsText" dxfId="547" priority="603" operator="containsText" text="closed">
       <formula>NOT(ISERROR(SEARCH("closed",#REF!)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E190">
-    <cfRule type="cellIs" dxfId="543" priority="596" operator="equal">
+  <conditionalFormatting sqref="G190">
+    <cfRule type="containsText" dxfId="546" priority="599" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G190)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="545" priority="600" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G190)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="544" priority="601" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G190)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F191">
+    <cfRule type="containsText" dxfId="543" priority="598" operator="containsText" text="open">
+      <formula>NOT(ISERROR(SEARCH("open",F191)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F191">
+    <cfRule type="containsText" dxfId="542" priority="597" operator="containsText" text="closed">
+      <formula>NOT(ISERROR(SEARCH("closed",F191)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G191">
+    <cfRule type="containsText" dxfId="541" priority="591" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",G191)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="540" priority="592" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",G191)))</formu